--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Web Project\01.Wohhup\WebApp_Module_Worker\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D44CCA3-9DEB-41B1-838C-7010953361CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5735B224-E153-4333-8460-95C769D6C21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{BFEB54BF-4B62-4EA6-9F53-9AFF9774BA13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
-    <t>term plate</t>
+    <t>DIRECT WORKERS</t>
+  </si>
+  <si>
+    <t>SL No</t>
+  </si>
+  <si>
+    <t>Worker Code</t>
+  </si>
+  <si>
+    <t>Worker Name</t>
+  </si>
+  <si>
+    <t>Site Code</t>
+  </si>
+  <si>
+    <t>DDT Levy</t>
+  </si>
+  <si>
+    <t>Adj. 
+Wages</t>
+  </si>
+  <si>
+    <t>Total Hrs</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +76,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -59,12 +116,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,6 +284,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1314615</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1070">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE416410-C987-4950-88C0-26E34B01190B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="161925" y="38101"/>
+          <a:ext cx="2619540" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,21 +661,1777 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F39C9-EB8D-4E4F-B374-70270671A75B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C1F6-A6F9-461E-9FE3-2DB54235E96B}">
+  <dimension ref="A1:FK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:167" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:167" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="8"/>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="8"/>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8"/>
+      <c r="CI5" s="8"/>
+      <c r="CJ5" s="8"/>
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="8"/>
+      <c r="CM5" s="8"/>
+      <c r="CN5" s="8"/>
+      <c r="CO5" s="8"/>
+      <c r="CP5" s="8"/>
+      <c r="CQ5" s="8"/>
+      <c r="CR5" s="8"/>
+      <c r="CS5" s="8"/>
+      <c r="CT5" s="8"/>
+      <c r="CU5" s="8"/>
+      <c r="CV5" s="8"/>
+      <c r="CW5" s="8"/>
+      <c r="CX5" s="8"/>
+      <c r="CY5" s="8"/>
+      <c r="CZ5" s="8"/>
+      <c r="DA5" s="8"/>
+      <c r="DB5" s="8"/>
+      <c r="DC5" s="8"/>
+      <c r="DD5" s="8"/>
+      <c r="DE5" s="8"/>
+      <c r="DF5" s="8"/>
+      <c r="DG5" s="8"/>
+      <c r="DH5" s="8"/>
+      <c r="DI5" s="8"/>
+      <c r="DJ5" s="8"/>
+      <c r="DK5" s="8"/>
+      <c r="DL5" s="8"/>
+      <c r="DM5" s="8"/>
+      <c r="DN5" s="8"/>
+      <c r="DO5" s="8"/>
+      <c r="DP5" s="8"/>
+      <c r="DQ5" s="8"/>
+      <c r="DR5" s="8"/>
+      <c r="DS5" s="8"/>
+      <c r="DT5" s="8"/>
+      <c r="DU5" s="8"/>
+      <c r="DV5" s="8"/>
+      <c r="DW5" s="8"/>
+      <c r="DX5" s="8"/>
+    </row>
+    <row r="6" spans="1:167" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18">
+        <v>44035</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18">
+        <f>L6+1</f>
+        <v>44036</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="18">
+        <f t="shared" ref="R6" si="0">O6+1</f>
+        <v>44037</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="18">
+        <f t="shared" ref="U6" si="1">R6+1</f>
+        <v>44038</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="18">
+        <f t="shared" ref="X6" si="2">U6+1</f>
+        <v>44039</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="18">
+        <f t="shared" ref="AA6" si="3">X6+1</f>
+        <v>44040</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="18">
+        <f t="shared" ref="AD6" si="4">AA6+1</f>
+        <v>44041</v>
+      </c>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18">
+        <f t="shared" ref="AG6" si="5">AD6+1</f>
+        <v>44042</v>
+      </c>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="18">
+        <f t="shared" ref="AJ6" si="6">AG6+1</f>
+        <v>44043</v>
+      </c>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="18">
+        <f t="shared" ref="AM6" si="7">AJ6+1</f>
+        <v>44044</v>
+      </c>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="18">
+        <f t="shared" ref="AP6" si="8">AM6+1</f>
+        <v>44045</v>
+      </c>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="18">
+        <f t="shared" ref="AS6" si="9">AP6+1</f>
+        <v>44046</v>
+      </c>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="18">
+        <f t="shared" ref="AV6" si="10">AS6+1</f>
+        <v>44047</v>
+      </c>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="18">
+        <f t="shared" ref="AY6" si="11">AV6+1</f>
+        <v>44048</v>
+      </c>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="18">
+        <f t="shared" ref="BB6" si="12">AY6+1</f>
+        <v>44049</v>
+      </c>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="18">
+        <f t="shared" ref="BE6" si="13">BB6+1</f>
+        <v>44050</v>
+      </c>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="18">
+        <f t="shared" ref="BH6" si="14">BE6+1</f>
+        <v>44051</v>
+      </c>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="18">
+        <f t="shared" ref="BK6" si="15">BH6+1</f>
+        <v>44052</v>
+      </c>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="18">
+        <f t="shared" ref="BN6" si="16">BK6+1</f>
+        <v>44053</v>
+      </c>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="18">
+        <f t="shared" ref="BQ6" si="17">BN6+1</f>
+        <v>44054</v>
+      </c>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="18">
+        <f t="shared" ref="BT6" si="18">BQ6+1</f>
+        <v>44055</v>
+      </c>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="18">
+        <f t="shared" ref="BW6" si="19">BT6+1</f>
+        <v>44056</v>
+      </c>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="18">
+        <f t="shared" ref="BZ6" si="20">BW6+1</f>
+        <v>44057</v>
+      </c>
+      <c r="CA6" s="19"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="18">
+        <f t="shared" ref="CC6" si="21">BZ6+1</f>
+        <v>44058</v>
+      </c>
+      <c r="CD6" s="19"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="18">
+        <f t="shared" ref="CF6" si="22">CC6+1</f>
+        <v>44059</v>
+      </c>
+      <c r="CG6" s="19"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="18">
+        <f t="shared" ref="CI6" si="23">CF6+1</f>
+        <v>44060</v>
+      </c>
+      <c r="CJ6" s="19"/>
+      <c r="CK6" s="20"/>
+      <c r="CL6" s="18">
+        <f t="shared" ref="CL6" si="24">CI6+1</f>
+        <v>44061</v>
+      </c>
+      <c r="CM6" s="19"/>
+      <c r="CN6" s="20"/>
+      <c r="CO6" s="18">
+        <f t="shared" ref="CO6" si="25">CL6+1</f>
+        <v>44062</v>
+      </c>
+      <c r="CP6" s="19"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="18">
+        <f t="shared" ref="CR6" si="26">CO6+1</f>
+        <v>44063</v>
+      </c>
+      <c r="CS6" s="19"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="18">
+        <f t="shared" ref="CU6" si="27">CR6+1</f>
+        <v>44064</v>
+      </c>
+      <c r="CV6" s="19"/>
+      <c r="CW6" s="20"/>
+      <c r="CX6" s="18">
+        <f t="shared" ref="CX6" si="28">CU6+1</f>
+        <v>44065</v>
+      </c>
+      <c r="CY6" s="19"/>
+      <c r="CZ6" s="20"/>
+      <c r="DA6" s="18">
+        <f t="shared" ref="DA6" si="29">CX6+1</f>
+        <v>44066</v>
+      </c>
+      <c r="DB6" s="19"/>
+      <c r="DC6" s="20"/>
+      <c r="DD6" s="18">
+        <f t="shared" ref="DD6" si="30">DA6+1</f>
+        <v>44067</v>
+      </c>
+      <c r="DE6" s="19"/>
+      <c r="DF6" s="20"/>
+      <c r="DG6" s="18">
+        <f t="shared" ref="DG6" si="31">DD6+1</f>
+        <v>44068</v>
+      </c>
+      <c r="DH6" s="19"/>
+      <c r="DI6" s="20"/>
+      <c r="DJ6" s="18">
+        <f t="shared" ref="DJ6" si="32">DG6+1</f>
+        <v>44069</v>
+      </c>
+      <c r="DK6" s="19"/>
+      <c r="DL6" s="20"/>
+      <c r="DM6" s="18">
+        <f t="shared" ref="DM6" si="33">DJ6+1</f>
+        <v>44070</v>
+      </c>
+      <c r="DN6" s="19"/>
+      <c r="DO6" s="20"/>
+      <c r="DP6" s="18">
+        <f t="shared" ref="DP6" si="34">DM6+1</f>
+        <v>44071</v>
+      </c>
+      <c r="DQ6" s="19"/>
+      <c r="DR6" s="20"/>
+      <c r="DS6" s="18">
+        <f t="shared" ref="DS6" si="35">DP6+1</f>
+        <v>44072</v>
+      </c>
+      <c r="DT6" s="19"/>
+      <c r="DU6" s="20"/>
+      <c r="DV6" s="18">
+        <f t="shared" ref="DV6" si="36">DS6+1</f>
+        <v>44073</v>
+      </c>
+      <c r="DW6" s="19"/>
+      <c r="DX6" s="20"/>
+      <c r="DY6" s="18">
+        <f t="shared" ref="DY6" si="37">DV6+1</f>
+        <v>44074</v>
+      </c>
+      <c r="DZ6" s="19"/>
+      <c r="EA6" s="20"/>
+      <c r="EB6" s="18">
+        <f t="shared" ref="EB6" si="38">DY6+1</f>
+        <v>44075</v>
+      </c>
+      <c r="EC6" s="19"/>
+      <c r="ED6" s="20"/>
+      <c r="EE6" s="18">
+        <f t="shared" ref="EE6" si="39">EB6+1</f>
+        <v>44076</v>
+      </c>
+      <c r="EF6" s="19"/>
+      <c r="EG6" s="20"/>
+      <c r="EH6" s="18">
+        <f t="shared" ref="EH6" si="40">EE6+1</f>
+        <v>44077</v>
+      </c>
+      <c r="EI6" s="19"/>
+      <c r="EJ6" s="20"/>
+      <c r="EK6" s="18">
+        <f t="shared" ref="EK6" si="41">EH6+1</f>
+        <v>44078</v>
+      </c>
+      <c r="EL6" s="19"/>
+      <c r="EM6" s="20"/>
+      <c r="EN6" s="18">
+        <f t="shared" ref="EN6" si="42">EK6+1</f>
+        <v>44079</v>
+      </c>
+      <c r="EO6" s="19"/>
+      <c r="EP6" s="20"/>
+      <c r="EQ6" s="18">
+        <f t="shared" ref="EQ6" si="43">EN6+1</f>
+        <v>44080</v>
+      </c>
+      <c r="ER6" s="19"/>
+      <c r="ES6" s="20"/>
+      <c r="ET6" s="18">
+        <f t="shared" ref="ET6" si="44">EQ6+1</f>
+        <v>44081</v>
+      </c>
+      <c r="EU6" s="19"/>
+      <c r="EV6" s="20"/>
+      <c r="EW6" s="18">
+        <f t="shared" ref="EW6" si="45">ET6+1</f>
+        <v>44082</v>
+      </c>
+      <c r="EX6" s="19"/>
+      <c r="EY6" s="20"/>
+      <c r="EZ6" s="18">
+        <f t="shared" ref="EZ6" si="46">EW6+1</f>
+        <v>44083</v>
+      </c>
+      <c r="FA6" s="19"/>
+      <c r="FB6" s="20"/>
+      <c r="FC6" s="18">
+        <f t="shared" ref="FC6" si="47">EZ6+1</f>
+        <v>44084</v>
+      </c>
+      <c r="FD6" s="19"/>
+      <c r="FE6" s="20"/>
+      <c r="FF6" s="18">
+        <f t="shared" ref="FF6" si="48">FC6+1</f>
+        <v>44085</v>
+      </c>
+      <c r="FG6" s="19"/>
+      <c r="FH6" s="20"/>
+      <c r="FI6" s="18">
+        <f t="shared" ref="FI6" si="49">FF6+1</f>
+        <v>44086</v>
+      </c>
+      <c r="FJ6" s="19"/>
+      <c r="FK6" s="20"/>
+    </row>
+    <row r="7" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="4">
+        <v>2</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="W7" s="4">
+        <v>2</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BS7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BT7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BV7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BW7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="BY7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CB7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CE7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CH7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CK7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CL7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CN7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CQ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CT7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CW7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CY7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="CZ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DA7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DB7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DC7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DD7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DF7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DG7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DH7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DI7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DJ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DL7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DM7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DN7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DO7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DP7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DQ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DR7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DS7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DT7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DU7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DV7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DW7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="DX7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DY7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DZ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EA7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EB7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EC7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="ED7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EE7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EF7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EG7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EH7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EI7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EJ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EK7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EL7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EM7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EN7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EO7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EP7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EQ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="ER7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="ES7" s="4">
+        <v>2</v>
+      </c>
+      <c r="ET7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EU7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EV7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EW7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="EX7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="EY7" s="4">
+        <v>2</v>
+      </c>
+      <c r="EZ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FA7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FB7" s="4">
+        <v>2</v>
+      </c>
+      <c r="FC7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FD7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FE7" s="4">
+        <v>2</v>
+      </c>
+      <c r="FF7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FG7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FH7" s="4">
+        <v>2</v>
+      </c>
+      <c r="FI7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FJ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FK7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <f>SUMIF($L$7:$FL$7,$I$7,L8:FL8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f>SUMIF($L$7:$FL$7,$J$7,L8:FL8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f>SUMIF($L$7:$FL$7,$K$7,L8:FL8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="5"/>
+      <c r="CV8" s="5"/>
+      <c r="CW8" s="5"/>
+      <c r="CX8" s="5"/>
+      <c r="CY8" s="5"/>
+      <c r="CZ8" s="5"/>
+      <c r="DA8" s="5"/>
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="5"/>
+      <c r="DD8" s="5"/>
+      <c r="DE8" s="5"/>
+      <c r="DF8" s="5"/>
+      <c r="DG8" s="5"/>
+      <c r="DH8" s="5"/>
+      <c r="DI8" s="5"/>
+      <c r="DJ8" s="5"/>
+      <c r="DK8" s="5"/>
+      <c r="DL8" s="5"/>
+      <c r="DM8" s="5"/>
+      <c r="DN8" s="5"/>
+      <c r="DO8" s="5"/>
+      <c r="DP8" s="5"/>
+      <c r="DQ8" s="5"/>
+      <c r="DR8" s="5"/>
+      <c r="DS8" s="5"/>
+      <c r="DT8" s="5"/>
+      <c r="DU8" s="5"/>
+      <c r="DV8" s="5"/>
+      <c r="DW8" s="5"/>
+      <c r="DX8" s="5"/>
+      <c r="DY8" s="5"/>
+      <c r="DZ8" s="5"/>
+      <c r="EA8" s="5"/>
+      <c r="EB8" s="5"/>
+      <c r="EC8" s="5"/>
+      <c r="ED8" s="5"/>
+      <c r="EE8" s="5"/>
+      <c r="EF8" s="5"/>
+      <c r="EG8" s="5"/>
+      <c r="EH8" s="5"/>
+      <c r="EI8" s="5"/>
+      <c r="EJ8" s="5"/>
+      <c r="EK8" s="5"/>
+      <c r="EL8" s="5"/>
+      <c r="EM8" s="5"/>
+      <c r="EN8" s="5"/>
+      <c r="EO8" s="5"/>
+      <c r="EP8" s="5"/>
+      <c r="EQ8" s="5"/>
+      <c r="ER8" s="5"/>
+      <c r="ES8" s="5"/>
+      <c r="ET8" s="5"/>
+      <c r="EU8" s="5"/>
+      <c r="EV8" s="5"/>
+      <c r="EW8" s="5"/>
+      <c r="EX8" s="5"/>
+      <c r="EY8" s="5"/>
+      <c r="EZ8" s="5"/>
+      <c r="FA8" s="5"/>
+      <c r="FB8" s="5"/>
+      <c r="FC8" s="5"/>
+      <c r="FD8" s="5"/>
+      <c r="FE8" s="5"/>
+      <c r="FF8" s="5"/>
+      <c r="FG8" s="5"/>
+      <c r="FH8" s="5"/>
+      <c r="FI8" s="5"/>
+      <c r="FJ8" s="5"/>
+      <c r="FK8" s="5"/>
+    </row>
+    <row r="9" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="6"/>
+      <c r="CK9" s="6"/>
+      <c r="CL9" s="6"/>
+      <c r="CM9" s="6"/>
+      <c r="CN9" s="6"/>
+      <c r="CO9" s="6"/>
+      <c r="CP9" s="6"/>
+      <c r="CQ9" s="6"/>
+      <c r="CR9" s="6"/>
+      <c r="CS9" s="6"/>
+      <c r="CT9" s="6"/>
+      <c r="CU9" s="6"/>
+      <c r="CV9" s="6"/>
+      <c r="CW9" s="6"/>
+      <c r="CX9" s="6"/>
+      <c r="CY9" s="6"/>
+      <c r="CZ9" s="6"/>
+      <c r="DA9" s="6"/>
+      <c r="DB9" s="6"/>
+      <c r="DC9" s="6"/>
+      <c r="DD9" s="6"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="6"/>
+      <c r="DK9" s="6"/>
+      <c r="DL9" s="6"/>
+      <c r="DM9" s="6"/>
+      <c r="DN9" s="6"/>
+      <c r="DO9" s="6"/>
+      <c r="DP9" s="6"/>
+      <c r="DQ9" s="6"/>
+      <c r="DR9" s="6"/>
+      <c r="DS9" s="6"/>
+      <c r="DT9" s="6"/>
+      <c r="DU9" s="6"/>
+      <c r="DV9" s="6"/>
+      <c r="DW9" s="6"/>
+      <c r="DX9" s="6"/>
+    </row>
+    <row r="10" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="6"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="6"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="6"/>
+      <c r="BZ10" s="6"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="6"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="6"/>
+      <c r="CK10" s="6"/>
+      <c r="CL10" s="6"/>
+      <c r="CM10" s="6"/>
+      <c r="CN10" s="6"/>
+      <c r="CO10" s="6"/>
+      <c r="CP10" s="6"/>
+      <c r="CQ10" s="6"/>
+      <c r="CR10" s="6"/>
+      <c r="CS10" s="6"/>
+      <c r="CT10" s="6"/>
+      <c r="CU10" s="6"/>
+      <c r="CV10" s="6"/>
+      <c r="CW10" s="6"/>
+      <c r="CX10" s="6"/>
+      <c r="CY10" s="6"/>
+      <c r="CZ10" s="6"/>
+      <c r="DA10" s="6"/>
+      <c r="DB10" s="6"/>
+      <c r="DC10" s="6"/>
+      <c r="DD10" s="6"/>
+      <c r="DE10" s="6"/>
+      <c r="DF10" s="6"/>
+      <c r="DG10" s="6"/>
+      <c r="DH10" s="6"/>
+      <c r="DI10" s="6"/>
+      <c r="DJ10" s="6"/>
+      <c r="DK10" s="6"/>
+      <c r="DL10" s="6"/>
+      <c r="DM10" s="6"/>
+      <c r="DN10" s="6"/>
+      <c r="DO10" s="6"/>
+      <c r="DP10" s="6"/>
+      <c r="DQ10" s="6"/>
+      <c r="DR10" s="6"/>
+      <c r="DS10" s="6"/>
+      <c r="DT10" s="6"/>
+      <c r="DU10" s="6"/>
+      <c r="DV10" s="6"/>
+      <c r="DW10" s="6"/>
+      <c r="DX10" s="6"/>
+    </row>
+    <row r="11" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="6"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="6"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="6"/>
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="6"/>
+      <c r="CH11" s="6"/>
+      <c r="CI11" s="6"/>
+      <c r="CJ11" s="6"/>
+      <c r="CK11" s="6"/>
+      <c r="CL11" s="6"/>
+      <c r="CM11" s="6"/>
+      <c r="CN11" s="6"/>
+      <c r="CO11" s="6"/>
+      <c r="CP11" s="6"/>
+      <c r="CQ11" s="6"/>
+      <c r="CR11" s="6"/>
+      <c r="CS11" s="6"/>
+      <c r="CT11" s="6"/>
+      <c r="CU11" s="6"/>
+      <c r="CV11" s="6"/>
+      <c r="CW11" s="6"/>
+      <c r="CX11" s="6"/>
+      <c r="CY11" s="6"/>
+      <c r="CZ11" s="6"/>
+      <c r="DA11" s="6"/>
+      <c r="DB11" s="6"/>
+      <c r="DC11" s="6"/>
+      <c r="DD11" s="6"/>
+      <c r="DE11" s="6"/>
+      <c r="DF11" s="6"/>
+      <c r="DG11" s="6"/>
+      <c r="DH11" s="6"/>
+      <c r="DI11" s="6"/>
+      <c r="DJ11" s="6"/>
+      <c r="DK11" s="6"/>
+      <c r="DL11" s="6"/>
+      <c r="DM11" s="6"/>
+      <c r="DN11" s="6"/>
+      <c r="DO11" s="6"/>
+      <c r="DP11" s="6"/>
+      <c r="DQ11" s="6"/>
+      <c r="DR11" s="6"/>
+      <c r="DS11" s="6"/>
+      <c r="DT11" s="6"/>
+      <c r="DU11" s="6"/>
+      <c r="DV11" s="6"/>
+      <c r="DW11" s="6"/>
+      <c r="DX11" s="6"/>
+    </row>
+    <row r="12" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="6"/>
+      <c r="BR12" s="6"/>
+      <c r="BS12" s="6"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="6"/>
+      <c r="BV12" s="6"/>
+      <c r="BW12" s="6"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="6"/>
+      <c r="BZ12" s="6"/>
+      <c r="CA12" s="6"/>
+      <c r="CB12" s="6"/>
+      <c r="CC12" s="6"/>
+      <c r="CD12" s="6"/>
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="6"/>
+      <c r="CH12" s="6"/>
+      <c r="CI12" s="6"/>
+      <c r="CJ12" s="6"/>
+      <c r="CK12" s="6"/>
+      <c r="CL12" s="6"/>
+      <c r="CM12" s="6"/>
+      <c r="CN12" s="6"/>
+      <c r="CO12" s="6"/>
+      <c r="CP12" s="6"/>
+      <c r="CQ12" s="6"/>
+      <c r="CR12" s="6"/>
+      <c r="CS12" s="6"/>
+      <c r="CT12" s="6"/>
+      <c r="CU12" s="6"/>
+      <c r="CV12" s="6"/>
+      <c r="CW12" s="6"/>
+      <c r="CX12" s="6"/>
+      <c r="CY12" s="6"/>
+      <c r="CZ12" s="6"/>
+      <c r="DA12" s="6"/>
+      <c r="DB12" s="6"/>
+      <c r="DC12" s="6"/>
+      <c r="DD12" s="6"/>
+      <c r="DE12" s="6"/>
+      <c r="DF12" s="6"/>
+      <c r="DG12" s="6"/>
+      <c r="DH12" s="6"/>
+      <c r="DI12" s="6"/>
+      <c r="DJ12" s="6"/>
+      <c r="DK12" s="6"/>
+      <c r="DL12" s="6"/>
+      <c r="DM12" s="6"/>
+      <c r="DN12" s="6"/>
+      <c r="DO12" s="6"/>
+      <c r="DP12" s="6"/>
+      <c r="DQ12" s="6"/>
+      <c r="DR12" s="6"/>
+      <c r="DS12" s="6"/>
+      <c r="DT12" s="6"/>
+      <c r="DU12" s="6"/>
+      <c r="DV12" s="6"/>
+      <c r="DW12" s="6"/>
+      <c r="DX12" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="FC6:FE6"/>
+    <mergeCell ref="FF6:FH6"/>
+    <mergeCell ref="FI6:FK6"/>
+    <mergeCell ref="EN6:EP6"/>
+    <mergeCell ref="EQ6:ES6"/>
+    <mergeCell ref="ET6:EV6"/>
+    <mergeCell ref="EW6:EY6"/>
+    <mergeCell ref="EZ6:FB6"/>
+    <mergeCell ref="DY6:EA6"/>
+    <mergeCell ref="EB6:ED6"/>
+    <mergeCell ref="EE6:EG6"/>
+    <mergeCell ref="EH6:EJ6"/>
+    <mergeCell ref="EK6:EM6"/>
+    <mergeCell ref="DM6:DO6"/>
+    <mergeCell ref="DP6:DR6"/>
+    <mergeCell ref="DS6:DU6"/>
+    <mergeCell ref="DV6:DX6"/>
+    <mergeCell ref="CX6:CZ6"/>
+    <mergeCell ref="DA6:DC6"/>
+    <mergeCell ref="DD6:DF6"/>
+    <mergeCell ref="DG6:DI6"/>
+    <mergeCell ref="DJ6:DL6"/>
+    <mergeCell ref="CI6:CK6"/>
+    <mergeCell ref="CL6:CN6"/>
+    <mergeCell ref="CO6:CQ6"/>
+    <mergeCell ref="CR6:CT6"/>
+    <mergeCell ref="CU6:CW6"/>
+    <mergeCell ref="BT6:BV6"/>
+    <mergeCell ref="BW6:BY6"/>
+    <mergeCell ref="BZ6:CB6"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CF6:CH6"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Web Project\01.Wohhup\WebApp_Module_Worker\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5735B224-E153-4333-8460-95C769D6C21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C44455-D21F-4548-B364-8D730742D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wage" sheetId="1" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -63,12 +64,63 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>WORKER'S INCENTIVE POINTS DETAILED REPORT</t>
+  </si>
+  <si>
+    <t>WORKERS LIST SUMMARY FORM - PAYROLL MONTH OF MAY 2021 (23/04/2021 TO  22/05/2021 INCENTIVE POINTS)</t>
+  </si>
+  <si>
+    <t>S/NO</t>
+  </si>
+  <si>
+    <t>WORKER CODE</t>
+  </si>
+  <si>
+    <t>WORKER NAME</t>
+  </si>
+  <si>
+    <t>INCENTIVE POINTS</t>
+  </si>
+  <si>
+    <t>Total Workers =</t>
+  </si>
+  <si>
+    <t>Home Leave</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Incentive Points = </t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Medical (MC)</t>
+  </si>
+  <si>
+    <t>Course / Training</t>
+  </si>
+  <si>
+    <t>Public Holiday (PH)</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +145,113 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +264,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -203,11 +402,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +522,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,7 +711,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,9 +1106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C1F6-A6F9-461E-9FE3-2DB54235E96B}">
   <dimension ref="A1:FK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,19 +1126,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:167" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
@@ -715,19 +1157,19 @@
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:167" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -847,348 +1289,348 @@
       <c r="DX5" s="8"/>
     </row>
     <row r="6" spans="1:167" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18">
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74">
         <v>44035</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="18">
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="74">
         <f>L6+1</f>
         <v>44036</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="18">
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="74">
         <f t="shared" ref="R6" si="0">O6+1</f>
         <v>44037</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="18">
+      <c r="S6" s="75"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="74">
         <f t="shared" ref="U6" si="1">R6+1</f>
         <v>44038</v>
       </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="18">
+      <c r="V6" s="75"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="74">
         <f t="shared" ref="X6" si="2">U6+1</f>
         <v>44039</v>
       </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="18">
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="74">
         <f t="shared" ref="AA6" si="3">X6+1</f>
         <v>44040</v>
       </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="18">
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="74">
         <f t="shared" ref="AD6" si="4">AA6+1</f>
         <v>44041</v>
       </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18">
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="74">
         <f t="shared" ref="AG6" si="5">AD6+1</f>
         <v>44042</v>
       </c>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="18">
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="74">
         <f t="shared" ref="AJ6" si="6">AG6+1</f>
         <v>44043</v>
       </c>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="18">
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="74">
         <f t="shared" ref="AM6" si="7">AJ6+1</f>
         <v>44044</v>
       </c>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="18">
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="74">
         <f t="shared" ref="AP6" si="8">AM6+1</f>
         <v>44045</v>
       </c>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="18">
+      <c r="AQ6" s="75"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="74">
         <f t="shared" ref="AS6" si="9">AP6+1</f>
         <v>44046</v>
       </c>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="18">
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="74">
         <f t="shared" ref="AV6" si="10">AS6+1</f>
         <v>44047</v>
       </c>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="18">
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="74">
         <f t="shared" ref="AY6" si="11">AV6+1</f>
         <v>44048</v>
       </c>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="20"/>
-      <c r="BB6" s="18">
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="74">
         <f t="shared" ref="BB6" si="12">AY6+1</f>
         <v>44049</v>
       </c>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="18">
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="74">
         <f t="shared" ref="BE6" si="13">BB6+1</f>
         <v>44050</v>
       </c>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="18">
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="76"/>
+      <c r="BH6" s="74">
         <f t="shared" ref="BH6" si="14">BE6+1</f>
         <v>44051</v>
       </c>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="18">
+      <c r="BI6" s="75"/>
+      <c r="BJ6" s="76"/>
+      <c r="BK6" s="74">
         <f t="shared" ref="BK6" si="15">BH6+1</f>
         <v>44052</v>
       </c>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="20"/>
-      <c r="BN6" s="18">
+      <c r="BL6" s="75"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="74">
         <f t="shared" ref="BN6" si="16">BK6+1</f>
         <v>44053</v>
       </c>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="20"/>
-      <c r="BQ6" s="18">
+      <c r="BO6" s="75"/>
+      <c r="BP6" s="76"/>
+      <c r="BQ6" s="74">
         <f t="shared" ref="BQ6" si="17">BN6+1</f>
         <v>44054</v>
       </c>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="20"/>
-      <c r="BT6" s="18">
+      <c r="BR6" s="75"/>
+      <c r="BS6" s="76"/>
+      <c r="BT6" s="74">
         <f t="shared" ref="BT6" si="18">BQ6+1</f>
         <v>44055</v>
       </c>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="20"/>
-      <c r="BW6" s="18">
+      <c r="BU6" s="75"/>
+      <c r="BV6" s="76"/>
+      <c r="BW6" s="74">
         <f t="shared" ref="BW6" si="19">BT6+1</f>
         <v>44056</v>
       </c>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="20"/>
-      <c r="BZ6" s="18">
+      <c r="BX6" s="75"/>
+      <c r="BY6" s="76"/>
+      <c r="BZ6" s="74">
         <f t="shared" ref="BZ6" si="20">BW6+1</f>
         <v>44057</v>
       </c>
-      <c r="CA6" s="19"/>
-      <c r="CB6" s="20"/>
-      <c r="CC6" s="18">
+      <c r="CA6" s="75"/>
+      <c r="CB6" s="76"/>
+      <c r="CC6" s="74">
         <f t="shared" ref="CC6" si="21">BZ6+1</f>
         <v>44058</v>
       </c>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="20"/>
-      <c r="CF6" s="18">
+      <c r="CD6" s="75"/>
+      <c r="CE6" s="76"/>
+      <c r="CF6" s="74">
         <f t="shared" ref="CF6" si="22">CC6+1</f>
         <v>44059</v>
       </c>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="20"/>
-      <c r="CI6" s="18">
+      <c r="CG6" s="75"/>
+      <c r="CH6" s="76"/>
+      <c r="CI6" s="74">
         <f t="shared" ref="CI6" si="23">CF6+1</f>
         <v>44060</v>
       </c>
-      <c r="CJ6" s="19"/>
-      <c r="CK6" s="20"/>
-      <c r="CL6" s="18">
+      <c r="CJ6" s="75"/>
+      <c r="CK6" s="76"/>
+      <c r="CL6" s="74">
         <f t="shared" ref="CL6" si="24">CI6+1</f>
         <v>44061</v>
       </c>
-      <c r="CM6" s="19"/>
-      <c r="CN6" s="20"/>
-      <c r="CO6" s="18">
+      <c r="CM6" s="75"/>
+      <c r="CN6" s="76"/>
+      <c r="CO6" s="74">
         <f t="shared" ref="CO6" si="25">CL6+1</f>
         <v>44062</v>
       </c>
-      <c r="CP6" s="19"/>
-      <c r="CQ6" s="20"/>
-      <c r="CR6" s="18">
+      <c r="CP6" s="75"/>
+      <c r="CQ6" s="76"/>
+      <c r="CR6" s="74">
         <f t="shared" ref="CR6" si="26">CO6+1</f>
         <v>44063</v>
       </c>
-      <c r="CS6" s="19"/>
-      <c r="CT6" s="20"/>
-      <c r="CU6" s="18">
+      <c r="CS6" s="75"/>
+      <c r="CT6" s="76"/>
+      <c r="CU6" s="74">
         <f t="shared" ref="CU6" si="27">CR6+1</f>
         <v>44064</v>
       </c>
-      <c r="CV6" s="19"/>
-      <c r="CW6" s="20"/>
-      <c r="CX6" s="18">
+      <c r="CV6" s="75"/>
+      <c r="CW6" s="76"/>
+      <c r="CX6" s="74">
         <f t="shared" ref="CX6" si="28">CU6+1</f>
         <v>44065</v>
       </c>
-      <c r="CY6" s="19"/>
-      <c r="CZ6" s="20"/>
-      <c r="DA6" s="18">
+      <c r="CY6" s="75"/>
+      <c r="CZ6" s="76"/>
+      <c r="DA6" s="74">
         <f t="shared" ref="DA6" si="29">CX6+1</f>
         <v>44066</v>
       </c>
-      <c r="DB6" s="19"/>
-      <c r="DC6" s="20"/>
-      <c r="DD6" s="18">
+      <c r="DB6" s="75"/>
+      <c r="DC6" s="76"/>
+      <c r="DD6" s="74">
         <f t="shared" ref="DD6" si="30">DA6+1</f>
         <v>44067</v>
       </c>
-      <c r="DE6" s="19"/>
-      <c r="DF6" s="20"/>
-      <c r="DG6" s="18">
+      <c r="DE6" s="75"/>
+      <c r="DF6" s="76"/>
+      <c r="DG6" s="74">
         <f t="shared" ref="DG6" si="31">DD6+1</f>
         <v>44068</v>
       </c>
-      <c r="DH6" s="19"/>
-      <c r="DI6" s="20"/>
-      <c r="DJ6" s="18">
+      <c r="DH6" s="75"/>
+      <c r="DI6" s="76"/>
+      <c r="DJ6" s="74">
         <f t="shared" ref="DJ6" si="32">DG6+1</f>
         <v>44069</v>
       </c>
-      <c r="DK6" s="19"/>
-      <c r="DL6" s="20"/>
-      <c r="DM6" s="18">
+      <c r="DK6" s="75"/>
+      <c r="DL6" s="76"/>
+      <c r="DM6" s="74">
         <f t="shared" ref="DM6" si="33">DJ6+1</f>
         <v>44070</v>
       </c>
-      <c r="DN6" s="19"/>
-      <c r="DO6" s="20"/>
-      <c r="DP6" s="18">
+      <c r="DN6" s="75"/>
+      <c r="DO6" s="76"/>
+      <c r="DP6" s="74">
         <f t="shared" ref="DP6" si="34">DM6+1</f>
         <v>44071</v>
       </c>
-      <c r="DQ6" s="19"/>
-      <c r="DR6" s="20"/>
-      <c r="DS6" s="18">
+      <c r="DQ6" s="75"/>
+      <c r="DR6" s="76"/>
+      <c r="DS6" s="74">
         <f t="shared" ref="DS6" si="35">DP6+1</f>
         <v>44072</v>
       </c>
-      <c r="DT6" s="19"/>
-      <c r="DU6" s="20"/>
-      <c r="DV6" s="18">
+      <c r="DT6" s="75"/>
+      <c r="DU6" s="76"/>
+      <c r="DV6" s="74">
         <f t="shared" ref="DV6" si="36">DS6+1</f>
         <v>44073</v>
       </c>
-      <c r="DW6" s="19"/>
-      <c r="DX6" s="20"/>
-      <c r="DY6" s="18">
+      <c r="DW6" s="75"/>
+      <c r="DX6" s="76"/>
+      <c r="DY6" s="74">
         <f t="shared" ref="DY6" si="37">DV6+1</f>
         <v>44074</v>
       </c>
-      <c r="DZ6" s="19"/>
-      <c r="EA6" s="20"/>
-      <c r="EB6" s="18">
+      <c r="DZ6" s="75"/>
+      <c r="EA6" s="76"/>
+      <c r="EB6" s="74">
         <f t="shared" ref="EB6" si="38">DY6+1</f>
         <v>44075</v>
       </c>
-      <c r="EC6" s="19"/>
-      <c r="ED6" s="20"/>
-      <c r="EE6" s="18">
+      <c r="EC6" s="75"/>
+      <c r="ED6" s="76"/>
+      <c r="EE6" s="74">
         <f t="shared" ref="EE6" si="39">EB6+1</f>
         <v>44076</v>
       </c>
-      <c r="EF6" s="19"/>
-      <c r="EG6" s="20"/>
-      <c r="EH6" s="18">
+      <c r="EF6" s="75"/>
+      <c r="EG6" s="76"/>
+      <c r="EH6" s="74">
         <f t="shared" ref="EH6" si="40">EE6+1</f>
         <v>44077</v>
       </c>
-      <c r="EI6" s="19"/>
-      <c r="EJ6" s="20"/>
-      <c r="EK6" s="18">
+      <c r="EI6" s="75"/>
+      <c r="EJ6" s="76"/>
+      <c r="EK6" s="74">
         <f t="shared" ref="EK6" si="41">EH6+1</f>
         <v>44078</v>
       </c>
-      <c r="EL6" s="19"/>
-      <c r="EM6" s="20"/>
-      <c r="EN6" s="18">
+      <c r="EL6" s="75"/>
+      <c r="EM6" s="76"/>
+      <c r="EN6" s="74">
         <f t="shared" ref="EN6" si="42">EK6+1</f>
         <v>44079</v>
       </c>
-      <c r="EO6" s="19"/>
-      <c r="EP6" s="20"/>
-      <c r="EQ6" s="18">
+      <c r="EO6" s="75"/>
+      <c r="EP6" s="76"/>
+      <c r="EQ6" s="74">
         <f t="shared" ref="EQ6" si="43">EN6+1</f>
         <v>44080</v>
       </c>
-      <c r="ER6" s="19"/>
-      <c r="ES6" s="20"/>
-      <c r="ET6" s="18">
+      <c r="ER6" s="75"/>
+      <c r="ES6" s="76"/>
+      <c r="ET6" s="74">
         <f t="shared" ref="ET6" si="44">EQ6+1</f>
         <v>44081</v>
       </c>
-      <c r="EU6" s="19"/>
-      <c r="EV6" s="20"/>
-      <c r="EW6" s="18">
+      <c r="EU6" s="75"/>
+      <c r="EV6" s="76"/>
+      <c r="EW6" s="74">
         <f t="shared" ref="EW6" si="45">ET6+1</f>
         <v>44082</v>
       </c>
-      <c r="EX6" s="19"/>
-      <c r="EY6" s="20"/>
-      <c r="EZ6" s="18">
+      <c r="EX6" s="75"/>
+      <c r="EY6" s="76"/>
+      <c r="EZ6" s="74">
         <f t="shared" ref="EZ6" si="46">EW6+1</f>
         <v>44083</v>
       </c>
-      <c r="FA6" s="19"/>
-      <c r="FB6" s="20"/>
-      <c r="FC6" s="18">
+      <c r="FA6" s="75"/>
+      <c r="FB6" s="76"/>
+      <c r="FC6" s="74">
         <f t="shared" ref="FC6" si="47">EZ6+1</f>
         <v>44084</v>
       </c>
-      <c r="FD6" s="19"/>
-      <c r="FE6" s="20"/>
-      <c r="FF6" s="18">
+      <c r="FD6" s="75"/>
+      <c r="FE6" s="76"/>
+      <c r="FF6" s="74">
         <f t="shared" ref="FF6" si="48">FC6+1</f>
         <v>44085</v>
       </c>
-      <c r="FG6" s="19"/>
-      <c r="FH6" s="20"/>
-      <c r="FI6" s="18">
+      <c r="FG6" s="75"/>
+      <c r="FH6" s="76"/>
+      <c r="FI6" s="74">
         <f t="shared" ref="FI6" si="49">FF6+1</f>
         <v>44086</v>
       </c>
-      <c r="FJ6" s="19"/>
-      <c r="FK6" s="20"/>
+      <c r="FJ6" s="75"/>
+      <c r="FK6" s="76"/>
     </row>
     <row r="7" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2434,4 +2876,957 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992195C-6099-4F4F-9774-B0A0A335235C}">
+  <dimension ref="A1:AL50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="61" customWidth="1"/>
+    <col min="4" max="35" width="5.42578125" style="10" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" style="18" customWidth="1"/>
+    <col min="38" max="256" width="9.140625" style="18"/>
+    <col min="257" max="257" width="5.140625" style="18" customWidth="1"/>
+    <col min="258" max="258" width="12.85546875" style="18" customWidth="1"/>
+    <col min="259" max="259" width="37.28515625" style="18" customWidth="1"/>
+    <col min="260" max="291" width="5.42578125" style="18" customWidth="1"/>
+    <col min="292" max="292" width="13.28515625" style="18" customWidth="1"/>
+    <col min="293" max="293" width="12.42578125" style="18" customWidth="1"/>
+    <col min="294" max="512" width="9.140625" style="18"/>
+    <col min="513" max="513" width="5.140625" style="18" customWidth="1"/>
+    <col min="514" max="514" width="12.85546875" style="18" customWidth="1"/>
+    <col min="515" max="515" width="37.28515625" style="18" customWidth="1"/>
+    <col min="516" max="547" width="5.42578125" style="18" customWidth="1"/>
+    <col min="548" max="548" width="13.28515625" style="18" customWidth="1"/>
+    <col min="549" max="549" width="12.42578125" style="18" customWidth="1"/>
+    <col min="550" max="768" width="9.140625" style="18"/>
+    <col min="769" max="769" width="5.140625" style="18" customWidth="1"/>
+    <col min="770" max="770" width="12.85546875" style="18" customWidth="1"/>
+    <col min="771" max="771" width="37.28515625" style="18" customWidth="1"/>
+    <col min="772" max="803" width="5.42578125" style="18" customWidth="1"/>
+    <col min="804" max="804" width="13.28515625" style="18" customWidth="1"/>
+    <col min="805" max="805" width="12.42578125" style="18" customWidth="1"/>
+    <col min="806" max="1024" width="9.140625" style="18"/>
+    <col min="1025" max="1025" width="5.140625" style="18" customWidth="1"/>
+    <col min="1026" max="1026" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1027" max="1027" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1028" max="1059" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1060" max="1060" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1061" max="1061" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1062" max="1280" width="9.140625" style="18"/>
+    <col min="1281" max="1281" width="5.140625" style="18" customWidth="1"/>
+    <col min="1282" max="1282" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1283" max="1283" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1284" max="1315" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1316" max="1316" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1317" max="1317" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1318" max="1536" width="9.140625" style="18"/>
+    <col min="1537" max="1537" width="5.140625" style="18" customWidth="1"/>
+    <col min="1538" max="1538" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1539" max="1539" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1540" max="1571" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1572" max="1572" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1573" max="1573" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1574" max="1792" width="9.140625" style="18"/>
+    <col min="1793" max="1793" width="5.140625" style="18" customWidth="1"/>
+    <col min="1794" max="1794" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1795" max="1795" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1796" max="1827" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1828" max="1828" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1829" max="1829" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1830" max="2048" width="9.140625" style="18"/>
+    <col min="2049" max="2049" width="5.140625" style="18" customWidth="1"/>
+    <col min="2050" max="2050" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2051" max="2051" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2052" max="2083" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2084" max="2084" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2085" max="2085" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2086" max="2304" width="9.140625" style="18"/>
+    <col min="2305" max="2305" width="5.140625" style="18" customWidth="1"/>
+    <col min="2306" max="2306" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2307" max="2307" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2308" max="2339" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2340" max="2340" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2341" max="2341" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2342" max="2560" width="9.140625" style="18"/>
+    <col min="2561" max="2561" width="5.140625" style="18" customWidth="1"/>
+    <col min="2562" max="2562" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2563" max="2563" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2564" max="2595" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2596" max="2596" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2597" max="2597" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2598" max="2816" width="9.140625" style="18"/>
+    <col min="2817" max="2817" width="5.140625" style="18" customWidth="1"/>
+    <col min="2818" max="2818" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2819" max="2819" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2820" max="2851" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2852" max="2852" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2853" max="2853" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2854" max="3072" width="9.140625" style="18"/>
+    <col min="3073" max="3073" width="5.140625" style="18" customWidth="1"/>
+    <col min="3074" max="3074" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3075" max="3075" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3076" max="3107" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3108" max="3108" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3109" max="3109" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3110" max="3328" width="9.140625" style="18"/>
+    <col min="3329" max="3329" width="5.140625" style="18" customWidth="1"/>
+    <col min="3330" max="3330" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3331" max="3331" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3332" max="3363" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3364" max="3364" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3365" max="3365" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3366" max="3584" width="9.140625" style="18"/>
+    <col min="3585" max="3585" width="5.140625" style="18" customWidth="1"/>
+    <col min="3586" max="3586" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3587" max="3587" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3588" max="3619" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3620" max="3620" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3621" max="3621" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3622" max="3840" width="9.140625" style="18"/>
+    <col min="3841" max="3841" width="5.140625" style="18" customWidth="1"/>
+    <col min="3842" max="3842" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3843" max="3843" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3844" max="3875" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3876" max="3876" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3877" max="3877" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3878" max="4096" width="9.140625" style="18"/>
+    <col min="4097" max="4097" width="5.140625" style="18" customWidth="1"/>
+    <col min="4098" max="4098" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4099" max="4099" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4100" max="4131" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4132" max="4132" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4133" max="4133" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4134" max="4352" width="9.140625" style="18"/>
+    <col min="4353" max="4353" width="5.140625" style="18" customWidth="1"/>
+    <col min="4354" max="4354" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4355" max="4355" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4356" max="4387" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4388" max="4388" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4389" max="4389" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4390" max="4608" width="9.140625" style="18"/>
+    <col min="4609" max="4609" width="5.140625" style="18" customWidth="1"/>
+    <col min="4610" max="4610" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4611" max="4611" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4612" max="4643" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4644" max="4644" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4645" max="4645" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4646" max="4864" width="9.140625" style="18"/>
+    <col min="4865" max="4865" width="5.140625" style="18" customWidth="1"/>
+    <col min="4866" max="4866" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4867" max="4867" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4868" max="4899" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4900" max="4900" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4901" max="4901" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4902" max="5120" width="9.140625" style="18"/>
+    <col min="5121" max="5121" width="5.140625" style="18" customWidth="1"/>
+    <col min="5122" max="5122" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5123" max="5123" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5124" max="5155" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5156" max="5156" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5157" max="5157" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5158" max="5376" width="9.140625" style="18"/>
+    <col min="5377" max="5377" width="5.140625" style="18" customWidth="1"/>
+    <col min="5378" max="5378" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5379" max="5379" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5380" max="5411" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5412" max="5412" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5413" max="5413" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5414" max="5632" width="9.140625" style="18"/>
+    <col min="5633" max="5633" width="5.140625" style="18" customWidth="1"/>
+    <col min="5634" max="5634" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5635" max="5635" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5636" max="5667" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5668" max="5668" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5669" max="5669" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5670" max="5888" width="9.140625" style="18"/>
+    <col min="5889" max="5889" width="5.140625" style="18" customWidth="1"/>
+    <col min="5890" max="5890" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5891" max="5891" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5892" max="5923" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5924" max="5924" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5925" max="5925" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5926" max="6144" width="9.140625" style="18"/>
+    <col min="6145" max="6145" width="5.140625" style="18" customWidth="1"/>
+    <col min="6146" max="6146" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6147" max="6147" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6148" max="6179" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6180" max="6180" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6181" max="6181" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6182" max="6400" width="9.140625" style="18"/>
+    <col min="6401" max="6401" width="5.140625" style="18" customWidth="1"/>
+    <col min="6402" max="6402" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6403" max="6403" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6404" max="6435" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6436" max="6436" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6437" max="6437" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6438" max="6656" width="9.140625" style="18"/>
+    <col min="6657" max="6657" width="5.140625" style="18" customWidth="1"/>
+    <col min="6658" max="6658" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6659" max="6659" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6660" max="6691" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6692" max="6692" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6693" max="6693" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6694" max="6912" width="9.140625" style="18"/>
+    <col min="6913" max="6913" width="5.140625" style="18" customWidth="1"/>
+    <col min="6914" max="6914" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6915" max="6915" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6916" max="6947" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6948" max="6948" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6949" max="6949" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6950" max="7168" width="9.140625" style="18"/>
+    <col min="7169" max="7169" width="5.140625" style="18" customWidth="1"/>
+    <col min="7170" max="7170" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7171" max="7171" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7172" max="7203" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7204" max="7204" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7205" max="7205" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7206" max="7424" width="9.140625" style="18"/>
+    <col min="7425" max="7425" width="5.140625" style="18" customWidth="1"/>
+    <col min="7426" max="7426" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7427" max="7427" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7428" max="7459" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7460" max="7460" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7461" max="7461" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7462" max="7680" width="9.140625" style="18"/>
+    <col min="7681" max="7681" width="5.140625" style="18" customWidth="1"/>
+    <col min="7682" max="7682" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7683" max="7683" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7684" max="7715" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7716" max="7716" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7717" max="7717" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7718" max="7936" width="9.140625" style="18"/>
+    <col min="7937" max="7937" width="5.140625" style="18" customWidth="1"/>
+    <col min="7938" max="7938" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7939" max="7939" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7940" max="7971" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7972" max="7972" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7973" max="7973" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7974" max="8192" width="9.140625" style="18"/>
+    <col min="8193" max="8193" width="5.140625" style="18" customWidth="1"/>
+    <col min="8194" max="8194" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8195" max="8195" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8196" max="8227" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8228" max="8228" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8229" max="8229" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8230" max="8448" width="9.140625" style="18"/>
+    <col min="8449" max="8449" width="5.140625" style="18" customWidth="1"/>
+    <col min="8450" max="8450" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8451" max="8451" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8452" max="8483" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8484" max="8484" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8485" max="8485" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8486" max="8704" width="9.140625" style="18"/>
+    <col min="8705" max="8705" width="5.140625" style="18" customWidth="1"/>
+    <col min="8706" max="8706" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8707" max="8707" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8708" max="8739" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8740" max="8740" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8741" max="8741" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8742" max="8960" width="9.140625" style="18"/>
+    <col min="8961" max="8961" width="5.140625" style="18" customWidth="1"/>
+    <col min="8962" max="8962" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8963" max="8963" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8964" max="8995" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8996" max="8996" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8997" max="8997" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8998" max="9216" width="9.140625" style="18"/>
+    <col min="9217" max="9217" width="5.140625" style="18" customWidth="1"/>
+    <col min="9218" max="9218" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9219" max="9219" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9220" max="9251" width="5.42578125" style="18" customWidth="1"/>
+    <col min="9252" max="9252" width="13.28515625" style="18" customWidth="1"/>
+    <col min="9253" max="9253" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9254" max="9472" width="9.140625" style="18"/>
+    <col min="9473" max="9473" width="5.140625" style="18" customWidth="1"/>
+    <col min="9474" max="9474" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9475" max="9475" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9476" max="9507" width="5.42578125" style="18" customWidth="1"/>
+    <col min="9508" max="9508" width="13.28515625" style="18" customWidth="1"/>
+    <col min="9509" max="9509" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9510" max="9728" width="9.140625" style="18"/>
+    <col min="9729" max="9729" width="5.140625" style="18" customWidth="1"/>
+    <col min="9730" max="9730" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9731" max="9731" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9732" max="9763" width="5.42578125" style="18" customWidth="1"/>
+    <col min="9764" max="9764" width="13.28515625" style="18" customWidth="1"/>
+    <col min="9765" max="9765" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9766" max="9984" width="9.140625" style="18"/>
+    <col min="9985" max="9985" width="5.140625" style="18" customWidth="1"/>
+    <col min="9986" max="9986" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9987" max="9987" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9988" max="10019" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10020" max="10020" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10021" max="10021" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10022" max="10240" width="9.140625" style="18"/>
+    <col min="10241" max="10241" width="5.140625" style="18" customWidth="1"/>
+    <col min="10242" max="10242" width="12.85546875" style="18" customWidth="1"/>
+    <col min="10243" max="10243" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10244" max="10275" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10276" max="10276" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10277" max="10277" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10278" max="10496" width="9.140625" style="18"/>
+    <col min="10497" max="10497" width="5.140625" style="18" customWidth="1"/>
+    <col min="10498" max="10498" width="12.85546875" style="18" customWidth="1"/>
+    <col min="10499" max="10499" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10500" max="10531" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10532" max="10532" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10533" max="10533" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10534" max="10752" width="9.140625" style="18"/>
+    <col min="10753" max="10753" width="5.140625" style="18" customWidth="1"/>
+    <col min="10754" max="10754" width="12.85546875" style="18" customWidth="1"/>
+    <col min="10755" max="10755" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10756" max="10787" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10788" max="10788" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10789" max="10789" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10790" max="11008" width="9.140625" style="18"/>
+    <col min="11009" max="11009" width="5.140625" style="18" customWidth="1"/>
+    <col min="11010" max="11010" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11011" max="11011" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11012" max="11043" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11044" max="11044" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11045" max="11045" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11046" max="11264" width="9.140625" style="18"/>
+    <col min="11265" max="11265" width="5.140625" style="18" customWidth="1"/>
+    <col min="11266" max="11266" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11267" max="11267" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11268" max="11299" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11300" max="11300" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11301" max="11301" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11302" max="11520" width="9.140625" style="18"/>
+    <col min="11521" max="11521" width="5.140625" style="18" customWidth="1"/>
+    <col min="11522" max="11522" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11523" max="11523" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11524" max="11555" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11556" max="11556" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11557" max="11557" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11558" max="11776" width="9.140625" style="18"/>
+    <col min="11777" max="11777" width="5.140625" style="18" customWidth="1"/>
+    <col min="11778" max="11778" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11779" max="11779" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11780" max="11811" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11812" max="11812" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11813" max="11813" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11814" max="12032" width="9.140625" style="18"/>
+    <col min="12033" max="12033" width="5.140625" style="18" customWidth="1"/>
+    <col min="12034" max="12034" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12035" max="12035" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12036" max="12067" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12068" max="12068" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12069" max="12069" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12070" max="12288" width="9.140625" style="18"/>
+    <col min="12289" max="12289" width="5.140625" style="18" customWidth="1"/>
+    <col min="12290" max="12290" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12291" max="12291" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12292" max="12323" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12324" max="12324" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12325" max="12325" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12326" max="12544" width="9.140625" style="18"/>
+    <col min="12545" max="12545" width="5.140625" style="18" customWidth="1"/>
+    <col min="12546" max="12546" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12547" max="12547" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12548" max="12579" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12580" max="12580" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12581" max="12581" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12582" max="12800" width="9.140625" style="18"/>
+    <col min="12801" max="12801" width="5.140625" style="18" customWidth="1"/>
+    <col min="12802" max="12802" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12803" max="12803" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12804" max="12835" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12836" max="12836" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12837" max="12837" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12838" max="13056" width="9.140625" style="18"/>
+    <col min="13057" max="13057" width="5.140625" style="18" customWidth="1"/>
+    <col min="13058" max="13058" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13059" max="13059" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13060" max="13091" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13092" max="13092" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13093" max="13093" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13094" max="13312" width="9.140625" style="18"/>
+    <col min="13313" max="13313" width="5.140625" style="18" customWidth="1"/>
+    <col min="13314" max="13314" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13315" max="13315" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13316" max="13347" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13348" max="13348" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13349" max="13349" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13350" max="13568" width="9.140625" style="18"/>
+    <col min="13569" max="13569" width="5.140625" style="18" customWidth="1"/>
+    <col min="13570" max="13570" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13571" max="13571" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13572" max="13603" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13604" max="13604" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13605" max="13605" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13606" max="13824" width="9.140625" style="18"/>
+    <col min="13825" max="13825" width="5.140625" style="18" customWidth="1"/>
+    <col min="13826" max="13826" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13827" max="13827" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13828" max="13859" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13860" max="13860" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13861" max="13861" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13862" max="14080" width="9.140625" style="18"/>
+    <col min="14081" max="14081" width="5.140625" style="18" customWidth="1"/>
+    <col min="14082" max="14082" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14083" max="14083" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14084" max="14115" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14116" max="14116" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14117" max="14117" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14118" max="14336" width="9.140625" style="18"/>
+    <col min="14337" max="14337" width="5.140625" style="18" customWidth="1"/>
+    <col min="14338" max="14338" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14339" max="14339" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14340" max="14371" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14372" max="14372" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14373" max="14373" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14374" max="14592" width="9.140625" style="18"/>
+    <col min="14593" max="14593" width="5.140625" style="18" customWidth="1"/>
+    <col min="14594" max="14594" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14595" max="14595" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14596" max="14627" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14628" max="14628" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14629" max="14629" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14630" max="14848" width="9.140625" style="18"/>
+    <col min="14849" max="14849" width="5.140625" style="18" customWidth="1"/>
+    <col min="14850" max="14850" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14851" max="14851" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14852" max="14883" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14884" max="14884" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14885" max="14885" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14886" max="15104" width="9.140625" style="18"/>
+    <col min="15105" max="15105" width="5.140625" style="18" customWidth="1"/>
+    <col min="15106" max="15106" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15107" max="15107" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15108" max="15139" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15140" max="15140" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15141" max="15141" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15142" max="15360" width="9.140625" style="18"/>
+    <col min="15361" max="15361" width="5.140625" style="18" customWidth="1"/>
+    <col min="15362" max="15362" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15363" max="15363" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15364" max="15395" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15396" max="15396" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15397" max="15397" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15398" max="15616" width="9.140625" style="18"/>
+    <col min="15617" max="15617" width="5.140625" style="18" customWidth="1"/>
+    <col min="15618" max="15618" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15619" max="15619" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15620" max="15651" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15652" max="15652" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15653" max="15653" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15654" max="15872" width="9.140625" style="18"/>
+    <col min="15873" max="15873" width="5.140625" style="18" customWidth="1"/>
+    <col min="15874" max="15874" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15875" max="15875" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15876" max="15907" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15908" max="15908" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15909" max="15909" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15910" max="16128" width="9.140625" style="18"/>
+    <col min="16129" max="16129" width="5.140625" style="18" customWidth="1"/>
+    <col min="16130" max="16130" width="12.85546875" style="18" customWidth="1"/>
+    <col min="16131" max="16131" width="37.28515625" style="18" customWidth="1"/>
+    <col min="16132" max="16163" width="5.42578125" style="18" customWidth="1"/>
+    <col min="16164" max="16164" width="13.28515625" style="18" customWidth="1"/>
+    <col min="16165" max="16165" width="12.42578125" style="18" customWidth="1"/>
+    <col min="16166" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="17"/>
+    </row>
+    <row r="2" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+    </row>
+    <row r="3" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="26">
+        <v>44370</v>
+      </c>
+      <c r="E3" s="26">
+        <f>D3+1</f>
+        <v>44371</v>
+      </c>
+      <c r="F3" s="64">
+        <f t="shared" ref="F3:AD3" si="0">E3+1</f>
+        <v>44372</v>
+      </c>
+      <c r="G3" s="64">
+        <f t="shared" si="0"/>
+        <v>44373</v>
+      </c>
+      <c r="H3" s="64">
+        <f t="shared" si="0"/>
+        <v>44374</v>
+      </c>
+      <c r="I3" s="64">
+        <f t="shared" si="0"/>
+        <v>44375</v>
+      </c>
+      <c r="J3" s="64">
+        <f t="shared" si="0"/>
+        <v>44376</v>
+      </c>
+      <c r="K3" s="64">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="L3" s="64">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
+      <c r="M3" s="64">
+        <f t="shared" si="0"/>
+        <v>44379</v>
+      </c>
+      <c r="N3" s="64">
+        <f t="shared" si="0"/>
+        <v>44380</v>
+      </c>
+      <c r="O3" s="64">
+        <f t="shared" si="0"/>
+        <v>44381</v>
+      </c>
+      <c r="P3" s="64">
+        <f t="shared" si="0"/>
+        <v>44382</v>
+      </c>
+      <c r="Q3" s="64">
+        <f t="shared" si="0"/>
+        <v>44383</v>
+      </c>
+      <c r="R3" s="64">
+        <f t="shared" si="0"/>
+        <v>44384</v>
+      </c>
+      <c r="S3" s="64">
+        <f t="shared" si="0"/>
+        <v>44385</v>
+      </c>
+      <c r="T3" s="64">
+        <f t="shared" si="0"/>
+        <v>44386</v>
+      </c>
+      <c r="U3" s="64">
+        <f t="shared" si="0"/>
+        <v>44387</v>
+      </c>
+      <c r="V3" s="64">
+        <f t="shared" si="0"/>
+        <v>44388</v>
+      </c>
+      <c r="W3" s="64">
+        <f t="shared" si="0"/>
+        <v>44389</v>
+      </c>
+      <c r="X3" s="64">
+        <f t="shared" si="0"/>
+        <v>44390</v>
+      </c>
+      <c r="Y3" s="64">
+        <f t="shared" si="0"/>
+        <v>44391</v>
+      </c>
+      <c r="Z3" s="64">
+        <f t="shared" si="0"/>
+        <v>44392</v>
+      </c>
+      <c r="AA3" s="64">
+        <f t="shared" si="0"/>
+        <v>44393</v>
+      </c>
+      <c r="AB3" s="26">
+        <f t="shared" si="0"/>
+        <v>44394</v>
+      </c>
+      <c r="AC3" s="26">
+        <f t="shared" si="0"/>
+        <v>44395</v>
+      </c>
+      <c r="AD3" s="26">
+        <f t="shared" si="0"/>
+        <v>44396</v>
+      </c>
+      <c r="AE3" s="26">
+        <f>AD3+1</f>
+        <v>44397</v>
+      </c>
+      <c r="AF3" s="26">
+        <f>AE3+1</f>
+        <v>44398</v>
+      </c>
+      <c r="AG3" s="26">
+        <f>AF3+1</f>
+        <v>44399</v>
+      </c>
+      <c r="AH3" s="26">
+        <f>AG3+1</f>
+        <v>44400</v>
+      </c>
+      <c r="AI3" s="26">
+        <f>AH3+1</f>
+        <v>44401</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="40"/>
+    </row>
+    <row r="8" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ8" s="53">
+        <f>SUM(AJ5:AJ6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="54"/>
+    </row>
+    <row r="9" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+    </row>
+    <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="C10" s="56"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Web Project\01.Wohhup\WebApp_Module_Worker\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C44455-D21F-4548-B364-8D730742D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC75882-CEA6-4EF2-9109-8A0318114F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Wage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>Public Holiday (PH)</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>das</t>
   </si>
 </sst>
 </file>
@@ -490,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +671,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,15 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,19 +1123,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:167" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
@@ -1157,19 +1154,19 @@
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:167" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1289,348 +1286,348 @@
       <c r="DX5" s="8"/>
     </row>
     <row r="6" spans="1:167" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="69" t="s">
+      <c r="B6" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="73" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="71" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74">
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="67">
         <v>44035</v>
       </c>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="74">
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="67">
         <f>L6+1</f>
         <v>44036</v>
       </c>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="74">
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="67">
         <f t="shared" ref="R6" si="0">O6+1</f>
         <v>44037</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="74">
+      <c r="S6" s="68"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="67">
         <f t="shared" ref="U6" si="1">R6+1</f>
         <v>44038</v>
       </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="74">
+      <c r="V6" s="68"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="67">
         <f t="shared" ref="X6" si="2">U6+1</f>
         <v>44039</v>
       </c>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="74">
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="67">
         <f t="shared" ref="AA6" si="3">X6+1</f>
         <v>44040</v>
       </c>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="74">
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="67">
         <f t="shared" ref="AD6" si="4">AA6+1</f>
         <v>44041</v>
       </c>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="74">
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="67">
         <f t="shared" ref="AG6" si="5">AD6+1</f>
         <v>44042</v>
       </c>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="74">
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="67">
         <f t="shared" ref="AJ6" si="6">AG6+1</f>
         <v>44043</v>
       </c>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="74">
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="67">
         <f t="shared" ref="AM6" si="7">AJ6+1</f>
         <v>44044</v>
       </c>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="74">
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="67">
         <f t="shared" ref="AP6" si="8">AM6+1</f>
         <v>44045</v>
       </c>
-      <c r="AQ6" s="75"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="74">
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="67">
         <f t="shared" ref="AS6" si="9">AP6+1</f>
         <v>44046</v>
       </c>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="74">
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="67">
         <f t="shared" ref="AV6" si="10">AS6+1</f>
         <v>44047</v>
       </c>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="74">
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="67">
         <f t="shared" ref="AY6" si="11">AV6+1</f>
         <v>44048</v>
       </c>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="74">
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="67">
         <f t="shared" ref="BB6" si="12">AY6+1</f>
         <v>44049</v>
       </c>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="74">
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="67">
         <f t="shared" ref="BE6" si="13">BB6+1</f>
         <v>44050</v>
       </c>
-      <c r="BF6" s="75"/>
-      <c r="BG6" s="76"/>
-      <c r="BH6" s="74">
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="67">
         <f t="shared" ref="BH6" si="14">BE6+1</f>
         <v>44051</v>
       </c>
-      <c r="BI6" s="75"/>
-      <c r="BJ6" s="76"/>
-      <c r="BK6" s="74">
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="67">
         <f t="shared" ref="BK6" si="15">BH6+1</f>
         <v>44052</v>
       </c>
-      <c r="BL6" s="75"/>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="74">
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="67">
         <f t="shared" ref="BN6" si="16">BK6+1</f>
         <v>44053</v>
       </c>
-      <c r="BO6" s="75"/>
-      <c r="BP6" s="76"/>
-      <c r="BQ6" s="74">
+      <c r="BO6" s="68"/>
+      <c r="BP6" s="69"/>
+      <c r="BQ6" s="67">
         <f t="shared" ref="BQ6" si="17">BN6+1</f>
         <v>44054</v>
       </c>
-      <c r="BR6" s="75"/>
-      <c r="BS6" s="76"/>
-      <c r="BT6" s="74">
+      <c r="BR6" s="68"/>
+      <c r="BS6" s="69"/>
+      <c r="BT6" s="67">
         <f t="shared" ref="BT6" si="18">BQ6+1</f>
         <v>44055</v>
       </c>
-      <c r="BU6" s="75"/>
-      <c r="BV6" s="76"/>
-      <c r="BW6" s="74">
+      <c r="BU6" s="68"/>
+      <c r="BV6" s="69"/>
+      <c r="BW6" s="67">
         <f t="shared" ref="BW6" si="19">BT6+1</f>
         <v>44056</v>
       </c>
-      <c r="BX6" s="75"/>
-      <c r="BY6" s="76"/>
-      <c r="BZ6" s="74">
+      <c r="BX6" s="68"/>
+      <c r="BY6" s="69"/>
+      <c r="BZ6" s="67">
         <f t="shared" ref="BZ6" si="20">BW6+1</f>
         <v>44057</v>
       </c>
-      <c r="CA6" s="75"/>
-      <c r="CB6" s="76"/>
-      <c r="CC6" s="74">
+      <c r="CA6" s="68"/>
+      <c r="CB6" s="69"/>
+      <c r="CC6" s="67">
         <f t="shared" ref="CC6" si="21">BZ6+1</f>
         <v>44058</v>
       </c>
-      <c r="CD6" s="75"/>
-      <c r="CE6" s="76"/>
-      <c r="CF6" s="74">
+      <c r="CD6" s="68"/>
+      <c r="CE6" s="69"/>
+      <c r="CF6" s="67">
         <f t="shared" ref="CF6" si="22">CC6+1</f>
         <v>44059</v>
       </c>
-      <c r="CG6" s="75"/>
-      <c r="CH6" s="76"/>
-      <c r="CI6" s="74">
+      <c r="CG6" s="68"/>
+      <c r="CH6" s="69"/>
+      <c r="CI6" s="67">
         <f t="shared" ref="CI6" si="23">CF6+1</f>
         <v>44060</v>
       </c>
-      <c r="CJ6" s="75"/>
-      <c r="CK6" s="76"/>
-      <c r="CL6" s="74">
+      <c r="CJ6" s="68"/>
+      <c r="CK6" s="69"/>
+      <c r="CL6" s="67">
         <f t="shared" ref="CL6" si="24">CI6+1</f>
         <v>44061</v>
       </c>
-      <c r="CM6" s="75"/>
-      <c r="CN6" s="76"/>
-      <c r="CO6" s="74">
+      <c r="CM6" s="68"/>
+      <c r="CN6" s="69"/>
+      <c r="CO6" s="67">
         <f t="shared" ref="CO6" si="25">CL6+1</f>
         <v>44062</v>
       </c>
-      <c r="CP6" s="75"/>
-      <c r="CQ6" s="76"/>
-      <c r="CR6" s="74">
+      <c r="CP6" s="68"/>
+      <c r="CQ6" s="69"/>
+      <c r="CR6" s="67">
         <f t="shared" ref="CR6" si="26">CO6+1</f>
         <v>44063</v>
       </c>
-      <c r="CS6" s="75"/>
-      <c r="CT6" s="76"/>
-      <c r="CU6" s="74">
+      <c r="CS6" s="68"/>
+      <c r="CT6" s="69"/>
+      <c r="CU6" s="67">
         <f t="shared" ref="CU6" si="27">CR6+1</f>
         <v>44064</v>
       </c>
-      <c r="CV6" s="75"/>
-      <c r="CW6" s="76"/>
-      <c r="CX6" s="74">
+      <c r="CV6" s="68"/>
+      <c r="CW6" s="69"/>
+      <c r="CX6" s="67">
         <f t="shared" ref="CX6" si="28">CU6+1</f>
         <v>44065</v>
       </c>
-      <c r="CY6" s="75"/>
-      <c r="CZ6" s="76"/>
-      <c r="DA6" s="74">
+      <c r="CY6" s="68"/>
+      <c r="CZ6" s="69"/>
+      <c r="DA6" s="67">
         <f t="shared" ref="DA6" si="29">CX6+1</f>
         <v>44066</v>
       </c>
-      <c r="DB6" s="75"/>
-      <c r="DC6" s="76"/>
-      <c r="DD6" s="74">
+      <c r="DB6" s="68"/>
+      <c r="DC6" s="69"/>
+      <c r="DD6" s="67">
         <f t="shared" ref="DD6" si="30">DA6+1</f>
         <v>44067</v>
       </c>
-      <c r="DE6" s="75"/>
-      <c r="DF6" s="76"/>
-      <c r="DG6" s="74">
+      <c r="DE6" s="68"/>
+      <c r="DF6" s="69"/>
+      <c r="DG6" s="67">
         <f t="shared" ref="DG6" si="31">DD6+1</f>
         <v>44068</v>
       </c>
-      <c r="DH6" s="75"/>
-      <c r="DI6" s="76"/>
-      <c r="DJ6" s="74">
+      <c r="DH6" s="68"/>
+      <c r="DI6" s="69"/>
+      <c r="DJ6" s="67">
         <f t="shared" ref="DJ6" si="32">DG6+1</f>
         <v>44069</v>
       </c>
-      <c r="DK6" s="75"/>
-      <c r="DL6" s="76"/>
-      <c r="DM6" s="74">
+      <c r="DK6" s="68"/>
+      <c r="DL6" s="69"/>
+      <c r="DM6" s="67">
         <f t="shared" ref="DM6" si="33">DJ6+1</f>
         <v>44070</v>
       </c>
-      <c r="DN6" s="75"/>
-      <c r="DO6" s="76"/>
-      <c r="DP6" s="74">
+      <c r="DN6" s="68"/>
+      <c r="DO6" s="69"/>
+      <c r="DP6" s="67">
         <f t="shared" ref="DP6" si="34">DM6+1</f>
         <v>44071</v>
       </c>
-      <c r="DQ6" s="75"/>
-      <c r="DR6" s="76"/>
-      <c r="DS6" s="74">
+      <c r="DQ6" s="68"/>
+      <c r="DR6" s="69"/>
+      <c r="DS6" s="67">
         <f t="shared" ref="DS6" si="35">DP6+1</f>
         <v>44072</v>
       </c>
-      <c r="DT6" s="75"/>
-      <c r="DU6" s="76"/>
-      <c r="DV6" s="74">
+      <c r="DT6" s="68"/>
+      <c r="DU6" s="69"/>
+      <c r="DV6" s="67">
         <f t="shared" ref="DV6" si="36">DS6+1</f>
         <v>44073</v>
       </c>
-      <c r="DW6" s="75"/>
-      <c r="DX6" s="76"/>
-      <c r="DY6" s="74">
+      <c r="DW6" s="68"/>
+      <c r="DX6" s="69"/>
+      <c r="DY6" s="67">
         <f t="shared" ref="DY6" si="37">DV6+1</f>
         <v>44074</v>
       </c>
-      <c r="DZ6" s="75"/>
-      <c r="EA6" s="76"/>
-      <c r="EB6" s="74">
+      <c r="DZ6" s="68"/>
+      <c r="EA6" s="69"/>
+      <c r="EB6" s="67">
         <f t="shared" ref="EB6" si="38">DY6+1</f>
         <v>44075</v>
       </c>
-      <c r="EC6" s="75"/>
-      <c r="ED6" s="76"/>
-      <c r="EE6" s="74">
+      <c r="EC6" s="68"/>
+      <c r="ED6" s="69"/>
+      <c r="EE6" s="67">
         <f t="shared" ref="EE6" si="39">EB6+1</f>
         <v>44076</v>
       </c>
-      <c r="EF6" s="75"/>
-      <c r="EG6" s="76"/>
-      <c r="EH6" s="74">
+      <c r="EF6" s="68"/>
+      <c r="EG6" s="69"/>
+      <c r="EH6" s="67">
         <f t="shared" ref="EH6" si="40">EE6+1</f>
         <v>44077</v>
       </c>
-      <c r="EI6" s="75"/>
-      <c r="EJ6" s="76"/>
-      <c r="EK6" s="74">
+      <c r="EI6" s="68"/>
+      <c r="EJ6" s="69"/>
+      <c r="EK6" s="67">
         <f t="shared" ref="EK6" si="41">EH6+1</f>
         <v>44078</v>
       </c>
-      <c r="EL6" s="75"/>
-      <c r="EM6" s="76"/>
-      <c r="EN6" s="74">
+      <c r="EL6" s="68"/>
+      <c r="EM6" s="69"/>
+      <c r="EN6" s="67">
         <f t="shared" ref="EN6" si="42">EK6+1</f>
         <v>44079</v>
       </c>
-      <c r="EO6" s="75"/>
-      <c r="EP6" s="76"/>
-      <c r="EQ6" s="74">
+      <c r="EO6" s="68"/>
+      <c r="EP6" s="69"/>
+      <c r="EQ6" s="67">
         <f t="shared" ref="EQ6" si="43">EN6+1</f>
         <v>44080</v>
       </c>
-      <c r="ER6" s="75"/>
-      <c r="ES6" s="76"/>
-      <c r="ET6" s="74">
+      <c r="ER6" s="68"/>
+      <c r="ES6" s="69"/>
+      <c r="ET6" s="67">
         <f t="shared" ref="ET6" si="44">EQ6+1</f>
         <v>44081</v>
       </c>
-      <c r="EU6" s="75"/>
-      <c r="EV6" s="76"/>
-      <c r="EW6" s="74">
+      <c r="EU6" s="68"/>
+      <c r="EV6" s="69"/>
+      <c r="EW6" s="67">
         <f t="shared" ref="EW6" si="45">ET6+1</f>
         <v>44082</v>
       </c>
-      <c r="EX6" s="75"/>
-      <c r="EY6" s="76"/>
-      <c r="EZ6" s="74">
+      <c r="EX6" s="68"/>
+      <c r="EY6" s="69"/>
+      <c r="EZ6" s="67">
         <f t="shared" ref="EZ6" si="46">EW6+1</f>
         <v>44083</v>
       </c>
-      <c r="FA6" s="75"/>
-      <c r="FB6" s="76"/>
-      <c r="FC6" s="74">
+      <c r="FA6" s="68"/>
+      <c r="FB6" s="69"/>
+      <c r="FC6" s="67">
         <f t="shared" ref="FC6" si="47">EZ6+1</f>
         <v>44084</v>
       </c>
-      <c r="FD6" s="75"/>
-      <c r="FE6" s="76"/>
-      <c r="FF6" s="74">
+      <c r="FD6" s="68"/>
+      <c r="FE6" s="69"/>
+      <c r="FF6" s="67">
         <f t="shared" ref="FF6" si="48">FC6+1</f>
         <v>44085</v>
       </c>
-      <c r="FG6" s="75"/>
-      <c r="FH6" s="76"/>
-      <c r="FI6" s="74">
+      <c r="FG6" s="68"/>
+      <c r="FH6" s="69"/>
+      <c r="FI6" s="67">
         <f t="shared" ref="FI6" si="49">FF6+1</f>
         <v>44086</v>
       </c>
-      <c r="FJ6" s="75"/>
-      <c r="FK6" s="76"/>
+      <c r="FJ6" s="68"/>
+      <c r="FK6" s="69"/>
     </row>
     <row r="7" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2811,19 +2808,44 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="FC6:FE6"/>
-    <mergeCell ref="FF6:FH6"/>
-    <mergeCell ref="FI6:FK6"/>
-    <mergeCell ref="EN6:EP6"/>
-    <mergeCell ref="EQ6:ES6"/>
-    <mergeCell ref="ET6:EV6"/>
-    <mergeCell ref="EW6:EY6"/>
-    <mergeCell ref="EZ6:FB6"/>
-    <mergeCell ref="DY6:EA6"/>
-    <mergeCell ref="EB6:ED6"/>
-    <mergeCell ref="EE6:EG6"/>
-    <mergeCell ref="EH6:EJ6"/>
-    <mergeCell ref="EK6:EM6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="BT6:BV6"/>
+    <mergeCell ref="BW6:BY6"/>
+    <mergeCell ref="BZ6:CB6"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CF6:CH6"/>
+    <mergeCell ref="CI6:CK6"/>
+    <mergeCell ref="CL6:CN6"/>
+    <mergeCell ref="CO6:CQ6"/>
+    <mergeCell ref="CR6:CT6"/>
+    <mergeCell ref="CU6:CW6"/>
     <mergeCell ref="DM6:DO6"/>
     <mergeCell ref="DP6:DR6"/>
     <mergeCell ref="DS6:DU6"/>
@@ -2833,44 +2855,19 @@
     <mergeCell ref="DD6:DF6"/>
     <mergeCell ref="DG6:DI6"/>
     <mergeCell ref="DJ6:DL6"/>
-    <mergeCell ref="CI6:CK6"/>
-    <mergeCell ref="CL6:CN6"/>
-    <mergeCell ref="CO6:CQ6"/>
-    <mergeCell ref="CR6:CT6"/>
-    <mergeCell ref="CU6:CW6"/>
-    <mergeCell ref="BT6:BV6"/>
-    <mergeCell ref="BW6:BY6"/>
-    <mergeCell ref="BZ6:CB6"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CF6:CH6"/>
-    <mergeCell ref="BE6:BG6"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="BN6:BP6"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="DY6:EA6"/>
+    <mergeCell ref="EB6:ED6"/>
+    <mergeCell ref="EE6:EG6"/>
+    <mergeCell ref="EH6:EJ6"/>
+    <mergeCell ref="EK6:EM6"/>
+    <mergeCell ref="FC6:FE6"/>
+    <mergeCell ref="FF6:FH6"/>
+    <mergeCell ref="FI6:FK6"/>
+    <mergeCell ref="EN6:EP6"/>
+    <mergeCell ref="EQ6:ES6"/>
+    <mergeCell ref="ET6:EV6"/>
+    <mergeCell ref="EW6:EY6"/>
+    <mergeCell ref="EZ6:FB6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2880,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992195C-6099-4F4F-9774-B0A0A335235C}">
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AL9" sqref="AL9:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,7 +3335,7 @@
     <col min="16166" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3380,7 +3377,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="17"/>
     </row>
-    <row r="2" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -3418,7 +3415,7 @@
       <c r="AI2" s="21"/>
       <c r="AJ2" s="21"/>
     </row>
-    <row r="3" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
@@ -3558,19 +3555,13 @@
       <c r="AJ3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
@@ -3593,22 +3584,22 @@
       <c r="Y4" s="65"/>
       <c r="Z4" s="65"/>
       <c r="AA4" s="65"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="5"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="66"/>
     </row>
-    <row r="5" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
@@ -3631,22 +3622,22 @@
       <c r="Y5" s="65"/>
       <c r="Z5" s="65"/>
       <c r="AA5" s="65"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="5"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="66"/>
     </row>
-    <row r="6" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
@@ -3669,17 +3660,17 @@
       <c r="Y6" s="65"/>
       <c r="Z6" s="65"/>
       <c r="AA6" s="65"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="5"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="66"/>
     </row>
-    <row r="7" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -3702,7 +3693,7 @@
       <c r="AI7" s="38"/>
       <c r="AJ7" s="40"/>
     </row>
-    <row r="8" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="42" t="s">
         <v>18</v>
@@ -3745,7 +3736,7 @@
       </c>
       <c r="AK8" s="54"/>
     </row>
-    <row r="9" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="57"/>
@@ -3771,7 +3762,7 @@
       <c r="AJ9" s="59"/>
       <c r="AK9" s="60"/>
     </row>
-    <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="56"/>
       <c r="D10" s="62"/>
       <c r="E10" s="45" t="s">
@@ -3786,12 +3777,12 @@
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3828,5 +3819,6 @@
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Web Project\01.Wohhup\WebApp_Module_Worker\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Working\Wohhup App\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC75882-CEA6-4EF2-9109-8A0318114F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E781F6-DD47-49DB-9DA8-0DBF3731DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wage" sheetId="1" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="6" r:id="rId1"/>
+    <sheet name="Wage" sheetId="1" r:id="rId2"/>
+    <sheet name="Points" sheetId="2" r:id="rId3"/>
+    <sheet name="TO ACCOUNTS" sheetId="4" r:id="rId4"/>
+    <sheet name="TO HR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -106,15 +117,121 @@
   <si>
     <t>Public Holiday (PH)</t>
   </si>
+  <si>
+    <t>WORKER'S INCENTIVE POINTS SUMMARY REPORT</t>
+  </si>
+  <si>
+    <t>TOTAL INCENTIVE POINTS</t>
+  </si>
+  <si>
+    <t>PROJECT MANAGER</t>
+  </si>
+  <si>
+    <t>Prepared by:</t>
+  </si>
+  <si>
+    <t>E-CODE</t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME</t>
+  </si>
+  <si>
+    <t>SUPERVISOR / 
+FOREMAN</t>
+  </si>
+  <si>
+    <t>DEPARTMENT /  
+TRADE</t>
+  </si>
+  <si>
+    <t>Total Workers</t>
+  </si>
+  <si>
+    <t>Workers List Summary</t>
+  </si>
+  <si>
+    <t>FACSIMILE MESSAGE</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>From (Site)</t>
+  </si>
+  <si>
+    <t>Date Send</t>
+  </si>
+  <si>
+    <t>No. of Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (including this page)</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>WORKERS LIST SUMMARY FORM</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>S/N.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Workers</t>
+  </si>
+  <si>
+    <t>Norm Hrs</t>
+  </si>
+  <si>
+    <t>1.0 Hrs</t>
+  </si>
+  <si>
+    <t>OT 1.5 Hrs</t>
+  </si>
+  <si>
+    <t>OT 2.0 Hrs</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Allowce.</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Adjustm.</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Remarks :</t>
+  </si>
+  <si>
+    <t>Regards,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +361,108 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +517,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -479,12 +708,374 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,6 +1265,382 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,34 +1650,31 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{887823B0-D0F3-4AF3-A840-2A35BE1AD6AF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E3FEEFE4-A341-44DB-91EF-16C915FD0827}"/>
+    <cellStyle name="Normal_WH-CONS-FM-43" xfId="4" xr:uid="{E004A393-50A9-4D82-8D3A-CC900B3CFFEE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1100,6 +2064,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91B209-050E-49C1-B307-2E076B0C1DDF}">
+  <dimension ref="A1:AB47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="15" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="116"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="123"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="123"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="117"/>
+      <c r="B6" s="173" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="123"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="123"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="117"/>
+      <c r="B8" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="123"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="117"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="123"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="185"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="123"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="117"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="123"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="123"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="123"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="162"/>
+      <c r="G14" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="123"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="117"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="123"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="117"/>
+      <c r="B16" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="123"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="123"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="123"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="117"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="123"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="123"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="134"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="178"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="163" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="137"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="138"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="159"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="117"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="167"/>
+      <c r="W25" s="167"/>
+      <c r="X25" s="167"/>
+      <c r="Y25" s="167"/>
+      <c r="Z25" s="167"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="117"/>
+      <c r="B26" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="167"/>
+      <c r="X26" s="167"/>
+      <c r="Y26" s="167"/>
+      <c r="Z26" s="167"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="117"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="117"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="117"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="117"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="117"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="111"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="117"/>
+      <c r="B35" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="146"/>
+      <c r="Y35" s="146"/>
+      <c r="Z35" s="146"/>
+      <c r="AA35" s="111"/>
+      <c r="AB35" s="111"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="117"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="147"/>
+      <c r="V36" s="147"/>
+      <c r="W36" s="147"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="147"/>
+      <c r="V37" s="147"/>
+      <c r="W37" s="147"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="117"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="166"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="117"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="117"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+    </row>
+    <row r="41" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="148"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="149"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="U25:Z25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:O29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C1F6-A6F9-461E-9FE3-2DB54235E96B}">
   <dimension ref="A1:FK12"/>
   <sheetViews>
@@ -1108,36 +3215,36 @@
       <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="2"/>
+    <col min="8" max="8" width="9.109375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-    </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-    </row>
-    <row r="3" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-    </row>
-    <row r="4" spans="1:167" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.3">
+      <c r="A1" s="187"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+    </row>
+    <row r="2" spans="1:167" x14ac:dyDescent="0.3">
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+    </row>
+    <row r="3" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+    </row>
+    <row r="4" spans="1:167" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1153,20 +3260,20 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:167" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:167" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1285,349 +3392,349 @@
       <c r="DW5" s="8"/>
       <c r="DX5" s="8"/>
     </row>
-    <row r="6" spans="1:167" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:167" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="190" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="75" t="s">
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="67">
+      <c r="J6" s="193"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="195">
         <v>44035</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="67">
+      <c r="M6" s="196"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="195">
         <f>L6+1</f>
         <v>44036</v>
       </c>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="67">
+      <c r="P6" s="196"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="195">
         <f t="shared" ref="R6" si="0">O6+1</f>
         <v>44037</v>
       </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="67">
+      <c r="S6" s="196"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="195">
         <f t="shared" ref="U6" si="1">R6+1</f>
         <v>44038</v>
       </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="67">
+      <c r="V6" s="196"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="195">
         <f t="shared" ref="X6" si="2">U6+1</f>
         <v>44039</v>
       </c>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="67">
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="195">
         <f t="shared" ref="AA6" si="3">X6+1</f>
         <v>44040</v>
       </c>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="67">
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="195">
         <f t="shared" ref="AD6" si="4">AA6+1</f>
         <v>44041</v>
       </c>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="67">
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="195">
         <f t="shared" ref="AG6" si="5">AD6+1</f>
         <v>44042</v>
       </c>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="67">
+      <c r="AH6" s="196"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="195">
         <f t="shared" ref="AJ6" si="6">AG6+1</f>
         <v>44043</v>
       </c>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="67">
+      <c r="AK6" s="196"/>
+      <c r="AL6" s="197"/>
+      <c r="AM6" s="195">
         <f t="shared" ref="AM6" si="7">AJ6+1</f>
         <v>44044</v>
       </c>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="67">
+      <c r="AN6" s="196"/>
+      <c r="AO6" s="197"/>
+      <c r="AP6" s="195">
         <f t="shared" ref="AP6" si="8">AM6+1</f>
         <v>44045</v>
       </c>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="67">
+      <c r="AQ6" s="196"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="195">
         <f t="shared" ref="AS6" si="9">AP6+1</f>
         <v>44046</v>
       </c>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="67">
+      <c r="AT6" s="196"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="195">
         <f t="shared" ref="AV6" si="10">AS6+1</f>
         <v>44047</v>
       </c>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="67">
+      <c r="AW6" s="196"/>
+      <c r="AX6" s="197"/>
+      <c r="AY6" s="195">
         <f t="shared" ref="AY6" si="11">AV6+1</f>
         <v>44048</v>
       </c>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="67">
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="197"/>
+      <c r="BB6" s="195">
         <f t="shared" ref="BB6" si="12">AY6+1</f>
         <v>44049</v>
       </c>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="67">
+      <c r="BC6" s="196"/>
+      <c r="BD6" s="197"/>
+      <c r="BE6" s="195">
         <f t="shared" ref="BE6" si="13">BB6+1</f>
         <v>44050</v>
       </c>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="67">
+      <c r="BF6" s="196"/>
+      <c r="BG6" s="197"/>
+      <c r="BH6" s="195">
         <f t="shared" ref="BH6" si="14">BE6+1</f>
         <v>44051</v>
       </c>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="69"/>
-      <c r="BK6" s="67">
+      <c r="BI6" s="196"/>
+      <c r="BJ6" s="197"/>
+      <c r="BK6" s="195">
         <f t="shared" ref="BK6" si="15">BH6+1</f>
         <v>44052</v>
       </c>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="69"/>
-      <c r="BN6" s="67">
+      <c r="BL6" s="196"/>
+      <c r="BM6" s="197"/>
+      <c r="BN6" s="195">
         <f t="shared" ref="BN6" si="16">BK6+1</f>
         <v>44053</v>
       </c>
-      <c r="BO6" s="68"/>
-      <c r="BP6" s="69"/>
-      <c r="BQ6" s="67">
+      <c r="BO6" s="196"/>
+      <c r="BP6" s="197"/>
+      <c r="BQ6" s="195">
         <f t="shared" ref="BQ6" si="17">BN6+1</f>
         <v>44054</v>
       </c>
-      <c r="BR6" s="68"/>
-      <c r="BS6" s="69"/>
-      <c r="BT6" s="67">
+      <c r="BR6" s="196"/>
+      <c r="BS6" s="197"/>
+      <c r="BT6" s="195">
         <f t="shared" ref="BT6" si="18">BQ6+1</f>
         <v>44055</v>
       </c>
-      <c r="BU6" s="68"/>
-      <c r="BV6" s="69"/>
-      <c r="BW6" s="67">
+      <c r="BU6" s="196"/>
+      <c r="BV6" s="197"/>
+      <c r="BW6" s="195">
         <f t="shared" ref="BW6" si="19">BT6+1</f>
         <v>44056</v>
       </c>
-      <c r="BX6" s="68"/>
-      <c r="BY6" s="69"/>
-      <c r="BZ6" s="67">
+      <c r="BX6" s="196"/>
+      <c r="BY6" s="197"/>
+      <c r="BZ6" s="195">
         <f t="shared" ref="BZ6" si="20">BW6+1</f>
         <v>44057</v>
       </c>
-      <c r="CA6" s="68"/>
-      <c r="CB6" s="69"/>
-      <c r="CC6" s="67">
+      <c r="CA6" s="196"/>
+      <c r="CB6" s="197"/>
+      <c r="CC6" s="195">
         <f t="shared" ref="CC6" si="21">BZ6+1</f>
         <v>44058</v>
       </c>
-      <c r="CD6" s="68"/>
-      <c r="CE6" s="69"/>
-      <c r="CF6" s="67">
+      <c r="CD6" s="196"/>
+      <c r="CE6" s="197"/>
+      <c r="CF6" s="195">
         <f t="shared" ref="CF6" si="22">CC6+1</f>
         <v>44059</v>
       </c>
-      <c r="CG6" s="68"/>
-      <c r="CH6" s="69"/>
-      <c r="CI6" s="67">
+      <c r="CG6" s="196"/>
+      <c r="CH6" s="197"/>
+      <c r="CI6" s="195">
         <f t="shared" ref="CI6" si="23">CF6+1</f>
         <v>44060</v>
       </c>
-      <c r="CJ6" s="68"/>
-      <c r="CK6" s="69"/>
-      <c r="CL6" s="67">
+      <c r="CJ6" s="196"/>
+      <c r="CK6" s="197"/>
+      <c r="CL6" s="195">
         <f t="shared" ref="CL6" si="24">CI6+1</f>
         <v>44061</v>
       </c>
-      <c r="CM6" s="68"/>
-      <c r="CN6" s="69"/>
-      <c r="CO6" s="67">
+      <c r="CM6" s="196"/>
+      <c r="CN6" s="197"/>
+      <c r="CO6" s="195">
         <f t="shared" ref="CO6" si="25">CL6+1</f>
         <v>44062</v>
       </c>
-      <c r="CP6" s="68"/>
-      <c r="CQ6" s="69"/>
-      <c r="CR6" s="67">
+      <c r="CP6" s="196"/>
+      <c r="CQ6" s="197"/>
+      <c r="CR6" s="195">
         <f t="shared" ref="CR6" si="26">CO6+1</f>
         <v>44063</v>
       </c>
-      <c r="CS6" s="68"/>
-      <c r="CT6" s="69"/>
-      <c r="CU6" s="67">
+      <c r="CS6" s="196"/>
+      <c r="CT6" s="197"/>
+      <c r="CU6" s="195">
         <f t="shared" ref="CU6" si="27">CR6+1</f>
         <v>44064</v>
       </c>
-      <c r="CV6" s="68"/>
-      <c r="CW6" s="69"/>
-      <c r="CX6" s="67">
+      <c r="CV6" s="196"/>
+      <c r="CW6" s="197"/>
+      <c r="CX6" s="195">
         <f t="shared" ref="CX6" si="28">CU6+1</f>
         <v>44065</v>
       </c>
-      <c r="CY6" s="68"/>
-      <c r="CZ6" s="69"/>
-      <c r="DA6" s="67">
+      <c r="CY6" s="196"/>
+      <c r="CZ6" s="197"/>
+      <c r="DA6" s="195">
         <f t="shared" ref="DA6" si="29">CX6+1</f>
         <v>44066</v>
       </c>
-      <c r="DB6" s="68"/>
-      <c r="DC6" s="69"/>
-      <c r="DD6" s="67">
+      <c r="DB6" s="196"/>
+      <c r="DC6" s="197"/>
+      <c r="DD6" s="195">
         <f t="shared" ref="DD6" si="30">DA6+1</f>
         <v>44067</v>
       </c>
-      <c r="DE6" s="68"/>
-      <c r="DF6" s="69"/>
-      <c r="DG6" s="67">
+      <c r="DE6" s="196"/>
+      <c r="DF6" s="197"/>
+      <c r="DG6" s="195">
         <f t="shared" ref="DG6" si="31">DD6+1</f>
         <v>44068</v>
       </c>
-      <c r="DH6" s="68"/>
-      <c r="DI6" s="69"/>
-      <c r="DJ6" s="67">
+      <c r="DH6" s="196"/>
+      <c r="DI6" s="197"/>
+      <c r="DJ6" s="195">
         <f t="shared" ref="DJ6" si="32">DG6+1</f>
         <v>44069</v>
       </c>
-      <c r="DK6" s="68"/>
-      <c r="DL6" s="69"/>
-      <c r="DM6" s="67">
+      <c r="DK6" s="196"/>
+      <c r="DL6" s="197"/>
+      <c r="DM6" s="195">
         <f t="shared" ref="DM6" si="33">DJ6+1</f>
         <v>44070</v>
       </c>
-      <c r="DN6" s="68"/>
-      <c r="DO6" s="69"/>
-      <c r="DP6" s="67">
+      <c r="DN6" s="196"/>
+      <c r="DO6" s="197"/>
+      <c r="DP6" s="195">
         <f t="shared" ref="DP6" si="34">DM6+1</f>
         <v>44071</v>
       </c>
-      <c r="DQ6" s="68"/>
-      <c r="DR6" s="69"/>
-      <c r="DS6" s="67">
+      <c r="DQ6" s="196"/>
+      <c r="DR6" s="197"/>
+      <c r="DS6" s="195">
         <f t="shared" ref="DS6" si="35">DP6+1</f>
         <v>44072</v>
       </c>
-      <c r="DT6" s="68"/>
-      <c r="DU6" s="69"/>
-      <c r="DV6" s="67">
+      <c r="DT6" s="196"/>
+      <c r="DU6" s="197"/>
+      <c r="DV6" s="195">
         <f t="shared" ref="DV6" si="36">DS6+1</f>
         <v>44073</v>
       </c>
-      <c r="DW6" s="68"/>
-      <c r="DX6" s="69"/>
-      <c r="DY6" s="67">
+      <c r="DW6" s="196"/>
+      <c r="DX6" s="197"/>
+      <c r="DY6" s="195">
         <f t="shared" ref="DY6" si="37">DV6+1</f>
         <v>44074</v>
       </c>
-      <c r="DZ6" s="68"/>
-      <c r="EA6" s="69"/>
-      <c r="EB6" s="67">
+      <c r="DZ6" s="196"/>
+      <c r="EA6" s="197"/>
+      <c r="EB6" s="195">
         <f t="shared" ref="EB6" si="38">DY6+1</f>
         <v>44075</v>
       </c>
-      <c r="EC6" s="68"/>
-      <c r="ED6" s="69"/>
-      <c r="EE6" s="67">
+      <c r="EC6" s="196"/>
+      <c r="ED6" s="197"/>
+      <c r="EE6" s="195">
         <f t="shared" ref="EE6" si="39">EB6+1</f>
         <v>44076</v>
       </c>
-      <c r="EF6" s="68"/>
-      <c r="EG6" s="69"/>
-      <c r="EH6" s="67">
+      <c r="EF6" s="196"/>
+      <c r="EG6" s="197"/>
+      <c r="EH6" s="195">
         <f t="shared" ref="EH6" si="40">EE6+1</f>
         <v>44077</v>
       </c>
-      <c r="EI6" s="68"/>
-      <c r="EJ6" s="69"/>
-      <c r="EK6" s="67">
+      <c r="EI6" s="196"/>
+      <c r="EJ6" s="197"/>
+      <c r="EK6" s="195">
         <f t="shared" ref="EK6" si="41">EH6+1</f>
         <v>44078</v>
       </c>
-      <c r="EL6" s="68"/>
-      <c r="EM6" s="69"/>
-      <c r="EN6" s="67">
+      <c r="EL6" s="196"/>
+      <c r="EM6" s="197"/>
+      <c r="EN6" s="195">
         <f t="shared" ref="EN6" si="42">EK6+1</f>
         <v>44079</v>
       </c>
-      <c r="EO6" s="68"/>
-      <c r="EP6" s="69"/>
-      <c r="EQ6" s="67">
+      <c r="EO6" s="196"/>
+      <c r="EP6" s="197"/>
+      <c r="EQ6" s="195">
         <f t="shared" ref="EQ6" si="43">EN6+1</f>
         <v>44080</v>
       </c>
-      <c r="ER6" s="68"/>
-      <c r="ES6" s="69"/>
-      <c r="ET6" s="67">
+      <c r="ER6" s="196"/>
+      <c r="ES6" s="197"/>
+      <c r="ET6" s="195">
         <f t="shared" ref="ET6" si="44">EQ6+1</f>
         <v>44081</v>
       </c>
-      <c r="EU6" s="68"/>
-      <c r="EV6" s="69"/>
-      <c r="EW6" s="67">
+      <c r="EU6" s="196"/>
+      <c r="EV6" s="197"/>
+      <c r="EW6" s="195">
         <f t="shared" ref="EW6" si="45">ET6+1</f>
         <v>44082</v>
       </c>
-      <c r="EX6" s="68"/>
-      <c r="EY6" s="69"/>
-      <c r="EZ6" s="67">
+      <c r="EX6" s="196"/>
+      <c r="EY6" s="197"/>
+      <c r="EZ6" s="195">
         <f t="shared" ref="EZ6" si="46">EW6+1</f>
         <v>44083</v>
       </c>
-      <c r="FA6" s="68"/>
-      <c r="FB6" s="69"/>
-      <c r="FC6" s="67">
+      <c r="FA6" s="196"/>
+      <c r="FB6" s="197"/>
+      <c r="FC6" s="195">
         <f t="shared" ref="FC6" si="47">EZ6+1</f>
         <v>44084</v>
       </c>
-      <c r="FD6" s="68"/>
-      <c r="FE6" s="69"/>
-      <c r="FF6" s="67">
+      <c r="FD6" s="196"/>
+      <c r="FE6" s="197"/>
+      <c r="FF6" s="195">
         <f t="shared" ref="FF6" si="48">FC6+1</f>
         <v>44085</v>
       </c>
-      <c r="FG6" s="68"/>
-      <c r="FH6" s="69"/>
-      <c r="FI6" s="67">
+      <c r="FG6" s="196"/>
+      <c r="FH6" s="197"/>
+      <c r="FI6" s="195">
         <f t="shared" ref="FI6" si="49">FF6+1</f>
         <v>44086</v>
       </c>
-      <c r="FJ6" s="68"/>
-      <c r="FK6" s="69"/>
-    </row>
-    <row r="7" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="FJ6" s="196"/>
+      <c r="FK6" s="197"/>
+    </row>
+    <row r="7" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="191"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2296,7 +4403,7 @@
       <c r="FJ8" s="5"/>
       <c r="FK8" s="5"/>
     </row>
-    <row r="9" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
@@ -2428,7 +4535,7 @@
       <c r="DW9" s="6"/>
       <c r="DX9" s="6"/>
     </row>
-    <row r="10" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2554,7 +4661,7 @@
       <c r="DW10" s="6"/>
       <c r="DX10" s="6"/>
     </row>
-    <row r="11" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2680,7 +4787,7 @@
       <c r="DW11" s="6"/>
       <c r="DX11" s="6"/>
     </row>
-    <row r="12" spans="1:167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2808,44 +4915,19 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="BE6:BG6"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="BN6:BP6"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="BT6:BV6"/>
-    <mergeCell ref="BW6:BY6"/>
-    <mergeCell ref="BZ6:CB6"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CF6:CH6"/>
-    <mergeCell ref="CI6:CK6"/>
-    <mergeCell ref="CL6:CN6"/>
-    <mergeCell ref="CO6:CQ6"/>
-    <mergeCell ref="CR6:CT6"/>
-    <mergeCell ref="CU6:CW6"/>
+    <mergeCell ref="FC6:FE6"/>
+    <mergeCell ref="FF6:FH6"/>
+    <mergeCell ref="FI6:FK6"/>
+    <mergeCell ref="EN6:EP6"/>
+    <mergeCell ref="EQ6:ES6"/>
+    <mergeCell ref="ET6:EV6"/>
+    <mergeCell ref="EW6:EY6"/>
+    <mergeCell ref="EZ6:FB6"/>
+    <mergeCell ref="DY6:EA6"/>
+    <mergeCell ref="EB6:ED6"/>
+    <mergeCell ref="EE6:EG6"/>
+    <mergeCell ref="EH6:EJ6"/>
+    <mergeCell ref="EK6:EM6"/>
     <mergeCell ref="DM6:DO6"/>
     <mergeCell ref="DP6:DR6"/>
     <mergeCell ref="DS6:DU6"/>
@@ -2855,19 +4937,44 @@
     <mergeCell ref="DD6:DF6"/>
     <mergeCell ref="DG6:DI6"/>
     <mergeCell ref="DJ6:DL6"/>
-    <mergeCell ref="DY6:EA6"/>
-    <mergeCell ref="EB6:ED6"/>
-    <mergeCell ref="EE6:EG6"/>
-    <mergeCell ref="EH6:EJ6"/>
-    <mergeCell ref="EK6:EM6"/>
-    <mergeCell ref="FC6:FE6"/>
-    <mergeCell ref="FF6:FH6"/>
-    <mergeCell ref="FI6:FK6"/>
-    <mergeCell ref="EN6:EP6"/>
-    <mergeCell ref="EQ6:ES6"/>
-    <mergeCell ref="ET6:EV6"/>
-    <mergeCell ref="EW6:EY6"/>
-    <mergeCell ref="EZ6:FB6"/>
+    <mergeCell ref="CI6:CK6"/>
+    <mergeCell ref="CL6:CN6"/>
+    <mergeCell ref="CO6:CQ6"/>
+    <mergeCell ref="CR6:CT6"/>
+    <mergeCell ref="CU6:CW6"/>
+    <mergeCell ref="BT6:BV6"/>
+    <mergeCell ref="BW6:BY6"/>
+    <mergeCell ref="BZ6:CB6"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CF6:CH6"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2875,467 +4982,467 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992195C-6099-4F4F-9774-B0A0A335235C}">
   <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9:AL10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="61" customWidth="1"/>
-    <col min="4" max="35" width="5.42578125" style="10" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="12.42578125" style="18" customWidth="1"/>
-    <col min="38" max="256" width="9.140625" style="18"/>
-    <col min="257" max="257" width="5.140625" style="18" customWidth="1"/>
-    <col min="258" max="258" width="12.85546875" style="18" customWidth="1"/>
-    <col min="259" max="259" width="37.28515625" style="18" customWidth="1"/>
-    <col min="260" max="291" width="5.42578125" style="18" customWidth="1"/>
-    <col min="292" max="292" width="13.28515625" style="18" customWidth="1"/>
-    <col min="293" max="293" width="12.42578125" style="18" customWidth="1"/>
-    <col min="294" max="512" width="9.140625" style="18"/>
-    <col min="513" max="513" width="5.140625" style="18" customWidth="1"/>
-    <col min="514" max="514" width="12.85546875" style="18" customWidth="1"/>
-    <col min="515" max="515" width="37.28515625" style="18" customWidth="1"/>
-    <col min="516" max="547" width="5.42578125" style="18" customWidth="1"/>
-    <col min="548" max="548" width="13.28515625" style="18" customWidth="1"/>
-    <col min="549" max="549" width="12.42578125" style="18" customWidth="1"/>
-    <col min="550" max="768" width="9.140625" style="18"/>
-    <col min="769" max="769" width="5.140625" style="18" customWidth="1"/>
-    <col min="770" max="770" width="12.85546875" style="18" customWidth="1"/>
-    <col min="771" max="771" width="37.28515625" style="18" customWidth="1"/>
-    <col min="772" max="803" width="5.42578125" style="18" customWidth="1"/>
-    <col min="804" max="804" width="13.28515625" style="18" customWidth="1"/>
-    <col min="805" max="805" width="12.42578125" style="18" customWidth="1"/>
-    <col min="806" max="1024" width="9.140625" style="18"/>
-    <col min="1025" max="1025" width="5.140625" style="18" customWidth="1"/>
-    <col min="1026" max="1026" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1027" max="1027" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1028" max="1059" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1060" max="1060" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1061" max="1061" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1062" max="1280" width="9.140625" style="18"/>
-    <col min="1281" max="1281" width="5.140625" style="18" customWidth="1"/>
-    <col min="1282" max="1282" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1283" max="1283" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1284" max="1315" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1316" max="1316" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1317" max="1317" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1318" max="1536" width="9.140625" style="18"/>
-    <col min="1537" max="1537" width="5.140625" style="18" customWidth="1"/>
-    <col min="1538" max="1538" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1539" max="1539" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1540" max="1571" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1572" max="1572" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1573" max="1573" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1574" max="1792" width="9.140625" style="18"/>
-    <col min="1793" max="1793" width="5.140625" style="18" customWidth="1"/>
-    <col min="1794" max="1794" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1795" max="1795" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1796" max="1827" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1828" max="1828" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1829" max="1829" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1830" max="2048" width="9.140625" style="18"/>
-    <col min="2049" max="2049" width="5.140625" style="18" customWidth="1"/>
-    <col min="2050" max="2050" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2051" max="2051" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2052" max="2083" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2084" max="2084" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2085" max="2085" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2086" max="2304" width="9.140625" style="18"/>
-    <col min="2305" max="2305" width="5.140625" style="18" customWidth="1"/>
-    <col min="2306" max="2306" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2307" max="2307" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2308" max="2339" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2340" max="2340" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2341" max="2341" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2342" max="2560" width="9.140625" style="18"/>
-    <col min="2561" max="2561" width="5.140625" style="18" customWidth="1"/>
-    <col min="2562" max="2562" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2563" max="2563" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2564" max="2595" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2596" max="2596" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2597" max="2597" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2598" max="2816" width="9.140625" style="18"/>
-    <col min="2817" max="2817" width="5.140625" style="18" customWidth="1"/>
-    <col min="2818" max="2818" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2819" max="2819" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2820" max="2851" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2852" max="2852" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2853" max="2853" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2854" max="3072" width="9.140625" style="18"/>
-    <col min="3073" max="3073" width="5.140625" style="18" customWidth="1"/>
-    <col min="3074" max="3074" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3075" max="3075" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3076" max="3107" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3108" max="3108" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3109" max="3109" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3110" max="3328" width="9.140625" style="18"/>
-    <col min="3329" max="3329" width="5.140625" style="18" customWidth="1"/>
-    <col min="3330" max="3330" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3331" max="3331" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3332" max="3363" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3364" max="3364" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3365" max="3365" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3366" max="3584" width="9.140625" style="18"/>
-    <col min="3585" max="3585" width="5.140625" style="18" customWidth="1"/>
-    <col min="3586" max="3586" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3587" max="3587" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3588" max="3619" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3620" max="3620" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3621" max="3621" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3622" max="3840" width="9.140625" style="18"/>
-    <col min="3841" max="3841" width="5.140625" style="18" customWidth="1"/>
-    <col min="3842" max="3842" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3843" max="3843" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3844" max="3875" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3876" max="3876" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3877" max="3877" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3878" max="4096" width="9.140625" style="18"/>
-    <col min="4097" max="4097" width="5.140625" style="18" customWidth="1"/>
-    <col min="4098" max="4098" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4099" max="4099" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4100" max="4131" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4132" max="4132" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4133" max="4133" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4134" max="4352" width="9.140625" style="18"/>
-    <col min="4353" max="4353" width="5.140625" style="18" customWidth="1"/>
-    <col min="4354" max="4354" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4355" max="4355" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4356" max="4387" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4388" max="4388" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4389" max="4389" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4390" max="4608" width="9.140625" style="18"/>
-    <col min="4609" max="4609" width="5.140625" style="18" customWidth="1"/>
-    <col min="4610" max="4610" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4611" max="4611" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4612" max="4643" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4644" max="4644" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4645" max="4645" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4646" max="4864" width="9.140625" style="18"/>
-    <col min="4865" max="4865" width="5.140625" style="18" customWidth="1"/>
-    <col min="4866" max="4866" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4867" max="4867" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4868" max="4899" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4900" max="4900" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4901" max="4901" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4902" max="5120" width="9.140625" style="18"/>
-    <col min="5121" max="5121" width="5.140625" style="18" customWidth="1"/>
-    <col min="5122" max="5122" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5123" max="5123" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5124" max="5155" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5156" max="5156" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5157" max="5157" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5158" max="5376" width="9.140625" style="18"/>
-    <col min="5377" max="5377" width="5.140625" style="18" customWidth="1"/>
-    <col min="5378" max="5378" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5379" max="5379" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5380" max="5411" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5412" max="5412" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5413" max="5413" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5414" max="5632" width="9.140625" style="18"/>
-    <col min="5633" max="5633" width="5.140625" style="18" customWidth="1"/>
-    <col min="5634" max="5634" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5635" max="5635" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5636" max="5667" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5668" max="5668" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5669" max="5669" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5670" max="5888" width="9.140625" style="18"/>
-    <col min="5889" max="5889" width="5.140625" style="18" customWidth="1"/>
-    <col min="5890" max="5890" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5891" max="5891" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5892" max="5923" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5924" max="5924" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5925" max="5925" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5926" max="6144" width="9.140625" style="18"/>
-    <col min="6145" max="6145" width="5.140625" style="18" customWidth="1"/>
-    <col min="6146" max="6146" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6147" max="6147" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6148" max="6179" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6180" max="6180" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6181" max="6181" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6182" max="6400" width="9.140625" style="18"/>
-    <col min="6401" max="6401" width="5.140625" style="18" customWidth="1"/>
-    <col min="6402" max="6402" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6403" max="6403" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6404" max="6435" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6436" max="6436" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6437" max="6437" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6438" max="6656" width="9.140625" style="18"/>
-    <col min="6657" max="6657" width="5.140625" style="18" customWidth="1"/>
-    <col min="6658" max="6658" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6659" max="6659" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6660" max="6691" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6692" max="6692" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6693" max="6693" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6694" max="6912" width="9.140625" style="18"/>
-    <col min="6913" max="6913" width="5.140625" style="18" customWidth="1"/>
-    <col min="6914" max="6914" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6915" max="6915" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6916" max="6947" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6948" max="6948" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6949" max="6949" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6950" max="7168" width="9.140625" style="18"/>
-    <col min="7169" max="7169" width="5.140625" style="18" customWidth="1"/>
-    <col min="7170" max="7170" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7171" max="7171" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7172" max="7203" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7204" max="7204" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7205" max="7205" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7206" max="7424" width="9.140625" style="18"/>
-    <col min="7425" max="7425" width="5.140625" style="18" customWidth="1"/>
-    <col min="7426" max="7426" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7427" max="7427" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7428" max="7459" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7460" max="7460" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7461" max="7461" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7462" max="7680" width="9.140625" style="18"/>
-    <col min="7681" max="7681" width="5.140625" style="18" customWidth="1"/>
-    <col min="7682" max="7682" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7683" max="7683" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7684" max="7715" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7716" max="7716" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7717" max="7717" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7718" max="7936" width="9.140625" style="18"/>
-    <col min="7937" max="7937" width="5.140625" style="18" customWidth="1"/>
-    <col min="7938" max="7938" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7939" max="7939" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7940" max="7971" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7972" max="7972" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7973" max="7973" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7974" max="8192" width="9.140625" style="18"/>
-    <col min="8193" max="8193" width="5.140625" style="18" customWidth="1"/>
-    <col min="8194" max="8194" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8195" max="8195" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8196" max="8227" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8228" max="8228" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8229" max="8229" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8230" max="8448" width="9.140625" style="18"/>
-    <col min="8449" max="8449" width="5.140625" style="18" customWidth="1"/>
-    <col min="8450" max="8450" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8451" max="8451" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8452" max="8483" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8484" max="8484" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8485" max="8485" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8486" max="8704" width="9.140625" style="18"/>
-    <col min="8705" max="8705" width="5.140625" style="18" customWidth="1"/>
-    <col min="8706" max="8706" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8707" max="8707" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8708" max="8739" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8740" max="8740" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8741" max="8741" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8742" max="8960" width="9.140625" style="18"/>
-    <col min="8961" max="8961" width="5.140625" style="18" customWidth="1"/>
-    <col min="8962" max="8962" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8963" max="8963" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8964" max="8995" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8996" max="8996" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8997" max="8997" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8998" max="9216" width="9.140625" style="18"/>
-    <col min="9217" max="9217" width="5.140625" style="18" customWidth="1"/>
-    <col min="9218" max="9218" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9219" max="9219" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9220" max="9251" width="5.42578125" style="18" customWidth="1"/>
-    <col min="9252" max="9252" width="13.28515625" style="18" customWidth="1"/>
-    <col min="9253" max="9253" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9254" max="9472" width="9.140625" style="18"/>
-    <col min="9473" max="9473" width="5.140625" style="18" customWidth="1"/>
-    <col min="9474" max="9474" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9475" max="9475" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9476" max="9507" width="5.42578125" style="18" customWidth="1"/>
-    <col min="9508" max="9508" width="13.28515625" style="18" customWidth="1"/>
-    <col min="9509" max="9509" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9510" max="9728" width="9.140625" style="18"/>
-    <col min="9729" max="9729" width="5.140625" style="18" customWidth="1"/>
-    <col min="9730" max="9730" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9731" max="9731" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9732" max="9763" width="5.42578125" style="18" customWidth="1"/>
-    <col min="9764" max="9764" width="13.28515625" style="18" customWidth="1"/>
-    <col min="9765" max="9765" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9766" max="9984" width="9.140625" style="18"/>
-    <col min="9985" max="9985" width="5.140625" style="18" customWidth="1"/>
-    <col min="9986" max="9986" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9987" max="9987" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9988" max="10019" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10020" max="10020" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10021" max="10021" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10022" max="10240" width="9.140625" style="18"/>
-    <col min="10241" max="10241" width="5.140625" style="18" customWidth="1"/>
-    <col min="10242" max="10242" width="12.85546875" style="18" customWidth="1"/>
-    <col min="10243" max="10243" width="37.28515625" style="18" customWidth="1"/>
-    <col min="10244" max="10275" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10276" max="10276" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10277" max="10277" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10278" max="10496" width="9.140625" style="18"/>
-    <col min="10497" max="10497" width="5.140625" style="18" customWidth="1"/>
-    <col min="10498" max="10498" width="12.85546875" style="18" customWidth="1"/>
-    <col min="10499" max="10499" width="37.28515625" style="18" customWidth="1"/>
-    <col min="10500" max="10531" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10532" max="10532" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10533" max="10533" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10534" max="10752" width="9.140625" style="18"/>
-    <col min="10753" max="10753" width="5.140625" style="18" customWidth="1"/>
-    <col min="10754" max="10754" width="12.85546875" style="18" customWidth="1"/>
-    <col min="10755" max="10755" width="37.28515625" style="18" customWidth="1"/>
-    <col min="10756" max="10787" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10788" max="10788" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10789" max="10789" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10790" max="11008" width="9.140625" style="18"/>
-    <col min="11009" max="11009" width="5.140625" style="18" customWidth="1"/>
-    <col min="11010" max="11010" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11011" max="11011" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11012" max="11043" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11044" max="11044" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11045" max="11045" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11046" max="11264" width="9.140625" style="18"/>
-    <col min="11265" max="11265" width="5.140625" style="18" customWidth="1"/>
-    <col min="11266" max="11266" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11267" max="11267" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11268" max="11299" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11300" max="11300" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11301" max="11301" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11302" max="11520" width="9.140625" style="18"/>
-    <col min="11521" max="11521" width="5.140625" style="18" customWidth="1"/>
-    <col min="11522" max="11522" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11523" max="11523" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11524" max="11555" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11556" max="11556" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11557" max="11557" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11558" max="11776" width="9.140625" style="18"/>
-    <col min="11777" max="11777" width="5.140625" style="18" customWidth="1"/>
-    <col min="11778" max="11778" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11779" max="11779" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11780" max="11811" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11812" max="11812" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11813" max="11813" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11814" max="12032" width="9.140625" style="18"/>
-    <col min="12033" max="12033" width="5.140625" style="18" customWidth="1"/>
-    <col min="12034" max="12034" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12035" max="12035" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12036" max="12067" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12068" max="12068" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12069" max="12069" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12070" max="12288" width="9.140625" style="18"/>
-    <col min="12289" max="12289" width="5.140625" style="18" customWidth="1"/>
-    <col min="12290" max="12290" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12291" max="12291" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12292" max="12323" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12324" max="12324" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12325" max="12325" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12326" max="12544" width="9.140625" style="18"/>
-    <col min="12545" max="12545" width="5.140625" style="18" customWidth="1"/>
-    <col min="12546" max="12546" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12547" max="12547" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12548" max="12579" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12580" max="12580" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12581" max="12581" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12582" max="12800" width="9.140625" style="18"/>
-    <col min="12801" max="12801" width="5.140625" style="18" customWidth="1"/>
-    <col min="12802" max="12802" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12803" max="12803" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12804" max="12835" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12836" max="12836" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12837" max="12837" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12838" max="13056" width="9.140625" style="18"/>
-    <col min="13057" max="13057" width="5.140625" style="18" customWidth="1"/>
-    <col min="13058" max="13058" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13059" max="13059" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13060" max="13091" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13092" max="13092" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13093" max="13093" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13094" max="13312" width="9.140625" style="18"/>
-    <col min="13313" max="13313" width="5.140625" style="18" customWidth="1"/>
-    <col min="13314" max="13314" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13315" max="13315" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13316" max="13347" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13348" max="13348" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13349" max="13349" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13350" max="13568" width="9.140625" style="18"/>
-    <col min="13569" max="13569" width="5.140625" style="18" customWidth="1"/>
-    <col min="13570" max="13570" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13571" max="13571" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13572" max="13603" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13604" max="13604" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13605" max="13605" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13606" max="13824" width="9.140625" style="18"/>
-    <col min="13825" max="13825" width="5.140625" style="18" customWidth="1"/>
-    <col min="13826" max="13826" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13827" max="13827" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13828" max="13859" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13860" max="13860" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13861" max="13861" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13862" max="14080" width="9.140625" style="18"/>
-    <col min="14081" max="14081" width="5.140625" style="18" customWidth="1"/>
-    <col min="14082" max="14082" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14083" max="14083" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14084" max="14115" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14116" max="14116" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14117" max="14117" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14118" max="14336" width="9.140625" style="18"/>
-    <col min="14337" max="14337" width="5.140625" style="18" customWidth="1"/>
-    <col min="14338" max="14338" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14339" max="14339" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14340" max="14371" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14372" max="14372" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14373" max="14373" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14374" max="14592" width="9.140625" style="18"/>
-    <col min="14593" max="14593" width="5.140625" style="18" customWidth="1"/>
-    <col min="14594" max="14594" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14595" max="14595" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14596" max="14627" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14628" max="14628" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14629" max="14629" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14630" max="14848" width="9.140625" style="18"/>
-    <col min="14849" max="14849" width="5.140625" style="18" customWidth="1"/>
-    <col min="14850" max="14850" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14851" max="14851" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14852" max="14883" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14884" max="14884" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14885" max="14885" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14886" max="15104" width="9.140625" style="18"/>
-    <col min="15105" max="15105" width="5.140625" style="18" customWidth="1"/>
-    <col min="15106" max="15106" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15107" max="15107" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15108" max="15139" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15140" max="15140" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15141" max="15141" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15142" max="15360" width="9.140625" style="18"/>
-    <col min="15361" max="15361" width="5.140625" style="18" customWidth="1"/>
-    <col min="15362" max="15362" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15363" max="15363" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15364" max="15395" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15396" max="15396" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15397" max="15397" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15398" max="15616" width="9.140625" style="18"/>
-    <col min="15617" max="15617" width="5.140625" style="18" customWidth="1"/>
-    <col min="15618" max="15618" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15619" max="15619" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15620" max="15651" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15652" max="15652" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15653" max="15653" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15654" max="15872" width="9.140625" style="18"/>
-    <col min="15873" max="15873" width="5.140625" style="18" customWidth="1"/>
-    <col min="15874" max="15874" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15875" max="15875" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15876" max="15907" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15908" max="15908" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15909" max="15909" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15910" max="16128" width="9.140625" style="18"/>
-    <col min="16129" max="16129" width="5.140625" style="18" customWidth="1"/>
-    <col min="16130" max="16130" width="12.85546875" style="18" customWidth="1"/>
-    <col min="16131" max="16131" width="37.28515625" style="18" customWidth="1"/>
-    <col min="16132" max="16163" width="5.42578125" style="18" customWidth="1"/>
-    <col min="16164" max="16164" width="13.28515625" style="18" customWidth="1"/>
-    <col min="16165" max="16165" width="12.42578125" style="18" customWidth="1"/>
-    <col min="16166" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="5.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="61" customWidth="1"/>
+    <col min="4" max="35" width="5.44140625" style="10" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" style="10" customWidth="1"/>
+    <col min="37" max="37" width="12.44140625" style="18" customWidth="1"/>
+    <col min="38" max="256" width="9.109375" style="18"/>
+    <col min="257" max="257" width="5.109375" style="18" customWidth="1"/>
+    <col min="258" max="258" width="12.88671875" style="18" customWidth="1"/>
+    <col min="259" max="259" width="37.33203125" style="18" customWidth="1"/>
+    <col min="260" max="291" width="5.44140625" style="18" customWidth="1"/>
+    <col min="292" max="292" width="13.33203125" style="18" customWidth="1"/>
+    <col min="293" max="293" width="12.44140625" style="18" customWidth="1"/>
+    <col min="294" max="512" width="9.109375" style="18"/>
+    <col min="513" max="513" width="5.109375" style="18" customWidth="1"/>
+    <col min="514" max="514" width="12.88671875" style="18" customWidth="1"/>
+    <col min="515" max="515" width="37.33203125" style="18" customWidth="1"/>
+    <col min="516" max="547" width="5.44140625" style="18" customWidth="1"/>
+    <col min="548" max="548" width="13.33203125" style="18" customWidth="1"/>
+    <col min="549" max="549" width="12.44140625" style="18" customWidth="1"/>
+    <col min="550" max="768" width="9.109375" style="18"/>
+    <col min="769" max="769" width="5.109375" style="18" customWidth="1"/>
+    <col min="770" max="770" width="12.88671875" style="18" customWidth="1"/>
+    <col min="771" max="771" width="37.33203125" style="18" customWidth="1"/>
+    <col min="772" max="803" width="5.44140625" style="18" customWidth="1"/>
+    <col min="804" max="804" width="13.33203125" style="18" customWidth="1"/>
+    <col min="805" max="805" width="12.44140625" style="18" customWidth="1"/>
+    <col min="806" max="1024" width="9.109375" style="18"/>
+    <col min="1025" max="1025" width="5.109375" style="18" customWidth="1"/>
+    <col min="1026" max="1026" width="12.88671875" style="18" customWidth="1"/>
+    <col min="1027" max="1027" width="37.33203125" style="18" customWidth="1"/>
+    <col min="1028" max="1059" width="5.44140625" style="18" customWidth="1"/>
+    <col min="1060" max="1060" width="13.33203125" style="18" customWidth="1"/>
+    <col min="1061" max="1061" width="12.44140625" style="18" customWidth="1"/>
+    <col min="1062" max="1280" width="9.109375" style="18"/>
+    <col min="1281" max="1281" width="5.109375" style="18" customWidth="1"/>
+    <col min="1282" max="1282" width="12.88671875" style="18" customWidth="1"/>
+    <col min="1283" max="1283" width="37.33203125" style="18" customWidth="1"/>
+    <col min="1284" max="1315" width="5.44140625" style="18" customWidth="1"/>
+    <col min="1316" max="1316" width="13.33203125" style="18" customWidth="1"/>
+    <col min="1317" max="1317" width="12.44140625" style="18" customWidth="1"/>
+    <col min="1318" max="1536" width="9.109375" style="18"/>
+    <col min="1537" max="1537" width="5.109375" style="18" customWidth="1"/>
+    <col min="1538" max="1538" width="12.88671875" style="18" customWidth="1"/>
+    <col min="1539" max="1539" width="37.33203125" style="18" customWidth="1"/>
+    <col min="1540" max="1571" width="5.44140625" style="18" customWidth="1"/>
+    <col min="1572" max="1572" width="13.33203125" style="18" customWidth="1"/>
+    <col min="1573" max="1573" width="12.44140625" style="18" customWidth="1"/>
+    <col min="1574" max="1792" width="9.109375" style="18"/>
+    <col min="1793" max="1793" width="5.109375" style="18" customWidth="1"/>
+    <col min="1794" max="1794" width="12.88671875" style="18" customWidth="1"/>
+    <col min="1795" max="1795" width="37.33203125" style="18" customWidth="1"/>
+    <col min="1796" max="1827" width="5.44140625" style="18" customWidth="1"/>
+    <col min="1828" max="1828" width="13.33203125" style="18" customWidth="1"/>
+    <col min="1829" max="1829" width="12.44140625" style="18" customWidth="1"/>
+    <col min="1830" max="2048" width="9.109375" style="18"/>
+    <col min="2049" max="2049" width="5.109375" style="18" customWidth="1"/>
+    <col min="2050" max="2050" width="12.88671875" style="18" customWidth="1"/>
+    <col min="2051" max="2051" width="37.33203125" style="18" customWidth="1"/>
+    <col min="2052" max="2083" width="5.44140625" style="18" customWidth="1"/>
+    <col min="2084" max="2084" width="13.33203125" style="18" customWidth="1"/>
+    <col min="2085" max="2085" width="12.44140625" style="18" customWidth="1"/>
+    <col min="2086" max="2304" width="9.109375" style="18"/>
+    <col min="2305" max="2305" width="5.109375" style="18" customWidth="1"/>
+    <col min="2306" max="2306" width="12.88671875" style="18" customWidth="1"/>
+    <col min="2307" max="2307" width="37.33203125" style="18" customWidth="1"/>
+    <col min="2308" max="2339" width="5.44140625" style="18" customWidth="1"/>
+    <col min="2340" max="2340" width="13.33203125" style="18" customWidth="1"/>
+    <col min="2341" max="2341" width="12.44140625" style="18" customWidth="1"/>
+    <col min="2342" max="2560" width="9.109375" style="18"/>
+    <col min="2561" max="2561" width="5.109375" style="18" customWidth="1"/>
+    <col min="2562" max="2562" width="12.88671875" style="18" customWidth="1"/>
+    <col min="2563" max="2563" width="37.33203125" style="18" customWidth="1"/>
+    <col min="2564" max="2595" width="5.44140625" style="18" customWidth="1"/>
+    <col min="2596" max="2596" width="13.33203125" style="18" customWidth="1"/>
+    <col min="2597" max="2597" width="12.44140625" style="18" customWidth="1"/>
+    <col min="2598" max="2816" width="9.109375" style="18"/>
+    <col min="2817" max="2817" width="5.109375" style="18" customWidth="1"/>
+    <col min="2818" max="2818" width="12.88671875" style="18" customWidth="1"/>
+    <col min="2819" max="2819" width="37.33203125" style="18" customWidth="1"/>
+    <col min="2820" max="2851" width="5.44140625" style="18" customWidth="1"/>
+    <col min="2852" max="2852" width="13.33203125" style="18" customWidth="1"/>
+    <col min="2853" max="2853" width="12.44140625" style="18" customWidth="1"/>
+    <col min="2854" max="3072" width="9.109375" style="18"/>
+    <col min="3073" max="3073" width="5.109375" style="18" customWidth="1"/>
+    <col min="3074" max="3074" width="12.88671875" style="18" customWidth="1"/>
+    <col min="3075" max="3075" width="37.33203125" style="18" customWidth="1"/>
+    <col min="3076" max="3107" width="5.44140625" style="18" customWidth="1"/>
+    <col min="3108" max="3108" width="13.33203125" style="18" customWidth="1"/>
+    <col min="3109" max="3109" width="12.44140625" style="18" customWidth="1"/>
+    <col min="3110" max="3328" width="9.109375" style="18"/>
+    <col min="3329" max="3329" width="5.109375" style="18" customWidth="1"/>
+    <col min="3330" max="3330" width="12.88671875" style="18" customWidth="1"/>
+    <col min="3331" max="3331" width="37.33203125" style="18" customWidth="1"/>
+    <col min="3332" max="3363" width="5.44140625" style="18" customWidth="1"/>
+    <col min="3364" max="3364" width="13.33203125" style="18" customWidth="1"/>
+    <col min="3365" max="3365" width="12.44140625" style="18" customWidth="1"/>
+    <col min="3366" max="3584" width="9.109375" style="18"/>
+    <col min="3585" max="3585" width="5.109375" style="18" customWidth="1"/>
+    <col min="3586" max="3586" width="12.88671875" style="18" customWidth="1"/>
+    <col min="3587" max="3587" width="37.33203125" style="18" customWidth="1"/>
+    <col min="3588" max="3619" width="5.44140625" style="18" customWidth="1"/>
+    <col min="3620" max="3620" width="13.33203125" style="18" customWidth="1"/>
+    <col min="3621" max="3621" width="12.44140625" style="18" customWidth="1"/>
+    <col min="3622" max="3840" width="9.109375" style="18"/>
+    <col min="3841" max="3841" width="5.109375" style="18" customWidth="1"/>
+    <col min="3842" max="3842" width="12.88671875" style="18" customWidth="1"/>
+    <col min="3843" max="3843" width="37.33203125" style="18" customWidth="1"/>
+    <col min="3844" max="3875" width="5.44140625" style="18" customWidth="1"/>
+    <col min="3876" max="3876" width="13.33203125" style="18" customWidth="1"/>
+    <col min="3877" max="3877" width="12.44140625" style="18" customWidth="1"/>
+    <col min="3878" max="4096" width="9.109375" style="18"/>
+    <col min="4097" max="4097" width="5.109375" style="18" customWidth="1"/>
+    <col min="4098" max="4098" width="12.88671875" style="18" customWidth="1"/>
+    <col min="4099" max="4099" width="37.33203125" style="18" customWidth="1"/>
+    <col min="4100" max="4131" width="5.44140625" style="18" customWidth="1"/>
+    <col min="4132" max="4132" width="13.33203125" style="18" customWidth="1"/>
+    <col min="4133" max="4133" width="12.44140625" style="18" customWidth="1"/>
+    <col min="4134" max="4352" width="9.109375" style="18"/>
+    <col min="4353" max="4353" width="5.109375" style="18" customWidth="1"/>
+    <col min="4354" max="4354" width="12.88671875" style="18" customWidth="1"/>
+    <col min="4355" max="4355" width="37.33203125" style="18" customWidth="1"/>
+    <col min="4356" max="4387" width="5.44140625" style="18" customWidth="1"/>
+    <col min="4388" max="4388" width="13.33203125" style="18" customWidth="1"/>
+    <col min="4389" max="4389" width="12.44140625" style="18" customWidth="1"/>
+    <col min="4390" max="4608" width="9.109375" style="18"/>
+    <col min="4609" max="4609" width="5.109375" style="18" customWidth="1"/>
+    <col min="4610" max="4610" width="12.88671875" style="18" customWidth="1"/>
+    <col min="4611" max="4611" width="37.33203125" style="18" customWidth="1"/>
+    <col min="4612" max="4643" width="5.44140625" style="18" customWidth="1"/>
+    <col min="4644" max="4644" width="13.33203125" style="18" customWidth="1"/>
+    <col min="4645" max="4645" width="12.44140625" style="18" customWidth="1"/>
+    <col min="4646" max="4864" width="9.109375" style="18"/>
+    <col min="4865" max="4865" width="5.109375" style="18" customWidth="1"/>
+    <col min="4866" max="4866" width="12.88671875" style="18" customWidth="1"/>
+    <col min="4867" max="4867" width="37.33203125" style="18" customWidth="1"/>
+    <col min="4868" max="4899" width="5.44140625" style="18" customWidth="1"/>
+    <col min="4900" max="4900" width="13.33203125" style="18" customWidth="1"/>
+    <col min="4901" max="4901" width="12.44140625" style="18" customWidth="1"/>
+    <col min="4902" max="5120" width="9.109375" style="18"/>
+    <col min="5121" max="5121" width="5.109375" style="18" customWidth="1"/>
+    <col min="5122" max="5122" width="12.88671875" style="18" customWidth="1"/>
+    <col min="5123" max="5123" width="37.33203125" style="18" customWidth="1"/>
+    <col min="5124" max="5155" width="5.44140625" style="18" customWidth="1"/>
+    <col min="5156" max="5156" width="13.33203125" style="18" customWidth="1"/>
+    <col min="5157" max="5157" width="12.44140625" style="18" customWidth="1"/>
+    <col min="5158" max="5376" width="9.109375" style="18"/>
+    <col min="5377" max="5377" width="5.109375" style="18" customWidth="1"/>
+    <col min="5378" max="5378" width="12.88671875" style="18" customWidth="1"/>
+    <col min="5379" max="5379" width="37.33203125" style="18" customWidth="1"/>
+    <col min="5380" max="5411" width="5.44140625" style="18" customWidth="1"/>
+    <col min="5412" max="5412" width="13.33203125" style="18" customWidth="1"/>
+    <col min="5413" max="5413" width="12.44140625" style="18" customWidth="1"/>
+    <col min="5414" max="5632" width="9.109375" style="18"/>
+    <col min="5633" max="5633" width="5.109375" style="18" customWidth="1"/>
+    <col min="5634" max="5634" width="12.88671875" style="18" customWidth="1"/>
+    <col min="5635" max="5635" width="37.33203125" style="18" customWidth="1"/>
+    <col min="5636" max="5667" width="5.44140625" style="18" customWidth="1"/>
+    <col min="5668" max="5668" width="13.33203125" style="18" customWidth="1"/>
+    <col min="5669" max="5669" width="12.44140625" style="18" customWidth="1"/>
+    <col min="5670" max="5888" width="9.109375" style="18"/>
+    <col min="5889" max="5889" width="5.109375" style="18" customWidth="1"/>
+    <col min="5890" max="5890" width="12.88671875" style="18" customWidth="1"/>
+    <col min="5891" max="5891" width="37.33203125" style="18" customWidth="1"/>
+    <col min="5892" max="5923" width="5.44140625" style="18" customWidth="1"/>
+    <col min="5924" max="5924" width="13.33203125" style="18" customWidth="1"/>
+    <col min="5925" max="5925" width="12.44140625" style="18" customWidth="1"/>
+    <col min="5926" max="6144" width="9.109375" style="18"/>
+    <col min="6145" max="6145" width="5.109375" style="18" customWidth="1"/>
+    <col min="6146" max="6146" width="12.88671875" style="18" customWidth="1"/>
+    <col min="6147" max="6147" width="37.33203125" style="18" customWidth="1"/>
+    <col min="6148" max="6179" width="5.44140625" style="18" customWidth="1"/>
+    <col min="6180" max="6180" width="13.33203125" style="18" customWidth="1"/>
+    <col min="6181" max="6181" width="12.44140625" style="18" customWidth="1"/>
+    <col min="6182" max="6400" width="9.109375" style="18"/>
+    <col min="6401" max="6401" width="5.109375" style="18" customWidth="1"/>
+    <col min="6402" max="6402" width="12.88671875" style="18" customWidth="1"/>
+    <col min="6403" max="6403" width="37.33203125" style="18" customWidth="1"/>
+    <col min="6404" max="6435" width="5.44140625" style="18" customWidth="1"/>
+    <col min="6436" max="6436" width="13.33203125" style="18" customWidth="1"/>
+    <col min="6437" max="6437" width="12.44140625" style="18" customWidth="1"/>
+    <col min="6438" max="6656" width="9.109375" style="18"/>
+    <col min="6657" max="6657" width="5.109375" style="18" customWidth="1"/>
+    <col min="6658" max="6658" width="12.88671875" style="18" customWidth="1"/>
+    <col min="6659" max="6659" width="37.33203125" style="18" customWidth="1"/>
+    <col min="6660" max="6691" width="5.44140625" style="18" customWidth="1"/>
+    <col min="6692" max="6692" width="13.33203125" style="18" customWidth="1"/>
+    <col min="6693" max="6693" width="12.44140625" style="18" customWidth="1"/>
+    <col min="6694" max="6912" width="9.109375" style="18"/>
+    <col min="6913" max="6913" width="5.109375" style="18" customWidth="1"/>
+    <col min="6914" max="6914" width="12.88671875" style="18" customWidth="1"/>
+    <col min="6915" max="6915" width="37.33203125" style="18" customWidth="1"/>
+    <col min="6916" max="6947" width="5.44140625" style="18" customWidth="1"/>
+    <col min="6948" max="6948" width="13.33203125" style="18" customWidth="1"/>
+    <col min="6949" max="6949" width="12.44140625" style="18" customWidth="1"/>
+    <col min="6950" max="7168" width="9.109375" style="18"/>
+    <col min="7169" max="7169" width="5.109375" style="18" customWidth="1"/>
+    <col min="7170" max="7170" width="12.88671875" style="18" customWidth="1"/>
+    <col min="7171" max="7171" width="37.33203125" style="18" customWidth="1"/>
+    <col min="7172" max="7203" width="5.44140625" style="18" customWidth="1"/>
+    <col min="7204" max="7204" width="13.33203125" style="18" customWidth="1"/>
+    <col min="7205" max="7205" width="12.44140625" style="18" customWidth="1"/>
+    <col min="7206" max="7424" width="9.109375" style="18"/>
+    <col min="7425" max="7425" width="5.109375" style="18" customWidth="1"/>
+    <col min="7426" max="7426" width="12.88671875" style="18" customWidth="1"/>
+    <col min="7427" max="7427" width="37.33203125" style="18" customWidth="1"/>
+    <col min="7428" max="7459" width="5.44140625" style="18" customWidth="1"/>
+    <col min="7460" max="7460" width="13.33203125" style="18" customWidth="1"/>
+    <col min="7461" max="7461" width="12.44140625" style="18" customWidth="1"/>
+    <col min="7462" max="7680" width="9.109375" style="18"/>
+    <col min="7681" max="7681" width="5.109375" style="18" customWidth="1"/>
+    <col min="7682" max="7682" width="12.88671875" style="18" customWidth="1"/>
+    <col min="7683" max="7683" width="37.33203125" style="18" customWidth="1"/>
+    <col min="7684" max="7715" width="5.44140625" style="18" customWidth="1"/>
+    <col min="7716" max="7716" width="13.33203125" style="18" customWidth="1"/>
+    <col min="7717" max="7717" width="12.44140625" style="18" customWidth="1"/>
+    <col min="7718" max="7936" width="9.109375" style="18"/>
+    <col min="7937" max="7937" width="5.109375" style="18" customWidth="1"/>
+    <col min="7938" max="7938" width="12.88671875" style="18" customWidth="1"/>
+    <col min="7939" max="7939" width="37.33203125" style="18" customWidth="1"/>
+    <col min="7940" max="7971" width="5.44140625" style="18" customWidth="1"/>
+    <col min="7972" max="7972" width="13.33203125" style="18" customWidth="1"/>
+    <col min="7973" max="7973" width="12.44140625" style="18" customWidth="1"/>
+    <col min="7974" max="8192" width="9.109375" style="18"/>
+    <col min="8193" max="8193" width="5.109375" style="18" customWidth="1"/>
+    <col min="8194" max="8194" width="12.88671875" style="18" customWidth="1"/>
+    <col min="8195" max="8195" width="37.33203125" style="18" customWidth="1"/>
+    <col min="8196" max="8227" width="5.44140625" style="18" customWidth="1"/>
+    <col min="8228" max="8228" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8229" max="8229" width="12.44140625" style="18" customWidth="1"/>
+    <col min="8230" max="8448" width="9.109375" style="18"/>
+    <col min="8449" max="8449" width="5.109375" style="18" customWidth="1"/>
+    <col min="8450" max="8450" width="12.88671875" style="18" customWidth="1"/>
+    <col min="8451" max="8451" width="37.33203125" style="18" customWidth="1"/>
+    <col min="8452" max="8483" width="5.44140625" style="18" customWidth="1"/>
+    <col min="8484" max="8484" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8485" max="8485" width="12.44140625" style="18" customWidth="1"/>
+    <col min="8486" max="8704" width="9.109375" style="18"/>
+    <col min="8705" max="8705" width="5.109375" style="18" customWidth="1"/>
+    <col min="8706" max="8706" width="12.88671875" style="18" customWidth="1"/>
+    <col min="8707" max="8707" width="37.33203125" style="18" customWidth="1"/>
+    <col min="8708" max="8739" width="5.44140625" style="18" customWidth="1"/>
+    <col min="8740" max="8740" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8741" max="8741" width="12.44140625" style="18" customWidth="1"/>
+    <col min="8742" max="8960" width="9.109375" style="18"/>
+    <col min="8961" max="8961" width="5.109375" style="18" customWidth="1"/>
+    <col min="8962" max="8962" width="12.88671875" style="18" customWidth="1"/>
+    <col min="8963" max="8963" width="37.33203125" style="18" customWidth="1"/>
+    <col min="8964" max="8995" width="5.44140625" style="18" customWidth="1"/>
+    <col min="8996" max="8996" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8997" max="8997" width="12.44140625" style="18" customWidth="1"/>
+    <col min="8998" max="9216" width="9.109375" style="18"/>
+    <col min="9217" max="9217" width="5.109375" style="18" customWidth="1"/>
+    <col min="9218" max="9218" width="12.88671875" style="18" customWidth="1"/>
+    <col min="9219" max="9219" width="37.33203125" style="18" customWidth="1"/>
+    <col min="9220" max="9251" width="5.44140625" style="18" customWidth="1"/>
+    <col min="9252" max="9252" width="13.33203125" style="18" customWidth="1"/>
+    <col min="9253" max="9253" width="12.44140625" style="18" customWidth="1"/>
+    <col min="9254" max="9472" width="9.109375" style="18"/>
+    <col min="9473" max="9473" width="5.109375" style="18" customWidth="1"/>
+    <col min="9474" max="9474" width="12.88671875" style="18" customWidth="1"/>
+    <col min="9475" max="9475" width="37.33203125" style="18" customWidth="1"/>
+    <col min="9476" max="9507" width="5.44140625" style="18" customWidth="1"/>
+    <col min="9508" max="9508" width="13.33203125" style="18" customWidth="1"/>
+    <col min="9509" max="9509" width="12.44140625" style="18" customWidth="1"/>
+    <col min="9510" max="9728" width="9.109375" style="18"/>
+    <col min="9729" max="9729" width="5.109375" style="18" customWidth="1"/>
+    <col min="9730" max="9730" width="12.88671875" style="18" customWidth="1"/>
+    <col min="9731" max="9731" width="37.33203125" style="18" customWidth="1"/>
+    <col min="9732" max="9763" width="5.44140625" style="18" customWidth="1"/>
+    <col min="9764" max="9764" width="13.33203125" style="18" customWidth="1"/>
+    <col min="9765" max="9765" width="12.44140625" style="18" customWidth="1"/>
+    <col min="9766" max="9984" width="9.109375" style="18"/>
+    <col min="9985" max="9985" width="5.109375" style="18" customWidth="1"/>
+    <col min="9986" max="9986" width="12.88671875" style="18" customWidth="1"/>
+    <col min="9987" max="9987" width="37.33203125" style="18" customWidth="1"/>
+    <col min="9988" max="10019" width="5.44140625" style="18" customWidth="1"/>
+    <col min="10020" max="10020" width="13.33203125" style="18" customWidth="1"/>
+    <col min="10021" max="10021" width="12.44140625" style="18" customWidth="1"/>
+    <col min="10022" max="10240" width="9.109375" style="18"/>
+    <col min="10241" max="10241" width="5.109375" style="18" customWidth="1"/>
+    <col min="10242" max="10242" width="12.88671875" style="18" customWidth="1"/>
+    <col min="10243" max="10243" width="37.33203125" style="18" customWidth="1"/>
+    <col min="10244" max="10275" width="5.44140625" style="18" customWidth="1"/>
+    <col min="10276" max="10276" width="13.33203125" style="18" customWidth="1"/>
+    <col min="10277" max="10277" width="12.44140625" style="18" customWidth="1"/>
+    <col min="10278" max="10496" width="9.109375" style="18"/>
+    <col min="10497" max="10497" width="5.109375" style="18" customWidth="1"/>
+    <col min="10498" max="10498" width="12.88671875" style="18" customWidth="1"/>
+    <col min="10499" max="10499" width="37.33203125" style="18" customWidth="1"/>
+    <col min="10500" max="10531" width="5.44140625" style="18" customWidth="1"/>
+    <col min="10532" max="10532" width="13.33203125" style="18" customWidth="1"/>
+    <col min="10533" max="10533" width="12.44140625" style="18" customWidth="1"/>
+    <col min="10534" max="10752" width="9.109375" style="18"/>
+    <col min="10753" max="10753" width="5.109375" style="18" customWidth="1"/>
+    <col min="10754" max="10754" width="12.88671875" style="18" customWidth="1"/>
+    <col min="10755" max="10755" width="37.33203125" style="18" customWidth="1"/>
+    <col min="10756" max="10787" width="5.44140625" style="18" customWidth="1"/>
+    <col min="10788" max="10788" width="13.33203125" style="18" customWidth="1"/>
+    <col min="10789" max="10789" width="12.44140625" style="18" customWidth="1"/>
+    <col min="10790" max="11008" width="9.109375" style="18"/>
+    <col min="11009" max="11009" width="5.109375" style="18" customWidth="1"/>
+    <col min="11010" max="11010" width="12.88671875" style="18" customWidth="1"/>
+    <col min="11011" max="11011" width="37.33203125" style="18" customWidth="1"/>
+    <col min="11012" max="11043" width="5.44140625" style="18" customWidth="1"/>
+    <col min="11044" max="11044" width="13.33203125" style="18" customWidth="1"/>
+    <col min="11045" max="11045" width="12.44140625" style="18" customWidth="1"/>
+    <col min="11046" max="11264" width="9.109375" style="18"/>
+    <col min="11265" max="11265" width="5.109375" style="18" customWidth="1"/>
+    <col min="11266" max="11266" width="12.88671875" style="18" customWidth="1"/>
+    <col min="11267" max="11267" width="37.33203125" style="18" customWidth="1"/>
+    <col min="11268" max="11299" width="5.44140625" style="18" customWidth="1"/>
+    <col min="11300" max="11300" width="13.33203125" style="18" customWidth="1"/>
+    <col min="11301" max="11301" width="12.44140625" style="18" customWidth="1"/>
+    <col min="11302" max="11520" width="9.109375" style="18"/>
+    <col min="11521" max="11521" width="5.109375" style="18" customWidth="1"/>
+    <col min="11522" max="11522" width="12.88671875" style="18" customWidth="1"/>
+    <col min="11523" max="11523" width="37.33203125" style="18" customWidth="1"/>
+    <col min="11524" max="11555" width="5.44140625" style="18" customWidth="1"/>
+    <col min="11556" max="11556" width="13.33203125" style="18" customWidth="1"/>
+    <col min="11557" max="11557" width="12.44140625" style="18" customWidth="1"/>
+    <col min="11558" max="11776" width="9.109375" style="18"/>
+    <col min="11777" max="11777" width="5.109375" style="18" customWidth="1"/>
+    <col min="11778" max="11778" width="12.88671875" style="18" customWidth="1"/>
+    <col min="11779" max="11779" width="37.33203125" style="18" customWidth="1"/>
+    <col min="11780" max="11811" width="5.44140625" style="18" customWidth="1"/>
+    <col min="11812" max="11812" width="13.33203125" style="18" customWidth="1"/>
+    <col min="11813" max="11813" width="12.44140625" style="18" customWidth="1"/>
+    <col min="11814" max="12032" width="9.109375" style="18"/>
+    <col min="12033" max="12033" width="5.109375" style="18" customWidth="1"/>
+    <col min="12034" max="12034" width="12.88671875" style="18" customWidth="1"/>
+    <col min="12035" max="12035" width="37.33203125" style="18" customWidth="1"/>
+    <col min="12036" max="12067" width="5.44140625" style="18" customWidth="1"/>
+    <col min="12068" max="12068" width="13.33203125" style="18" customWidth="1"/>
+    <col min="12069" max="12069" width="12.44140625" style="18" customWidth="1"/>
+    <col min="12070" max="12288" width="9.109375" style="18"/>
+    <col min="12289" max="12289" width="5.109375" style="18" customWidth="1"/>
+    <col min="12290" max="12290" width="12.88671875" style="18" customWidth="1"/>
+    <col min="12291" max="12291" width="37.33203125" style="18" customWidth="1"/>
+    <col min="12292" max="12323" width="5.44140625" style="18" customWidth="1"/>
+    <col min="12324" max="12324" width="13.33203125" style="18" customWidth="1"/>
+    <col min="12325" max="12325" width="12.44140625" style="18" customWidth="1"/>
+    <col min="12326" max="12544" width="9.109375" style="18"/>
+    <col min="12545" max="12545" width="5.109375" style="18" customWidth="1"/>
+    <col min="12546" max="12546" width="12.88671875" style="18" customWidth="1"/>
+    <col min="12547" max="12547" width="37.33203125" style="18" customWidth="1"/>
+    <col min="12548" max="12579" width="5.44140625" style="18" customWidth="1"/>
+    <col min="12580" max="12580" width="13.33203125" style="18" customWidth="1"/>
+    <col min="12581" max="12581" width="12.44140625" style="18" customWidth="1"/>
+    <col min="12582" max="12800" width="9.109375" style="18"/>
+    <col min="12801" max="12801" width="5.109375" style="18" customWidth="1"/>
+    <col min="12802" max="12802" width="12.88671875" style="18" customWidth="1"/>
+    <col min="12803" max="12803" width="37.33203125" style="18" customWidth="1"/>
+    <col min="12804" max="12835" width="5.44140625" style="18" customWidth="1"/>
+    <col min="12836" max="12836" width="13.33203125" style="18" customWidth="1"/>
+    <col min="12837" max="12837" width="12.44140625" style="18" customWidth="1"/>
+    <col min="12838" max="13056" width="9.109375" style="18"/>
+    <col min="13057" max="13057" width="5.109375" style="18" customWidth="1"/>
+    <col min="13058" max="13058" width="12.88671875" style="18" customWidth="1"/>
+    <col min="13059" max="13059" width="37.33203125" style="18" customWidth="1"/>
+    <col min="13060" max="13091" width="5.44140625" style="18" customWidth="1"/>
+    <col min="13092" max="13092" width="13.33203125" style="18" customWidth="1"/>
+    <col min="13093" max="13093" width="12.44140625" style="18" customWidth="1"/>
+    <col min="13094" max="13312" width="9.109375" style="18"/>
+    <col min="13313" max="13313" width="5.109375" style="18" customWidth="1"/>
+    <col min="13314" max="13314" width="12.88671875" style="18" customWidth="1"/>
+    <col min="13315" max="13315" width="37.33203125" style="18" customWidth="1"/>
+    <col min="13316" max="13347" width="5.44140625" style="18" customWidth="1"/>
+    <col min="13348" max="13348" width="13.33203125" style="18" customWidth="1"/>
+    <col min="13349" max="13349" width="12.44140625" style="18" customWidth="1"/>
+    <col min="13350" max="13568" width="9.109375" style="18"/>
+    <col min="13569" max="13569" width="5.109375" style="18" customWidth="1"/>
+    <col min="13570" max="13570" width="12.88671875" style="18" customWidth="1"/>
+    <col min="13571" max="13571" width="37.33203125" style="18" customWidth="1"/>
+    <col min="13572" max="13603" width="5.44140625" style="18" customWidth="1"/>
+    <col min="13604" max="13604" width="13.33203125" style="18" customWidth="1"/>
+    <col min="13605" max="13605" width="12.44140625" style="18" customWidth="1"/>
+    <col min="13606" max="13824" width="9.109375" style="18"/>
+    <col min="13825" max="13825" width="5.109375" style="18" customWidth="1"/>
+    <col min="13826" max="13826" width="12.88671875" style="18" customWidth="1"/>
+    <col min="13827" max="13827" width="37.33203125" style="18" customWidth="1"/>
+    <col min="13828" max="13859" width="5.44140625" style="18" customWidth="1"/>
+    <col min="13860" max="13860" width="13.33203125" style="18" customWidth="1"/>
+    <col min="13861" max="13861" width="12.44140625" style="18" customWidth="1"/>
+    <col min="13862" max="14080" width="9.109375" style="18"/>
+    <col min="14081" max="14081" width="5.109375" style="18" customWidth="1"/>
+    <col min="14082" max="14082" width="12.88671875" style="18" customWidth="1"/>
+    <col min="14083" max="14083" width="37.33203125" style="18" customWidth="1"/>
+    <col min="14084" max="14115" width="5.44140625" style="18" customWidth="1"/>
+    <col min="14116" max="14116" width="13.33203125" style="18" customWidth="1"/>
+    <col min="14117" max="14117" width="12.44140625" style="18" customWidth="1"/>
+    <col min="14118" max="14336" width="9.109375" style="18"/>
+    <col min="14337" max="14337" width="5.109375" style="18" customWidth="1"/>
+    <col min="14338" max="14338" width="12.88671875" style="18" customWidth="1"/>
+    <col min="14339" max="14339" width="37.33203125" style="18" customWidth="1"/>
+    <col min="14340" max="14371" width="5.44140625" style="18" customWidth="1"/>
+    <col min="14372" max="14372" width="13.33203125" style="18" customWidth="1"/>
+    <col min="14373" max="14373" width="12.44140625" style="18" customWidth="1"/>
+    <col min="14374" max="14592" width="9.109375" style="18"/>
+    <col min="14593" max="14593" width="5.109375" style="18" customWidth="1"/>
+    <col min="14594" max="14594" width="12.88671875" style="18" customWidth="1"/>
+    <col min="14595" max="14595" width="37.33203125" style="18" customWidth="1"/>
+    <col min="14596" max="14627" width="5.44140625" style="18" customWidth="1"/>
+    <col min="14628" max="14628" width="13.33203125" style="18" customWidth="1"/>
+    <col min="14629" max="14629" width="12.44140625" style="18" customWidth="1"/>
+    <col min="14630" max="14848" width="9.109375" style="18"/>
+    <col min="14849" max="14849" width="5.109375" style="18" customWidth="1"/>
+    <col min="14850" max="14850" width="12.88671875" style="18" customWidth="1"/>
+    <col min="14851" max="14851" width="37.33203125" style="18" customWidth="1"/>
+    <col min="14852" max="14883" width="5.44140625" style="18" customWidth="1"/>
+    <col min="14884" max="14884" width="13.33203125" style="18" customWidth="1"/>
+    <col min="14885" max="14885" width="12.44140625" style="18" customWidth="1"/>
+    <col min="14886" max="15104" width="9.109375" style="18"/>
+    <col min="15105" max="15105" width="5.109375" style="18" customWidth="1"/>
+    <col min="15106" max="15106" width="12.88671875" style="18" customWidth="1"/>
+    <col min="15107" max="15107" width="37.33203125" style="18" customWidth="1"/>
+    <col min="15108" max="15139" width="5.44140625" style="18" customWidth="1"/>
+    <col min="15140" max="15140" width="13.33203125" style="18" customWidth="1"/>
+    <col min="15141" max="15141" width="12.44140625" style="18" customWidth="1"/>
+    <col min="15142" max="15360" width="9.109375" style="18"/>
+    <col min="15361" max="15361" width="5.109375" style="18" customWidth="1"/>
+    <col min="15362" max="15362" width="12.88671875" style="18" customWidth="1"/>
+    <col min="15363" max="15363" width="37.33203125" style="18" customWidth="1"/>
+    <col min="15364" max="15395" width="5.44140625" style="18" customWidth="1"/>
+    <col min="15396" max="15396" width="13.33203125" style="18" customWidth="1"/>
+    <col min="15397" max="15397" width="12.44140625" style="18" customWidth="1"/>
+    <col min="15398" max="15616" width="9.109375" style="18"/>
+    <col min="15617" max="15617" width="5.109375" style="18" customWidth="1"/>
+    <col min="15618" max="15618" width="12.88671875" style="18" customWidth="1"/>
+    <col min="15619" max="15619" width="37.33203125" style="18" customWidth="1"/>
+    <col min="15620" max="15651" width="5.44140625" style="18" customWidth="1"/>
+    <col min="15652" max="15652" width="13.33203125" style="18" customWidth="1"/>
+    <col min="15653" max="15653" width="12.44140625" style="18" customWidth="1"/>
+    <col min="15654" max="15872" width="9.109375" style="18"/>
+    <col min="15873" max="15873" width="5.109375" style="18" customWidth="1"/>
+    <col min="15874" max="15874" width="12.88671875" style="18" customWidth="1"/>
+    <col min="15875" max="15875" width="37.33203125" style="18" customWidth="1"/>
+    <col min="15876" max="15907" width="5.44140625" style="18" customWidth="1"/>
+    <col min="15908" max="15908" width="13.33203125" style="18" customWidth="1"/>
+    <col min="15909" max="15909" width="12.44140625" style="18" customWidth="1"/>
+    <col min="15910" max="16128" width="9.109375" style="18"/>
+    <col min="16129" max="16129" width="5.109375" style="18" customWidth="1"/>
+    <col min="16130" max="16130" width="12.88671875" style="18" customWidth="1"/>
+    <col min="16131" max="16131" width="37.33203125" style="18" customWidth="1"/>
+    <col min="16132" max="16163" width="5.44140625" style="18" customWidth="1"/>
+    <col min="16164" max="16164" width="13.33203125" style="18" customWidth="1"/>
+    <col min="16165" max="16165" width="12.44140625" style="18" customWidth="1"/>
+    <col min="16166" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3377,7 +5484,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="17"/>
     </row>
-    <row r="2" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -3415,7 +5522,7 @@
       <c r="AI2" s="21"/>
       <c r="AJ2" s="21"/>
     </row>
-    <row r="3" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
@@ -3425,138 +5532,43 @@
       <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="26">
-        <v>44370</v>
-      </c>
-      <c r="E3" s="26">
-        <f>D3+1</f>
-        <v>44371</v>
-      </c>
-      <c r="F3" s="64">
-        <f t="shared" ref="F3:AD3" si="0">E3+1</f>
-        <v>44372</v>
-      </c>
-      <c r="G3" s="64">
-        <f t="shared" si="0"/>
-        <v>44373</v>
-      </c>
-      <c r="H3" s="64">
-        <f t="shared" si="0"/>
-        <v>44374</v>
-      </c>
-      <c r="I3" s="64">
-        <f t="shared" si="0"/>
-        <v>44375</v>
-      </c>
-      <c r="J3" s="64">
-        <f t="shared" si="0"/>
-        <v>44376</v>
-      </c>
-      <c r="K3" s="64">
-        <f t="shared" si="0"/>
-        <v>44377</v>
-      </c>
-      <c r="L3" s="64">
-        <f t="shared" si="0"/>
-        <v>44378</v>
-      </c>
-      <c r="M3" s="64">
-        <f t="shared" si="0"/>
-        <v>44379</v>
-      </c>
-      <c r="N3" s="64">
-        <f t="shared" si="0"/>
-        <v>44380</v>
-      </c>
-      <c r="O3" s="64">
-        <f t="shared" si="0"/>
-        <v>44381</v>
-      </c>
-      <c r="P3" s="64">
-        <f t="shared" si="0"/>
-        <v>44382</v>
-      </c>
-      <c r="Q3" s="64">
-        <f t="shared" si="0"/>
-        <v>44383</v>
-      </c>
-      <c r="R3" s="64">
-        <f t="shared" si="0"/>
-        <v>44384</v>
-      </c>
-      <c r="S3" s="64">
-        <f t="shared" si="0"/>
-        <v>44385</v>
-      </c>
-      <c r="T3" s="64">
-        <f t="shared" si="0"/>
-        <v>44386</v>
-      </c>
-      <c r="U3" s="64">
-        <f t="shared" si="0"/>
-        <v>44387</v>
-      </c>
-      <c r="V3" s="64">
-        <f t="shared" si="0"/>
-        <v>44388</v>
-      </c>
-      <c r="W3" s="64">
-        <f t="shared" si="0"/>
-        <v>44389</v>
-      </c>
-      <c r="X3" s="64">
-        <f t="shared" si="0"/>
-        <v>44390</v>
-      </c>
-      <c r="Y3" s="64">
-        <f t="shared" si="0"/>
-        <v>44391</v>
-      </c>
-      <c r="Z3" s="64">
-        <f t="shared" si="0"/>
-        <v>44392</v>
-      </c>
-      <c r="AA3" s="64">
-        <f t="shared" si="0"/>
-        <v>44393</v>
-      </c>
-      <c r="AB3" s="26">
-        <f t="shared" si="0"/>
-        <v>44394</v>
-      </c>
-      <c r="AC3" s="26">
-        <f t="shared" si="0"/>
-        <v>44395</v>
-      </c>
-      <c r="AD3" s="26">
-        <f t="shared" si="0"/>
-        <v>44396</v>
-      </c>
-      <c r="AE3" s="26">
-        <f>AD3+1</f>
-        <v>44397</v>
-      </c>
-      <c r="AF3" s="26">
-        <f>AE3+1</f>
-        <v>44398</v>
-      </c>
-      <c r="AG3" s="26">
-        <f>AF3+1</f>
-        <v>44399</v>
-      </c>
-      <c r="AH3" s="26">
-        <f>AG3+1</f>
-        <v>44400</v>
-      </c>
-      <c r="AI3" s="26">
-        <f>AH3+1</f>
-        <v>44401</v>
-      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
       <c r="AJ3" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
@@ -3594,7 +5606,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="66"/>
     </row>
-    <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
@@ -3632,7 +5644,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="66"/>
     </row>
-    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
@@ -3670,7 +5682,7 @@
       <c r="AI6" s="65"/>
       <c r="AJ6" s="66"/>
     </row>
-    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -3693,7 +5705,7 @@
       <c r="AI7" s="38"/>
       <c r="AJ7" s="40"/>
     </row>
-    <row r="8" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="42" t="s">
         <v>18</v>
@@ -3736,7 +5748,7 @@
       </c>
       <c r="AK8" s="54"/>
     </row>
-    <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="57"/>
@@ -3762,7 +5774,7 @@
       <c r="AJ9" s="59"/>
       <c r="AK9" s="60"/>
     </row>
-    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="56"/>
       <c r="D10" s="62"/>
       <c r="E10" s="45" t="s">
@@ -3777,48 +5789,648 @@
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E531E95-4C09-46AA-9AEA-D2D9D8161396}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="67" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="70"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="74"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="74"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="199"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0AD7-D7B3-4E6B-9D38-D3347385A406}">
+  <dimension ref="A2:AN10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="77"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+    </row>
+    <row r="3" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="77"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="200"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="200"/>
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+    </row>
+    <row r="4" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="201"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="201"/>
+      <c r="AD4" s="201"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+    </row>
+    <row r="6" spans="1:40" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="98"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="100"/>
+    </row>
+    <row r="9" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="202" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="203"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="101"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Working\Wohhup App\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\01.Web projects\Wohhup\WebApp\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E781F6-DD47-49DB-9DA8-0DBF3731DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65540248-488D-4CB4-9C7E-7864AD176EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TO ACCOUNTS" sheetId="4" r:id="rId4"/>
     <sheet name="TO HR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>WORKER'S INCENTIVE POINTS DETAILED REPORT</t>
-  </si>
-  <si>
-    <t>WORKERS LIST SUMMARY FORM - PAYROLL MONTH OF MAY 2021 (23/04/2021 TO  22/05/2021 INCENTIVE POINTS)</t>
   </si>
   <si>
     <t>S/NO</t>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Regards,</t>
+  </si>
+  <si>
+    <t>1 (PH)</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,6 +1551,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,56 +1623,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,15 +1654,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,15 +2077,15 @@
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="15" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112"/>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -2096,7 +2102,7 @@
       <c r="N1" s="112"/>
       <c r="O1" s="113"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="114"/>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -2113,7 +2119,7 @@
       <c r="N2" s="115"/>
       <c r="O2" s="116"/>
     </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="117"/>
       <c r="B3" s="118"/>
       <c r="C3" s="119"/>
@@ -2128,11 +2134,11 @@
       <c r="L3" s="118"/>
       <c r="M3" s="121"/>
       <c r="N3" s="122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="123"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="124"/>
       <c r="B4" s="125"/>
       <c r="C4" s="125"/>
@@ -2149,7 +2155,7 @@
       <c r="N4" s="125"/>
       <c r="O4" s="126"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="117"/>
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
@@ -2166,26 +2172,26 @@
       <c r="N5" s="118"/>
       <c r="O5" s="123"/>
     </row>
-    <row r="6" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="117"/>
-      <c r="B6" s="173" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
+      <c r="B6" s="170" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
       <c r="O6" s="123"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="117"/>
       <c r="B7" s="118"/>
       <c r="C7" s="118"/>
@@ -2202,15 +2208,15 @@
       <c r="N7" s="118"/>
       <c r="O7" s="123"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="117"/>
       <c r="B8" s="118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="118"/>
       <c r="D8" s="118"/>
       <c r="E8" s="118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="127"/>
       <c r="G8" s="127"/>
@@ -2223,7 +2229,7 @@
       <c r="N8" s="118"/>
       <c r="O8" s="123"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="117"/>
       <c r="B9" s="118"/>
       <c r="C9" s="118"/>
@@ -2240,18 +2246,18 @@
       <c r="N9" s="118"/>
       <c r="O9" s="123"/>
     </row>
-    <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="117"/>
       <c r="B10" s="118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="118"/>
       <c r="D10" s="118"/>
       <c r="E10" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="185"/>
-      <c r="G10" s="186"/>
+        <v>37</v>
+      </c>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
       <c r="H10" s="128"/>
       <c r="I10" s="127"/>
       <c r="J10" s="118"/>
@@ -2261,7 +2267,7 @@
       <c r="N10" s="118"/>
       <c r="O10" s="123"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="117"/>
       <c r="B11" s="118"/>
       <c r="C11" s="118"/>
@@ -2278,18 +2284,18 @@
       <c r="N11" s="118"/>
       <c r="O11" s="123"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="117"/>
       <c r="B12" s="118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="118"/>
       <c r="D12" s="118"/>
       <c r="E12" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
+        <v>37</v>
+      </c>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="118"/>
       <c r="I12" s="118"/>
       <c r="J12" s="118"/>
@@ -2299,7 +2305,7 @@
       <c r="N12" s="118"/>
       <c r="O12" s="123"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="117"/>
       <c r="B13" s="118"/>
       <c r="C13" s="118"/>
@@ -2316,19 +2322,19 @@
       <c r="N13" s="118"/>
       <c r="O13" s="123"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="117"/>
       <c r="B14" s="118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="118"/>
       <c r="D14" s="118"/>
       <c r="E14" s="118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="162"/>
       <c r="G14" s="118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="118"/>
       <c r="I14" s="118"/>
@@ -2339,7 +2345,7 @@
       <c r="N14" s="118"/>
       <c r="O14" s="123"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="117"/>
       <c r="B15" s="118"/>
       <c r="C15" s="118"/>
@@ -2356,18 +2362,18 @@
       <c r="N15" s="118"/>
       <c r="O15" s="123"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="117"/>
       <c r="B16" s="118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="118"/>
       <c r="D16" s="118"/>
       <c r="E16" s="118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="118"/>
       <c r="H16" s="118"/>
@@ -2379,7 +2385,7 @@
       <c r="N16" s="118"/>
       <c r="O16" s="123"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="117"/>
       <c r="B17" s="118"/>
       <c r="C17" s="118"/>
@@ -2396,45 +2402,45 @@
       <c r="N17" s="118"/>
       <c r="O17" s="123"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="117"/>
       <c r="B18" s="118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="118"/>
       <c r="D18" s="118"/>
       <c r="E18" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
+        <v>37</v>
+      </c>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
       <c r="M18" s="130"/>
       <c r="N18" s="118"/>
       <c r="O18" s="123"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="117"/>
       <c r="B19" s="118"/>
       <c r="C19" s="118"/>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
       <c r="M19" s="131"/>
       <c r="N19" s="118"/>
       <c r="O19" s="123"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="117"/>
       <c r="B20" s="118"/>
       <c r="C20" s="118"/>
@@ -2451,16 +2457,16 @@
       <c r="N20" s="118"/>
       <c r="O20" s="123"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="177" t="s">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="179" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="181"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="178"/>
       <c r="F21" s="132" t="s">
         <v>11</v>
       </c>
@@ -2490,47 +2496,47 @@
       </c>
       <c r="O21" s="134"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="175"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="181"/>
       <c r="F22" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="163" t="s">
+      <c r="H22" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="163" t="s">
+      <c r="I22" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="135" t="s">
+      <c r="J22" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="135" t="s">
+      <c r="K22" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="136" t="s">
+      <c r="L22" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="135" t="s">
+      <c r="M22" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="136" t="s">
+      <c r="N22" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="135" t="s">
-        <v>56</v>
-      </c>
       <c r="O22" s="137"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="138"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
       <c r="F23" s="161"/>
       <c r="G23" s="161"/>
       <c r="H23" s="153"/>
@@ -2543,10 +2549,10 @@
         <v>9</v>
       </c>
       <c r="O23" s="152" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="140"/>
       <c r="B24" s="141"/>
       <c r="C24" s="142"/>
@@ -2563,7 +2569,7 @@
       <c r="N24" s="158"/>
       <c r="O24" s="159"/>
     </row>
-    <row r="25" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="117"/>
       <c r="B25" s="118"/>
       <c r="C25" s="118"/>
@@ -2584,19 +2590,19 @@
       <c r="R25" s="111"/>
       <c r="S25" s="111"/>
       <c r="T25" s="111"/>
-      <c r="U25" s="167"/>
-      <c r="V25" s="167"/>
-      <c r="W25" s="167"/>
-      <c r="X25" s="167"/>
-      <c r="Y25" s="167"/>
-      <c r="Z25" s="167"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
       <c r="AA25" s="120"/>
       <c r="AB25" s="120"/>
     </row>
-    <row r="26" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="117"/>
       <c r="B26" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="118"/>
       <c r="D26" s="118"/>
@@ -2616,16 +2622,16 @@
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="167"/>
-      <c r="V26" s="167"/>
-      <c r="W26" s="167"/>
-      <c r="X26" s="167"/>
-      <c r="Y26" s="167"/>
-      <c r="Z26" s="167"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="186"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
       <c r="AA26" s="120"/>
       <c r="AB26" s="120"/>
     </row>
-    <row r="27" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="117"/>
       <c r="B27" s="118"/>
       <c r="C27" s="118"/>
@@ -2655,7 +2661,7 @@
       <c r="AA27" s="120"/>
       <c r="AB27" s="120"/>
     </row>
-    <row r="28" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="117"/>
       <c r="B28" s="118"/>
       <c r="C28" s="118"/>
@@ -2668,8 +2674,8 @@
       <c r="J28" s="118"/>
       <c r="K28" s="118"/>
       <c r="L28" s="118"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="123"/>
       <c r="P28" s="111"/>
       <c r="Q28" s="111"/>
@@ -2685,7 +2691,7 @@
       <c r="AA28" s="120"/>
       <c r="AB28" s="120"/>
     </row>
-    <row r="29" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="117"/>
       <c r="B29" s="118"/>
       <c r="C29" s="118"/>
@@ -2698,9 +2704,9 @@
       <c r="J29" s="118"/>
       <c r="K29" s="118"/>
       <c r="L29" s="118"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="169"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="188"/>
       <c r="P29" s="111"/>
       <c r="Q29" s="111"/>
       <c r="R29" s="111"/>
@@ -2715,7 +2721,7 @@
       <c r="AA29" s="120"/>
       <c r="AB29" s="120"/>
     </row>
-    <row r="30" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="117"/>
       <c r="B30" s="118"/>
       <c r="C30" s="118"/>
@@ -2745,7 +2751,7 @@
       <c r="AA30" s="120"/>
       <c r="AB30" s="120"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="117"/>
       <c r="B31" s="118"/>
       <c r="C31" s="118"/>
@@ -2775,7 +2781,7 @@
       <c r="AA31" s="111"/>
       <c r="AB31" s="111"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="117"/>
       <c r="B32" s="118"/>
       <c r="C32" s="118"/>
@@ -2805,7 +2811,7 @@
       <c r="AA32" s="111"/>
       <c r="AB32" s="111"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="117"/>
       <c r="B33" s="118"/>
       <c r="C33" s="118"/>
@@ -2818,8 +2824,8 @@
       <c r="J33" s="118"/>
       <c r="K33" s="118"/>
       <c r="L33" s="118"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
       <c r="O33" s="123"/>
       <c r="P33" s="111"/>
       <c r="Q33" s="111"/>
@@ -2835,7 +2841,7 @@
       <c r="AA33" s="111"/>
       <c r="AB33" s="111"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="117"/>
       <c r="B34" s="118"/>
       <c r="C34" s="118"/>
@@ -2848,8 +2854,8 @@
       <c r="J34" s="118"/>
       <c r="K34" s="118"/>
       <c r="L34" s="118"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
+      <c r="M34" s="185"/>
+      <c r="N34" s="185"/>
       <c r="O34" s="123"/>
       <c r="P34" s="111"/>
       <c r="Q34" s="111"/>
@@ -2865,10 +2871,10 @@
       <c r="AA34" s="111"/>
       <c r="AB34" s="111"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="117"/>
       <c r="B35" s="118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="118"/>
       <c r="D35" s="118"/>
@@ -2897,7 +2903,7 @@
       <c r="AA35" s="111"/>
       <c r="AB35" s="111"/>
     </row>
-    <row r="36" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="117"/>
       <c r="B36" s="118"/>
       <c r="C36" s="118"/>
@@ -2927,7 +2933,7 @@
       <c r="AA36" s="111"/>
       <c r="AB36" s="111"/>
     </row>
-    <row r="37" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="117"/>
       <c r="B37" s="118"/>
       <c r="C37" s="118"/>
@@ -2940,8 +2946,8 @@
       <c r="J37" s="118"/>
       <c r="K37" s="118"/>
       <c r="L37" s="118"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="184"/>
       <c r="O37" s="123"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="111"/>
@@ -2952,7 +2958,7 @@
       <c r="V37" s="147"/>
       <c r="W37" s="147"/>
     </row>
-    <row r="38" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="117"/>
       <c r="B38" s="127"/>
       <c r="C38" s="127"/>
@@ -2965,8 +2971,8 @@
       <c r="J38" s="118"/>
       <c r="K38" s="118"/>
       <c r="L38" s="118"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="166"/>
+      <c r="M38" s="185"/>
+      <c r="N38" s="185"/>
       <c r="O38" s="123"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="111"/>
@@ -2977,7 +2983,7 @@
       <c r="V38" s="147"/>
       <c r="W38" s="147"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="117"/>
       <c r="B39" s="154"/>
       <c r="C39" s="154"/>
@@ -3002,11 +3008,11 @@
       <c r="V39" s="111"/>
       <c r="W39" s="111"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="117"/>
       <c r="B40" s="155"/>
       <c r="C40" s="155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="155"/>
       <c r="E40" s="155"/>
@@ -3029,7 +3035,7 @@
       <c r="V40" s="111"/>
       <c r="W40" s="111"/>
     </row>
-    <row r="41" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="148"/>
       <c r="B41" s="149"/>
       <c r="C41" s="149"/>
@@ -3054,7 +3060,7 @@
       <c r="V41" s="111"/>
       <c r="W41" s="111"/>
     </row>
-    <row r="42" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="111"/>
       <c r="B42" s="111"/>
       <c r="C42" s="111"/>
@@ -3079,7 +3085,7 @@
       <c r="V42" s="111"/>
       <c r="W42" s="111"/>
     </row>
-    <row r="43" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="111"/>
       <c r="B43" s="111"/>
       <c r="C43" s="111"/>
@@ -3104,7 +3110,7 @@
       <c r="V43" s="111"/>
       <c r="W43" s="111"/>
     </row>
-    <row r="45" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="111"/>
       <c r="B45" s="111"/>
       <c r="C45" s="111"/>
@@ -3129,7 +3135,7 @@
       <c r="V45" s="111"/>
       <c r="W45" s="111"/>
     </row>
-    <row r="46" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
       <c r="B46" s="111"/>
       <c r="C46" s="111"/>
@@ -3154,7 +3160,7 @@
       <c r="V46" s="111"/>
       <c r="W46" s="111"/>
     </row>
-    <row r="47" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="111"/>
       <c r="B47" s="111"/>
       <c r="C47" s="111"/>
@@ -3181,13 +3187,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F18:L19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M33:N33"/>
@@ -3197,6 +3196,13 @@
     <mergeCell ref="X26:Z26"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
@@ -3208,533 +3214,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C1F6-A6F9-461E-9FE3-2DB54235E96B}">
-  <dimension ref="A1:FK12"/>
+  <dimension ref="A1:HP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <pane xSplit="12" topLeftCell="GS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GX12" sqref="GX12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2"/>
-    <col min="8" max="8" width="9.109375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="9.140625" style="166"/>
+    <col min="11" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="165" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.3">
-      <c r="A1" s="187"/>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-    </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.3">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-    </row>
-    <row r="3" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-    </row>
-    <row r="4" spans="1:167" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:224" x14ac:dyDescent="0.25">
+      <c r="A1" s="192"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+    </row>
+    <row r="2" spans="1:224" x14ac:dyDescent="0.25">
+      <c r="A2" s="192"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+    </row>
+    <row r="3" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="192"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+    </row>
+    <row r="4" spans="1:224" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:167" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="188" t="s">
+    </row>
+    <row r="5" spans="1:224" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="8"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8"/>
-      <c r="BU5" s="8"/>
-      <c r="BV5" s="8"/>
-      <c r="BW5" s="8"/>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8"/>
-      <c r="BZ5" s="8"/>
-      <c r="CA5" s="8"/>
-      <c r="CB5" s="8"/>
-      <c r="CC5" s="8"/>
-      <c r="CD5" s="8"/>
-      <c r="CE5" s="8"/>
-      <c r="CF5" s="8"/>
-      <c r="CG5" s="8"/>
-      <c r="CH5" s="8"/>
-      <c r="CI5" s="8"/>
-      <c r="CJ5" s="8"/>
-      <c r="CK5" s="8"/>
-      <c r="CL5" s="8"/>
-      <c r="CM5" s="8"/>
-      <c r="CN5" s="8"/>
-      <c r="CO5" s="8"/>
-      <c r="CP5" s="8"/>
-      <c r="CQ5" s="8"/>
-      <c r="CR5" s="8"/>
-      <c r="CS5" s="8"/>
-      <c r="CT5" s="8"/>
-      <c r="CU5" s="8"/>
-      <c r="CV5" s="8"/>
-      <c r="CW5" s="8"/>
-      <c r="CX5" s="8"/>
-      <c r="CY5" s="8"/>
-      <c r="CZ5" s="8"/>
-      <c r="DA5" s="8"/>
-      <c r="DB5" s="8"/>
-      <c r="DC5" s="8"/>
-      <c r="DD5" s="8"/>
-      <c r="DE5" s="8"/>
-      <c r="DF5" s="8"/>
-      <c r="DG5" s="8"/>
-      <c r="DH5" s="8"/>
-      <c r="DI5" s="8"/>
-      <c r="DJ5" s="8"/>
-      <c r="DK5" s="8"/>
-      <c r="DL5" s="8"/>
-      <c r="DM5" s="8"/>
-      <c r="DN5" s="8"/>
-      <c r="DO5" s="8"/>
-      <c r="DP5" s="8"/>
-      <c r="DQ5" s="8"/>
-      <c r="DR5" s="8"/>
-      <c r="DS5" s="8"/>
-      <c r="DT5" s="8"/>
-      <c r="DU5" s="8"/>
-      <c r="DV5" s="8"/>
-      <c r="DW5" s="8"/>
-      <c r="DX5" s="8"/>
-    </row>
-    <row r="6" spans="1:167" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="190" t="s">
+    </row>
+    <row r="6" spans="1:224" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="190" t="s">
+      <c r="D6" s="195" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="192" t="s">
+      <c r="F6" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="193"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="192" t="s">
+      <c r="G6" s="198"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="195">
-        <v>44035</v>
-      </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="195">
-        <f>L6+1</f>
-        <v>44036</v>
-      </c>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="195">
-        <f t="shared" ref="R6" si="0">O6+1</f>
-        <v>44037</v>
-      </c>
-      <c r="S6" s="196"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="195">
-        <f t="shared" ref="U6" si="1">R6+1</f>
-        <v>44038</v>
-      </c>
-      <c r="V6" s="196"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="195">
-        <f t="shared" ref="X6" si="2">U6+1</f>
-        <v>44039</v>
-      </c>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="195">
-        <f t="shared" ref="AA6" si="3">X6+1</f>
-        <v>44040</v>
-      </c>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="195">
-        <f t="shared" ref="AD6" si="4">AA6+1</f>
-        <v>44041</v>
-      </c>
-      <c r="AE6" s="196"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="195">
-        <f t="shared" ref="AG6" si="5">AD6+1</f>
-        <v>44042</v>
-      </c>
-      <c r="AH6" s="196"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="195">
-        <f t="shared" ref="AJ6" si="6">AG6+1</f>
-        <v>44043</v>
-      </c>
-      <c r="AK6" s="196"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="195">
-        <f t="shared" ref="AM6" si="7">AJ6+1</f>
-        <v>44044</v>
-      </c>
-      <c r="AN6" s="196"/>
-      <c r="AO6" s="197"/>
-      <c r="AP6" s="195">
-        <f t="shared" ref="AP6" si="8">AM6+1</f>
-        <v>44045</v>
-      </c>
-      <c r="AQ6" s="196"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="195">
-        <f t="shared" ref="AS6" si="9">AP6+1</f>
-        <v>44046</v>
-      </c>
-      <c r="AT6" s="196"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="195">
-        <f t="shared" ref="AV6" si="10">AS6+1</f>
-        <v>44047</v>
-      </c>
-      <c r="AW6" s="196"/>
-      <c r="AX6" s="197"/>
-      <c r="AY6" s="195">
-        <f t="shared" ref="AY6" si="11">AV6+1</f>
-        <v>44048</v>
-      </c>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="197"/>
-      <c r="BB6" s="195">
-        <f t="shared" ref="BB6" si="12">AY6+1</f>
-        <v>44049</v>
-      </c>
-      <c r="BC6" s="196"/>
-      <c r="BD6" s="197"/>
-      <c r="BE6" s="195">
-        <f t="shared" ref="BE6" si="13">BB6+1</f>
-        <v>44050</v>
-      </c>
-      <c r="BF6" s="196"/>
-      <c r="BG6" s="197"/>
-      <c r="BH6" s="195">
-        <f t="shared" ref="BH6" si="14">BE6+1</f>
-        <v>44051</v>
-      </c>
-      <c r="BI6" s="196"/>
-      <c r="BJ6" s="197"/>
-      <c r="BK6" s="195">
-        <f t="shared" ref="BK6" si="15">BH6+1</f>
-        <v>44052</v>
-      </c>
-      <c r="BL6" s="196"/>
-      <c r="BM6" s="197"/>
-      <c r="BN6" s="195">
-        <f t="shared" ref="BN6" si="16">BK6+1</f>
-        <v>44053</v>
-      </c>
-      <c r="BO6" s="196"/>
-      <c r="BP6" s="197"/>
-      <c r="BQ6" s="195">
-        <f t="shared" ref="BQ6" si="17">BN6+1</f>
-        <v>44054</v>
-      </c>
-      <c r="BR6" s="196"/>
-      <c r="BS6" s="197"/>
-      <c r="BT6" s="195">
-        <f t="shared" ref="BT6" si="18">BQ6+1</f>
-        <v>44055</v>
-      </c>
-      <c r="BU6" s="196"/>
-      <c r="BV6" s="197"/>
-      <c r="BW6" s="195">
-        <f t="shared" ref="BW6" si="19">BT6+1</f>
-        <v>44056</v>
-      </c>
-      <c r="BX6" s="196"/>
-      <c r="BY6" s="197"/>
-      <c r="BZ6" s="195">
-        <f t="shared" ref="BZ6" si="20">BW6+1</f>
-        <v>44057</v>
-      </c>
-      <c r="CA6" s="196"/>
-      <c r="CB6" s="197"/>
-      <c r="CC6" s="195">
-        <f t="shared" ref="CC6" si="21">BZ6+1</f>
-        <v>44058</v>
-      </c>
-      <c r="CD6" s="196"/>
-      <c r="CE6" s="197"/>
-      <c r="CF6" s="195">
-        <f t="shared" ref="CF6" si="22">CC6+1</f>
-        <v>44059</v>
-      </c>
-      <c r="CG6" s="196"/>
-      <c r="CH6" s="197"/>
-      <c r="CI6" s="195">
-        <f t="shared" ref="CI6" si="23">CF6+1</f>
-        <v>44060</v>
-      </c>
-      <c r="CJ6" s="196"/>
-      <c r="CK6" s="197"/>
-      <c r="CL6" s="195">
-        <f t="shared" ref="CL6" si="24">CI6+1</f>
-        <v>44061</v>
-      </c>
-      <c r="CM6" s="196"/>
-      <c r="CN6" s="197"/>
-      <c r="CO6" s="195">
-        <f t="shared" ref="CO6" si="25">CL6+1</f>
-        <v>44062</v>
-      </c>
-      <c r="CP6" s="196"/>
-      <c r="CQ6" s="197"/>
-      <c r="CR6" s="195">
-        <f t="shared" ref="CR6" si="26">CO6+1</f>
-        <v>44063</v>
-      </c>
-      <c r="CS6" s="196"/>
-      <c r="CT6" s="197"/>
-      <c r="CU6" s="195">
-        <f t="shared" ref="CU6" si="27">CR6+1</f>
-        <v>44064</v>
-      </c>
-      <c r="CV6" s="196"/>
-      <c r="CW6" s="197"/>
-      <c r="CX6" s="195">
-        <f t="shared" ref="CX6" si="28">CU6+1</f>
-        <v>44065</v>
-      </c>
-      <c r="CY6" s="196"/>
-      <c r="CZ6" s="197"/>
-      <c r="DA6" s="195">
-        <f t="shared" ref="DA6" si="29">CX6+1</f>
-        <v>44066</v>
-      </c>
-      <c r="DB6" s="196"/>
-      <c r="DC6" s="197"/>
-      <c r="DD6" s="195">
-        <f t="shared" ref="DD6" si="30">DA6+1</f>
-        <v>44067</v>
-      </c>
-      <c r="DE6" s="196"/>
-      <c r="DF6" s="197"/>
-      <c r="DG6" s="195">
-        <f t="shared" ref="DG6" si="31">DD6+1</f>
-        <v>44068</v>
-      </c>
-      <c r="DH6" s="196"/>
-      <c r="DI6" s="197"/>
-      <c r="DJ6" s="195">
-        <f t="shared" ref="DJ6" si="32">DG6+1</f>
-        <v>44069</v>
-      </c>
-      <c r="DK6" s="196"/>
-      <c r="DL6" s="197"/>
-      <c r="DM6" s="195">
-        <f t="shared" ref="DM6" si="33">DJ6+1</f>
-        <v>44070</v>
-      </c>
-      <c r="DN6" s="196"/>
-      <c r="DO6" s="197"/>
-      <c r="DP6" s="195">
-        <f t="shared" ref="DP6" si="34">DM6+1</f>
-        <v>44071</v>
-      </c>
-      <c r="DQ6" s="196"/>
-      <c r="DR6" s="197"/>
-      <c r="DS6" s="195">
-        <f t="shared" ref="DS6" si="35">DP6+1</f>
-        <v>44072</v>
-      </c>
-      <c r="DT6" s="196"/>
-      <c r="DU6" s="197"/>
-      <c r="DV6" s="195">
-        <f t="shared" ref="DV6" si="36">DS6+1</f>
-        <v>44073</v>
-      </c>
-      <c r="DW6" s="196"/>
-      <c r="DX6" s="197"/>
-      <c r="DY6" s="195">
-        <f t="shared" ref="DY6" si="37">DV6+1</f>
-        <v>44074</v>
-      </c>
-      <c r="DZ6" s="196"/>
-      <c r="EA6" s="197"/>
-      <c r="EB6" s="195">
-        <f t="shared" ref="EB6" si="38">DY6+1</f>
-        <v>44075</v>
-      </c>
-      <c r="EC6" s="196"/>
-      <c r="ED6" s="197"/>
-      <c r="EE6" s="195">
-        <f t="shared" ref="EE6" si="39">EB6+1</f>
-        <v>44076</v>
-      </c>
-      <c r="EF6" s="196"/>
-      <c r="EG6" s="197"/>
-      <c r="EH6" s="195">
-        <f t="shared" ref="EH6" si="40">EE6+1</f>
-        <v>44077</v>
-      </c>
-      <c r="EI6" s="196"/>
-      <c r="EJ6" s="197"/>
-      <c r="EK6" s="195">
-        <f t="shared" ref="EK6" si="41">EH6+1</f>
-        <v>44078</v>
-      </c>
-      <c r="EL6" s="196"/>
-      <c r="EM6" s="197"/>
-      <c r="EN6" s="195">
-        <f t="shared" ref="EN6" si="42">EK6+1</f>
-        <v>44079</v>
-      </c>
-      <c r="EO6" s="196"/>
-      <c r="EP6" s="197"/>
-      <c r="EQ6" s="195">
-        <f t="shared" ref="EQ6" si="43">EN6+1</f>
-        <v>44080</v>
-      </c>
-      <c r="ER6" s="196"/>
-      <c r="ES6" s="197"/>
-      <c r="ET6" s="195">
-        <f t="shared" ref="ET6" si="44">EQ6+1</f>
-        <v>44081</v>
-      </c>
-      <c r="EU6" s="196"/>
-      <c r="EV6" s="197"/>
-      <c r="EW6" s="195">
-        <f t="shared" ref="EW6" si="45">ET6+1</f>
-        <v>44082</v>
-      </c>
-      <c r="EX6" s="196"/>
-      <c r="EY6" s="197"/>
-      <c r="EZ6" s="195">
-        <f t="shared" ref="EZ6" si="46">EW6+1</f>
-        <v>44083</v>
-      </c>
-      <c r="FA6" s="196"/>
-      <c r="FB6" s="197"/>
-      <c r="FC6" s="195">
-        <f t="shared" ref="FC6" si="47">EZ6+1</f>
-        <v>44084</v>
-      </c>
-      <c r="FD6" s="196"/>
-      <c r="FE6" s="197"/>
-      <c r="FF6" s="195">
-        <f t="shared" ref="FF6" si="48">FC6+1</f>
-        <v>44085</v>
-      </c>
-      <c r="FG6" s="196"/>
-      <c r="FH6" s="197"/>
-      <c r="FI6" s="195">
-        <f t="shared" ref="FI6" si="49">FF6+1</f>
-        <v>44086</v>
-      </c>
-      <c r="FJ6" s="196"/>
-      <c r="FK6" s="197"/>
-    </row>
-    <row r="7" spans="1:167" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="190"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="191"/>
+      <c r="AC6" s="189"/>
+      <c r="AD6" s="190"/>
+      <c r="AE6" s="190"/>
+      <c r="AF6" s="191"/>
+      <c r="AG6" s="189"/>
+      <c r="AH6" s="190"/>
+      <c r="AI6" s="190"/>
+      <c r="AJ6" s="191"/>
+      <c r="AK6" s="189"/>
+      <c r="AL6" s="190"/>
+      <c r="AM6" s="190"/>
+      <c r="AN6" s="191"/>
+      <c r="AO6" s="189"/>
+      <c r="AP6" s="190"/>
+      <c r="AQ6" s="190"/>
+      <c r="AR6" s="191"/>
+      <c r="AS6" s="189"/>
+      <c r="AT6" s="190"/>
+      <c r="AU6" s="190"/>
+      <c r="AV6" s="191"/>
+      <c r="AW6" s="189"/>
+      <c r="AX6" s="190"/>
+      <c r="AY6" s="190"/>
+      <c r="AZ6" s="191"/>
+      <c r="BA6" s="189"/>
+      <c r="BB6" s="190"/>
+      <c r="BC6" s="190"/>
+      <c r="BD6" s="191"/>
+      <c r="BE6" s="189"/>
+      <c r="BF6" s="190"/>
+      <c r="BG6" s="190"/>
+      <c r="BH6" s="191"/>
+      <c r="BI6" s="189"/>
+      <c r="BJ6" s="190"/>
+      <c r="BK6" s="190"/>
+      <c r="BL6" s="191"/>
+      <c r="BM6" s="189"/>
+      <c r="BN6" s="190"/>
+      <c r="BO6" s="190"/>
+      <c r="BP6" s="191"/>
+      <c r="BQ6" s="189"/>
+      <c r="BR6" s="190"/>
+      <c r="BS6" s="190"/>
+      <c r="BT6" s="191"/>
+      <c r="BU6" s="189"/>
+      <c r="BV6" s="190"/>
+      <c r="BW6" s="190"/>
+      <c r="BX6" s="191"/>
+      <c r="BY6" s="189"/>
+      <c r="BZ6" s="190"/>
+      <c r="CA6" s="190"/>
+      <c r="CB6" s="191"/>
+      <c r="CC6" s="189"/>
+      <c r="CD6" s="190"/>
+      <c r="CE6" s="190"/>
+      <c r="CF6" s="191"/>
+      <c r="CG6" s="189"/>
+      <c r="CH6" s="190"/>
+      <c r="CI6" s="190"/>
+      <c r="CJ6" s="191"/>
+      <c r="CK6" s="189"/>
+      <c r="CL6" s="190"/>
+      <c r="CM6" s="190"/>
+      <c r="CN6" s="191"/>
+      <c r="CO6" s="189"/>
+      <c r="CP6" s="190"/>
+      <c r="CQ6" s="190"/>
+      <c r="CR6" s="191"/>
+      <c r="CS6" s="189"/>
+      <c r="CT6" s="190"/>
+      <c r="CU6" s="190"/>
+      <c r="CV6" s="191"/>
+      <c r="CW6" s="189"/>
+      <c r="CX6" s="190"/>
+      <c r="CY6" s="190"/>
+      <c r="CZ6" s="191"/>
+      <c r="DA6" s="189"/>
+      <c r="DB6" s="190"/>
+      <c r="DC6" s="190"/>
+      <c r="DD6" s="191"/>
+      <c r="DE6" s="189"/>
+      <c r="DF6" s="190"/>
+      <c r="DG6" s="190"/>
+      <c r="DH6" s="191"/>
+      <c r="DI6" s="189"/>
+      <c r="DJ6" s="190"/>
+      <c r="DK6" s="190"/>
+      <c r="DL6" s="191"/>
+      <c r="DM6" s="189"/>
+      <c r="DN6" s="190"/>
+      <c r="DO6" s="190"/>
+      <c r="DP6" s="191"/>
+      <c r="DQ6" s="189"/>
+      <c r="DR6" s="190"/>
+      <c r="DS6" s="190"/>
+      <c r="DT6" s="191"/>
+      <c r="DU6" s="189"/>
+      <c r="DV6" s="190"/>
+      <c r="DW6" s="190"/>
+      <c r="DX6" s="191"/>
+      <c r="DY6" s="189"/>
+      <c r="DZ6" s="190"/>
+      <c r="EA6" s="190"/>
+      <c r="EB6" s="191"/>
+      <c r="EC6" s="189"/>
+      <c r="ED6" s="190"/>
+      <c r="EE6" s="190"/>
+      <c r="EF6" s="191"/>
+      <c r="EG6" s="189"/>
+      <c r="EH6" s="190"/>
+      <c r="EI6" s="190"/>
+      <c r="EJ6" s="191"/>
+      <c r="EK6" s="189"/>
+      <c r="EL6" s="190"/>
+      <c r="EM6" s="190"/>
+      <c r="EN6" s="191"/>
+      <c r="EO6" s="189"/>
+      <c r="EP6" s="190"/>
+      <c r="EQ6" s="190"/>
+      <c r="ER6" s="191"/>
+      <c r="ES6" s="189"/>
+      <c r="ET6" s="190"/>
+      <c r="EU6" s="190"/>
+      <c r="EV6" s="191"/>
+      <c r="EW6" s="189"/>
+      <c r="EX6" s="190"/>
+      <c r="EY6" s="190"/>
+      <c r="EZ6" s="191"/>
+      <c r="FA6" s="189"/>
+      <c r="FB6" s="190"/>
+      <c r="FC6" s="190"/>
+      <c r="FD6" s="191"/>
+      <c r="FE6" s="189"/>
+      <c r="FF6" s="190"/>
+      <c r="FG6" s="190"/>
+      <c r="FH6" s="191"/>
+      <c r="FI6" s="189"/>
+      <c r="FJ6" s="190"/>
+      <c r="FK6" s="190"/>
+      <c r="FL6" s="191"/>
+      <c r="FM6" s="189"/>
+      <c r="FN6" s="190"/>
+      <c r="FO6" s="190"/>
+      <c r="FP6" s="191"/>
+      <c r="FQ6" s="189"/>
+      <c r="FR6" s="190"/>
+      <c r="FS6" s="190"/>
+      <c r="FT6" s="191"/>
+      <c r="FU6" s="189"/>
+      <c r="FV6" s="190"/>
+      <c r="FW6" s="190"/>
+      <c r="FX6" s="191"/>
+      <c r="FY6" s="189"/>
+      <c r="FZ6" s="190"/>
+      <c r="GA6" s="190"/>
+      <c r="GB6" s="191"/>
+      <c r="GC6" s="189"/>
+      <c r="GD6" s="190"/>
+      <c r="GE6" s="190"/>
+      <c r="GF6" s="191"/>
+      <c r="GG6" s="189"/>
+      <c r="GH6" s="190"/>
+      <c r="GI6" s="190"/>
+      <c r="GJ6" s="191"/>
+      <c r="GK6" s="189"/>
+      <c r="GL6" s="190"/>
+      <c r="GM6" s="190"/>
+      <c r="GN6" s="191"/>
+      <c r="GO6" s="189"/>
+      <c r="GP6" s="190"/>
+      <c r="GQ6" s="190"/>
+      <c r="GR6" s="191"/>
+      <c r="GS6" s="189"/>
+      <c r="GT6" s="190"/>
+      <c r="GU6" s="190"/>
+      <c r="GV6" s="191"/>
+      <c r="GW6" s="189"/>
+      <c r="GX6" s="190"/>
+      <c r="GY6" s="190"/>
+      <c r="GZ6" s="191"/>
+      <c r="HA6" s="189"/>
+      <c r="HB6" s="190"/>
+      <c r="HC6" s="190"/>
+      <c r="HD6" s="191"/>
+      <c r="HE6" s="189"/>
+      <c r="HF6" s="190"/>
+      <c r="HG6" s="190"/>
+      <c r="HH6" s="191"/>
+      <c r="HI6" s="189"/>
+      <c r="HJ6" s="190"/>
+      <c r="HK6" s="190"/>
+      <c r="HL6" s="191"/>
+      <c r="HM6" s="189"/>
+      <c r="HN6" s="190"/>
+      <c r="HO6" s="190"/>
+      <c r="HP6" s="191"/>
+    </row>
+    <row r="7" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3750,32 +3543,32 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="4">
         <v>1.5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="4">
         <v>1.5</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>2</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>2</v>
-      </c>
       <c r="R7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="S7" s="4">
         <v>1.5</v>
@@ -3786,32 +3579,32 @@
       <c r="U7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="4">
         <v>1.5</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>2</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" s="4">
         <v>1.5</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>2</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>2</v>
-      </c>
       <c r="AD7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="AE7" s="4">
         <v>1.5</v>
@@ -3822,32 +3615,32 @@
       <c r="AG7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI7" s="4">
         <v>1.5</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AJ7" s="4">
         <v>2</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AL7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM7" s="4">
         <v>1.5</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AN7" s="4">
         <v>2</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AN7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>2</v>
-      </c>
       <c r="AP7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="AQ7" s="4">
         <v>1.5</v>
@@ -3858,32 +3651,32 @@
       <c r="AS7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU7" s="4">
         <v>1.5</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AV7" s="4">
         <v>2</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AW7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AW7" s="4">
+      <c r="AX7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY7" s="4">
         <v>1.5</v>
       </c>
-      <c r="AX7" s="4">
+      <c r="AZ7" s="4">
         <v>2</v>
       </c>
-      <c r="AY7" s="4" t="s">
+      <c r="BA7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AZ7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="BA7" s="4">
-        <v>2</v>
-      </c>
       <c r="BB7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="BC7" s="4">
         <v>1.5</v>
@@ -3894,32 +3687,32 @@
       <c r="BE7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF7" s="4">
+      <c r="BF7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG7" s="4">
         <v>1.5</v>
       </c>
-      <c r="BG7" s="4">
+      <c r="BH7" s="4">
         <v>2</v>
       </c>
-      <c r="BH7" s="4" t="s">
+      <c r="BI7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BI7" s="4">
+      <c r="BJ7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK7" s="4">
         <v>1.5</v>
       </c>
-      <c r="BJ7" s="4">
+      <c r="BL7" s="4">
         <v>2</v>
       </c>
-      <c r="BK7" s="4" t="s">
+      <c r="BM7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BL7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="BM7" s="4">
-        <v>2</v>
-      </c>
       <c r="BN7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="BO7" s="4">
         <v>1.5</v>
@@ -3930,32 +3723,32 @@
       <c r="BQ7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BR7" s="4">
+      <c r="BR7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS7" s="4">
         <v>1.5</v>
       </c>
-      <c r="BS7" s="4">
+      <c r="BT7" s="4">
         <v>2</v>
       </c>
-      <c r="BT7" s="4" t="s">
+      <c r="BU7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BU7" s="4">
+      <c r="BV7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW7" s="4">
         <v>1.5</v>
       </c>
-      <c r="BV7" s="4">
+      <c r="BX7" s="4">
         <v>2</v>
       </c>
-      <c r="BW7" s="4" t="s">
+      <c r="BY7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BX7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="BY7" s="4">
-        <v>2</v>
-      </c>
       <c r="BZ7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="CA7" s="4">
         <v>1.5</v>
@@ -3966,32 +3759,32 @@
       <c r="CC7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CD7" s="4">
+      <c r="CD7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="CE7" s="4">
         <v>1.5</v>
       </c>
-      <c r="CE7" s="4">
+      <c r="CF7" s="4">
         <v>2</v>
       </c>
-      <c r="CF7" s="4" t="s">
+      <c r="CG7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CG7" s="4">
+      <c r="CH7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI7" s="4">
         <v>1.5</v>
       </c>
-      <c r="CH7" s="4">
+      <c r="CJ7" s="4">
         <v>2</v>
       </c>
-      <c r="CI7" s="4" t="s">
+      <c r="CK7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CJ7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="CK7" s="4">
-        <v>2</v>
-      </c>
       <c r="CL7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="CM7" s="4">
         <v>1.5</v>
@@ -4002,32 +3795,32 @@
       <c r="CO7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CP7" s="4">
+      <c r="CP7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ7" s="4">
         <v>1.5</v>
       </c>
-      <c r="CQ7" s="4">
+      <c r="CR7" s="4">
         <v>2</v>
       </c>
-      <c r="CR7" s="4" t="s">
+      <c r="CS7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CS7" s="4">
+      <c r="CT7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="CU7" s="4">
         <v>1.5</v>
       </c>
-      <c r="CT7" s="4">
+      <c r="CV7" s="4">
         <v>2</v>
       </c>
-      <c r="CU7" s="4" t="s">
+      <c r="CW7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CV7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="CW7" s="4">
-        <v>2</v>
-      </c>
       <c r="CX7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="CY7" s="4">
         <v>1.5</v>
@@ -4038,32 +3831,32 @@
       <c r="DA7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DB7" s="4">
+      <c r="DB7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC7" s="4">
         <v>1.5</v>
       </c>
-      <c r="DC7" s="4">
+      <c r="DD7" s="4">
         <v>2</v>
       </c>
-      <c r="DD7" s="4" t="s">
+      <c r="DE7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DE7" s="4">
+      <c r="DF7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DG7" s="4">
         <v>1.5</v>
       </c>
-      <c r="DF7" s="4">
+      <c r="DH7" s="4">
         <v>2</v>
       </c>
-      <c r="DG7" s="4" t="s">
+      <c r="DI7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DH7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="DI7" s="4">
-        <v>2</v>
-      </c>
       <c r="DJ7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="DK7" s="4">
         <v>1.5</v>
@@ -4074,32 +3867,32 @@
       <c r="DM7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DN7" s="4">
+      <c r="DN7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DO7" s="4">
         <v>1.5</v>
       </c>
-      <c r="DO7" s="4">
+      <c r="DP7" s="4">
         <v>2</v>
       </c>
-      <c r="DP7" s="4" t="s">
+      <c r="DQ7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DQ7" s="4">
+      <c r="DR7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS7" s="4">
         <v>1.5</v>
       </c>
-      <c r="DR7" s="4">
+      <c r="DT7" s="4">
         <v>2</v>
       </c>
-      <c r="DS7" s="4" t="s">
+      <c r="DU7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DT7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="DU7" s="4">
-        <v>2</v>
-      </c>
       <c r="DV7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="DW7" s="4">
         <v>1.5</v>
@@ -4110,32 +3903,32 @@
       <c r="DY7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DZ7" s="4">
+      <c r="DZ7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA7" s="4">
         <v>1.5</v>
       </c>
-      <c r="EA7" s="4">
+      <c r="EB7" s="4">
         <v>2</v>
       </c>
-      <c r="EB7" s="4" t="s">
+      <c r="EC7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EC7" s="4">
+      <c r="ED7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="EE7" s="4">
         <v>1.5</v>
       </c>
-      <c r="ED7" s="4">
+      <c r="EF7" s="4">
         <v>2</v>
       </c>
-      <c r="EE7" s="4" t="s">
+      <c r="EG7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EF7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="EG7" s="4">
-        <v>2</v>
-      </c>
       <c r="EH7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="EI7" s="4">
         <v>1.5</v>
@@ -4146,32 +3939,32 @@
       <c r="EK7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EL7" s="4">
+      <c r="EL7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="EM7" s="4">
         <v>1.5</v>
       </c>
-      <c r="EM7" s="4">
+      <c r="EN7" s="4">
         <v>2</v>
       </c>
-      <c r="EN7" s="4" t="s">
+      <c r="EO7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EO7" s="4">
+      <c r="EP7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="EQ7" s="4">
         <v>1.5</v>
       </c>
-      <c r="EP7" s="4">
+      <c r="ER7" s="4">
         <v>2</v>
       </c>
-      <c r="EQ7" s="4" t="s">
+      <c r="ES7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="ER7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="ES7" s="4">
-        <v>2</v>
-      </c>
       <c r="ET7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="EU7" s="4">
         <v>1.5</v>
@@ -4182,32 +3975,32 @@
       <c r="EW7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EX7" s="4">
+      <c r="EX7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="EY7" s="4">
         <v>1.5</v>
       </c>
-      <c r="EY7" s="4">
+      <c r="EZ7" s="4">
         <v>2</v>
       </c>
-      <c r="EZ7" s="4" t="s">
+      <c r="FA7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="FA7" s="4">
+      <c r="FB7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="FC7" s="4">
         <v>1.5</v>
       </c>
-      <c r="FB7" s="4">
+      <c r="FD7" s="4">
         <v>2</v>
       </c>
-      <c r="FC7" s="4" t="s">
+      <c r="FE7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="FD7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="FE7" s="4">
-        <v>2</v>
-      </c>
       <c r="FF7" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="FG7" s="4">
         <v>1.5</v>
@@ -4218,14 +4011,185 @@
       <c r="FI7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="FJ7" s="4">
+      <c r="FJ7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="FK7" s="4">
         <v>1.5</v>
       </c>
-      <c r="FK7" s="4">
+      <c r="FL7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FM7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FN7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="FO7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FP7" s="4">
+        <v>2</v>
+      </c>
+      <c r="FQ7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FR7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="FS7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FT7" s="4">
+        <v>2</v>
+      </c>
+      <c r="FU7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FV7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="FW7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="FX7" s="4">
+        <v>2</v>
+      </c>
+      <c r="FY7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="FZ7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GA7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GB7" s="4">
+        <v>2</v>
+      </c>
+      <c r="GC7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="GD7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GE7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GF7" s="4">
+        <v>2</v>
+      </c>
+      <c r="GG7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="GH7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GI7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GJ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="GK7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="GL7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GM7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GN7" s="4">
+        <v>2</v>
+      </c>
+      <c r="GO7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="GP7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GQ7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GR7" s="4">
+        <v>2</v>
+      </c>
+      <c r="GS7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="GT7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GU7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GV7" s="4">
+        <v>2</v>
+      </c>
+      <c r="GW7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="GX7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="GY7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="GZ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="HA7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="HB7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="HC7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="HD7" s="4">
+        <v>2</v>
+      </c>
+      <c r="HE7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="HF7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="HG7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="HH7" s="4">
+        <v>2</v>
+      </c>
+      <c r="HI7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="HJ7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="HK7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="HL7" s="4">
+        <v>2</v>
+      </c>
+      <c r="HM7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="HN7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="HO7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="HP7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4235,18 +4199,21 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <f>SUMIF($L$7:$FL$7,$I$7,L8:FL8)</f>
+        <f>SUMIF($M$7:$P$7,$I$7,M8:FP8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>SUMIF($L$7:$FL$7,$J$7,L8:FL8)</f>
+        <f>SUMIF($M$7:$P$7,$J$7,N8:Q8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>SUMIF($L$7:$FL$7,$K$7,L8:FL8)</f>
+        <f>SUMIF($M$7:$P$7,$K$7,M8:P8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <f>SUMIF($M$7:$P$7,$L$7,M8:P8)</f>
+        <v>0</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -4402,8 +4369,65 @@
       <c r="FI8" s="5"/>
       <c r="FJ8" s="5"/>
       <c r="FK8" s="5"/>
-    </row>
-    <row r="9" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FL8" s="5"/>
+      <c r="FM8" s="5"/>
+      <c r="FN8" s="5"/>
+      <c r="FO8" s="5"/>
+      <c r="FP8" s="5"/>
+      <c r="FQ8" s="5"/>
+      <c r="FR8" s="5"/>
+      <c r="FS8" s="5"/>
+      <c r="FT8" s="5"/>
+      <c r="FU8" s="5"/>
+      <c r="FV8" s="5"/>
+      <c r="FW8" s="5"/>
+      <c r="FX8" s="5"/>
+      <c r="FY8" s="5"/>
+      <c r="FZ8" s="5"/>
+      <c r="GA8" s="5"/>
+      <c r="GB8" s="5"/>
+      <c r="GC8" s="5"/>
+      <c r="GD8" s="5"/>
+      <c r="GE8" s="5"/>
+      <c r="GF8" s="5"/>
+      <c r="GG8" s="5"/>
+      <c r="GH8" s="5"/>
+      <c r="GI8" s="5"/>
+      <c r="GJ8" s="5"/>
+      <c r="GK8" s="5"/>
+      <c r="GL8" s="5"/>
+      <c r="GM8" s="5"/>
+      <c r="GN8" s="5"/>
+      <c r="GO8" s="5"/>
+      <c r="GP8" s="5"/>
+      <c r="GQ8" s="5"/>
+      <c r="GR8" s="5"/>
+      <c r="GS8" s="5"/>
+      <c r="GT8" s="5"/>
+      <c r="GU8" s="5"/>
+      <c r="GV8" s="5"/>
+      <c r="GW8" s="5"/>
+      <c r="GX8" s="5"/>
+      <c r="GY8" s="5"/>
+      <c r="GZ8" s="5"/>
+      <c r="HA8" s="5"/>
+      <c r="HB8" s="5"/>
+      <c r="HC8" s="5"/>
+      <c r="HD8" s="5"/>
+      <c r="HE8" s="5"/>
+      <c r="HF8" s="5"/>
+      <c r="HG8" s="5"/>
+      <c r="HH8" s="5"/>
+      <c r="HI8" s="5"/>
+      <c r="HJ8" s="5"/>
+      <c r="HK8" s="5"/>
+      <c r="HL8" s="5"/>
+      <c r="HM8" s="5"/>
+      <c r="HN8" s="5"/>
+      <c r="HO8" s="5"/>
+      <c r="HP8" s="5"/>
+    </row>
+    <row r="9" spans="1:224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
@@ -4417,125 +4441,13 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="BP9" s="6"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="6"/>
-      <c r="BU9" s="6"/>
-      <c r="BV9" s="6"/>
-      <c r="BW9" s="6"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="6"/>
-      <c r="CA9" s="6"/>
-      <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="6"/>
-      <c r="CE9" s="6"/>
-      <c r="CF9" s="6"/>
-      <c r="CG9" s="6"/>
-      <c r="CH9" s="6"/>
-      <c r="CI9" s="6"/>
-      <c r="CJ9" s="6"/>
-      <c r="CK9" s="6"/>
-      <c r="CL9" s="6"/>
-      <c r="CM9" s="6"/>
-      <c r="CN9" s="6"/>
-      <c r="CO9" s="6"/>
-      <c r="CP9" s="6"/>
-      <c r="CQ9" s="6"/>
-      <c r="CR9" s="6"/>
-      <c r="CS9" s="6"/>
-      <c r="CT9" s="6"/>
-      <c r="CU9" s="6"/>
-      <c r="CV9" s="6"/>
-      <c r="CW9" s="6"/>
-      <c r="CX9" s="6"/>
-      <c r="CY9" s="6"/>
-      <c r="CZ9" s="6"/>
-      <c r="DA9" s="6"/>
-      <c r="DB9" s="6"/>
-      <c r="DC9" s="6"/>
-      <c r="DD9" s="6"/>
-      <c r="DE9" s="6"/>
-      <c r="DF9" s="6"/>
-      <c r="DG9" s="6"/>
-      <c r="DH9" s="6"/>
-      <c r="DI9" s="6"/>
-      <c r="DJ9" s="6"/>
-      <c r="DK9" s="6"/>
-      <c r="DL9" s="6"/>
-      <c r="DM9" s="6"/>
-      <c r="DN9" s="6"/>
-      <c r="DO9" s="6"/>
-      <c r="DP9" s="6"/>
-      <c r="DQ9" s="6"/>
-      <c r="DR9" s="6"/>
-      <c r="DS9" s="6"/>
-      <c r="DT9" s="6"/>
-      <c r="DU9" s="6"/>
-      <c r="DV9" s="6"/>
-      <c r="DW9" s="6"/>
-      <c r="DX9" s="6"/>
-    </row>
-    <row r="10" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4548,120 +4460,8 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="6"/>
-      <c r="BK10" s="6"/>
-      <c r="BL10" s="6"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="BP10" s="6"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
-      <c r="BU10" s="6"/>
-      <c r="BV10" s="6"/>
-      <c r="BW10" s="6"/>
-      <c r="BX10" s="6"/>
-      <c r="BY10" s="6"/>
-      <c r="BZ10" s="6"/>
-      <c r="CA10" s="6"/>
-      <c r="CB10" s="6"/>
-      <c r="CC10" s="6"/>
-      <c r="CD10" s="6"/>
-      <c r="CE10" s="6"/>
-      <c r="CF10" s="6"/>
-      <c r="CG10" s="6"/>
-      <c r="CH10" s="6"/>
-      <c r="CI10" s="6"/>
-      <c r="CJ10" s="6"/>
-      <c r="CK10" s="6"/>
-      <c r="CL10" s="6"/>
-      <c r="CM10" s="6"/>
-      <c r="CN10" s="6"/>
-      <c r="CO10" s="6"/>
-      <c r="CP10" s="6"/>
-      <c r="CQ10" s="6"/>
-      <c r="CR10" s="6"/>
-      <c r="CS10" s="6"/>
-      <c r="CT10" s="6"/>
-      <c r="CU10" s="6"/>
-      <c r="CV10" s="6"/>
-      <c r="CW10" s="6"/>
-      <c r="CX10" s="6"/>
-      <c r="CY10" s="6"/>
-      <c r="CZ10" s="6"/>
-      <c r="DA10" s="6"/>
-      <c r="DB10" s="6"/>
-      <c r="DC10" s="6"/>
-      <c r="DD10" s="6"/>
-      <c r="DE10" s="6"/>
-      <c r="DF10" s="6"/>
-      <c r="DG10" s="6"/>
-      <c r="DH10" s="6"/>
-      <c r="DI10" s="6"/>
-      <c r="DJ10" s="6"/>
-      <c r="DK10" s="6"/>
-      <c r="DL10" s="6"/>
-      <c r="DM10" s="6"/>
-      <c r="DN10" s="6"/>
-      <c r="DO10" s="6"/>
-      <c r="DP10" s="6"/>
-      <c r="DQ10" s="6"/>
-      <c r="DR10" s="6"/>
-      <c r="DS10" s="6"/>
-      <c r="DT10" s="6"/>
-      <c r="DU10" s="6"/>
-      <c r="DV10" s="6"/>
-      <c r="DW10" s="6"/>
-      <c r="DX10" s="6"/>
-    </row>
-    <row r="11" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -4674,120 +4474,8 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="6"/>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="6"/>
-      <c r="BH11" s="6"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="6"/>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6"/>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="6"/>
-      <c r="BO11" s="6"/>
-      <c r="BP11" s="6"/>
-      <c r="BQ11" s="6"/>
-      <c r="BR11" s="6"/>
-      <c r="BS11" s="6"/>
-      <c r="BT11" s="6"/>
-      <c r="BU11" s="6"/>
-      <c r="BV11" s="6"/>
-      <c r="BW11" s="6"/>
-      <c r="BX11" s="6"/>
-      <c r="BY11" s="6"/>
-      <c r="BZ11" s="6"/>
-      <c r="CA11" s="6"/>
-      <c r="CB11" s="6"/>
-      <c r="CC11" s="6"/>
-      <c r="CD11" s="6"/>
-      <c r="CE11" s="6"/>
-      <c r="CF11" s="6"/>
-      <c r="CG11" s="6"/>
-      <c r="CH11" s="6"/>
-      <c r="CI11" s="6"/>
-      <c r="CJ11" s="6"/>
-      <c r="CK11" s="6"/>
-      <c r="CL11" s="6"/>
-      <c r="CM11" s="6"/>
-      <c r="CN11" s="6"/>
-      <c r="CO11" s="6"/>
-      <c r="CP11" s="6"/>
-      <c r="CQ11" s="6"/>
-      <c r="CR11" s="6"/>
-      <c r="CS11" s="6"/>
-      <c r="CT11" s="6"/>
-      <c r="CU11" s="6"/>
-      <c r="CV11" s="6"/>
-      <c r="CW11" s="6"/>
-      <c r="CX11" s="6"/>
-      <c r="CY11" s="6"/>
-      <c r="CZ11" s="6"/>
-      <c r="DA11" s="6"/>
-      <c r="DB11" s="6"/>
-      <c r="DC11" s="6"/>
-      <c r="DD11" s="6"/>
-      <c r="DE11" s="6"/>
-      <c r="DF11" s="6"/>
-      <c r="DG11" s="6"/>
-      <c r="DH11" s="6"/>
-      <c r="DI11" s="6"/>
-      <c r="DJ11" s="6"/>
-      <c r="DK11" s="6"/>
-      <c r="DL11" s="6"/>
-      <c r="DM11" s="6"/>
-      <c r="DN11" s="6"/>
-      <c r="DO11" s="6"/>
-      <c r="DP11" s="6"/>
-      <c r="DQ11" s="6"/>
-      <c r="DR11" s="6"/>
-      <c r="DS11" s="6"/>
-      <c r="DT11" s="6"/>
-      <c r="DU11" s="6"/>
-      <c r="DV11" s="6"/>
-      <c r="DW11" s="6"/>
-      <c r="DX11" s="6"/>
-    </row>
-    <row r="12" spans="1:167" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4800,181 +4488,70 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
-      <c r="BL12" s="6"/>
-      <c r="BM12" s="6"/>
-      <c r="BN12" s="6"/>
-      <c r="BO12" s="6"/>
-      <c r="BP12" s="6"/>
-      <c r="BQ12" s="6"/>
-      <c r="BR12" s="6"/>
-      <c r="BS12" s="6"/>
-      <c r="BT12" s="6"/>
-      <c r="BU12" s="6"/>
-      <c r="BV12" s="6"/>
-      <c r="BW12" s="6"/>
-      <c r="BX12" s="6"/>
-      <c r="BY12" s="6"/>
-      <c r="BZ12" s="6"/>
-      <c r="CA12" s="6"/>
-      <c r="CB12" s="6"/>
-      <c r="CC12" s="6"/>
-      <c r="CD12" s="6"/>
-      <c r="CE12" s="6"/>
-      <c r="CF12" s="6"/>
-      <c r="CG12" s="6"/>
-      <c r="CH12" s="6"/>
-      <c r="CI12" s="6"/>
-      <c r="CJ12" s="6"/>
-      <c r="CK12" s="6"/>
-      <c r="CL12" s="6"/>
-      <c r="CM12" s="6"/>
-      <c r="CN12" s="6"/>
-      <c r="CO12" s="6"/>
-      <c r="CP12" s="6"/>
-      <c r="CQ12" s="6"/>
-      <c r="CR12" s="6"/>
-      <c r="CS12" s="6"/>
-      <c r="CT12" s="6"/>
-      <c r="CU12" s="6"/>
-      <c r="CV12" s="6"/>
-      <c r="CW12" s="6"/>
-      <c r="CX12" s="6"/>
-      <c r="CY12" s="6"/>
-      <c r="CZ12" s="6"/>
-      <c r="DA12" s="6"/>
-      <c r="DB12" s="6"/>
-      <c r="DC12" s="6"/>
-      <c r="DD12" s="6"/>
-      <c r="DE12" s="6"/>
-      <c r="DF12" s="6"/>
-      <c r="DG12" s="6"/>
-      <c r="DH12" s="6"/>
-      <c r="DI12" s="6"/>
-      <c r="DJ12" s="6"/>
-      <c r="DK12" s="6"/>
-      <c r="DL12" s="6"/>
-      <c r="DM12" s="6"/>
-      <c r="DN12" s="6"/>
-      <c r="DO12" s="6"/>
-      <c r="DP12" s="6"/>
-      <c r="DQ12" s="6"/>
-      <c r="DR12" s="6"/>
-      <c r="DS12" s="6"/>
-      <c r="DT12" s="6"/>
-      <c r="DU12" s="6"/>
-      <c r="DV12" s="6"/>
-      <c r="DW12" s="6"/>
-      <c r="DX12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="FC6:FE6"/>
-    <mergeCell ref="FF6:FH6"/>
-    <mergeCell ref="FI6:FK6"/>
-    <mergeCell ref="EN6:EP6"/>
-    <mergeCell ref="EQ6:ES6"/>
-    <mergeCell ref="ET6:EV6"/>
-    <mergeCell ref="EW6:EY6"/>
-    <mergeCell ref="EZ6:FB6"/>
-    <mergeCell ref="DY6:EA6"/>
-    <mergeCell ref="EB6:ED6"/>
-    <mergeCell ref="EE6:EG6"/>
-    <mergeCell ref="EH6:EJ6"/>
-    <mergeCell ref="EK6:EM6"/>
-    <mergeCell ref="DM6:DO6"/>
-    <mergeCell ref="DP6:DR6"/>
-    <mergeCell ref="DS6:DU6"/>
-    <mergeCell ref="DV6:DX6"/>
-    <mergeCell ref="CX6:CZ6"/>
-    <mergeCell ref="DA6:DC6"/>
-    <mergeCell ref="DD6:DF6"/>
-    <mergeCell ref="DG6:DI6"/>
-    <mergeCell ref="DJ6:DL6"/>
-    <mergeCell ref="CI6:CK6"/>
-    <mergeCell ref="CL6:CN6"/>
-    <mergeCell ref="CO6:CQ6"/>
-    <mergeCell ref="CR6:CT6"/>
-    <mergeCell ref="CU6:CW6"/>
-    <mergeCell ref="BT6:BV6"/>
-    <mergeCell ref="BW6:BY6"/>
-    <mergeCell ref="BZ6:CB6"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CF6:CH6"/>
-    <mergeCell ref="BE6:BG6"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="BN6:BP6"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="BB6:BD6"/>
+  <mergeCells count="61">
+    <mergeCell ref="GW6:GZ6"/>
+    <mergeCell ref="HA6:HD6"/>
+    <mergeCell ref="HE6:HH6"/>
+    <mergeCell ref="HI6:HL6"/>
+    <mergeCell ref="HM6:HP6"/>
+    <mergeCell ref="FM6:FP6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AO6:AR6"/>
+    <mergeCell ref="AS6:AV6"/>
+    <mergeCell ref="AW6:AZ6"/>
+    <mergeCell ref="BA6:BD6"/>
+    <mergeCell ref="BE6:BH6"/>
+    <mergeCell ref="AK6:AN6"/>
+    <mergeCell ref="BY6:CB6"/>
+    <mergeCell ref="CC6:CF6"/>
+    <mergeCell ref="CG6:CJ6"/>
+    <mergeCell ref="CK6:CN6"/>
     <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="BI6:BL6"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BU6:BX6"/>
+    <mergeCell ref="CO6:CR6"/>
+    <mergeCell ref="CS6:CV6"/>
+    <mergeCell ref="CW6:CZ6"/>
+    <mergeCell ref="DA6:DD6"/>
+    <mergeCell ref="DE6:DH6"/>
+    <mergeCell ref="DI6:DL6"/>
+    <mergeCell ref="DM6:DP6"/>
+    <mergeCell ref="DQ6:DT6"/>
+    <mergeCell ref="DU6:DX6"/>
+    <mergeCell ref="DY6:EB6"/>
+    <mergeCell ref="EW6:EZ6"/>
+    <mergeCell ref="FA6:FD6"/>
+    <mergeCell ref="FE6:FH6"/>
+    <mergeCell ref="FI6:FL6"/>
+    <mergeCell ref="EC6:EF6"/>
+    <mergeCell ref="EG6:EJ6"/>
+    <mergeCell ref="EK6:EN6"/>
+    <mergeCell ref="EO6:ER6"/>
+    <mergeCell ref="ES6:EV6"/>
+    <mergeCell ref="GK6:GN6"/>
+    <mergeCell ref="GO6:GR6"/>
+    <mergeCell ref="GS6:GV6"/>
+    <mergeCell ref="FQ6:FT6"/>
+    <mergeCell ref="FU6:FX6"/>
+    <mergeCell ref="FY6:GB6"/>
+    <mergeCell ref="GC6:GF6"/>
+    <mergeCell ref="GG6:GJ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4986,472 +4563,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992195C-6099-4F4F-9774-B0A0A335235C}">
   <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="55" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" style="61" customWidth="1"/>
-    <col min="4" max="35" width="5.44140625" style="10" customWidth="1"/>
-    <col min="36" max="36" width="13.33203125" style="10" customWidth="1"/>
-    <col min="37" max="37" width="12.44140625" style="18" customWidth="1"/>
-    <col min="38" max="256" width="9.109375" style="18"/>
-    <col min="257" max="257" width="5.109375" style="18" customWidth="1"/>
-    <col min="258" max="258" width="12.88671875" style="18" customWidth="1"/>
-    <col min="259" max="259" width="37.33203125" style="18" customWidth="1"/>
-    <col min="260" max="291" width="5.44140625" style="18" customWidth="1"/>
-    <col min="292" max="292" width="13.33203125" style="18" customWidth="1"/>
-    <col min="293" max="293" width="12.44140625" style="18" customWidth="1"/>
-    <col min="294" max="512" width="9.109375" style="18"/>
-    <col min="513" max="513" width="5.109375" style="18" customWidth="1"/>
-    <col min="514" max="514" width="12.88671875" style="18" customWidth="1"/>
-    <col min="515" max="515" width="37.33203125" style="18" customWidth="1"/>
-    <col min="516" max="547" width="5.44140625" style="18" customWidth="1"/>
-    <col min="548" max="548" width="13.33203125" style="18" customWidth="1"/>
-    <col min="549" max="549" width="12.44140625" style="18" customWidth="1"/>
-    <col min="550" max="768" width="9.109375" style="18"/>
-    <col min="769" max="769" width="5.109375" style="18" customWidth="1"/>
-    <col min="770" max="770" width="12.88671875" style="18" customWidth="1"/>
-    <col min="771" max="771" width="37.33203125" style="18" customWidth="1"/>
-    <col min="772" max="803" width="5.44140625" style="18" customWidth="1"/>
-    <col min="804" max="804" width="13.33203125" style="18" customWidth="1"/>
-    <col min="805" max="805" width="12.44140625" style="18" customWidth="1"/>
-    <col min="806" max="1024" width="9.109375" style="18"/>
-    <col min="1025" max="1025" width="5.109375" style="18" customWidth="1"/>
-    <col min="1026" max="1026" width="12.88671875" style="18" customWidth="1"/>
-    <col min="1027" max="1027" width="37.33203125" style="18" customWidth="1"/>
-    <col min="1028" max="1059" width="5.44140625" style="18" customWidth="1"/>
-    <col min="1060" max="1060" width="13.33203125" style="18" customWidth="1"/>
-    <col min="1061" max="1061" width="12.44140625" style="18" customWidth="1"/>
-    <col min="1062" max="1280" width="9.109375" style="18"/>
-    <col min="1281" max="1281" width="5.109375" style="18" customWidth="1"/>
-    <col min="1282" max="1282" width="12.88671875" style="18" customWidth="1"/>
-    <col min="1283" max="1283" width="37.33203125" style="18" customWidth="1"/>
-    <col min="1284" max="1315" width="5.44140625" style="18" customWidth="1"/>
-    <col min="1316" max="1316" width="13.33203125" style="18" customWidth="1"/>
-    <col min="1317" max="1317" width="12.44140625" style="18" customWidth="1"/>
-    <col min="1318" max="1536" width="9.109375" style="18"/>
-    <col min="1537" max="1537" width="5.109375" style="18" customWidth="1"/>
-    <col min="1538" max="1538" width="12.88671875" style="18" customWidth="1"/>
-    <col min="1539" max="1539" width="37.33203125" style="18" customWidth="1"/>
-    <col min="1540" max="1571" width="5.44140625" style="18" customWidth="1"/>
-    <col min="1572" max="1572" width="13.33203125" style="18" customWidth="1"/>
-    <col min="1573" max="1573" width="12.44140625" style="18" customWidth="1"/>
-    <col min="1574" max="1792" width="9.109375" style="18"/>
-    <col min="1793" max="1793" width="5.109375" style="18" customWidth="1"/>
-    <col min="1794" max="1794" width="12.88671875" style="18" customWidth="1"/>
-    <col min="1795" max="1795" width="37.33203125" style="18" customWidth="1"/>
-    <col min="1796" max="1827" width="5.44140625" style="18" customWidth="1"/>
-    <col min="1828" max="1828" width="13.33203125" style="18" customWidth="1"/>
-    <col min="1829" max="1829" width="12.44140625" style="18" customWidth="1"/>
-    <col min="1830" max="2048" width="9.109375" style="18"/>
-    <col min="2049" max="2049" width="5.109375" style="18" customWidth="1"/>
-    <col min="2050" max="2050" width="12.88671875" style="18" customWidth="1"/>
-    <col min="2051" max="2051" width="37.33203125" style="18" customWidth="1"/>
-    <col min="2052" max="2083" width="5.44140625" style="18" customWidth="1"/>
-    <col min="2084" max="2084" width="13.33203125" style="18" customWidth="1"/>
-    <col min="2085" max="2085" width="12.44140625" style="18" customWidth="1"/>
-    <col min="2086" max="2304" width="9.109375" style="18"/>
-    <col min="2305" max="2305" width="5.109375" style="18" customWidth="1"/>
-    <col min="2306" max="2306" width="12.88671875" style="18" customWidth="1"/>
-    <col min="2307" max="2307" width="37.33203125" style="18" customWidth="1"/>
-    <col min="2308" max="2339" width="5.44140625" style="18" customWidth="1"/>
-    <col min="2340" max="2340" width="13.33203125" style="18" customWidth="1"/>
-    <col min="2341" max="2341" width="12.44140625" style="18" customWidth="1"/>
-    <col min="2342" max="2560" width="9.109375" style="18"/>
-    <col min="2561" max="2561" width="5.109375" style="18" customWidth="1"/>
-    <col min="2562" max="2562" width="12.88671875" style="18" customWidth="1"/>
-    <col min="2563" max="2563" width="37.33203125" style="18" customWidth="1"/>
-    <col min="2564" max="2595" width="5.44140625" style="18" customWidth="1"/>
-    <col min="2596" max="2596" width="13.33203125" style="18" customWidth="1"/>
-    <col min="2597" max="2597" width="12.44140625" style="18" customWidth="1"/>
-    <col min="2598" max="2816" width="9.109375" style="18"/>
-    <col min="2817" max="2817" width="5.109375" style="18" customWidth="1"/>
-    <col min="2818" max="2818" width="12.88671875" style="18" customWidth="1"/>
-    <col min="2819" max="2819" width="37.33203125" style="18" customWidth="1"/>
-    <col min="2820" max="2851" width="5.44140625" style="18" customWidth="1"/>
-    <col min="2852" max="2852" width="13.33203125" style="18" customWidth="1"/>
-    <col min="2853" max="2853" width="12.44140625" style="18" customWidth="1"/>
-    <col min="2854" max="3072" width="9.109375" style="18"/>
-    <col min="3073" max="3073" width="5.109375" style="18" customWidth="1"/>
-    <col min="3074" max="3074" width="12.88671875" style="18" customWidth="1"/>
-    <col min="3075" max="3075" width="37.33203125" style="18" customWidth="1"/>
-    <col min="3076" max="3107" width="5.44140625" style="18" customWidth="1"/>
-    <col min="3108" max="3108" width="13.33203125" style="18" customWidth="1"/>
-    <col min="3109" max="3109" width="12.44140625" style="18" customWidth="1"/>
-    <col min="3110" max="3328" width="9.109375" style="18"/>
-    <col min="3329" max="3329" width="5.109375" style="18" customWidth="1"/>
-    <col min="3330" max="3330" width="12.88671875" style="18" customWidth="1"/>
-    <col min="3331" max="3331" width="37.33203125" style="18" customWidth="1"/>
-    <col min="3332" max="3363" width="5.44140625" style="18" customWidth="1"/>
-    <col min="3364" max="3364" width="13.33203125" style="18" customWidth="1"/>
-    <col min="3365" max="3365" width="12.44140625" style="18" customWidth="1"/>
-    <col min="3366" max="3584" width="9.109375" style="18"/>
-    <col min="3585" max="3585" width="5.109375" style="18" customWidth="1"/>
-    <col min="3586" max="3586" width="12.88671875" style="18" customWidth="1"/>
-    <col min="3587" max="3587" width="37.33203125" style="18" customWidth="1"/>
-    <col min="3588" max="3619" width="5.44140625" style="18" customWidth="1"/>
-    <col min="3620" max="3620" width="13.33203125" style="18" customWidth="1"/>
-    <col min="3621" max="3621" width="12.44140625" style="18" customWidth="1"/>
-    <col min="3622" max="3840" width="9.109375" style="18"/>
-    <col min="3841" max="3841" width="5.109375" style="18" customWidth="1"/>
-    <col min="3842" max="3842" width="12.88671875" style="18" customWidth="1"/>
-    <col min="3843" max="3843" width="37.33203125" style="18" customWidth="1"/>
-    <col min="3844" max="3875" width="5.44140625" style="18" customWidth="1"/>
-    <col min="3876" max="3876" width="13.33203125" style="18" customWidth="1"/>
-    <col min="3877" max="3877" width="12.44140625" style="18" customWidth="1"/>
-    <col min="3878" max="4096" width="9.109375" style="18"/>
-    <col min="4097" max="4097" width="5.109375" style="18" customWidth="1"/>
-    <col min="4098" max="4098" width="12.88671875" style="18" customWidth="1"/>
-    <col min="4099" max="4099" width="37.33203125" style="18" customWidth="1"/>
-    <col min="4100" max="4131" width="5.44140625" style="18" customWidth="1"/>
-    <col min="4132" max="4132" width="13.33203125" style="18" customWidth="1"/>
-    <col min="4133" max="4133" width="12.44140625" style="18" customWidth="1"/>
-    <col min="4134" max="4352" width="9.109375" style="18"/>
-    <col min="4353" max="4353" width="5.109375" style="18" customWidth="1"/>
-    <col min="4354" max="4354" width="12.88671875" style="18" customWidth="1"/>
-    <col min="4355" max="4355" width="37.33203125" style="18" customWidth="1"/>
-    <col min="4356" max="4387" width="5.44140625" style="18" customWidth="1"/>
-    <col min="4388" max="4388" width="13.33203125" style="18" customWidth="1"/>
-    <col min="4389" max="4389" width="12.44140625" style="18" customWidth="1"/>
-    <col min="4390" max="4608" width="9.109375" style="18"/>
-    <col min="4609" max="4609" width="5.109375" style="18" customWidth="1"/>
-    <col min="4610" max="4610" width="12.88671875" style="18" customWidth="1"/>
-    <col min="4611" max="4611" width="37.33203125" style="18" customWidth="1"/>
-    <col min="4612" max="4643" width="5.44140625" style="18" customWidth="1"/>
-    <col min="4644" max="4644" width="13.33203125" style="18" customWidth="1"/>
-    <col min="4645" max="4645" width="12.44140625" style="18" customWidth="1"/>
-    <col min="4646" max="4864" width="9.109375" style="18"/>
-    <col min="4865" max="4865" width="5.109375" style="18" customWidth="1"/>
-    <col min="4866" max="4866" width="12.88671875" style="18" customWidth="1"/>
-    <col min="4867" max="4867" width="37.33203125" style="18" customWidth="1"/>
-    <col min="4868" max="4899" width="5.44140625" style="18" customWidth="1"/>
-    <col min="4900" max="4900" width="13.33203125" style="18" customWidth="1"/>
-    <col min="4901" max="4901" width="12.44140625" style="18" customWidth="1"/>
-    <col min="4902" max="5120" width="9.109375" style="18"/>
-    <col min="5121" max="5121" width="5.109375" style="18" customWidth="1"/>
-    <col min="5122" max="5122" width="12.88671875" style="18" customWidth="1"/>
-    <col min="5123" max="5123" width="37.33203125" style="18" customWidth="1"/>
-    <col min="5124" max="5155" width="5.44140625" style="18" customWidth="1"/>
-    <col min="5156" max="5156" width="13.33203125" style="18" customWidth="1"/>
-    <col min="5157" max="5157" width="12.44140625" style="18" customWidth="1"/>
-    <col min="5158" max="5376" width="9.109375" style="18"/>
-    <col min="5377" max="5377" width="5.109375" style="18" customWidth="1"/>
-    <col min="5378" max="5378" width="12.88671875" style="18" customWidth="1"/>
-    <col min="5379" max="5379" width="37.33203125" style="18" customWidth="1"/>
-    <col min="5380" max="5411" width="5.44140625" style="18" customWidth="1"/>
-    <col min="5412" max="5412" width="13.33203125" style="18" customWidth="1"/>
-    <col min="5413" max="5413" width="12.44140625" style="18" customWidth="1"/>
-    <col min="5414" max="5632" width="9.109375" style="18"/>
-    <col min="5633" max="5633" width="5.109375" style="18" customWidth="1"/>
-    <col min="5634" max="5634" width="12.88671875" style="18" customWidth="1"/>
-    <col min="5635" max="5635" width="37.33203125" style="18" customWidth="1"/>
-    <col min="5636" max="5667" width="5.44140625" style="18" customWidth="1"/>
-    <col min="5668" max="5668" width="13.33203125" style="18" customWidth="1"/>
-    <col min="5669" max="5669" width="12.44140625" style="18" customWidth="1"/>
-    <col min="5670" max="5888" width="9.109375" style="18"/>
-    <col min="5889" max="5889" width="5.109375" style="18" customWidth="1"/>
-    <col min="5890" max="5890" width="12.88671875" style="18" customWidth="1"/>
-    <col min="5891" max="5891" width="37.33203125" style="18" customWidth="1"/>
-    <col min="5892" max="5923" width="5.44140625" style="18" customWidth="1"/>
-    <col min="5924" max="5924" width="13.33203125" style="18" customWidth="1"/>
-    <col min="5925" max="5925" width="12.44140625" style="18" customWidth="1"/>
-    <col min="5926" max="6144" width="9.109375" style="18"/>
-    <col min="6145" max="6145" width="5.109375" style="18" customWidth="1"/>
-    <col min="6146" max="6146" width="12.88671875" style="18" customWidth="1"/>
-    <col min="6147" max="6147" width="37.33203125" style="18" customWidth="1"/>
-    <col min="6148" max="6179" width="5.44140625" style="18" customWidth="1"/>
-    <col min="6180" max="6180" width="13.33203125" style="18" customWidth="1"/>
-    <col min="6181" max="6181" width="12.44140625" style="18" customWidth="1"/>
-    <col min="6182" max="6400" width="9.109375" style="18"/>
-    <col min="6401" max="6401" width="5.109375" style="18" customWidth="1"/>
-    <col min="6402" max="6402" width="12.88671875" style="18" customWidth="1"/>
-    <col min="6403" max="6403" width="37.33203125" style="18" customWidth="1"/>
-    <col min="6404" max="6435" width="5.44140625" style="18" customWidth="1"/>
-    <col min="6436" max="6436" width="13.33203125" style="18" customWidth="1"/>
-    <col min="6437" max="6437" width="12.44140625" style="18" customWidth="1"/>
-    <col min="6438" max="6656" width="9.109375" style="18"/>
-    <col min="6657" max="6657" width="5.109375" style="18" customWidth="1"/>
-    <col min="6658" max="6658" width="12.88671875" style="18" customWidth="1"/>
-    <col min="6659" max="6659" width="37.33203125" style="18" customWidth="1"/>
-    <col min="6660" max="6691" width="5.44140625" style="18" customWidth="1"/>
-    <col min="6692" max="6692" width="13.33203125" style="18" customWidth="1"/>
-    <col min="6693" max="6693" width="12.44140625" style="18" customWidth="1"/>
-    <col min="6694" max="6912" width="9.109375" style="18"/>
-    <col min="6913" max="6913" width="5.109375" style="18" customWidth="1"/>
-    <col min="6914" max="6914" width="12.88671875" style="18" customWidth="1"/>
-    <col min="6915" max="6915" width="37.33203125" style="18" customWidth="1"/>
-    <col min="6916" max="6947" width="5.44140625" style="18" customWidth="1"/>
-    <col min="6948" max="6948" width="13.33203125" style="18" customWidth="1"/>
-    <col min="6949" max="6949" width="12.44140625" style="18" customWidth="1"/>
-    <col min="6950" max="7168" width="9.109375" style="18"/>
-    <col min="7169" max="7169" width="5.109375" style="18" customWidth="1"/>
-    <col min="7170" max="7170" width="12.88671875" style="18" customWidth="1"/>
-    <col min="7171" max="7171" width="37.33203125" style="18" customWidth="1"/>
-    <col min="7172" max="7203" width="5.44140625" style="18" customWidth="1"/>
-    <col min="7204" max="7204" width="13.33203125" style="18" customWidth="1"/>
-    <col min="7205" max="7205" width="12.44140625" style="18" customWidth="1"/>
-    <col min="7206" max="7424" width="9.109375" style="18"/>
-    <col min="7425" max="7425" width="5.109375" style="18" customWidth="1"/>
-    <col min="7426" max="7426" width="12.88671875" style="18" customWidth="1"/>
-    <col min="7427" max="7427" width="37.33203125" style="18" customWidth="1"/>
-    <col min="7428" max="7459" width="5.44140625" style="18" customWidth="1"/>
-    <col min="7460" max="7460" width="13.33203125" style="18" customWidth="1"/>
-    <col min="7461" max="7461" width="12.44140625" style="18" customWidth="1"/>
-    <col min="7462" max="7680" width="9.109375" style="18"/>
-    <col min="7681" max="7681" width="5.109375" style="18" customWidth="1"/>
-    <col min="7682" max="7682" width="12.88671875" style="18" customWidth="1"/>
-    <col min="7683" max="7683" width="37.33203125" style="18" customWidth="1"/>
-    <col min="7684" max="7715" width="5.44140625" style="18" customWidth="1"/>
-    <col min="7716" max="7716" width="13.33203125" style="18" customWidth="1"/>
-    <col min="7717" max="7717" width="12.44140625" style="18" customWidth="1"/>
-    <col min="7718" max="7936" width="9.109375" style="18"/>
-    <col min="7937" max="7937" width="5.109375" style="18" customWidth="1"/>
-    <col min="7938" max="7938" width="12.88671875" style="18" customWidth="1"/>
-    <col min="7939" max="7939" width="37.33203125" style="18" customWidth="1"/>
-    <col min="7940" max="7971" width="5.44140625" style="18" customWidth="1"/>
-    <col min="7972" max="7972" width="13.33203125" style="18" customWidth="1"/>
-    <col min="7973" max="7973" width="12.44140625" style="18" customWidth="1"/>
-    <col min="7974" max="8192" width="9.109375" style="18"/>
-    <col min="8193" max="8193" width="5.109375" style="18" customWidth="1"/>
-    <col min="8194" max="8194" width="12.88671875" style="18" customWidth="1"/>
-    <col min="8195" max="8195" width="37.33203125" style="18" customWidth="1"/>
-    <col min="8196" max="8227" width="5.44140625" style="18" customWidth="1"/>
-    <col min="8228" max="8228" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8229" max="8229" width="12.44140625" style="18" customWidth="1"/>
-    <col min="8230" max="8448" width="9.109375" style="18"/>
-    <col min="8449" max="8449" width="5.109375" style="18" customWidth="1"/>
-    <col min="8450" max="8450" width="12.88671875" style="18" customWidth="1"/>
-    <col min="8451" max="8451" width="37.33203125" style="18" customWidth="1"/>
-    <col min="8452" max="8483" width="5.44140625" style="18" customWidth="1"/>
-    <col min="8484" max="8484" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8485" max="8485" width="12.44140625" style="18" customWidth="1"/>
-    <col min="8486" max="8704" width="9.109375" style="18"/>
-    <col min="8705" max="8705" width="5.109375" style="18" customWidth="1"/>
-    <col min="8706" max="8706" width="12.88671875" style="18" customWidth="1"/>
-    <col min="8707" max="8707" width="37.33203125" style="18" customWidth="1"/>
-    <col min="8708" max="8739" width="5.44140625" style="18" customWidth="1"/>
-    <col min="8740" max="8740" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8741" max="8741" width="12.44140625" style="18" customWidth="1"/>
-    <col min="8742" max="8960" width="9.109375" style="18"/>
-    <col min="8961" max="8961" width="5.109375" style="18" customWidth="1"/>
-    <col min="8962" max="8962" width="12.88671875" style="18" customWidth="1"/>
-    <col min="8963" max="8963" width="37.33203125" style="18" customWidth="1"/>
-    <col min="8964" max="8995" width="5.44140625" style="18" customWidth="1"/>
-    <col min="8996" max="8996" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8997" max="8997" width="12.44140625" style="18" customWidth="1"/>
-    <col min="8998" max="9216" width="9.109375" style="18"/>
-    <col min="9217" max="9217" width="5.109375" style="18" customWidth="1"/>
-    <col min="9218" max="9218" width="12.88671875" style="18" customWidth="1"/>
-    <col min="9219" max="9219" width="37.33203125" style="18" customWidth="1"/>
-    <col min="9220" max="9251" width="5.44140625" style="18" customWidth="1"/>
-    <col min="9252" max="9252" width="13.33203125" style="18" customWidth="1"/>
-    <col min="9253" max="9253" width="12.44140625" style="18" customWidth="1"/>
-    <col min="9254" max="9472" width="9.109375" style="18"/>
-    <col min="9473" max="9473" width="5.109375" style="18" customWidth="1"/>
-    <col min="9474" max="9474" width="12.88671875" style="18" customWidth="1"/>
-    <col min="9475" max="9475" width="37.33203125" style="18" customWidth="1"/>
-    <col min="9476" max="9507" width="5.44140625" style="18" customWidth="1"/>
-    <col min="9508" max="9508" width="13.33203125" style="18" customWidth="1"/>
-    <col min="9509" max="9509" width="12.44140625" style="18" customWidth="1"/>
-    <col min="9510" max="9728" width="9.109375" style="18"/>
-    <col min="9729" max="9729" width="5.109375" style="18" customWidth="1"/>
-    <col min="9730" max="9730" width="12.88671875" style="18" customWidth="1"/>
-    <col min="9731" max="9731" width="37.33203125" style="18" customWidth="1"/>
-    <col min="9732" max="9763" width="5.44140625" style="18" customWidth="1"/>
-    <col min="9764" max="9764" width="13.33203125" style="18" customWidth="1"/>
-    <col min="9765" max="9765" width="12.44140625" style="18" customWidth="1"/>
-    <col min="9766" max="9984" width="9.109375" style="18"/>
-    <col min="9985" max="9985" width="5.109375" style="18" customWidth="1"/>
-    <col min="9986" max="9986" width="12.88671875" style="18" customWidth="1"/>
-    <col min="9987" max="9987" width="37.33203125" style="18" customWidth="1"/>
-    <col min="9988" max="10019" width="5.44140625" style="18" customWidth="1"/>
-    <col min="10020" max="10020" width="13.33203125" style="18" customWidth="1"/>
-    <col min="10021" max="10021" width="12.44140625" style="18" customWidth="1"/>
-    <col min="10022" max="10240" width="9.109375" style="18"/>
-    <col min="10241" max="10241" width="5.109375" style="18" customWidth="1"/>
-    <col min="10242" max="10242" width="12.88671875" style="18" customWidth="1"/>
-    <col min="10243" max="10243" width="37.33203125" style="18" customWidth="1"/>
-    <col min="10244" max="10275" width="5.44140625" style="18" customWidth="1"/>
-    <col min="10276" max="10276" width="13.33203125" style="18" customWidth="1"/>
-    <col min="10277" max="10277" width="12.44140625" style="18" customWidth="1"/>
-    <col min="10278" max="10496" width="9.109375" style="18"/>
-    <col min="10497" max="10497" width="5.109375" style="18" customWidth="1"/>
-    <col min="10498" max="10498" width="12.88671875" style="18" customWidth="1"/>
-    <col min="10499" max="10499" width="37.33203125" style="18" customWidth="1"/>
-    <col min="10500" max="10531" width="5.44140625" style="18" customWidth="1"/>
-    <col min="10532" max="10532" width="13.33203125" style="18" customWidth="1"/>
-    <col min="10533" max="10533" width="12.44140625" style="18" customWidth="1"/>
-    <col min="10534" max="10752" width="9.109375" style="18"/>
-    <col min="10753" max="10753" width="5.109375" style="18" customWidth="1"/>
-    <col min="10754" max="10754" width="12.88671875" style="18" customWidth="1"/>
-    <col min="10755" max="10755" width="37.33203125" style="18" customWidth="1"/>
-    <col min="10756" max="10787" width="5.44140625" style="18" customWidth="1"/>
-    <col min="10788" max="10788" width="13.33203125" style="18" customWidth="1"/>
-    <col min="10789" max="10789" width="12.44140625" style="18" customWidth="1"/>
-    <col min="10790" max="11008" width="9.109375" style="18"/>
-    <col min="11009" max="11009" width="5.109375" style="18" customWidth="1"/>
-    <col min="11010" max="11010" width="12.88671875" style="18" customWidth="1"/>
-    <col min="11011" max="11011" width="37.33203125" style="18" customWidth="1"/>
-    <col min="11012" max="11043" width="5.44140625" style="18" customWidth="1"/>
-    <col min="11044" max="11044" width="13.33203125" style="18" customWidth="1"/>
-    <col min="11045" max="11045" width="12.44140625" style="18" customWidth="1"/>
-    <col min="11046" max="11264" width="9.109375" style="18"/>
-    <col min="11265" max="11265" width="5.109375" style="18" customWidth="1"/>
-    <col min="11266" max="11266" width="12.88671875" style="18" customWidth="1"/>
-    <col min="11267" max="11267" width="37.33203125" style="18" customWidth="1"/>
-    <col min="11268" max="11299" width="5.44140625" style="18" customWidth="1"/>
-    <col min="11300" max="11300" width="13.33203125" style="18" customWidth="1"/>
-    <col min="11301" max="11301" width="12.44140625" style="18" customWidth="1"/>
-    <col min="11302" max="11520" width="9.109375" style="18"/>
-    <col min="11521" max="11521" width="5.109375" style="18" customWidth="1"/>
-    <col min="11522" max="11522" width="12.88671875" style="18" customWidth="1"/>
-    <col min="11523" max="11523" width="37.33203125" style="18" customWidth="1"/>
-    <col min="11524" max="11555" width="5.44140625" style="18" customWidth="1"/>
-    <col min="11556" max="11556" width="13.33203125" style="18" customWidth="1"/>
-    <col min="11557" max="11557" width="12.44140625" style="18" customWidth="1"/>
-    <col min="11558" max="11776" width="9.109375" style="18"/>
-    <col min="11777" max="11777" width="5.109375" style="18" customWidth="1"/>
-    <col min="11778" max="11778" width="12.88671875" style="18" customWidth="1"/>
-    <col min="11779" max="11779" width="37.33203125" style="18" customWidth="1"/>
-    <col min="11780" max="11811" width="5.44140625" style="18" customWidth="1"/>
-    <col min="11812" max="11812" width="13.33203125" style="18" customWidth="1"/>
-    <col min="11813" max="11813" width="12.44140625" style="18" customWidth="1"/>
-    <col min="11814" max="12032" width="9.109375" style="18"/>
-    <col min="12033" max="12033" width="5.109375" style="18" customWidth="1"/>
-    <col min="12034" max="12034" width="12.88671875" style="18" customWidth="1"/>
-    <col min="12035" max="12035" width="37.33203125" style="18" customWidth="1"/>
-    <col min="12036" max="12067" width="5.44140625" style="18" customWidth="1"/>
-    <col min="12068" max="12068" width="13.33203125" style="18" customWidth="1"/>
-    <col min="12069" max="12069" width="12.44140625" style="18" customWidth="1"/>
-    <col min="12070" max="12288" width="9.109375" style="18"/>
-    <col min="12289" max="12289" width="5.109375" style="18" customWidth="1"/>
-    <col min="12290" max="12290" width="12.88671875" style="18" customWidth="1"/>
-    <col min="12291" max="12291" width="37.33203125" style="18" customWidth="1"/>
-    <col min="12292" max="12323" width="5.44140625" style="18" customWidth="1"/>
-    <col min="12324" max="12324" width="13.33203125" style="18" customWidth="1"/>
-    <col min="12325" max="12325" width="12.44140625" style="18" customWidth="1"/>
-    <col min="12326" max="12544" width="9.109375" style="18"/>
-    <col min="12545" max="12545" width="5.109375" style="18" customWidth="1"/>
-    <col min="12546" max="12546" width="12.88671875" style="18" customWidth="1"/>
-    <col min="12547" max="12547" width="37.33203125" style="18" customWidth="1"/>
-    <col min="12548" max="12579" width="5.44140625" style="18" customWidth="1"/>
-    <col min="12580" max="12580" width="13.33203125" style="18" customWidth="1"/>
-    <col min="12581" max="12581" width="12.44140625" style="18" customWidth="1"/>
-    <col min="12582" max="12800" width="9.109375" style="18"/>
-    <col min="12801" max="12801" width="5.109375" style="18" customWidth="1"/>
-    <col min="12802" max="12802" width="12.88671875" style="18" customWidth="1"/>
-    <col min="12803" max="12803" width="37.33203125" style="18" customWidth="1"/>
-    <col min="12804" max="12835" width="5.44140625" style="18" customWidth="1"/>
-    <col min="12836" max="12836" width="13.33203125" style="18" customWidth="1"/>
-    <col min="12837" max="12837" width="12.44140625" style="18" customWidth="1"/>
-    <col min="12838" max="13056" width="9.109375" style="18"/>
-    <col min="13057" max="13057" width="5.109375" style="18" customWidth="1"/>
-    <col min="13058" max="13058" width="12.88671875" style="18" customWidth="1"/>
-    <col min="13059" max="13059" width="37.33203125" style="18" customWidth="1"/>
-    <col min="13060" max="13091" width="5.44140625" style="18" customWidth="1"/>
-    <col min="13092" max="13092" width="13.33203125" style="18" customWidth="1"/>
-    <col min="13093" max="13093" width="12.44140625" style="18" customWidth="1"/>
-    <col min="13094" max="13312" width="9.109375" style="18"/>
-    <col min="13313" max="13313" width="5.109375" style="18" customWidth="1"/>
-    <col min="13314" max="13314" width="12.88671875" style="18" customWidth="1"/>
-    <col min="13315" max="13315" width="37.33203125" style="18" customWidth="1"/>
-    <col min="13316" max="13347" width="5.44140625" style="18" customWidth="1"/>
-    <col min="13348" max="13348" width="13.33203125" style="18" customWidth="1"/>
-    <col min="13349" max="13349" width="12.44140625" style="18" customWidth="1"/>
-    <col min="13350" max="13568" width="9.109375" style="18"/>
-    <col min="13569" max="13569" width="5.109375" style="18" customWidth="1"/>
-    <col min="13570" max="13570" width="12.88671875" style="18" customWidth="1"/>
-    <col min="13571" max="13571" width="37.33203125" style="18" customWidth="1"/>
-    <col min="13572" max="13603" width="5.44140625" style="18" customWidth="1"/>
-    <col min="13604" max="13604" width="13.33203125" style="18" customWidth="1"/>
-    <col min="13605" max="13605" width="12.44140625" style="18" customWidth="1"/>
-    <col min="13606" max="13824" width="9.109375" style="18"/>
-    <col min="13825" max="13825" width="5.109375" style="18" customWidth="1"/>
-    <col min="13826" max="13826" width="12.88671875" style="18" customWidth="1"/>
-    <col min="13827" max="13827" width="37.33203125" style="18" customWidth="1"/>
-    <col min="13828" max="13859" width="5.44140625" style="18" customWidth="1"/>
-    <col min="13860" max="13860" width="13.33203125" style="18" customWidth="1"/>
-    <col min="13861" max="13861" width="12.44140625" style="18" customWidth="1"/>
-    <col min="13862" max="14080" width="9.109375" style="18"/>
-    <col min="14081" max="14081" width="5.109375" style="18" customWidth="1"/>
-    <col min="14082" max="14082" width="12.88671875" style="18" customWidth="1"/>
-    <col min="14083" max="14083" width="37.33203125" style="18" customWidth="1"/>
-    <col min="14084" max="14115" width="5.44140625" style="18" customWidth="1"/>
-    <col min="14116" max="14116" width="13.33203125" style="18" customWidth="1"/>
-    <col min="14117" max="14117" width="12.44140625" style="18" customWidth="1"/>
-    <col min="14118" max="14336" width="9.109375" style="18"/>
-    <col min="14337" max="14337" width="5.109375" style="18" customWidth="1"/>
-    <col min="14338" max="14338" width="12.88671875" style="18" customWidth="1"/>
-    <col min="14339" max="14339" width="37.33203125" style="18" customWidth="1"/>
-    <col min="14340" max="14371" width="5.44140625" style="18" customWidth="1"/>
-    <col min="14372" max="14372" width="13.33203125" style="18" customWidth="1"/>
-    <col min="14373" max="14373" width="12.44140625" style="18" customWidth="1"/>
-    <col min="14374" max="14592" width="9.109375" style="18"/>
-    <col min="14593" max="14593" width="5.109375" style="18" customWidth="1"/>
-    <col min="14594" max="14594" width="12.88671875" style="18" customWidth="1"/>
-    <col min="14595" max="14595" width="37.33203125" style="18" customWidth="1"/>
-    <col min="14596" max="14627" width="5.44140625" style="18" customWidth="1"/>
-    <col min="14628" max="14628" width="13.33203125" style="18" customWidth="1"/>
-    <col min="14629" max="14629" width="12.44140625" style="18" customWidth="1"/>
-    <col min="14630" max="14848" width="9.109375" style="18"/>
-    <col min="14849" max="14849" width="5.109375" style="18" customWidth="1"/>
-    <col min="14850" max="14850" width="12.88671875" style="18" customWidth="1"/>
-    <col min="14851" max="14851" width="37.33203125" style="18" customWidth="1"/>
-    <col min="14852" max="14883" width="5.44140625" style="18" customWidth="1"/>
-    <col min="14884" max="14884" width="13.33203125" style="18" customWidth="1"/>
-    <col min="14885" max="14885" width="12.44140625" style="18" customWidth="1"/>
-    <col min="14886" max="15104" width="9.109375" style="18"/>
-    <col min="15105" max="15105" width="5.109375" style="18" customWidth="1"/>
-    <col min="15106" max="15106" width="12.88671875" style="18" customWidth="1"/>
-    <col min="15107" max="15107" width="37.33203125" style="18" customWidth="1"/>
-    <col min="15108" max="15139" width="5.44140625" style="18" customWidth="1"/>
-    <col min="15140" max="15140" width="13.33203125" style="18" customWidth="1"/>
-    <col min="15141" max="15141" width="12.44140625" style="18" customWidth="1"/>
-    <col min="15142" max="15360" width="9.109375" style="18"/>
-    <col min="15361" max="15361" width="5.109375" style="18" customWidth="1"/>
-    <col min="15362" max="15362" width="12.88671875" style="18" customWidth="1"/>
-    <col min="15363" max="15363" width="37.33203125" style="18" customWidth="1"/>
-    <col min="15364" max="15395" width="5.44140625" style="18" customWidth="1"/>
-    <col min="15396" max="15396" width="13.33203125" style="18" customWidth="1"/>
-    <col min="15397" max="15397" width="12.44140625" style="18" customWidth="1"/>
-    <col min="15398" max="15616" width="9.109375" style="18"/>
-    <col min="15617" max="15617" width="5.109375" style="18" customWidth="1"/>
-    <col min="15618" max="15618" width="12.88671875" style="18" customWidth="1"/>
-    <col min="15619" max="15619" width="37.33203125" style="18" customWidth="1"/>
-    <col min="15620" max="15651" width="5.44140625" style="18" customWidth="1"/>
-    <col min="15652" max="15652" width="13.33203125" style="18" customWidth="1"/>
-    <col min="15653" max="15653" width="12.44140625" style="18" customWidth="1"/>
-    <col min="15654" max="15872" width="9.109375" style="18"/>
-    <col min="15873" max="15873" width="5.109375" style="18" customWidth="1"/>
-    <col min="15874" max="15874" width="12.88671875" style="18" customWidth="1"/>
-    <col min="15875" max="15875" width="37.33203125" style="18" customWidth="1"/>
-    <col min="15876" max="15907" width="5.44140625" style="18" customWidth="1"/>
-    <col min="15908" max="15908" width="13.33203125" style="18" customWidth="1"/>
-    <col min="15909" max="15909" width="12.44140625" style="18" customWidth="1"/>
-    <col min="15910" max="16128" width="9.109375" style="18"/>
-    <col min="16129" max="16129" width="5.109375" style="18" customWidth="1"/>
-    <col min="16130" max="16130" width="12.88671875" style="18" customWidth="1"/>
-    <col min="16131" max="16131" width="37.33203125" style="18" customWidth="1"/>
-    <col min="16132" max="16163" width="5.44140625" style="18" customWidth="1"/>
-    <col min="16164" max="16164" width="13.33203125" style="18" customWidth="1"/>
-    <col min="16165" max="16165" width="12.44140625" style="18" customWidth="1"/>
-    <col min="16166" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="1" width="5.140625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="61" customWidth="1"/>
+    <col min="4" max="35" width="5.42578125" style="10" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" style="18" customWidth="1"/>
+    <col min="38" max="256" width="9.140625" style="18"/>
+    <col min="257" max="257" width="5.140625" style="18" customWidth="1"/>
+    <col min="258" max="258" width="12.85546875" style="18" customWidth="1"/>
+    <col min="259" max="259" width="37.28515625" style="18" customWidth="1"/>
+    <col min="260" max="291" width="5.42578125" style="18" customWidth="1"/>
+    <col min="292" max="292" width="13.28515625" style="18" customWidth="1"/>
+    <col min="293" max="293" width="12.42578125" style="18" customWidth="1"/>
+    <col min="294" max="512" width="9.140625" style="18"/>
+    <col min="513" max="513" width="5.140625" style="18" customWidth="1"/>
+    <col min="514" max="514" width="12.85546875" style="18" customWidth="1"/>
+    <col min="515" max="515" width="37.28515625" style="18" customWidth="1"/>
+    <col min="516" max="547" width="5.42578125" style="18" customWidth="1"/>
+    <col min="548" max="548" width="13.28515625" style="18" customWidth="1"/>
+    <col min="549" max="549" width="12.42578125" style="18" customWidth="1"/>
+    <col min="550" max="768" width="9.140625" style="18"/>
+    <col min="769" max="769" width="5.140625" style="18" customWidth="1"/>
+    <col min="770" max="770" width="12.85546875" style="18" customWidth="1"/>
+    <col min="771" max="771" width="37.28515625" style="18" customWidth="1"/>
+    <col min="772" max="803" width="5.42578125" style="18" customWidth="1"/>
+    <col min="804" max="804" width="13.28515625" style="18" customWidth="1"/>
+    <col min="805" max="805" width="12.42578125" style="18" customWidth="1"/>
+    <col min="806" max="1024" width="9.140625" style="18"/>
+    <col min="1025" max="1025" width="5.140625" style="18" customWidth="1"/>
+    <col min="1026" max="1026" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1027" max="1027" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1028" max="1059" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1060" max="1060" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1061" max="1061" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1062" max="1280" width="9.140625" style="18"/>
+    <col min="1281" max="1281" width="5.140625" style="18" customWidth="1"/>
+    <col min="1282" max="1282" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1283" max="1283" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1284" max="1315" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1316" max="1316" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1317" max="1317" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1318" max="1536" width="9.140625" style="18"/>
+    <col min="1537" max="1537" width="5.140625" style="18" customWidth="1"/>
+    <col min="1538" max="1538" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1539" max="1539" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1540" max="1571" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1572" max="1572" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1573" max="1573" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1574" max="1792" width="9.140625" style="18"/>
+    <col min="1793" max="1793" width="5.140625" style="18" customWidth="1"/>
+    <col min="1794" max="1794" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1795" max="1795" width="37.28515625" style="18" customWidth="1"/>
+    <col min="1796" max="1827" width="5.42578125" style="18" customWidth="1"/>
+    <col min="1828" max="1828" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1829" max="1829" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1830" max="2048" width="9.140625" style="18"/>
+    <col min="2049" max="2049" width="5.140625" style="18" customWidth="1"/>
+    <col min="2050" max="2050" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2051" max="2051" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2052" max="2083" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2084" max="2084" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2085" max="2085" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2086" max="2304" width="9.140625" style="18"/>
+    <col min="2305" max="2305" width="5.140625" style="18" customWidth="1"/>
+    <col min="2306" max="2306" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2307" max="2307" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2308" max="2339" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2340" max="2340" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2341" max="2341" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2342" max="2560" width="9.140625" style="18"/>
+    <col min="2561" max="2561" width="5.140625" style="18" customWidth="1"/>
+    <col min="2562" max="2562" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2563" max="2563" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2564" max="2595" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2596" max="2596" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2597" max="2597" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2598" max="2816" width="9.140625" style="18"/>
+    <col min="2817" max="2817" width="5.140625" style="18" customWidth="1"/>
+    <col min="2818" max="2818" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2819" max="2819" width="37.28515625" style="18" customWidth="1"/>
+    <col min="2820" max="2851" width="5.42578125" style="18" customWidth="1"/>
+    <col min="2852" max="2852" width="13.28515625" style="18" customWidth="1"/>
+    <col min="2853" max="2853" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2854" max="3072" width="9.140625" style="18"/>
+    <col min="3073" max="3073" width="5.140625" style="18" customWidth="1"/>
+    <col min="3074" max="3074" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3075" max="3075" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3076" max="3107" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3108" max="3108" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3109" max="3109" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3110" max="3328" width="9.140625" style="18"/>
+    <col min="3329" max="3329" width="5.140625" style="18" customWidth="1"/>
+    <col min="3330" max="3330" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3331" max="3331" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3332" max="3363" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3364" max="3364" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3365" max="3365" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3366" max="3584" width="9.140625" style="18"/>
+    <col min="3585" max="3585" width="5.140625" style="18" customWidth="1"/>
+    <col min="3586" max="3586" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3587" max="3587" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3588" max="3619" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3620" max="3620" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3621" max="3621" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3622" max="3840" width="9.140625" style="18"/>
+    <col min="3841" max="3841" width="5.140625" style="18" customWidth="1"/>
+    <col min="3842" max="3842" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3843" max="3843" width="37.28515625" style="18" customWidth="1"/>
+    <col min="3844" max="3875" width="5.42578125" style="18" customWidth="1"/>
+    <col min="3876" max="3876" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3877" max="3877" width="12.42578125" style="18" customWidth="1"/>
+    <col min="3878" max="4096" width="9.140625" style="18"/>
+    <col min="4097" max="4097" width="5.140625" style="18" customWidth="1"/>
+    <col min="4098" max="4098" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4099" max="4099" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4100" max="4131" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4132" max="4132" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4133" max="4133" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4134" max="4352" width="9.140625" style="18"/>
+    <col min="4353" max="4353" width="5.140625" style="18" customWidth="1"/>
+    <col min="4354" max="4354" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4355" max="4355" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4356" max="4387" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4388" max="4388" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4389" max="4389" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4390" max="4608" width="9.140625" style="18"/>
+    <col min="4609" max="4609" width="5.140625" style="18" customWidth="1"/>
+    <col min="4610" max="4610" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4611" max="4611" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4612" max="4643" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4644" max="4644" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4645" max="4645" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4646" max="4864" width="9.140625" style="18"/>
+    <col min="4865" max="4865" width="5.140625" style="18" customWidth="1"/>
+    <col min="4866" max="4866" width="12.85546875" style="18" customWidth="1"/>
+    <col min="4867" max="4867" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4868" max="4899" width="5.42578125" style="18" customWidth="1"/>
+    <col min="4900" max="4900" width="13.28515625" style="18" customWidth="1"/>
+    <col min="4901" max="4901" width="12.42578125" style="18" customWidth="1"/>
+    <col min="4902" max="5120" width="9.140625" style="18"/>
+    <col min="5121" max="5121" width="5.140625" style="18" customWidth="1"/>
+    <col min="5122" max="5122" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5123" max="5123" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5124" max="5155" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5156" max="5156" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5157" max="5157" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5158" max="5376" width="9.140625" style="18"/>
+    <col min="5377" max="5377" width="5.140625" style="18" customWidth="1"/>
+    <col min="5378" max="5378" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5379" max="5379" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5380" max="5411" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5412" max="5412" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5413" max="5413" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5414" max="5632" width="9.140625" style="18"/>
+    <col min="5633" max="5633" width="5.140625" style="18" customWidth="1"/>
+    <col min="5634" max="5634" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5635" max="5635" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5636" max="5667" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5668" max="5668" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5669" max="5669" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5670" max="5888" width="9.140625" style="18"/>
+    <col min="5889" max="5889" width="5.140625" style="18" customWidth="1"/>
+    <col min="5890" max="5890" width="12.85546875" style="18" customWidth="1"/>
+    <col min="5891" max="5891" width="37.28515625" style="18" customWidth="1"/>
+    <col min="5892" max="5923" width="5.42578125" style="18" customWidth="1"/>
+    <col min="5924" max="5924" width="13.28515625" style="18" customWidth="1"/>
+    <col min="5925" max="5925" width="12.42578125" style="18" customWidth="1"/>
+    <col min="5926" max="6144" width="9.140625" style="18"/>
+    <col min="6145" max="6145" width="5.140625" style="18" customWidth="1"/>
+    <col min="6146" max="6146" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6147" max="6147" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6148" max="6179" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6180" max="6180" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6181" max="6181" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6182" max="6400" width="9.140625" style="18"/>
+    <col min="6401" max="6401" width="5.140625" style="18" customWidth="1"/>
+    <col min="6402" max="6402" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6403" max="6403" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6404" max="6435" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6436" max="6436" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6437" max="6437" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6438" max="6656" width="9.140625" style="18"/>
+    <col min="6657" max="6657" width="5.140625" style="18" customWidth="1"/>
+    <col min="6658" max="6658" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6659" max="6659" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6660" max="6691" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6692" max="6692" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6693" max="6693" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6694" max="6912" width="9.140625" style="18"/>
+    <col min="6913" max="6913" width="5.140625" style="18" customWidth="1"/>
+    <col min="6914" max="6914" width="12.85546875" style="18" customWidth="1"/>
+    <col min="6915" max="6915" width="37.28515625" style="18" customWidth="1"/>
+    <col min="6916" max="6947" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6948" max="6948" width="13.28515625" style="18" customWidth="1"/>
+    <col min="6949" max="6949" width="12.42578125" style="18" customWidth="1"/>
+    <col min="6950" max="7168" width="9.140625" style="18"/>
+    <col min="7169" max="7169" width="5.140625" style="18" customWidth="1"/>
+    <col min="7170" max="7170" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7171" max="7171" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7172" max="7203" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7204" max="7204" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7205" max="7205" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7206" max="7424" width="9.140625" style="18"/>
+    <col min="7425" max="7425" width="5.140625" style="18" customWidth="1"/>
+    <col min="7426" max="7426" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7427" max="7427" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7428" max="7459" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7460" max="7460" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7461" max="7461" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7462" max="7680" width="9.140625" style="18"/>
+    <col min="7681" max="7681" width="5.140625" style="18" customWidth="1"/>
+    <col min="7682" max="7682" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7683" max="7683" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7684" max="7715" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7716" max="7716" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7717" max="7717" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7718" max="7936" width="9.140625" style="18"/>
+    <col min="7937" max="7937" width="5.140625" style="18" customWidth="1"/>
+    <col min="7938" max="7938" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7939" max="7939" width="37.28515625" style="18" customWidth="1"/>
+    <col min="7940" max="7971" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7972" max="7972" width="13.28515625" style="18" customWidth="1"/>
+    <col min="7973" max="7973" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7974" max="8192" width="9.140625" style="18"/>
+    <col min="8193" max="8193" width="5.140625" style="18" customWidth="1"/>
+    <col min="8194" max="8194" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8195" max="8195" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8196" max="8227" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8228" max="8228" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8229" max="8229" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8230" max="8448" width="9.140625" style="18"/>
+    <col min="8449" max="8449" width="5.140625" style="18" customWidth="1"/>
+    <col min="8450" max="8450" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8451" max="8451" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8452" max="8483" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8484" max="8484" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8485" max="8485" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8486" max="8704" width="9.140625" style="18"/>
+    <col min="8705" max="8705" width="5.140625" style="18" customWidth="1"/>
+    <col min="8706" max="8706" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8707" max="8707" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8708" max="8739" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8740" max="8740" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8741" max="8741" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8742" max="8960" width="9.140625" style="18"/>
+    <col min="8961" max="8961" width="5.140625" style="18" customWidth="1"/>
+    <col min="8962" max="8962" width="12.85546875" style="18" customWidth="1"/>
+    <col min="8963" max="8963" width="37.28515625" style="18" customWidth="1"/>
+    <col min="8964" max="8995" width="5.42578125" style="18" customWidth="1"/>
+    <col min="8996" max="8996" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8997" max="8997" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8998" max="9216" width="9.140625" style="18"/>
+    <col min="9217" max="9217" width="5.140625" style="18" customWidth="1"/>
+    <col min="9218" max="9218" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9219" max="9219" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9220" max="9251" width="5.42578125" style="18" customWidth="1"/>
+    <col min="9252" max="9252" width="13.28515625" style="18" customWidth="1"/>
+    <col min="9253" max="9253" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9254" max="9472" width="9.140625" style="18"/>
+    <col min="9473" max="9473" width="5.140625" style="18" customWidth="1"/>
+    <col min="9474" max="9474" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9475" max="9475" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9476" max="9507" width="5.42578125" style="18" customWidth="1"/>
+    <col min="9508" max="9508" width="13.28515625" style="18" customWidth="1"/>
+    <col min="9509" max="9509" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9510" max="9728" width="9.140625" style="18"/>
+    <col min="9729" max="9729" width="5.140625" style="18" customWidth="1"/>
+    <col min="9730" max="9730" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9731" max="9731" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9732" max="9763" width="5.42578125" style="18" customWidth="1"/>
+    <col min="9764" max="9764" width="13.28515625" style="18" customWidth="1"/>
+    <col min="9765" max="9765" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9766" max="9984" width="9.140625" style="18"/>
+    <col min="9985" max="9985" width="5.140625" style="18" customWidth="1"/>
+    <col min="9986" max="9986" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9987" max="9987" width="37.28515625" style="18" customWidth="1"/>
+    <col min="9988" max="10019" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10020" max="10020" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10021" max="10021" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10022" max="10240" width="9.140625" style="18"/>
+    <col min="10241" max="10241" width="5.140625" style="18" customWidth="1"/>
+    <col min="10242" max="10242" width="12.85546875" style="18" customWidth="1"/>
+    <col min="10243" max="10243" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10244" max="10275" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10276" max="10276" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10277" max="10277" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10278" max="10496" width="9.140625" style="18"/>
+    <col min="10497" max="10497" width="5.140625" style="18" customWidth="1"/>
+    <col min="10498" max="10498" width="12.85546875" style="18" customWidth="1"/>
+    <col min="10499" max="10499" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10500" max="10531" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10532" max="10532" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10533" max="10533" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10534" max="10752" width="9.140625" style="18"/>
+    <col min="10753" max="10753" width="5.140625" style="18" customWidth="1"/>
+    <col min="10754" max="10754" width="12.85546875" style="18" customWidth="1"/>
+    <col min="10755" max="10755" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10756" max="10787" width="5.42578125" style="18" customWidth="1"/>
+    <col min="10788" max="10788" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10789" max="10789" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10790" max="11008" width="9.140625" style="18"/>
+    <col min="11009" max="11009" width="5.140625" style="18" customWidth="1"/>
+    <col min="11010" max="11010" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11011" max="11011" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11012" max="11043" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11044" max="11044" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11045" max="11045" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11046" max="11264" width="9.140625" style="18"/>
+    <col min="11265" max="11265" width="5.140625" style="18" customWidth="1"/>
+    <col min="11266" max="11266" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11267" max="11267" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11268" max="11299" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11300" max="11300" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11301" max="11301" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11302" max="11520" width="9.140625" style="18"/>
+    <col min="11521" max="11521" width="5.140625" style="18" customWidth="1"/>
+    <col min="11522" max="11522" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11523" max="11523" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11524" max="11555" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11556" max="11556" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11557" max="11557" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11558" max="11776" width="9.140625" style="18"/>
+    <col min="11777" max="11777" width="5.140625" style="18" customWidth="1"/>
+    <col min="11778" max="11778" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11779" max="11779" width="37.28515625" style="18" customWidth="1"/>
+    <col min="11780" max="11811" width="5.42578125" style="18" customWidth="1"/>
+    <col min="11812" max="11812" width="13.28515625" style="18" customWidth="1"/>
+    <col min="11813" max="11813" width="12.42578125" style="18" customWidth="1"/>
+    <col min="11814" max="12032" width="9.140625" style="18"/>
+    <col min="12033" max="12033" width="5.140625" style="18" customWidth="1"/>
+    <col min="12034" max="12034" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12035" max="12035" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12036" max="12067" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12068" max="12068" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12069" max="12069" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12070" max="12288" width="9.140625" style="18"/>
+    <col min="12289" max="12289" width="5.140625" style="18" customWidth="1"/>
+    <col min="12290" max="12290" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12291" max="12291" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12292" max="12323" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12324" max="12324" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12325" max="12325" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12326" max="12544" width="9.140625" style="18"/>
+    <col min="12545" max="12545" width="5.140625" style="18" customWidth="1"/>
+    <col min="12546" max="12546" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12547" max="12547" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12548" max="12579" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12580" max="12580" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12581" max="12581" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12582" max="12800" width="9.140625" style="18"/>
+    <col min="12801" max="12801" width="5.140625" style="18" customWidth="1"/>
+    <col min="12802" max="12802" width="12.85546875" style="18" customWidth="1"/>
+    <col min="12803" max="12803" width="37.28515625" style="18" customWidth="1"/>
+    <col min="12804" max="12835" width="5.42578125" style="18" customWidth="1"/>
+    <col min="12836" max="12836" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12837" max="12837" width="12.42578125" style="18" customWidth="1"/>
+    <col min="12838" max="13056" width="9.140625" style="18"/>
+    <col min="13057" max="13057" width="5.140625" style="18" customWidth="1"/>
+    <col min="13058" max="13058" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13059" max="13059" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13060" max="13091" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13092" max="13092" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13093" max="13093" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13094" max="13312" width="9.140625" style="18"/>
+    <col min="13313" max="13313" width="5.140625" style="18" customWidth="1"/>
+    <col min="13314" max="13314" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13315" max="13315" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13316" max="13347" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13348" max="13348" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13349" max="13349" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13350" max="13568" width="9.140625" style="18"/>
+    <col min="13569" max="13569" width="5.140625" style="18" customWidth="1"/>
+    <col min="13570" max="13570" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13571" max="13571" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13572" max="13603" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13604" max="13604" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13605" max="13605" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13606" max="13824" width="9.140625" style="18"/>
+    <col min="13825" max="13825" width="5.140625" style="18" customWidth="1"/>
+    <col min="13826" max="13826" width="12.85546875" style="18" customWidth="1"/>
+    <col min="13827" max="13827" width="37.28515625" style="18" customWidth="1"/>
+    <col min="13828" max="13859" width="5.42578125" style="18" customWidth="1"/>
+    <col min="13860" max="13860" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13861" max="13861" width="12.42578125" style="18" customWidth="1"/>
+    <col min="13862" max="14080" width="9.140625" style="18"/>
+    <col min="14081" max="14081" width="5.140625" style="18" customWidth="1"/>
+    <col min="14082" max="14082" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14083" max="14083" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14084" max="14115" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14116" max="14116" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14117" max="14117" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14118" max="14336" width="9.140625" style="18"/>
+    <col min="14337" max="14337" width="5.140625" style="18" customWidth="1"/>
+    <col min="14338" max="14338" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14339" max="14339" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14340" max="14371" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14372" max="14372" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14373" max="14373" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14374" max="14592" width="9.140625" style="18"/>
+    <col min="14593" max="14593" width="5.140625" style="18" customWidth="1"/>
+    <col min="14594" max="14594" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14595" max="14595" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14596" max="14627" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14628" max="14628" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14629" max="14629" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14630" max="14848" width="9.140625" style="18"/>
+    <col min="14849" max="14849" width="5.140625" style="18" customWidth="1"/>
+    <col min="14850" max="14850" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14851" max="14851" width="37.28515625" style="18" customWidth="1"/>
+    <col min="14852" max="14883" width="5.42578125" style="18" customWidth="1"/>
+    <col min="14884" max="14884" width="13.28515625" style="18" customWidth="1"/>
+    <col min="14885" max="14885" width="12.42578125" style="18" customWidth="1"/>
+    <col min="14886" max="15104" width="9.140625" style="18"/>
+    <col min="15105" max="15105" width="5.140625" style="18" customWidth="1"/>
+    <col min="15106" max="15106" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15107" max="15107" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15108" max="15139" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15140" max="15140" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15141" max="15141" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15142" max="15360" width="9.140625" style="18"/>
+    <col min="15361" max="15361" width="5.140625" style="18" customWidth="1"/>
+    <col min="15362" max="15362" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15363" max="15363" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15364" max="15395" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15396" max="15396" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15397" max="15397" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15398" max="15616" width="9.140625" style="18"/>
+    <col min="15617" max="15617" width="5.140625" style="18" customWidth="1"/>
+    <col min="15618" max="15618" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15619" max="15619" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15620" max="15651" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15652" max="15652" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15653" max="15653" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15654" max="15872" width="9.140625" style="18"/>
+    <col min="15873" max="15873" width="5.140625" style="18" customWidth="1"/>
+    <col min="15874" max="15874" width="12.85546875" style="18" customWidth="1"/>
+    <col min="15875" max="15875" width="37.28515625" style="18" customWidth="1"/>
+    <col min="15876" max="15907" width="5.42578125" style="18" customWidth="1"/>
+    <col min="15908" max="15908" width="13.28515625" style="18" customWidth="1"/>
+    <col min="15909" max="15909" width="12.42578125" style="18" customWidth="1"/>
+    <col min="15910" max="16128" width="9.140625" style="18"/>
+    <col min="16129" max="16129" width="5.140625" style="18" customWidth="1"/>
+    <col min="16130" max="16130" width="12.85546875" style="18" customWidth="1"/>
+    <col min="16131" max="16131" width="37.28515625" style="18" customWidth="1"/>
+    <col min="16132" max="16163" width="5.42578125" style="18" customWidth="1"/>
+    <col min="16164" max="16164" width="13.28515625" style="18" customWidth="1"/>
+    <col min="16165" max="16165" width="12.42578125" style="18" customWidth="1"/>
+    <col min="16166" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -5484,7 +5059,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="17"/>
     </row>
-    <row r="2" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5522,15 +5097,15 @@
       <c r="AI2" s="21"/>
       <c r="AJ2" s="21"/>
     </row>
-    <row r="3" spans="1:37" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -5565,10 +5140,10 @@
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
       <c r="AJ3" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
@@ -5606,7 +5181,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="66"/>
     </row>
-    <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
@@ -5644,7 +5219,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="66"/>
     </row>
-    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
@@ -5682,7 +5257,7 @@
       <c r="AI6" s="65"/>
       <c r="AJ6" s="66"/>
     </row>
-    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -5705,21 +5280,21 @@
       <c r="AI7" s="38"/>
       <c r="AJ7" s="40"/>
     </row>
-    <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
       <c r="I8" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="48"/>
       <c r="K8" s="49"/>
@@ -5740,7 +5315,7 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ8" s="53">
         <f>SUM(AJ5:AJ6)/2</f>
@@ -5748,18 +5323,18 @@
       </c>
       <c r="AK8" s="54"/>
     </row>
-    <row r="9" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="57"/>
       <c r="E9" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="58"/>
       <c r="I9" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="48"/>
       <c r="K9" s="49"/>
@@ -5774,61 +5349,61 @@
       <c r="AJ9" s="59"/>
       <c r="AK9" s="60"/>
     </row>
-    <row r="10" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="56"/>
       <c r="D10" s="62"/>
       <c r="E10" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="63"/>
       <c r="I10" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5843,164 +5418,164 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="67" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="67"/>
+    <col min="2" max="2" width="17.28515625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="67" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="71"/>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="73"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="74"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
       <c r="D3" s="74"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="74"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="198" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="200" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="201"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="201"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="199"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="199"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="164"/>
       <c r="B9" s="164"/>
       <c r="C9" s="164"/>
       <c r="D9" s="164"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="164"/>
       <c r="B10" s="164"/>
       <c r="C10" s="164"/>
       <c r="D10" s="164"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
       <c r="B11" s="111"/>
       <c r="C11" s="111"/>
       <c r="D11" s="111"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="111"/>
       <c r="B12" s="111"/>
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="111"/>
       <c r="B13" s="111"/>
       <c r="C13" s="111"/>
       <c r="D13" s="111"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="111"/>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
       <c r="D15" s="111"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
       <c r="D16" s="111"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
       <c r="B17" s="111"/>
       <c r="C17" s="111"/>
       <c r="D17" s="111"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
       <c r="B18" s="111"/>
       <c r="C18" s="111"/>
       <c r="D18" s="111"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
       <c r="B19" s="111"/>
       <c r="C19" s="111"/>
       <c r="D19" s="111"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="111"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
       <c r="D20" s="111"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="111"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
       <c r="D21" s="111"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="111"/>
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
       <c r="B24" s="111"/>
       <c r="C24" s="111"/>
@@ -6020,20 +5595,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0AD7-D7B3-4E6B-9D38-D3347385A406}">
   <dimension ref="A2:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="U6:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="37" max="37" width="11.33203125" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="77"/>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -6075,7 +5650,7 @@
       <c r="AM2" s="76"/>
       <c r="AN2" s="76"/>
     </row>
-    <row r="3" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
@@ -6100,13 +5675,13 @@
       <c r="V3" s="76"/>
       <c r="W3" s="76"/>
       <c r="X3" s="76"/>
-      <c r="Y3" s="200"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="200"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
       <c r="AF3" s="97"/>
       <c r="AG3" s="97"/>
       <c r="AH3" s="76"/>
@@ -6117,7 +5692,7 @@
       <c r="AM3" s="76"/>
       <c r="AN3" s="76"/>
     </row>
-    <row r="4" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
@@ -6142,15 +5717,15 @@
       <c r="V4" s="76"/>
       <c r="W4" s="76"/>
       <c r="X4" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="201"/>
-      <c r="Z4" s="201"/>
-      <c r="AA4" s="201"/>
-      <c r="AB4" s="201"/>
-      <c r="AC4" s="201"/>
-      <c r="AD4" s="201"/>
-      <c r="AE4" s="201"/>
+        <v>28</v>
+      </c>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
       <c r="AF4" s="96"/>
       <c r="AG4" s="96"/>
       <c r="AH4" s="76"/>
@@ -6161,7 +5736,7 @@
       <c r="AM4" s="76"/>
       <c r="AN4" s="76"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -6203,21 +5778,21 @@
       <c r="AM5" s="76"/>
       <c r="AN5" s="76"/>
     </row>
-    <row r="6" spans="1:40" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="D6" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="E6" s="84" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="109"/>
@@ -6255,7 +5830,7 @@
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="85"/>
       <c r="B7" s="86"/>
       <c r="C7" s="87"/>
@@ -6297,7 +5872,7 @@
       <c r="AM7" s="91"/>
       <c r="AN7" s="98"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="105"/>
       <c r="B8" s="102"/>
       <c r="C8" s="103"/>
@@ -6339,11 +5914,11 @@
       <c r="AM8" s="99"/>
       <c r="AN8" s="100"/>
     </row>
-    <row r="9" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="202" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="203"/>
+    <row r="9" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="205"/>
       <c r="C9" s="79"/>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
@@ -6383,7 +5958,7 @@
       <c r="AM9" s="91"/>
       <c r="AN9" s="101"/>
     </row>
-    <row r="10" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>

--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\01.Web projects\Wohhup\WebApp\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65540248-488D-4CB4-9C7E-7864AD176EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D775C8B-DD7A-4C93-8067-56485DCF39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>1 (PH)</t>
+  </si>
+  <si>
+    <t>Unpaid Leave</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -1075,7 +1084,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,19 +1214,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1556,6 +1555,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2086,1104 +2108,1104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="113"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="123"/>
+      <c r="O3" s="119"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="123"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="119"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="170" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="123"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="119"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="123"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="119"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="119"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="123"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="119"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="182"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="123"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="119"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="123"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="119"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="123"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="119"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="123"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="119"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="118" t="s">
+      <c r="F14" s="158"/>
+      <c r="G14" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="123"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="119"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="123"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="119"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="118" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118" t="s">
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="123"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="123"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="119"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118" t="s">
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="123"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="119"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="123"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="119"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="123"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="119"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="174" t="s">
+      <c r="A21" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="132" t="s">
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="161" t="s">
+      <c r="G21" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="161" t="s">
+      <c r="H21" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="132" t="s">
+      <c r="J21" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="133" t="s">
+      <c r="K21" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="132" t="s">
+      <c r="L21" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="133" t="s">
+      <c r="M21" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="132" t="s">
+      <c r="N21" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="134"/>
+      <c r="O21" s="130"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="175"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="135" t="s">
+      <c r="A22" s="180"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="163" t="s">
+      <c r="G22" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="163" t="s">
+      <c r="H22" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="135" t="s">
+      <c r="I22" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="135" t="s">
+      <c r="J22" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="136" t="s">
+      <c r="K22" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="135" t="s">
+      <c r="L22" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="136" t="s">
+      <c r="M22" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="135" t="s">
+      <c r="N22" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="137"/>
+      <c r="O22" s="133"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="139" t="s">
+      <c r="A23" s="134"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="152" t="s">
+      <c r="O23" s="148" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="159"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="155"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="191"/>
+      <c r="Y25" s="191"/>
+      <c r="Z25" s="191"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118" t="s">
+      <c r="A26" s="113"/>
+      <c r="B26" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="120"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="191"/>
+      <c r="V26" s="191"/>
+      <c r="W26" s="191"/>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="141"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="116"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="192"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="141"/>
+      <c r="Y29" s="141"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="145"/>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="141"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="141"/>
+      <c r="Z30" s="141"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="141"/>
+      <c r="V31" s="141"/>
+      <c r="W31" s="141"/>
+      <c r="X31" s="141"/>
+      <c r="Y31" s="141"/>
+      <c r="Z31" s="141"/>
+      <c r="AA31" s="107"/>
+      <c r="AB31" s="107"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="185"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="145"/>
-      <c r="Z34" s="145"/>
-      <c r="AA34" s="111"/>
-      <c r="AB34" s="111"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="141"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="141"/>
+      <c r="X34" s="141"/>
+      <c r="Y34" s="141"/>
+      <c r="Z34" s="141"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="113"/>
+      <c r="B35" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="146"/>
-      <c r="V35" s="146"/>
-      <c r="W35" s="146"/>
-      <c r="X35" s="146"/>
-      <c r="Y35" s="146"/>
-      <c r="Z35" s="146"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="142"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="111"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="147"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="147"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="189"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="143"/>
+      <c r="V37" s="143"/>
+      <c r="W37" s="143"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="185"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155" t="s">
+      <c r="A40" s="113"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
     </row>
     <row r="41" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="148"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="150"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="111"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="111"/>
-      <c r="W41" s="111"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
     </row>
     <row r="42" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="147"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="111"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="107"/>
+      <c r="W45" s="107"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="147"/>
+      <c r="V46" s="107"/>
+      <c r="W46" s="107"/>
     </row>
     <row r="47" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="111"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="147"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3214,11 +3236,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C1F6-A6F9-461E-9FE3-2DB54235E96B}">
-  <dimension ref="A1:HP12"/>
+  <dimension ref="A1:HP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" topLeftCell="GS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GX12" sqref="GX12"/>
+      <pane xSplit="12" topLeftCell="GC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GF14" sqref="GF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,27 +3253,27 @@
     <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="166"/>
+    <col min="10" max="10" width="9.140625" style="162"/>
     <col min="11" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="165" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="161" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A1" s="192"/>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
+      <c r="A1" s="197"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
     </row>
     <row r="2" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
     </row>
     <row r="3" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
     </row>
     <row r="4" spans="1:224" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
@@ -3264,270 +3286,270 @@
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:224" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:224" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="200" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="197" t="s">
+      <c r="F6" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="197" t="s">
+      <c r="G6" s="203"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="190"/>
-      <c r="S6" s="190"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="190"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="189"/>
-      <c r="Z6" s="190"/>
-      <c r="AA6" s="190"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="189"/>
-      <c r="AD6" s="190"/>
-      <c r="AE6" s="190"/>
-      <c r="AF6" s="191"/>
-      <c r="AG6" s="189"/>
-      <c r="AH6" s="190"/>
-      <c r="AI6" s="190"/>
-      <c r="AJ6" s="191"/>
-      <c r="AK6" s="189"/>
-      <c r="AL6" s="190"/>
-      <c r="AM6" s="190"/>
-      <c r="AN6" s="191"/>
-      <c r="AO6" s="189"/>
-      <c r="AP6" s="190"/>
-      <c r="AQ6" s="190"/>
-      <c r="AR6" s="191"/>
-      <c r="AS6" s="189"/>
-      <c r="AT6" s="190"/>
-      <c r="AU6" s="190"/>
-      <c r="AV6" s="191"/>
-      <c r="AW6" s="189"/>
-      <c r="AX6" s="190"/>
-      <c r="AY6" s="190"/>
-      <c r="AZ6" s="191"/>
-      <c r="BA6" s="189"/>
-      <c r="BB6" s="190"/>
-      <c r="BC6" s="190"/>
-      <c r="BD6" s="191"/>
-      <c r="BE6" s="189"/>
-      <c r="BF6" s="190"/>
-      <c r="BG6" s="190"/>
-      <c r="BH6" s="191"/>
-      <c r="BI6" s="189"/>
-      <c r="BJ6" s="190"/>
-      <c r="BK6" s="190"/>
-      <c r="BL6" s="191"/>
-      <c r="BM6" s="189"/>
-      <c r="BN6" s="190"/>
-      <c r="BO6" s="190"/>
-      <c r="BP6" s="191"/>
-      <c r="BQ6" s="189"/>
-      <c r="BR6" s="190"/>
-      <c r="BS6" s="190"/>
-      <c r="BT6" s="191"/>
-      <c r="BU6" s="189"/>
-      <c r="BV6" s="190"/>
-      <c r="BW6" s="190"/>
-      <c r="BX6" s="191"/>
-      <c r="BY6" s="189"/>
-      <c r="BZ6" s="190"/>
-      <c r="CA6" s="190"/>
-      <c r="CB6" s="191"/>
-      <c r="CC6" s="189"/>
-      <c r="CD6" s="190"/>
-      <c r="CE6" s="190"/>
-      <c r="CF6" s="191"/>
-      <c r="CG6" s="189"/>
-      <c r="CH6" s="190"/>
-      <c r="CI6" s="190"/>
-      <c r="CJ6" s="191"/>
-      <c r="CK6" s="189"/>
-      <c r="CL6" s="190"/>
-      <c r="CM6" s="190"/>
-      <c r="CN6" s="191"/>
-      <c r="CO6" s="189"/>
-      <c r="CP6" s="190"/>
-      <c r="CQ6" s="190"/>
-      <c r="CR6" s="191"/>
-      <c r="CS6" s="189"/>
-      <c r="CT6" s="190"/>
-      <c r="CU6" s="190"/>
-      <c r="CV6" s="191"/>
-      <c r="CW6" s="189"/>
-      <c r="CX6" s="190"/>
-      <c r="CY6" s="190"/>
-      <c r="CZ6" s="191"/>
-      <c r="DA6" s="189"/>
-      <c r="DB6" s="190"/>
-      <c r="DC6" s="190"/>
-      <c r="DD6" s="191"/>
-      <c r="DE6" s="189"/>
-      <c r="DF6" s="190"/>
-      <c r="DG6" s="190"/>
-      <c r="DH6" s="191"/>
-      <c r="DI6" s="189"/>
-      <c r="DJ6" s="190"/>
-      <c r="DK6" s="190"/>
-      <c r="DL6" s="191"/>
-      <c r="DM6" s="189"/>
-      <c r="DN6" s="190"/>
-      <c r="DO6" s="190"/>
-      <c r="DP6" s="191"/>
-      <c r="DQ6" s="189"/>
-      <c r="DR6" s="190"/>
-      <c r="DS6" s="190"/>
-      <c r="DT6" s="191"/>
-      <c r="DU6" s="189"/>
-      <c r="DV6" s="190"/>
-      <c r="DW6" s="190"/>
-      <c r="DX6" s="191"/>
-      <c r="DY6" s="189"/>
-      <c r="DZ6" s="190"/>
-      <c r="EA6" s="190"/>
-      <c r="EB6" s="191"/>
-      <c r="EC6" s="189"/>
-      <c r="ED6" s="190"/>
-      <c r="EE6" s="190"/>
-      <c r="EF6" s="191"/>
-      <c r="EG6" s="189"/>
-      <c r="EH6" s="190"/>
-      <c r="EI6" s="190"/>
-      <c r="EJ6" s="191"/>
-      <c r="EK6" s="189"/>
-      <c r="EL6" s="190"/>
-      <c r="EM6" s="190"/>
-      <c r="EN6" s="191"/>
-      <c r="EO6" s="189"/>
-      <c r="EP6" s="190"/>
-      <c r="EQ6" s="190"/>
-      <c r="ER6" s="191"/>
-      <c r="ES6" s="189"/>
-      <c r="ET6" s="190"/>
-      <c r="EU6" s="190"/>
-      <c r="EV6" s="191"/>
-      <c r="EW6" s="189"/>
-      <c r="EX6" s="190"/>
-      <c r="EY6" s="190"/>
-      <c r="EZ6" s="191"/>
-      <c r="FA6" s="189"/>
-      <c r="FB6" s="190"/>
-      <c r="FC6" s="190"/>
-      <c r="FD6" s="191"/>
-      <c r="FE6" s="189"/>
-      <c r="FF6" s="190"/>
-      <c r="FG6" s="190"/>
-      <c r="FH6" s="191"/>
-      <c r="FI6" s="189"/>
-      <c r="FJ6" s="190"/>
-      <c r="FK6" s="190"/>
-      <c r="FL6" s="191"/>
-      <c r="FM6" s="189"/>
-      <c r="FN6" s="190"/>
-      <c r="FO6" s="190"/>
-      <c r="FP6" s="191"/>
-      <c r="FQ6" s="189"/>
-      <c r="FR6" s="190"/>
-      <c r="FS6" s="190"/>
-      <c r="FT6" s="191"/>
-      <c r="FU6" s="189"/>
-      <c r="FV6" s="190"/>
-      <c r="FW6" s="190"/>
-      <c r="FX6" s="191"/>
-      <c r="FY6" s="189"/>
-      <c r="FZ6" s="190"/>
-      <c r="GA6" s="190"/>
-      <c r="GB6" s="191"/>
-      <c r="GC6" s="189"/>
-      <c r="GD6" s="190"/>
-      <c r="GE6" s="190"/>
-      <c r="GF6" s="191"/>
-      <c r="GG6" s="189"/>
-      <c r="GH6" s="190"/>
-      <c r="GI6" s="190"/>
-      <c r="GJ6" s="191"/>
-      <c r="GK6" s="189"/>
-      <c r="GL6" s="190"/>
-      <c r="GM6" s="190"/>
-      <c r="GN6" s="191"/>
-      <c r="GO6" s="189"/>
-      <c r="GP6" s="190"/>
-      <c r="GQ6" s="190"/>
-      <c r="GR6" s="191"/>
-      <c r="GS6" s="189"/>
-      <c r="GT6" s="190"/>
-      <c r="GU6" s="190"/>
-      <c r="GV6" s="191"/>
-      <c r="GW6" s="189"/>
-      <c r="GX6" s="190"/>
-      <c r="GY6" s="190"/>
-      <c r="GZ6" s="191"/>
-      <c r="HA6" s="189"/>
-      <c r="HB6" s="190"/>
-      <c r="HC6" s="190"/>
-      <c r="HD6" s="191"/>
-      <c r="HE6" s="189"/>
-      <c r="HF6" s="190"/>
-      <c r="HG6" s="190"/>
-      <c r="HH6" s="191"/>
-      <c r="HI6" s="189"/>
-      <c r="HJ6" s="190"/>
-      <c r="HK6" s="190"/>
-      <c r="HL6" s="191"/>
-      <c r="HM6" s="189"/>
-      <c r="HN6" s="190"/>
-      <c r="HO6" s="190"/>
-      <c r="HP6" s="191"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="195"/>
+      <c r="AE6" s="195"/>
+      <c r="AF6" s="196"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="195"/>
+      <c r="AI6" s="195"/>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="194"/>
+      <c r="AL6" s="195"/>
+      <c r="AM6" s="195"/>
+      <c r="AN6" s="196"/>
+      <c r="AO6" s="194"/>
+      <c r="AP6" s="195"/>
+      <c r="AQ6" s="195"/>
+      <c r="AR6" s="196"/>
+      <c r="AS6" s="194"/>
+      <c r="AT6" s="195"/>
+      <c r="AU6" s="195"/>
+      <c r="AV6" s="196"/>
+      <c r="AW6" s="194"/>
+      <c r="AX6" s="195"/>
+      <c r="AY6" s="195"/>
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="194"/>
+      <c r="BB6" s="195"/>
+      <c r="BC6" s="195"/>
+      <c r="BD6" s="196"/>
+      <c r="BE6" s="194"/>
+      <c r="BF6" s="195"/>
+      <c r="BG6" s="195"/>
+      <c r="BH6" s="196"/>
+      <c r="BI6" s="194"/>
+      <c r="BJ6" s="195"/>
+      <c r="BK6" s="195"/>
+      <c r="BL6" s="196"/>
+      <c r="BM6" s="194"/>
+      <c r="BN6" s="195"/>
+      <c r="BO6" s="195"/>
+      <c r="BP6" s="196"/>
+      <c r="BQ6" s="194"/>
+      <c r="BR6" s="195"/>
+      <c r="BS6" s="195"/>
+      <c r="BT6" s="196"/>
+      <c r="BU6" s="194"/>
+      <c r="BV6" s="195"/>
+      <c r="BW6" s="195"/>
+      <c r="BX6" s="196"/>
+      <c r="BY6" s="194"/>
+      <c r="BZ6" s="195"/>
+      <c r="CA6" s="195"/>
+      <c r="CB6" s="196"/>
+      <c r="CC6" s="194"/>
+      <c r="CD6" s="195"/>
+      <c r="CE6" s="195"/>
+      <c r="CF6" s="196"/>
+      <c r="CG6" s="194"/>
+      <c r="CH6" s="195"/>
+      <c r="CI6" s="195"/>
+      <c r="CJ6" s="196"/>
+      <c r="CK6" s="194"/>
+      <c r="CL6" s="195"/>
+      <c r="CM6" s="195"/>
+      <c r="CN6" s="196"/>
+      <c r="CO6" s="194"/>
+      <c r="CP6" s="195"/>
+      <c r="CQ6" s="195"/>
+      <c r="CR6" s="196"/>
+      <c r="CS6" s="194"/>
+      <c r="CT6" s="195"/>
+      <c r="CU6" s="195"/>
+      <c r="CV6" s="196"/>
+      <c r="CW6" s="194"/>
+      <c r="CX6" s="195"/>
+      <c r="CY6" s="195"/>
+      <c r="CZ6" s="196"/>
+      <c r="DA6" s="194"/>
+      <c r="DB6" s="195"/>
+      <c r="DC6" s="195"/>
+      <c r="DD6" s="196"/>
+      <c r="DE6" s="194"/>
+      <c r="DF6" s="195"/>
+      <c r="DG6" s="195"/>
+      <c r="DH6" s="196"/>
+      <c r="DI6" s="194"/>
+      <c r="DJ6" s="195"/>
+      <c r="DK6" s="195"/>
+      <c r="DL6" s="196"/>
+      <c r="DM6" s="194"/>
+      <c r="DN6" s="195"/>
+      <c r="DO6" s="195"/>
+      <c r="DP6" s="196"/>
+      <c r="DQ6" s="194"/>
+      <c r="DR6" s="195"/>
+      <c r="DS6" s="195"/>
+      <c r="DT6" s="196"/>
+      <c r="DU6" s="194"/>
+      <c r="DV6" s="195"/>
+      <c r="DW6" s="195"/>
+      <c r="DX6" s="196"/>
+      <c r="DY6" s="194"/>
+      <c r="DZ6" s="195"/>
+      <c r="EA6" s="195"/>
+      <c r="EB6" s="196"/>
+      <c r="EC6" s="194"/>
+      <c r="ED6" s="195"/>
+      <c r="EE6" s="195"/>
+      <c r="EF6" s="196"/>
+      <c r="EG6" s="194"/>
+      <c r="EH6" s="195"/>
+      <c r="EI6" s="195"/>
+      <c r="EJ6" s="196"/>
+      <c r="EK6" s="194"/>
+      <c r="EL6" s="195"/>
+      <c r="EM6" s="195"/>
+      <c r="EN6" s="196"/>
+      <c r="EO6" s="194"/>
+      <c r="EP6" s="195"/>
+      <c r="EQ6" s="195"/>
+      <c r="ER6" s="196"/>
+      <c r="ES6" s="194"/>
+      <c r="ET6" s="195"/>
+      <c r="EU6" s="195"/>
+      <c r="EV6" s="196"/>
+      <c r="EW6" s="194"/>
+      <c r="EX6" s="195"/>
+      <c r="EY6" s="195"/>
+      <c r="EZ6" s="196"/>
+      <c r="FA6" s="194"/>
+      <c r="FB6" s="195"/>
+      <c r="FC6" s="195"/>
+      <c r="FD6" s="196"/>
+      <c r="FE6" s="194"/>
+      <c r="FF6" s="195"/>
+      <c r="FG6" s="195"/>
+      <c r="FH6" s="196"/>
+      <c r="FI6" s="194"/>
+      <c r="FJ6" s="195"/>
+      <c r="FK6" s="195"/>
+      <c r="FL6" s="196"/>
+      <c r="FM6" s="194"/>
+      <c r="FN6" s="195"/>
+      <c r="FO6" s="195"/>
+      <c r="FP6" s="196"/>
+      <c r="FQ6" s="194"/>
+      <c r="FR6" s="195"/>
+      <c r="FS6" s="195"/>
+      <c r="FT6" s="196"/>
+      <c r="FU6" s="194"/>
+      <c r="FV6" s="195"/>
+      <c r="FW6" s="195"/>
+      <c r="FX6" s="196"/>
+      <c r="FY6" s="194"/>
+      <c r="FZ6" s="195"/>
+      <c r="GA6" s="195"/>
+      <c r="GB6" s="196"/>
+      <c r="GC6" s="194"/>
+      <c r="GD6" s="195"/>
+      <c r="GE6" s="195"/>
+      <c r="GF6" s="196"/>
+      <c r="GG6" s="194"/>
+      <c r="GH6" s="195"/>
+      <c r="GI6" s="195"/>
+      <c r="GJ6" s="196"/>
+      <c r="GK6" s="194"/>
+      <c r="GL6" s="195"/>
+      <c r="GM6" s="195"/>
+      <c r="GN6" s="196"/>
+      <c r="GO6" s="194"/>
+      <c r="GP6" s="195"/>
+      <c r="GQ6" s="195"/>
+      <c r="GR6" s="196"/>
+      <c r="GS6" s="194"/>
+      <c r="GT6" s="195"/>
+      <c r="GU6" s="195"/>
+      <c r="GV6" s="196"/>
+      <c r="GW6" s="194"/>
+      <c r="GX6" s="195"/>
+      <c r="GY6" s="195"/>
+      <c r="GZ6" s="196"/>
+      <c r="HA6" s="194"/>
+      <c r="HB6" s="195"/>
+      <c r="HC6" s="195"/>
+      <c r="HD6" s="196"/>
+      <c r="HE6" s="194"/>
+      <c r="HF6" s="195"/>
+      <c r="HG6" s="195"/>
+      <c r="HH6" s="196"/>
+      <c r="HI6" s="194"/>
+      <c r="HJ6" s="195"/>
+      <c r="HK6" s="195"/>
+      <c r="HL6" s="196"/>
+      <c r="HM6" s="194"/>
+      <c r="HN6" s="195"/>
+      <c r="HO6" s="195"/>
+      <c r="HP6" s="196"/>
     </row>
     <row r="7" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -4475,19 +4497,63 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+    <row r="12" spans="1:224" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="163"/>
+      <c r="F12" s="164" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:224" ht="18" x14ac:dyDescent="0.25">
+      <c r="E13" s="44"/>
+      <c r="F13" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="166"/>
+      <c r="L13" s="167"/>
+    </row>
+    <row r="14" spans="1:224" ht="18" x14ac:dyDescent="0.25">
+      <c r="E14" s="53"/>
+      <c r="F14" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
+    </row>
+    <row r="15" spans="1:224" ht="18" x14ac:dyDescent="0.25">
+      <c r="E15" s="58"/>
+      <c r="F15" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="166"/>
+      <c r="L15" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -4564,14 +4630,14 @@
   <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="57" customWidth="1"/>
     <col min="4" max="35" width="5.42578125" style="10" customWidth="1"/>
     <col min="36" max="36" width="13.28515625" style="10" customWidth="1"/>
     <col min="37" max="37" width="12.42578125" style="18" customWidth="1"/>
@@ -5109,28 +5175,28 @@
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
       <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
       <c r="AD3" s="26"/>
@@ -5147,115 +5213,115 @@
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="66"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="62"/>
     </row>
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="66"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="62"/>
     </row>
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="66"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="62"/>
     </row>
     <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
@@ -5286,85 +5352,96 @@
         <v>17</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="X8" s="50"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="X8" s="46"/>
       <c r="AA8" s="37"/>
       <c r="AB8" s="38"/>
-      <c r="AC8" s="51"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
       <c r="AF8" s="38"/>
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
-      <c r="AI8" s="52" t="s">
+      <c r="AI8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AJ8" s="53">
-        <f>SUM(AJ5:AJ6)/2</f>
+      <c r="AJ8" s="49">
+        <f>SUM(AJ5:AJ7)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="54"/>
+      <c r="AK8" s="50"/>
     </row>
     <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+    </row>
+    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="45" t="s">
+      <c r="F10" s="168"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-    </row>
-    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="56"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="45" t="s">
+      <c r="J10" s="166"/>
+      <c r="K10" s="167"/>
+    </row>
+    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="58"/>
+      <c r="E11" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="45" t="s">
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-    </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
+    </row>
     <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5420,166 +5497,166 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="67" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="10" style="63" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="63" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="74"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="200"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="201"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+      <c r="A6" s="206"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="201"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5595,7 +5672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0AD7-D7B3-4E6B-9D38-D3347385A406}">
   <dimension ref="A2:AN10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M4" workbookViewId="0">
       <selection activeCell="AL6" sqref="U6:AL6"/>
     </sheetView>
   </sheetViews>
@@ -5609,396 +5686,396 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="95" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="203"/>
-      <c r="Z4" s="203"/>
-      <c r="AA4" s="203"/>
-      <c r="AB4" s="203"/>
-      <c r="AC4" s="203"/>
-      <c r="AD4" s="203"/>
-      <c r="AE4" s="203"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
     </row>
     <row r="6" spans="1:40" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="88"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="98"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="94"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="100"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="96"/>
     </row>
     <row r="9" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="209" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="205"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="101"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="97"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\01.Web projects\Wohhup\WebApp\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D775C8B-DD7A-4C93-8067-56485DCF39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24288CC0-9187-4A6B-BA18-7A9159EAB560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="60">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -139,9 +139,6 @@
   <si>
     <t>DEPARTMENT /  
 TRADE</t>
-  </si>
-  <si>
-    <t>Total Workers</t>
   </si>
   <si>
     <t>Workers List Summary</t>
@@ -234,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,15 +370,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -392,13 +380,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -465,7 +446,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,24 +503,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -718,81 +687,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1080,11 +980,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,41 +1171,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1314,77 +1198,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1393,10 +1232,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,148 +1244,148 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1556,7 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1579,71 +1418,93 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1684,17 +1545,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2108,1107 +1966,1114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="101"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="98"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
+      <c r="B6" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="119"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="122"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="119"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="175" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="98"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="119"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="119"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="98"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="119"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="119"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="179"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="98"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="98"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="119"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="119"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="98"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="98"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="119"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="119"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="137"/>
+      <c r="G14" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="158"/>
-      <c r="G14" s="114" t="s">
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="98"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="98"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="119"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="119"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="125" t="s">
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="98"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="98"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="119"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="119"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="98"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="98"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="98"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="119"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="119"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="119"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="179" t="s">
+      <c r="B21" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="C21" s="174"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="109"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="172"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="130"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="131" t="s">
+      <c r="G22" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="159" t="s">
+      <c r="H22" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="159" t="s">
+      <c r="I22" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="131" t="s">
+      <c r="J22" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="131" t="s">
+      <c r="K22" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="132" t="s">
+      <c r="L22" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="131" t="s">
+      <c r="M22" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="132" t="s">
+      <c r="N22" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="131" t="s">
+      <c r="O22" s="112"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="113"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="133"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="148" t="s">
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="134"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="93" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="155"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="191"/>
-      <c r="V25" s="191"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="191"/>
-      <c r="Y25" s="191"/>
-      <c r="Z25" s="191"/>
-      <c r="AA25" s="116"/>
-      <c r="AB25" s="116"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="86"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="86"/>
+      <c r="AB34" s="86"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="191"/>
-      <c r="V26" s="191"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="116"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="116"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="116"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="141"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="141"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
-      <c r="W30" s="141"/>
-      <c r="X30" s="141"/>
-      <c r="Y30" s="141"/>
-      <c r="Z30" s="141"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="141"/>
-      <c r="V31" s="141"/>
-      <c r="W31" s="141"/>
-      <c r="X31" s="141"/>
-      <c r="Y31" s="141"/>
-      <c r="Z31" s="141"/>
-      <c r="AA31" s="107"/>
-      <c r="AB31" s="107"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="141"/>
-      <c r="W32" s="141"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="141"/>
-      <c r="V34" s="141"/>
-      <c r="W34" s="141"/>
-      <c r="X34" s="141"/>
-      <c r="Y34" s="141"/>
-      <c r="Z34" s="141"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="142"/>
-      <c r="V35" s="142"/>
-      <c r="W35" s="142"/>
-      <c r="X35" s="142"/>
-      <c r="Y35" s="142"/>
-      <c r="Z35" s="142"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="143"/>
-      <c r="W36" s="143"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="113"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="189"/>
-      <c r="N37" s="189"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="143"/>
-      <c r="V37" s="143"/>
-      <c r="W37" s="143"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="113"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="160"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="122"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="113"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="107"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="86"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="113"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="151" t="s">
+      <c r="A40" s="92"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
     </row>
     <row r="41" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="144"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="146"/>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="107"/>
-      <c r="W41" s="107"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="126"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
     </row>
     <row r="42" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="147"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="107"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="107"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="107"/>
-      <c r="W43" s="107"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="107"/>
-      <c r="W45" s="107"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="126"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="86"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="107"/>
-      <c r="O46" s="107"/>
-      <c r="P46" s="107"/>
-      <c r="Q46" s="107"/>
-      <c r="R46" s="107"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="107"/>
-      <c r="U46" s="147"/>
-      <c r="V46" s="107"/>
-      <c r="W46" s="107"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="126"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="86"/>
     </row>
     <row r="47" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="147"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="107"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="126"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M33:N33"/>
@@ -3218,13 +3083,6 @@
     <mergeCell ref="X26:Z26"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F18:L19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
@@ -3239,8 +3097,8 @@
   <dimension ref="A1:HP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" topLeftCell="GC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GF14" sqref="GF14"/>
+      <pane xSplit="12" topLeftCell="GW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:HH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,27 +3111,27 @@
     <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="162"/>
+    <col min="10" max="10" width="9.140625" style="141"/>
     <col min="11" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="161" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="140" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A1" s="197"/>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
+      <c r="A1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
     </row>
     <row r="2" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A2" s="197"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="3" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
     </row>
     <row r="4" spans="1:224" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
@@ -3286,270 +3144,270 @@
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:224" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:224" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="200" t="s">
+      <c r="D6" s="187" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="202" t="s">
+      <c r="F6" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="203"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="202" t="s">
+      <c r="G6" s="190"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="195"/>
-      <c r="AF6" s="196"/>
-      <c r="AG6" s="194"/>
-      <c r="AH6" s="195"/>
-      <c r="AI6" s="195"/>
-      <c r="AJ6" s="196"/>
-      <c r="AK6" s="194"/>
-      <c r="AL6" s="195"/>
-      <c r="AM6" s="195"/>
-      <c r="AN6" s="196"/>
-      <c r="AO6" s="194"/>
-      <c r="AP6" s="195"/>
-      <c r="AQ6" s="195"/>
-      <c r="AR6" s="196"/>
-      <c r="AS6" s="194"/>
-      <c r="AT6" s="195"/>
-      <c r="AU6" s="195"/>
-      <c r="AV6" s="196"/>
-      <c r="AW6" s="194"/>
-      <c r="AX6" s="195"/>
-      <c r="AY6" s="195"/>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="194"/>
-      <c r="BB6" s="195"/>
-      <c r="BC6" s="195"/>
-      <c r="BD6" s="196"/>
-      <c r="BE6" s="194"/>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="195"/>
-      <c r="BH6" s="196"/>
-      <c r="BI6" s="194"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="195"/>
-      <c r="BL6" s="196"/>
-      <c r="BM6" s="194"/>
-      <c r="BN6" s="195"/>
-      <c r="BO6" s="195"/>
-      <c r="BP6" s="196"/>
-      <c r="BQ6" s="194"/>
-      <c r="BR6" s="195"/>
-      <c r="BS6" s="195"/>
-      <c r="BT6" s="196"/>
-      <c r="BU6" s="194"/>
-      <c r="BV6" s="195"/>
-      <c r="BW6" s="195"/>
-      <c r="BX6" s="196"/>
-      <c r="BY6" s="194"/>
-      <c r="BZ6" s="195"/>
-      <c r="CA6" s="195"/>
-      <c r="CB6" s="196"/>
-      <c r="CC6" s="194"/>
-      <c r="CD6" s="195"/>
-      <c r="CE6" s="195"/>
-      <c r="CF6" s="196"/>
-      <c r="CG6" s="194"/>
-      <c r="CH6" s="195"/>
-      <c r="CI6" s="195"/>
-      <c r="CJ6" s="196"/>
-      <c r="CK6" s="194"/>
-      <c r="CL6" s="195"/>
-      <c r="CM6" s="195"/>
-      <c r="CN6" s="196"/>
-      <c r="CO6" s="194"/>
-      <c r="CP6" s="195"/>
-      <c r="CQ6" s="195"/>
-      <c r="CR6" s="196"/>
-      <c r="CS6" s="194"/>
-      <c r="CT6" s="195"/>
-      <c r="CU6" s="195"/>
-      <c r="CV6" s="196"/>
-      <c r="CW6" s="194"/>
-      <c r="CX6" s="195"/>
-      <c r="CY6" s="195"/>
-      <c r="CZ6" s="196"/>
-      <c r="DA6" s="194"/>
-      <c r="DB6" s="195"/>
-      <c r="DC6" s="195"/>
-      <c r="DD6" s="196"/>
-      <c r="DE6" s="194"/>
-      <c r="DF6" s="195"/>
-      <c r="DG6" s="195"/>
-      <c r="DH6" s="196"/>
-      <c r="DI6" s="194"/>
-      <c r="DJ6" s="195"/>
-      <c r="DK6" s="195"/>
-      <c r="DL6" s="196"/>
-      <c r="DM6" s="194"/>
-      <c r="DN6" s="195"/>
-      <c r="DO6" s="195"/>
-      <c r="DP6" s="196"/>
-      <c r="DQ6" s="194"/>
-      <c r="DR6" s="195"/>
-      <c r="DS6" s="195"/>
-      <c r="DT6" s="196"/>
-      <c r="DU6" s="194"/>
-      <c r="DV6" s="195"/>
-      <c r="DW6" s="195"/>
-      <c r="DX6" s="196"/>
-      <c r="DY6" s="194"/>
-      <c r="DZ6" s="195"/>
-      <c r="EA6" s="195"/>
-      <c r="EB6" s="196"/>
-      <c r="EC6" s="194"/>
-      <c r="ED6" s="195"/>
-      <c r="EE6" s="195"/>
-      <c r="EF6" s="196"/>
-      <c r="EG6" s="194"/>
-      <c r="EH6" s="195"/>
-      <c r="EI6" s="195"/>
-      <c r="EJ6" s="196"/>
-      <c r="EK6" s="194"/>
-      <c r="EL6" s="195"/>
-      <c r="EM6" s="195"/>
-      <c r="EN6" s="196"/>
-      <c r="EO6" s="194"/>
-      <c r="EP6" s="195"/>
-      <c r="EQ6" s="195"/>
-      <c r="ER6" s="196"/>
-      <c r="ES6" s="194"/>
-      <c r="ET6" s="195"/>
-      <c r="EU6" s="195"/>
-      <c r="EV6" s="196"/>
-      <c r="EW6" s="194"/>
-      <c r="EX6" s="195"/>
-      <c r="EY6" s="195"/>
-      <c r="EZ6" s="196"/>
-      <c r="FA6" s="194"/>
-      <c r="FB6" s="195"/>
-      <c r="FC6" s="195"/>
-      <c r="FD6" s="196"/>
-      <c r="FE6" s="194"/>
-      <c r="FF6" s="195"/>
-      <c r="FG6" s="195"/>
-      <c r="FH6" s="196"/>
-      <c r="FI6" s="194"/>
-      <c r="FJ6" s="195"/>
-      <c r="FK6" s="195"/>
-      <c r="FL6" s="196"/>
-      <c r="FM6" s="194"/>
-      <c r="FN6" s="195"/>
-      <c r="FO6" s="195"/>
-      <c r="FP6" s="196"/>
-      <c r="FQ6" s="194"/>
-      <c r="FR6" s="195"/>
-      <c r="FS6" s="195"/>
-      <c r="FT6" s="196"/>
-      <c r="FU6" s="194"/>
-      <c r="FV6" s="195"/>
-      <c r="FW6" s="195"/>
-      <c r="FX6" s="196"/>
-      <c r="FY6" s="194"/>
-      <c r="FZ6" s="195"/>
-      <c r="GA6" s="195"/>
-      <c r="GB6" s="196"/>
-      <c r="GC6" s="194"/>
-      <c r="GD6" s="195"/>
-      <c r="GE6" s="195"/>
-      <c r="GF6" s="196"/>
-      <c r="GG6" s="194"/>
-      <c r="GH6" s="195"/>
-      <c r="GI6" s="195"/>
-      <c r="GJ6" s="196"/>
-      <c r="GK6" s="194"/>
-      <c r="GL6" s="195"/>
-      <c r="GM6" s="195"/>
-      <c r="GN6" s="196"/>
-      <c r="GO6" s="194"/>
-      <c r="GP6" s="195"/>
-      <c r="GQ6" s="195"/>
-      <c r="GR6" s="196"/>
-      <c r="GS6" s="194"/>
-      <c r="GT6" s="195"/>
-      <c r="GU6" s="195"/>
-      <c r="GV6" s="196"/>
-      <c r="GW6" s="194"/>
-      <c r="GX6" s="195"/>
-      <c r="GY6" s="195"/>
-      <c r="GZ6" s="196"/>
-      <c r="HA6" s="194"/>
-      <c r="HB6" s="195"/>
-      <c r="HC6" s="195"/>
-      <c r="HD6" s="196"/>
-      <c r="HE6" s="194"/>
-      <c r="HF6" s="195"/>
-      <c r="HG6" s="195"/>
-      <c r="HH6" s="196"/>
-      <c r="HI6" s="194"/>
-      <c r="HJ6" s="195"/>
-      <c r="HK6" s="195"/>
-      <c r="HL6" s="196"/>
-      <c r="HM6" s="194"/>
-      <c r="HN6" s="195"/>
-      <c r="HO6" s="195"/>
-      <c r="HP6" s="196"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="181"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="182"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="181"/>
+      <c r="AH6" s="182"/>
+      <c r="AI6" s="182"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="181"/>
+      <c r="AL6" s="182"/>
+      <c r="AM6" s="182"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="181"/>
+      <c r="AP6" s="182"/>
+      <c r="AQ6" s="182"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="181"/>
+      <c r="AT6" s="182"/>
+      <c r="AU6" s="182"/>
+      <c r="AV6" s="183"/>
+      <c r="AW6" s="181"/>
+      <c r="AX6" s="182"/>
+      <c r="AY6" s="182"/>
+      <c r="AZ6" s="183"/>
+      <c r="BA6" s="181"/>
+      <c r="BB6" s="182"/>
+      <c r="BC6" s="182"/>
+      <c r="BD6" s="183"/>
+      <c r="BE6" s="181"/>
+      <c r="BF6" s="182"/>
+      <c r="BG6" s="182"/>
+      <c r="BH6" s="183"/>
+      <c r="BI6" s="181"/>
+      <c r="BJ6" s="182"/>
+      <c r="BK6" s="182"/>
+      <c r="BL6" s="183"/>
+      <c r="BM6" s="181"/>
+      <c r="BN6" s="182"/>
+      <c r="BO6" s="182"/>
+      <c r="BP6" s="183"/>
+      <c r="BQ6" s="181"/>
+      <c r="BR6" s="182"/>
+      <c r="BS6" s="182"/>
+      <c r="BT6" s="183"/>
+      <c r="BU6" s="181"/>
+      <c r="BV6" s="182"/>
+      <c r="BW6" s="182"/>
+      <c r="BX6" s="183"/>
+      <c r="BY6" s="181"/>
+      <c r="BZ6" s="182"/>
+      <c r="CA6" s="182"/>
+      <c r="CB6" s="183"/>
+      <c r="CC6" s="181"/>
+      <c r="CD6" s="182"/>
+      <c r="CE6" s="182"/>
+      <c r="CF6" s="183"/>
+      <c r="CG6" s="181"/>
+      <c r="CH6" s="182"/>
+      <c r="CI6" s="182"/>
+      <c r="CJ6" s="183"/>
+      <c r="CK6" s="181"/>
+      <c r="CL6" s="182"/>
+      <c r="CM6" s="182"/>
+      <c r="CN6" s="183"/>
+      <c r="CO6" s="181"/>
+      <c r="CP6" s="182"/>
+      <c r="CQ6" s="182"/>
+      <c r="CR6" s="183"/>
+      <c r="CS6" s="181"/>
+      <c r="CT6" s="182"/>
+      <c r="CU6" s="182"/>
+      <c r="CV6" s="183"/>
+      <c r="CW6" s="181"/>
+      <c r="CX6" s="182"/>
+      <c r="CY6" s="182"/>
+      <c r="CZ6" s="183"/>
+      <c r="DA6" s="181"/>
+      <c r="DB6" s="182"/>
+      <c r="DC6" s="182"/>
+      <c r="DD6" s="183"/>
+      <c r="DE6" s="181"/>
+      <c r="DF6" s="182"/>
+      <c r="DG6" s="182"/>
+      <c r="DH6" s="183"/>
+      <c r="DI6" s="181"/>
+      <c r="DJ6" s="182"/>
+      <c r="DK6" s="182"/>
+      <c r="DL6" s="183"/>
+      <c r="DM6" s="181"/>
+      <c r="DN6" s="182"/>
+      <c r="DO6" s="182"/>
+      <c r="DP6" s="183"/>
+      <c r="DQ6" s="181"/>
+      <c r="DR6" s="182"/>
+      <c r="DS6" s="182"/>
+      <c r="DT6" s="183"/>
+      <c r="DU6" s="181"/>
+      <c r="DV6" s="182"/>
+      <c r="DW6" s="182"/>
+      <c r="DX6" s="183"/>
+      <c r="DY6" s="181"/>
+      <c r="DZ6" s="182"/>
+      <c r="EA6" s="182"/>
+      <c r="EB6" s="183"/>
+      <c r="EC6" s="181"/>
+      <c r="ED6" s="182"/>
+      <c r="EE6" s="182"/>
+      <c r="EF6" s="183"/>
+      <c r="EG6" s="181"/>
+      <c r="EH6" s="182"/>
+      <c r="EI6" s="182"/>
+      <c r="EJ6" s="183"/>
+      <c r="EK6" s="181"/>
+      <c r="EL6" s="182"/>
+      <c r="EM6" s="182"/>
+      <c r="EN6" s="183"/>
+      <c r="EO6" s="181"/>
+      <c r="EP6" s="182"/>
+      <c r="EQ6" s="182"/>
+      <c r="ER6" s="183"/>
+      <c r="ES6" s="181"/>
+      <c r="ET6" s="182"/>
+      <c r="EU6" s="182"/>
+      <c r="EV6" s="183"/>
+      <c r="EW6" s="181"/>
+      <c r="EX6" s="182"/>
+      <c r="EY6" s="182"/>
+      <c r="EZ6" s="183"/>
+      <c r="FA6" s="181"/>
+      <c r="FB6" s="182"/>
+      <c r="FC6" s="182"/>
+      <c r="FD6" s="183"/>
+      <c r="FE6" s="181"/>
+      <c r="FF6" s="182"/>
+      <c r="FG6" s="182"/>
+      <c r="FH6" s="183"/>
+      <c r="FI6" s="181"/>
+      <c r="FJ6" s="182"/>
+      <c r="FK6" s="182"/>
+      <c r="FL6" s="183"/>
+      <c r="FM6" s="181"/>
+      <c r="FN6" s="182"/>
+      <c r="FO6" s="182"/>
+      <c r="FP6" s="183"/>
+      <c r="FQ6" s="181"/>
+      <c r="FR6" s="182"/>
+      <c r="FS6" s="182"/>
+      <c r="FT6" s="183"/>
+      <c r="FU6" s="181"/>
+      <c r="FV6" s="182"/>
+      <c r="FW6" s="182"/>
+      <c r="FX6" s="183"/>
+      <c r="FY6" s="181"/>
+      <c r="FZ6" s="182"/>
+      <c r="GA6" s="182"/>
+      <c r="GB6" s="183"/>
+      <c r="GC6" s="181"/>
+      <c r="GD6" s="182"/>
+      <c r="GE6" s="182"/>
+      <c r="GF6" s="183"/>
+      <c r="GG6" s="181"/>
+      <c r="GH6" s="182"/>
+      <c r="GI6" s="182"/>
+      <c r="GJ6" s="183"/>
+      <c r="GK6" s="181"/>
+      <c r="GL6" s="182"/>
+      <c r="GM6" s="182"/>
+      <c r="GN6" s="183"/>
+      <c r="GO6" s="181"/>
+      <c r="GP6" s="182"/>
+      <c r="GQ6" s="182"/>
+      <c r="GR6" s="183"/>
+      <c r="GS6" s="181"/>
+      <c r="GT6" s="182"/>
+      <c r="GU6" s="182"/>
+      <c r="GV6" s="183"/>
+      <c r="GW6" s="181"/>
+      <c r="GX6" s="182"/>
+      <c r="GY6" s="182"/>
+      <c r="GZ6" s="183"/>
+      <c r="HA6" s="181"/>
+      <c r="HB6" s="182"/>
+      <c r="HC6" s="182"/>
+      <c r="HD6" s="183"/>
+      <c r="HE6" s="181"/>
+      <c r="HF6" s="182"/>
+      <c r="HG6" s="182"/>
+      <c r="HH6" s="183"/>
+      <c r="HI6" s="181"/>
+      <c r="HJ6" s="182"/>
+      <c r="HK6" s="182"/>
+      <c r="HL6" s="183"/>
+      <c r="HM6" s="181"/>
+      <c r="HN6" s="182"/>
+      <c r="HO6" s="182"/>
+      <c r="HP6" s="183"/>
     </row>
     <row r="7" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3424,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="4">
         <v>1.5</v>
@@ -3578,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="4">
         <v>1.5</v>
@@ -3590,7 +3448,7 @@
         <v>10</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7" s="4">
         <v>1.5</v>
@@ -3602,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W7" s="4">
         <v>1.5</v>
@@ -3614,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="4">
         <v>1.5</v>
@@ -3626,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="4">
         <v>1.5</v>
@@ -3638,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI7" s="4">
         <v>1.5</v>
@@ -3650,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM7" s="4">
         <v>1.5</v>
@@ -3662,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AQ7" s="4">
         <v>1.5</v>
@@ -3674,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU7" s="4">
         <v>1.5</v>
@@ -3686,7 +3544,7 @@
         <v>10</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY7" s="4">
         <v>1.5</v>
@@ -3698,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BC7" s="4">
         <v>1.5</v>
@@ -3710,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BG7" s="4">
         <v>1.5</v>
@@ -3722,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BK7" s="4">
         <v>1.5</v>
@@ -3734,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BO7" s="4">
         <v>1.5</v>
@@ -3746,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BS7" s="4">
         <v>1.5</v>
@@ -3758,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BW7" s="4">
         <v>1.5</v>
@@ -3770,7 +3628,7 @@
         <v>10</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CA7" s="4">
         <v>1.5</v>
@@ -3782,7 +3640,7 @@
         <v>10</v>
       </c>
       <c r="CD7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CE7" s="4">
         <v>1.5</v>
@@ -3794,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CI7" s="4">
         <v>1.5</v>
@@ -3806,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="CL7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CM7" s="4">
         <v>1.5</v>
@@ -3818,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="CP7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CQ7" s="4">
         <v>1.5</v>
@@ -3830,7 +3688,7 @@
         <v>10</v>
       </c>
       <c r="CT7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CU7" s="4">
         <v>1.5</v>
@@ -3842,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="CX7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CY7" s="4">
         <v>1.5</v>
@@ -3854,7 +3712,7 @@
         <v>10</v>
       </c>
       <c r="DB7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DC7" s="4">
         <v>1.5</v>
@@ -3866,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="DF7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DG7" s="4">
         <v>1.5</v>
@@ -3878,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="DJ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DK7" s="4">
         <v>1.5</v>
@@ -3890,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="DN7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DO7" s="4">
         <v>1.5</v>
@@ -3902,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="DR7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DS7" s="4">
         <v>1.5</v>
@@ -3914,7 +3772,7 @@
         <v>10</v>
       </c>
       <c r="DV7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DW7" s="4">
         <v>1.5</v>
@@ -3926,7 +3784,7 @@
         <v>10</v>
       </c>
       <c r="DZ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EA7" s="4">
         <v>1.5</v>
@@ -3938,7 +3796,7 @@
         <v>10</v>
       </c>
       <c r="ED7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EE7" s="4">
         <v>1.5</v>
@@ -3950,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="EH7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EI7" s="4">
         <v>1.5</v>
@@ -3962,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="EL7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EM7" s="4">
         <v>1.5</v>
@@ -3974,7 +3832,7 @@
         <v>10</v>
       </c>
       <c r="EP7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EQ7" s="4">
         <v>1.5</v>
@@ -3986,7 +3844,7 @@
         <v>10</v>
       </c>
       <c r="ET7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EU7" s="4">
         <v>1.5</v>
@@ -3998,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="EX7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EY7" s="4">
         <v>1.5</v>
@@ -4010,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="FB7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FC7" s="4">
         <v>1.5</v>
@@ -4022,7 +3880,7 @@
         <v>10</v>
       </c>
       <c r="FF7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FG7" s="4">
         <v>1.5</v>
@@ -4034,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="FJ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FK7" s="4">
         <v>1.5</v>
@@ -4046,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="FN7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FO7" s="4">
         <v>1.5</v>
@@ -4058,7 +3916,7 @@
         <v>10</v>
       </c>
       <c r="FR7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FS7" s="4">
         <v>1.5</v>
@@ -4070,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="FV7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FW7" s="4">
         <v>1.5</v>
@@ -4082,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="FZ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GA7" s="4">
         <v>1.5</v>
@@ -4094,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="GD7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GE7" s="4">
         <v>1.5</v>
@@ -4106,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="GH7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GI7" s="4">
         <v>1.5</v>
@@ -4118,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="GL7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GM7" s="4">
         <v>1.5</v>
@@ -4130,7 +3988,7 @@
         <v>10</v>
       </c>
       <c r="GP7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GQ7" s="4">
         <v>1.5</v>
@@ -4142,7 +4000,7 @@
         <v>10</v>
       </c>
       <c r="GT7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GU7" s="4">
         <v>1.5</v>
@@ -4154,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="GX7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GY7" s="4">
         <v>1.5</v>
@@ -4166,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="HB7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="HC7" s="4">
         <v>1.5</v>
@@ -4178,7 +4036,7 @@
         <v>10</v>
       </c>
       <c r="HF7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="HG7" s="4">
         <v>1.5</v>
@@ -4190,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="HJ7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="HK7" s="4">
         <v>1.5</v>
@@ -4202,7 +4060,7 @@
         <v>10</v>
       </c>
       <c r="HN7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="HO7" s="4">
         <v>1.5</v>
@@ -4498,12 +4356,12 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:224" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="163"/>
-      <c r="F12" s="164" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4515,53 +4373,88 @@
     </row>
     <row r="13" spans="1:224" ht="18" x14ac:dyDescent="0.25">
       <c r="E13" s="44"/>
-      <c r="F13" s="164" t="s">
+      <c r="F13" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
       <c r="I13" s="45"/>
-      <c r="J13" s="164" t="s">
+      <c r="J13" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="166"/>
-      <c r="L13" s="167"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
     </row>
     <row r="14" spans="1:224" ht="18" x14ac:dyDescent="0.25">
       <c r="E14" s="53"/>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="164" t="s">
+      <c r="J14" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
     </row>
     <row r="15" spans="1:224" ht="18" x14ac:dyDescent="0.25">
       <c r="E15" s="58"/>
-      <c r="F15" s="164" t="s">
+      <c r="F15" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="59"/>
-      <c r="J15" s="164" t="s">
+      <c r="J15" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="166"/>
-      <c r="L15" s="167"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="GW6:GZ6"/>
-    <mergeCell ref="HA6:HD6"/>
-    <mergeCell ref="HE6:HH6"/>
-    <mergeCell ref="HI6:HL6"/>
-    <mergeCell ref="HM6:HP6"/>
+    <mergeCell ref="GK6:GN6"/>
+    <mergeCell ref="GO6:GR6"/>
+    <mergeCell ref="GS6:GV6"/>
+    <mergeCell ref="FQ6:FT6"/>
+    <mergeCell ref="FU6:FX6"/>
+    <mergeCell ref="FY6:GB6"/>
+    <mergeCell ref="GC6:GF6"/>
+    <mergeCell ref="GG6:GJ6"/>
+    <mergeCell ref="EW6:EZ6"/>
+    <mergeCell ref="FA6:FD6"/>
+    <mergeCell ref="FE6:FH6"/>
+    <mergeCell ref="FI6:FL6"/>
+    <mergeCell ref="EC6:EF6"/>
+    <mergeCell ref="EG6:EJ6"/>
+    <mergeCell ref="EK6:EN6"/>
+    <mergeCell ref="EO6:ER6"/>
+    <mergeCell ref="ES6:EV6"/>
+    <mergeCell ref="DI6:DL6"/>
+    <mergeCell ref="DM6:DP6"/>
+    <mergeCell ref="DQ6:DT6"/>
+    <mergeCell ref="DU6:DX6"/>
+    <mergeCell ref="DY6:EB6"/>
+    <mergeCell ref="CO6:CR6"/>
+    <mergeCell ref="CS6:CV6"/>
+    <mergeCell ref="CW6:CZ6"/>
+    <mergeCell ref="DA6:DD6"/>
+    <mergeCell ref="DE6:DH6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="BI6:BL6"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BU6:BX6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:L6"/>
     <mergeCell ref="FM6:FP6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4578,46 +4471,11 @@
     <mergeCell ref="CC6:CF6"/>
     <mergeCell ref="CG6:CJ6"/>
     <mergeCell ref="CK6:CN6"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="BI6:BL6"/>
-    <mergeCell ref="BM6:BP6"/>
-    <mergeCell ref="BQ6:BT6"/>
-    <mergeCell ref="BU6:BX6"/>
-    <mergeCell ref="CO6:CR6"/>
-    <mergeCell ref="CS6:CV6"/>
-    <mergeCell ref="CW6:CZ6"/>
-    <mergeCell ref="DA6:DD6"/>
-    <mergeCell ref="DE6:DH6"/>
-    <mergeCell ref="DI6:DL6"/>
-    <mergeCell ref="DM6:DP6"/>
-    <mergeCell ref="DQ6:DT6"/>
-    <mergeCell ref="DU6:DX6"/>
-    <mergeCell ref="DY6:EB6"/>
-    <mergeCell ref="EW6:EZ6"/>
-    <mergeCell ref="FA6:FD6"/>
-    <mergeCell ref="FE6:FH6"/>
-    <mergeCell ref="FI6:FL6"/>
-    <mergeCell ref="EC6:EF6"/>
-    <mergeCell ref="EG6:EJ6"/>
-    <mergeCell ref="EK6:EN6"/>
-    <mergeCell ref="EO6:ER6"/>
-    <mergeCell ref="ES6:EV6"/>
-    <mergeCell ref="GK6:GN6"/>
-    <mergeCell ref="GO6:GR6"/>
-    <mergeCell ref="GS6:GV6"/>
-    <mergeCell ref="FQ6:FT6"/>
-    <mergeCell ref="FU6:FX6"/>
-    <mergeCell ref="FY6:GB6"/>
-    <mergeCell ref="GC6:GF6"/>
-    <mergeCell ref="GG6:GJ6"/>
+    <mergeCell ref="GW6:GZ6"/>
+    <mergeCell ref="HA6:HD6"/>
+    <mergeCell ref="HE6:HH6"/>
+    <mergeCell ref="HI6:HL6"/>
+    <mergeCell ref="HM6:HP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4629,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992195C-6099-4F4F-9774-B0A0A335235C}">
   <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5352,12 +5210,12 @@
         <v>17</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -5391,17 +5249,17 @@
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="44"/>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="164" t="s">
+      <c r="I9" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
@@ -5416,31 +5274,31 @@
     <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="169"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="164" t="s">
+      <c r="I10" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="166"/>
-      <c r="K10" s="167"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="146"/>
     </row>
     <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="58"/>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="164" t="s">
+      <c r="I11" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="166"/>
-      <c r="K11" s="167"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="146"/>
     </row>
     <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5492,14 +5350,14 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="63" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="63" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="63" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="63"/>
   </cols>
@@ -5529,24 +5387,24 @@
       <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
@@ -5563,100 +5421,100 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5670,419 +5528,346 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0AD7-D7B3-4E6B-9D38-D3347385A406}">
-  <dimension ref="A2:AN10"/>
+  <dimension ref="A2:AN14"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="AL6" sqref="U6:AL6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="156" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="37" max="37" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="158"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="91" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
+      <c r="AD4" s="195"/>
+      <c r="AE4" s="195"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
     </row>
     <row r="6" spans="1:40" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="196"/>
+      <c r="AI6" s="196"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="94"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="95"/>
-      <c r="AN8" s="96"/>
-    </row>
-    <row r="9" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="209" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="97"/>
-    </row>
-    <row r="10" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="151"/>
+      <c r="AC7" s="151"/>
+      <c r="AD7" s="151"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="151"/>
+      <c r="AG7" s="151"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="151"/>
+      <c r="AJ7" s="151"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="153"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="80"/>
+    </row>
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+      <c r="F11" s="142"/>
+      <c r="G11" s="143" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+      <c r="F12" s="44"/>
+      <c r="G12" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="145"/>
+      <c r="M12" s="146"/>
+    </row>
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+      <c r="F13" s="53"/>
+      <c r="G13" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="145"/>
+      <c r="M13" s="146"/>
+    </row>
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+      <c r="F14" s="58"/>
+      <c r="G14" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="145"/>
+      <c r="M14" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\01.Web projects\Wohhup\WebApp\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24288CC0-9187-4A6B-BA18-7A9159EAB560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05804818-6A7C-41C6-92FB-729D3A99E751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
   <si>
     <t>DIRECT WORKERS</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>1 (PH)</t>
-  </si>
-  <si>
-    <t>Unpaid Leave</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,12 +498,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -984,7 +975,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,7 +1386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1406,18 +1396,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,6 +1418,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,57 +1487,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,9 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2054,21 +2032,21 @@
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="92"/>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
       <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2136,8 +2114,8 @@
       <c r="E10" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="180"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="103"/>
       <c r="I10" s="102"/>
       <c r="J10" s="93"/>
@@ -2174,8 +2152,8 @@
       <c r="E12" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
       <c r="H12" s="93"/>
       <c r="I12" s="93"/>
       <c r="J12" s="93"/>
@@ -2292,13 +2270,13 @@
       <c r="E18" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
       <c r="M18" s="105"/>
       <c r="N18" s="93"/>
       <c r="O18" s="98"/>
@@ -2309,13 +2287,13 @@
       <c r="C19" s="93"/>
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
       <c r="M19" s="106"/>
       <c r="N19" s="93"/>
       <c r="O19" s="98"/>
@@ -2338,15 +2316,15 @@
       <c r="O20" s="98"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="171" t="s">
+      <c r="A21" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="175"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
       <c r="F21" s="107" t="s">
         <v>11</v>
       </c>
@@ -2377,11 +2355,11 @@
       <c r="O21" s="109"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="110" t="s">
         <v>46</v>
       </c>
@@ -2413,10 +2391,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="113"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
       <c r="F23" s="136"/>
       <c r="G23" s="136"/>
       <c r="H23" s="128"/>
@@ -2470,12 +2448,12 @@
       <c r="R25" s="86"/>
       <c r="S25" s="86"/>
       <c r="T25" s="86"/>
-      <c r="U25" s="161"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="161"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="174"/>
+      <c r="W25" s="174"/>
+      <c r="X25" s="174"/>
+      <c r="Y25" s="174"/>
+      <c r="Z25" s="174"/>
       <c r="AA25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
@@ -2502,12 +2480,12 @@
       <c r="R26" s="86"/>
       <c r="S26" s="86"/>
       <c r="T26" s="86"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="174"/>
+      <c r="X26" s="174"/>
+      <c r="Y26" s="174"/>
+      <c r="Z26" s="174"/>
       <c r="AA26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
@@ -2554,8 +2532,8 @@
       <c r="J28" s="93"/>
       <c r="K28" s="93"/>
       <c r="L28" s="93"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
       <c r="O28" s="98"/>
       <c r="P28" s="86"/>
       <c r="Q28" s="86"/>
@@ -2584,9 +2562,9 @@
       <c r="J29" s="93"/>
       <c r="K29" s="93"/>
       <c r="L29" s="93"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="163"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="176"/>
       <c r="P29" s="86"/>
       <c r="Q29" s="86"/>
       <c r="R29" s="86"/>
@@ -2704,8 +2682,8 @@
       <c r="J33" s="93"/>
       <c r="K33" s="93"/>
       <c r="L33" s="93"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
       <c r="O33" s="98"/>
       <c r="P33" s="86"/>
       <c r="Q33" s="86"/>
@@ -2734,8 +2712,8 @@
       <c r="J34" s="93"/>
       <c r="K34" s="93"/>
       <c r="L34" s="93"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
       <c r="O34" s="98"/>
       <c r="P34" s="86"/>
       <c r="Q34" s="86"/>
@@ -2826,8 +2804,8 @@
       <c r="J37" s="93"/>
       <c r="K37" s="93"/>
       <c r="L37" s="93"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="159"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="172"/>
       <c r="O37" s="98"/>
       <c r="P37" s="86"/>
       <c r="Q37" s="86"/>
@@ -2851,8 +2829,8 @@
       <c r="J38" s="93"/>
       <c r="K38" s="93"/>
       <c r="L38" s="93"/>
-      <c r="M38" s="160"/>
-      <c r="N38" s="160"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
       <c r="O38" s="98"/>
       <c r="P38" s="86"/>
       <c r="Q38" s="86"/>
@@ -3067,13 +3045,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F18:L19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M33:N33"/>
@@ -3083,6 +3054,13 @@
     <mergeCell ref="X26:Z26"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
@@ -3098,7 +3076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" topLeftCell="GW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:HH9"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,19 +3097,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A1" s="184"/>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
+      <c r="A1" s="180"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
     </row>
     <row r="3" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
     </row>
     <row r="4" spans="1:224" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
@@ -3144,270 +3122,270 @@
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:224" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:224" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="187" t="s">
+      <c r="C6" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="187" t="s">
+      <c r="D6" s="183" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="189" t="s">
+      <c r="G6" s="186"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="181"/>
-      <c r="AH6" s="182"/>
-      <c r="AI6" s="182"/>
-      <c r="AJ6" s="183"/>
-      <c r="AK6" s="181"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
-      <c r="AN6" s="183"/>
-      <c r="AO6" s="181"/>
-      <c r="AP6" s="182"/>
-      <c r="AQ6" s="182"/>
-      <c r="AR6" s="183"/>
-      <c r="AS6" s="181"/>
-      <c r="AT6" s="182"/>
-      <c r="AU6" s="182"/>
-      <c r="AV6" s="183"/>
-      <c r="AW6" s="181"/>
-      <c r="AX6" s="182"/>
-      <c r="AY6" s="182"/>
-      <c r="AZ6" s="183"/>
-      <c r="BA6" s="181"/>
-      <c r="BB6" s="182"/>
-      <c r="BC6" s="182"/>
-      <c r="BD6" s="183"/>
-      <c r="BE6" s="181"/>
-      <c r="BF6" s="182"/>
-      <c r="BG6" s="182"/>
-      <c r="BH6" s="183"/>
-      <c r="BI6" s="181"/>
-      <c r="BJ6" s="182"/>
-      <c r="BK6" s="182"/>
-      <c r="BL6" s="183"/>
-      <c r="BM6" s="181"/>
-      <c r="BN6" s="182"/>
-      <c r="BO6" s="182"/>
-      <c r="BP6" s="183"/>
-      <c r="BQ6" s="181"/>
-      <c r="BR6" s="182"/>
-      <c r="BS6" s="182"/>
-      <c r="BT6" s="183"/>
-      <c r="BU6" s="181"/>
-      <c r="BV6" s="182"/>
-      <c r="BW6" s="182"/>
-      <c r="BX6" s="183"/>
-      <c r="BY6" s="181"/>
-      <c r="BZ6" s="182"/>
-      <c r="CA6" s="182"/>
-      <c r="CB6" s="183"/>
-      <c r="CC6" s="181"/>
-      <c r="CD6" s="182"/>
-      <c r="CE6" s="182"/>
-      <c r="CF6" s="183"/>
-      <c r="CG6" s="181"/>
-      <c r="CH6" s="182"/>
-      <c r="CI6" s="182"/>
-      <c r="CJ6" s="183"/>
-      <c r="CK6" s="181"/>
-      <c r="CL6" s="182"/>
-      <c r="CM6" s="182"/>
-      <c r="CN6" s="183"/>
-      <c r="CO6" s="181"/>
-      <c r="CP6" s="182"/>
-      <c r="CQ6" s="182"/>
-      <c r="CR6" s="183"/>
-      <c r="CS6" s="181"/>
-      <c r="CT6" s="182"/>
-      <c r="CU6" s="182"/>
-      <c r="CV6" s="183"/>
-      <c r="CW6" s="181"/>
-      <c r="CX6" s="182"/>
-      <c r="CY6" s="182"/>
-      <c r="CZ6" s="183"/>
-      <c r="DA6" s="181"/>
-      <c r="DB6" s="182"/>
-      <c r="DC6" s="182"/>
-      <c r="DD6" s="183"/>
-      <c r="DE6" s="181"/>
-      <c r="DF6" s="182"/>
-      <c r="DG6" s="182"/>
-      <c r="DH6" s="183"/>
-      <c r="DI6" s="181"/>
-      <c r="DJ6" s="182"/>
-      <c r="DK6" s="182"/>
-      <c r="DL6" s="183"/>
-      <c r="DM6" s="181"/>
-      <c r="DN6" s="182"/>
-      <c r="DO6" s="182"/>
-      <c r="DP6" s="183"/>
-      <c r="DQ6" s="181"/>
-      <c r="DR6" s="182"/>
-      <c r="DS6" s="182"/>
-      <c r="DT6" s="183"/>
-      <c r="DU6" s="181"/>
-      <c r="DV6" s="182"/>
-      <c r="DW6" s="182"/>
-      <c r="DX6" s="183"/>
-      <c r="DY6" s="181"/>
-      <c r="DZ6" s="182"/>
-      <c r="EA6" s="182"/>
-      <c r="EB6" s="183"/>
-      <c r="EC6" s="181"/>
-      <c r="ED6" s="182"/>
-      <c r="EE6" s="182"/>
-      <c r="EF6" s="183"/>
-      <c r="EG6" s="181"/>
-      <c r="EH6" s="182"/>
-      <c r="EI6" s="182"/>
-      <c r="EJ6" s="183"/>
-      <c r="EK6" s="181"/>
-      <c r="EL6" s="182"/>
-      <c r="EM6" s="182"/>
-      <c r="EN6" s="183"/>
-      <c r="EO6" s="181"/>
-      <c r="EP6" s="182"/>
-      <c r="EQ6" s="182"/>
-      <c r="ER6" s="183"/>
-      <c r="ES6" s="181"/>
-      <c r="ET6" s="182"/>
-      <c r="EU6" s="182"/>
-      <c r="EV6" s="183"/>
-      <c r="EW6" s="181"/>
-      <c r="EX6" s="182"/>
-      <c r="EY6" s="182"/>
-      <c r="EZ6" s="183"/>
-      <c r="FA6" s="181"/>
-      <c r="FB6" s="182"/>
-      <c r="FC6" s="182"/>
-      <c r="FD6" s="183"/>
-      <c r="FE6" s="181"/>
-      <c r="FF6" s="182"/>
-      <c r="FG6" s="182"/>
-      <c r="FH6" s="183"/>
-      <c r="FI6" s="181"/>
-      <c r="FJ6" s="182"/>
-      <c r="FK6" s="182"/>
-      <c r="FL6" s="183"/>
-      <c r="FM6" s="181"/>
-      <c r="FN6" s="182"/>
-      <c r="FO6" s="182"/>
-      <c r="FP6" s="183"/>
-      <c r="FQ6" s="181"/>
-      <c r="FR6" s="182"/>
-      <c r="FS6" s="182"/>
-      <c r="FT6" s="183"/>
-      <c r="FU6" s="181"/>
-      <c r="FV6" s="182"/>
-      <c r="FW6" s="182"/>
-      <c r="FX6" s="183"/>
-      <c r="FY6" s="181"/>
-      <c r="FZ6" s="182"/>
-      <c r="GA6" s="182"/>
-      <c r="GB6" s="183"/>
-      <c r="GC6" s="181"/>
-      <c r="GD6" s="182"/>
-      <c r="GE6" s="182"/>
-      <c r="GF6" s="183"/>
-      <c r="GG6" s="181"/>
-      <c r="GH6" s="182"/>
-      <c r="GI6" s="182"/>
-      <c r="GJ6" s="183"/>
-      <c r="GK6" s="181"/>
-      <c r="GL6" s="182"/>
-      <c r="GM6" s="182"/>
-      <c r="GN6" s="183"/>
-      <c r="GO6" s="181"/>
-      <c r="GP6" s="182"/>
-      <c r="GQ6" s="182"/>
-      <c r="GR6" s="183"/>
-      <c r="GS6" s="181"/>
-      <c r="GT6" s="182"/>
-      <c r="GU6" s="182"/>
-      <c r="GV6" s="183"/>
-      <c r="GW6" s="181"/>
-      <c r="GX6" s="182"/>
-      <c r="GY6" s="182"/>
-      <c r="GZ6" s="183"/>
-      <c r="HA6" s="181"/>
-      <c r="HB6" s="182"/>
-      <c r="HC6" s="182"/>
-      <c r="HD6" s="183"/>
-      <c r="HE6" s="181"/>
-      <c r="HF6" s="182"/>
-      <c r="HG6" s="182"/>
-      <c r="HH6" s="183"/>
-      <c r="HI6" s="181"/>
-      <c r="HJ6" s="182"/>
-      <c r="HK6" s="182"/>
-      <c r="HL6" s="183"/>
-      <c r="HM6" s="181"/>
-      <c r="HN6" s="182"/>
-      <c r="HO6" s="182"/>
-      <c r="HP6" s="183"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="179"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="179"/>
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178"/>
+      <c r="AF6" s="179"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="178"/>
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="179"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="178"/>
+      <c r="AM6" s="178"/>
+      <c r="AN6" s="179"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="178"/>
+      <c r="AQ6" s="178"/>
+      <c r="AR6" s="179"/>
+      <c r="AS6" s="177"/>
+      <c r="AT6" s="178"/>
+      <c r="AU6" s="178"/>
+      <c r="AV6" s="179"/>
+      <c r="AW6" s="177"/>
+      <c r="AX6" s="178"/>
+      <c r="AY6" s="178"/>
+      <c r="AZ6" s="179"/>
+      <c r="BA6" s="177"/>
+      <c r="BB6" s="178"/>
+      <c r="BC6" s="178"/>
+      <c r="BD6" s="179"/>
+      <c r="BE6" s="177"/>
+      <c r="BF6" s="178"/>
+      <c r="BG6" s="178"/>
+      <c r="BH6" s="179"/>
+      <c r="BI6" s="177"/>
+      <c r="BJ6" s="178"/>
+      <c r="BK6" s="178"/>
+      <c r="BL6" s="179"/>
+      <c r="BM6" s="177"/>
+      <c r="BN6" s="178"/>
+      <c r="BO6" s="178"/>
+      <c r="BP6" s="179"/>
+      <c r="BQ6" s="177"/>
+      <c r="BR6" s="178"/>
+      <c r="BS6" s="178"/>
+      <c r="BT6" s="179"/>
+      <c r="BU6" s="177"/>
+      <c r="BV6" s="178"/>
+      <c r="BW6" s="178"/>
+      <c r="BX6" s="179"/>
+      <c r="BY6" s="177"/>
+      <c r="BZ6" s="178"/>
+      <c r="CA6" s="178"/>
+      <c r="CB6" s="179"/>
+      <c r="CC6" s="177"/>
+      <c r="CD6" s="178"/>
+      <c r="CE6" s="178"/>
+      <c r="CF6" s="179"/>
+      <c r="CG6" s="177"/>
+      <c r="CH6" s="178"/>
+      <c r="CI6" s="178"/>
+      <c r="CJ6" s="179"/>
+      <c r="CK6" s="177"/>
+      <c r="CL6" s="178"/>
+      <c r="CM6" s="178"/>
+      <c r="CN6" s="179"/>
+      <c r="CO6" s="177"/>
+      <c r="CP6" s="178"/>
+      <c r="CQ6" s="178"/>
+      <c r="CR6" s="179"/>
+      <c r="CS6" s="177"/>
+      <c r="CT6" s="178"/>
+      <c r="CU6" s="178"/>
+      <c r="CV6" s="179"/>
+      <c r="CW6" s="177"/>
+      <c r="CX6" s="178"/>
+      <c r="CY6" s="178"/>
+      <c r="CZ6" s="179"/>
+      <c r="DA6" s="177"/>
+      <c r="DB6" s="178"/>
+      <c r="DC6" s="178"/>
+      <c r="DD6" s="179"/>
+      <c r="DE6" s="177"/>
+      <c r="DF6" s="178"/>
+      <c r="DG6" s="178"/>
+      <c r="DH6" s="179"/>
+      <c r="DI6" s="177"/>
+      <c r="DJ6" s="178"/>
+      <c r="DK6" s="178"/>
+      <c r="DL6" s="179"/>
+      <c r="DM6" s="177"/>
+      <c r="DN6" s="178"/>
+      <c r="DO6" s="178"/>
+      <c r="DP6" s="179"/>
+      <c r="DQ6" s="177"/>
+      <c r="DR6" s="178"/>
+      <c r="DS6" s="178"/>
+      <c r="DT6" s="179"/>
+      <c r="DU6" s="177"/>
+      <c r="DV6" s="178"/>
+      <c r="DW6" s="178"/>
+      <c r="DX6" s="179"/>
+      <c r="DY6" s="177"/>
+      <c r="DZ6" s="178"/>
+      <c r="EA6" s="178"/>
+      <c r="EB6" s="179"/>
+      <c r="EC6" s="177"/>
+      <c r="ED6" s="178"/>
+      <c r="EE6" s="178"/>
+      <c r="EF6" s="179"/>
+      <c r="EG6" s="177"/>
+      <c r="EH6" s="178"/>
+      <c r="EI6" s="178"/>
+      <c r="EJ6" s="179"/>
+      <c r="EK6" s="177"/>
+      <c r="EL6" s="178"/>
+      <c r="EM6" s="178"/>
+      <c r="EN6" s="179"/>
+      <c r="EO6" s="177"/>
+      <c r="EP6" s="178"/>
+      <c r="EQ6" s="178"/>
+      <c r="ER6" s="179"/>
+      <c r="ES6" s="177"/>
+      <c r="ET6" s="178"/>
+      <c r="EU6" s="178"/>
+      <c r="EV6" s="179"/>
+      <c r="EW6" s="177"/>
+      <c r="EX6" s="178"/>
+      <c r="EY6" s="178"/>
+      <c r="EZ6" s="179"/>
+      <c r="FA6" s="177"/>
+      <c r="FB6" s="178"/>
+      <c r="FC6" s="178"/>
+      <c r="FD6" s="179"/>
+      <c r="FE6" s="177"/>
+      <c r="FF6" s="178"/>
+      <c r="FG6" s="178"/>
+      <c r="FH6" s="179"/>
+      <c r="FI6" s="177"/>
+      <c r="FJ6" s="178"/>
+      <c r="FK6" s="178"/>
+      <c r="FL6" s="179"/>
+      <c r="FM6" s="177"/>
+      <c r="FN6" s="178"/>
+      <c r="FO6" s="178"/>
+      <c r="FP6" s="179"/>
+      <c r="FQ6" s="177"/>
+      <c r="FR6" s="178"/>
+      <c r="FS6" s="178"/>
+      <c r="FT6" s="179"/>
+      <c r="FU6" s="177"/>
+      <c r="FV6" s="178"/>
+      <c r="FW6" s="178"/>
+      <c r="FX6" s="179"/>
+      <c r="FY6" s="177"/>
+      <c r="FZ6" s="178"/>
+      <c r="GA6" s="178"/>
+      <c r="GB6" s="179"/>
+      <c r="GC6" s="177"/>
+      <c r="GD6" s="178"/>
+      <c r="GE6" s="178"/>
+      <c r="GF6" s="179"/>
+      <c r="GG6" s="177"/>
+      <c r="GH6" s="178"/>
+      <c r="GI6" s="178"/>
+      <c r="GJ6" s="179"/>
+      <c r="GK6" s="177"/>
+      <c r="GL6" s="178"/>
+      <c r="GM6" s="178"/>
+      <c r="GN6" s="179"/>
+      <c r="GO6" s="177"/>
+      <c r="GP6" s="178"/>
+      <c r="GQ6" s="178"/>
+      <c r="GR6" s="179"/>
+      <c r="GS6" s="177"/>
+      <c r="GT6" s="178"/>
+      <c r="GU6" s="178"/>
+      <c r="GV6" s="179"/>
+      <c r="GW6" s="177"/>
+      <c r="GX6" s="178"/>
+      <c r="GY6" s="178"/>
+      <c r="GZ6" s="179"/>
+      <c r="HA6" s="177"/>
+      <c r="HB6" s="178"/>
+      <c r="HC6" s="178"/>
+      <c r="HD6" s="179"/>
+      <c r="HE6" s="177"/>
+      <c r="HF6" s="178"/>
+      <c r="HG6" s="178"/>
+      <c r="HH6" s="179"/>
+      <c r="HI6" s="177"/>
+      <c r="HJ6" s="178"/>
+      <c r="HK6" s="178"/>
+      <c r="HL6" s="179"/>
+      <c r="HM6" s="177"/>
+      <c r="HN6" s="178"/>
+      <c r="HO6" s="178"/>
+      <c r="HP6" s="179"/>
     </row>
     <row r="7" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -4356,105 +4334,68 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:224" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="142"/>
-      <c r="F12" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:224" ht="18" x14ac:dyDescent="0.25">
-      <c r="E13" s="44"/>
-      <c r="F13" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="146"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="144"/>
+      <c r="L13" s="145"/>
     </row>
     <row r="14" spans="1:224" ht="18" x14ac:dyDescent="0.25">
-      <c r="E14" s="53"/>
-      <c r="F14" s="143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="143" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:224" ht="18" x14ac:dyDescent="0.25">
+      <c r="E15" s="54"/>
+      <c r="F15" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
-    </row>
-    <row r="15" spans="1:224" ht="18" x14ac:dyDescent="0.25">
-      <c r="E15" s="58"/>
-      <c r="F15" s="143" t="s">
-        <v>23</v>
-      </c>
       <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="146"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="GK6:GN6"/>
-    <mergeCell ref="GO6:GR6"/>
-    <mergeCell ref="GS6:GV6"/>
-    <mergeCell ref="FQ6:FT6"/>
-    <mergeCell ref="FU6:FX6"/>
-    <mergeCell ref="FY6:GB6"/>
-    <mergeCell ref="GC6:GF6"/>
-    <mergeCell ref="GG6:GJ6"/>
-    <mergeCell ref="EW6:EZ6"/>
-    <mergeCell ref="FA6:FD6"/>
-    <mergeCell ref="FE6:FH6"/>
-    <mergeCell ref="FI6:FL6"/>
-    <mergeCell ref="EC6:EF6"/>
-    <mergeCell ref="EG6:EJ6"/>
-    <mergeCell ref="EK6:EN6"/>
-    <mergeCell ref="EO6:ER6"/>
-    <mergeCell ref="ES6:EV6"/>
-    <mergeCell ref="DI6:DL6"/>
-    <mergeCell ref="DM6:DP6"/>
-    <mergeCell ref="DQ6:DT6"/>
-    <mergeCell ref="DU6:DX6"/>
-    <mergeCell ref="DY6:EB6"/>
-    <mergeCell ref="CO6:CR6"/>
-    <mergeCell ref="CS6:CV6"/>
-    <mergeCell ref="CW6:CZ6"/>
-    <mergeCell ref="DA6:DD6"/>
-    <mergeCell ref="DE6:DH6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="BI6:BL6"/>
-    <mergeCell ref="BM6:BP6"/>
-    <mergeCell ref="BQ6:BT6"/>
-    <mergeCell ref="BU6:BX6"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="GW6:GZ6"/>
+    <mergeCell ref="HA6:HD6"/>
+    <mergeCell ref="HE6:HH6"/>
+    <mergeCell ref="HI6:HL6"/>
+    <mergeCell ref="HM6:HP6"/>
     <mergeCell ref="FM6:FP6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4471,11 +4412,46 @@
     <mergeCell ref="CC6:CF6"/>
     <mergeCell ref="CG6:CJ6"/>
     <mergeCell ref="CK6:CN6"/>
-    <mergeCell ref="GW6:GZ6"/>
-    <mergeCell ref="HA6:HD6"/>
-    <mergeCell ref="HE6:HH6"/>
-    <mergeCell ref="HI6:HL6"/>
-    <mergeCell ref="HM6:HP6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="BI6:BL6"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BU6:BX6"/>
+    <mergeCell ref="CO6:CR6"/>
+    <mergeCell ref="CS6:CV6"/>
+    <mergeCell ref="CW6:CZ6"/>
+    <mergeCell ref="DA6:DD6"/>
+    <mergeCell ref="DE6:DH6"/>
+    <mergeCell ref="DI6:DL6"/>
+    <mergeCell ref="DM6:DP6"/>
+    <mergeCell ref="DQ6:DT6"/>
+    <mergeCell ref="DU6:DX6"/>
+    <mergeCell ref="DY6:EB6"/>
+    <mergeCell ref="EW6:EZ6"/>
+    <mergeCell ref="FA6:FD6"/>
+    <mergeCell ref="FE6:FH6"/>
+    <mergeCell ref="FI6:FL6"/>
+    <mergeCell ref="EC6:EF6"/>
+    <mergeCell ref="EG6:EJ6"/>
+    <mergeCell ref="EK6:EN6"/>
+    <mergeCell ref="EO6:ER6"/>
+    <mergeCell ref="ES6:EV6"/>
+    <mergeCell ref="GK6:GN6"/>
+    <mergeCell ref="GO6:GR6"/>
+    <mergeCell ref="GS6:GV6"/>
+    <mergeCell ref="FQ6:FT6"/>
+    <mergeCell ref="FU6:FX6"/>
+    <mergeCell ref="FY6:GB6"/>
+    <mergeCell ref="GC6:GF6"/>
+    <mergeCell ref="GG6:GJ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4488,7 +4464,7 @@
   <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,16 +5186,18 @@
         <v>17</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
@@ -5248,18 +5226,18 @@
     <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
@@ -5273,32 +5251,28 @@
     </row>
     <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="143" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="143" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+    </row>
+    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="54"/>
+      <c r="E11" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="146"/>
-    </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="58"/>
-      <c r="E11" s="143" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="146"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
     </row>
     <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5350,7 +5324,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,24 +5361,24 @@
       <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
@@ -5528,15 +5502,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0AD7-D7B3-4E6B-9D38-D3347385A406}">
-  <dimension ref="A2:AN14"/>
+  <dimension ref="A2:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="156" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="151" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
@@ -5545,49 +5519,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="157"/>
+      <c r="A2" s="152"/>
       <c r="B2" s="71"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="158"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="153"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="153"/>
       <c r="AM2" s="71"/>
       <c r="AN2" s="71"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
+      <c r="A3" s="152"/>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
@@ -5611,13 +5585,13 @@
       <c r="V3" s="71"/>
       <c r="W3" s="71"/>
       <c r="X3" s="71"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
       <c r="AF3" s="78"/>
       <c r="AG3" s="78"/>
       <c r="AH3" s="71"/>
@@ -5629,7 +5603,7 @@
       <c r="AN3" s="71"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -5655,13 +5629,13 @@
       <c r="X4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
-      <c r="AD4" s="195"/>
-      <c r="AE4" s="195"/>
+      <c r="Y4" s="191"/>
+      <c r="Z4" s="191"/>
+      <c r="AA4" s="191"/>
+      <c r="AB4" s="191"/>
+      <c r="AC4" s="191"/>
+      <c r="AD4" s="191"/>
+      <c r="AE4" s="191"/>
       <c r="AF4" s="77"/>
       <c r="AG4" s="77"/>
       <c r="AH4" s="71"/>
@@ -5673,7 +5647,7 @@
       <c r="AN4" s="71"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
@@ -5757,9 +5731,9 @@
       <c r="AD6" s="84"/>
       <c r="AE6" s="84"/>
       <c r="AF6" s="84"/>
-      <c r="AG6" s="196"/>
-      <c r="AH6" s="196"/>
-      <c r="AI6" s="196"/>
+      <c r="AG6" s="154"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="154"/>
       <c r="AJ6" s="84"/>
       <c r="AK6" s="85"/>
       <c r="AL6" s="85"/>
@@ -5767,100 +5741,100 @@
       <c r="AN6" s="72"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="81"/>
       <c r="C7" s="82"/>
       <c r="D7" s="61"/>
       <c r="E7" s="81"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="146"/>
       <c r="AH7" s="139"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="153"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="147"/>
+      <c r="AL7" s="148"/>
       <c r="AM7" s="79"/>
       <c r="AN7" s="80"/>
     </row>
-    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="F11" s="142"/>
-      <c r="G11" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
     </row>
     <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="F12" s="44"/>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="143" t="s">
+      <c r="K12" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
     </row>
     <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="F13" s="53"/>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145"/>
     </row>
     <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="F14" s="58"/>
-      <c r="G14" s="143" t="s">
+      <c r="G14" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+      <c r="F15" s="54"/>
+      <c r="G15" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="144"/>
+      <c r="I15" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/file/worker-allocation/template.xlsx
+++ b/file/worker-allocation/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\01.Web projects\Wohhup\WebApp\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOANG\Documents\Resource\file\worker-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05804818-6A7C-41C6-92FB-729D3A99E751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A7674-3DF9-4FBA-BFF1-462E6085A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{F984A85E-37BF-4BFD-B35D-D8F92B16A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TO ACCOUNTS" sheetId="4" r:id="rId4"/>
     <sheet name="TO HR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -223,7 +226,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -975,7 +979,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,16 +999,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,9 +1118,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1155,13 +1153,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,15 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,22 +1171,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,7 +1198,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1241,19 +1216,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,7 +1237,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,10 +1249,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,13 +1294,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1355,19 +1330,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,12 +1352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1396,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1405,22 +1371,27 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,13 +1401,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,21 +1443,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,6 +1487,20 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1944,1107 +1914,896 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="98"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="98"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="87"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="158" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="98"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="87"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="98"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="87"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="98"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="87"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="98"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="87"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="93" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="98"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="87"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="98"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="98"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="87"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="98"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="87"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="137"/>
-      <c r="G14" s="93" t="s">
+      <c r="F14" s="125"/>
+      <c r="G14" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="98"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="87"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="98"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="87"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="98"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="87"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="98"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="87"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93" t="s">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="98"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="87"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="98"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="87"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="98"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="87"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="107" t="s">
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="108" t="s">
+      <c r="M21" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="107" t="s">
+      <c r="N21" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="109"/>
+      <c r="O21" s="98"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="110" t="s">
+      <c r="A22" s="150"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="138" t="s">
+      <c r="G22" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="138" t="s">
+      <c r="H22" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="110" t="s">
+      <c r="I22" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="110" t="s">
+      <c r="J22" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="111" t="s">
+      <c r="K22" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="110" t="s">
+      <c r="L22" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="111" t="s">
+      <c r="M22" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="110" t="s">
+      <c r="N22" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="112"/>
+      <c r="O22" s="101"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="114" t="s">
+      <c r="A23" s="102"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="127" t="s">
+      <c r="O23" s="116" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="134"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="123"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="87"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="93" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="87"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="87"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="87"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="87"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="87"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="86"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="86"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="93" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="87"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="87"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="87"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="81"/>
+      <c r="B35" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="86"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="86"/>
-      <c r="Y36" s="86"/>
-      <c r="Z36" s="86"/>
-      <c r="AA36" s="86"/>
-      <c r="AB36" s="86"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="86"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="86"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130" t="s">
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="87"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="87"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="87"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="87"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="87"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="86"/>
-      <c r="V40" s="86"/>
-      <c r="W40" s="86"/>
-    </row>
-    <row r="41" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="123"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="86"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="86"/>
-      <c r="W41" s="86"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="86"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="126"/>
-      <c r="V46" s="86"/>
-      <c r="W46" s="86"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="86"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="126"/>
-      <c r="V47" s="86"/>
-      <c r="W47" s="86"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="87"/>
+    </row>
+    <row r="41" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="112"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="114"/>
+      <c r="U41" s="115"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U42" s="115"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U43" s="115"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U45" s="115"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U46" s="115"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U47" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F18:L19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M33:N33"/>
@@ -3054,13 +2813,6 @@
     <mergeCell ref="X26:Z26"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F18:L19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
@@ -3088,28 +2840,26 @@
     <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="141"/>
-    <col min="11" max="12" width="9.140625" style="2"/>
+    <col min="9" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="140" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A1" s="180"/>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
+      <c r="A1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
     </row>
     <row r="2" spans="1:224" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
     </row>
     <row r="3" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
     </row>
     <row r="4" spans="1:224" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
@@ -3122,270 +2872,270 @@
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:224" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:224" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="183" t="s">
+      <c r="D6" s="165" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="185" t="s">
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="179"/>
-      <c r="Y6" s="177"/>
-      <c r="Z6" s="178"/>
-      <c r="AA6" s="178"/>
-      <c r="AB6" s="179"/>
-      <c r="AC6" s="177"/>
-      <c r="AD6" s="178"/>
-      <c r="AE6" s="178"/>
-      <c r="AF6" s="179"/>
-      <c r="AG6" s="177"/>
-      <c r="AH6" s="178"/>
-      <c r="AI6" s="178"/>
-      <c r="AJ6" s="179"/>
-      <c r="AK6" s="177"/>
-      <c r="AL6" s="178"/>
-      <c r="AM6" s="178"/>
-      <c r="AN6" s="179"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="178"/>
-      <c r="AR6" s="179"/>
-      <c r="AS6" s="177"/>
-      <c r="AT6" s="178"/>
-      <c r="AU6" s="178"/>
-      <c r="AV6" s="179"/>
-      <c r="AW6" s="177"/>
-      <c r="AX6" s="178"/>
-      <c r="AY6" s="178"/>
-      <c r="AZ6" s="179"/>
-      <c r="BA6" s="177"/>
-      <c r="BB6" s="178"/>
-      <c r="BC6" s="178"/>
-      <c r="BD6" s="179"/>
-      <c r="BE6" s="177"/>
-      <c r="BF6" s="178"/>
-      <c r="BG6" s="178"/>
-      <c r="BH6" s="179"/>
-      <c r="BI6" s="177"/>
-      <c r="BJ6" s="178"/>
-      <c r="BK6" s="178"/>
-      <c r="BL6" s="179"/>
-      <c r="BM6" s="177"/>
-      <c r="BN6" s="178"/>
-      <c r="BO6" s="178"/>
-      <c r="BP6" s="179"/>
-      <c r="BQ6" s="177"/>
-      <c r="BR6" s="178"/>
-      <c r="BS6" s="178"/>
-      <c r="BT6" s="179"/>
-      <c r="BU6" s="177"/>
-      <c r="BV6" s="178"/>
-      <c r="BW6" s="178"/>
-      <c r="BX6" s="179"/>
-      <c r="BY6" s="177"/>
-      <c r="BZ6" s="178"/>
-      <c r="CA6" s="178"/>
-      <c r="CB6" s="179"/>
-      <c r="CC6" s="177"/>
-      <c r="CD6" s="178"/>
-      <c r="CE6" s="178"/>
-      <c r="CF6" s="179"/>
-      <c r="CG6" s="177"/>
-      <c r="CH6" s="178"/>
-      <c r="CI6" s="178"/>
-      <c r="CJ6" s="179"/>
-      <c r="CK6" s="177"/>
-      <c r="CL6" s="178"/>
-      <c r="CM6" s="178"/>
-      <c r="CN6" s="179"/>
-      <c r="CO6" s="177"/>
-      <c r="CP6" s="178"/>
-      <c r="CQ6" s="178"/>
-      <c r="CR6" s="179"/>
-      <c r="CS6" s="177"/>
-      <c r="CT6" s="178"/>
-      <c r="CU6" s="178"/>
-      <c r="CV6" s="179"/>
-      <c r="CW6" s="177"/>
-      <c r="CX6" s="178"/>
-      <c r="CY6" s="178"/>
-      <c r="CZ6" s="179"/>
-      <c r="DA6" s="177"/>
-      <c r="DB6" s="178"/>
-      <c r="DC6" s="178"/>
-      <c r="DD6" s="179"/>
-      <c r="DE6" s="177"/>
-      <c r="DF6" s="178"/>
-      <c r="DG6" s="178"/>
-      <c r="DH6" s="179"/>
-      <c r="DI6" s="177"/>
-      <c r="DJ6" s="178"/>
-      <c r="DK6" s="178"/>
-      <c r="DL6" s="179"/>
-      <c r="DM6" s="177"/>
-      <c r="DN6" s="178"/>
-      <c r="DO6" s="178"/>
-      <c r="DP6" s="179"/>
-      <c r="DQ6" s="177"/>
-      <c r="DR6" s="178"/>
-      <c r="DS6" s="178"/>
-      <c r="DT6" s="179"/>
-      <c r="DU6" s="177"/>
-      <c r="DV6" s="178"/>
-      <c r="DW6" s="178"/>
-      <c r="DX6" s="179"/>
-      <c r="DY6" s="177"/>
-      <c r="DZ6" s="178"/>
-      <c r="EA6" s="178"/>
-      <c r="EB6" s="179"/>
-      <c r="EC6" s="177"/>
-      <c r="ED6" s="178"/>
-      <c r="EE6" s="178"/>
-      <c r="EF6" s="179"/>
-      <c r="EG6" s="177"/>
-      <c r="EH6" s="178"/>
-      <c r="EI6" s="178"/>
-      <c r="EJ6" s="179"/>
-      <c r="EK6" s="177"/>
-      <c r="EL6" s="178"/>
-      <c r="EM6" s="178"/>
-      <c r="EN6" s="179"/>
-      <c r="EO6" s="177"/>
-      <c r="EP6" s="178"/>
-      <c r="EQ6" s="178"/>
-      <c r="ER6" s="179"/>
-      <c r="ES6" s="177"/>
-      <c r="ET6" s="178"/>
-      <c r="EU6" s="178"/>
-      <c r="EV6" s="179"/>
-      <c r="EW6" s="177"/>
-      <c r="EX6" s="178"/>
-      <c r="EY6" s="178"/>
-      <c r="EZ6" s="179"/>
-      <c r="FA6" s="177"/>
-      <c r="FB6" s="178"/>
-      <c r="FC6" s="178"/>
-      <c r="FD6" s="179"/>
-      <c r="FE6" s="177"/>
-      <c r="FF6" s="178"/>
-      <c r="FG6" s="178"/>
-      <c r="FH6" s="179"/>
-      <c r="FI6" s="177"/>
-      <c r="FJ6" s="178"/>
-      <c r="FK6" s="178"/>
-      <c r="FL6" s="179"/>
-      <c r="FM6" s="177"/>
-      <c r="FN6" s="178"/>
-      <c r="FO6" s="178"/>
-      <c r="FP6" s="179"/>
-      <c r="FQ6" s="177"/>
-      <c r="FR6" s="178"/>
-      <c r="FS6" s="178"/>
-      <c r="FT6" s="179"/>
-      <c r="FU6" s="177"/>
-      <c r="FV6" s="178"/>
-      <c r="FW6" s="178"/>
-      <c r="FX6" s="179"/>
-      <c r="FY6" s="177"/>
-      <c r="FZ6" s="178"/>
-      <c r="GA6" s="178"/>
-      <c r="GB6" s="179"/>
-      <c r="GC6" s="177"/>
-      <c r="GD6" s="178"/>
-      <c r="GE6" s="178"/>
-      <c r="GF6" s="179"/>
-      <c r="GG6" s="177"/>
-      <c r="GH6" s="178"/>
-      <c r="GI6" s="178"/>
-      <c r="GJ6" s="179"/>
-      <c r="GK6" s="177"/>
-      <c r="GL6" s="178"/>
-      <c r="GM6" s="178"/>
-      <c r="GN6" s="179"/>
-      <c r="GO6" s="177"/>
-      <c r="GP6" s="178"/>
-      <c r="GQ6" s="178"/>
-      <c r="GR6" s="179"/>
-      <c r="GS6" s="177"/>
-      <c r="GT6" s="178"/>
-      <c r="GU6" s="178"/>
-      <c r="GV6" s="179"/>
-      <c r="GW6" s="177"/>
-      <c r="GX6" s="178"/>
-      <c r="GY6" s="178"/>
-      <c r="GZ6" s="179"/>
-      <c r="HA6" s="177"/>
-      <c r="HB6" s="178"/>
-      <c r="HC6" s="178"/>
-      <c r="HD6" s="179"/>
-      <c r="HE6" s="177"/>
-      <c r="HF6" s="178"/>
-      <c r="HG6" s="178"/>
-      <c r="HH6" s="179"/>
-      <c r="HI6" s="177"/>
-      <c r="HJ6" s="178"/>
-      <c r="HK6" s="178"/>
-      <c r="HL6" s="179"/>
-      <c r="HM6" s="177"/>
-      <c r="HN6" s="178"/>
-      <c r="HO6" s="178"/>
-      <c r="HP6" s="179"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="160"/>
+      <c r="AA6" s="160"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="160"/>
+      <c r="AE6" s="160"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="160"/>
+      <c r="AI6" s="160"/>
+      <c r="AJ6" s="161"/>
+      <c r="AK6" s="159"/>
+      <c r="AL6" s="160"/>
+      <c r="AM6" s="160"/>
+      <c r="AN6" s="161"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="160"/>
+      <c r="AR6" s="161"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="160"/>
+      <c r="AU6" s="160"/>
+      <c r="AV6" s="161"/>
+      <c r="AW6" s="159"/>
+      <c r="AX6" s="160"/>
+      <c r="AY6" s="160"/>
+      <c r="AZ6" s="161"/>
+      <c r="BA6" s="159"/>
+      <c r="BB6" s="160"/>
+      <c r="BC6" s="160"/>
+      <c r="BD6" s="161"/>
+      <c r="BE6" s="159"/>
+      <c r="BF6" s="160"/>
+      <c r="BG6" s="160"/>
+      <c r="BH6" s="161"/>
+      <c r="BI6" s="159"/>
+      <c r="BJ6" s="160"/>
+      <c r="BK6" s="160"/>
+      <c r="BL6" s="161"/>
+      <c r="BM6" s="159"/>
+      <c r="BN6" s="160"/>
+      <c r="BO6" s="160"/>
+      <c r="BP6" s="161"/>
+      <c r="BQ6" s="159"/>
+      <c r="BR6" s="160"/>
+      <c r="BS6" s="160"/>
+      <c r="BT6" s="161"/>
+      <c r="BU6" s="159"/>
+      <c r="BV6" s="160"/>
+      <c r="BW6" s="160"/>
+      <c r="BX6" s="161"/>
+      <c r="BY6" s="159"/>
+      <c r="BZ6" s="160"/>
+      <c r="CA6" s="160"/>
+      <c r="CB6" s="161"/>
+      <c r="CC6" s="159"/>
+      <c r="CD6" s="160"/>
+      <c r="CE6" s="160"/>
+      <c r="CF6" s="161"/>
+      <c r="CG6" s="159"/>
+      <c r="CH6" s="160"/>
+      <c r="CI6" s="160"/>
+      <c r="CJ6" s="161"/>
+      <c r="CK6" s="159"/>
+      <c r="CL6" s="160"/>
+      <c r="CM6" s="160"/>
+      <c r="CN6" s="161"/>
+      <c r="CO6" s="159"/>
+      <c r="CP6" s="160"/>
+      <c r="CQ6" s="160"/>
+      <c r="CR6" s="161"/>
+      <c r="CS6" s="159"/>
+      <c r="CT6" s="160"/>
+      <c r="CU6" s="160"/>
+      <c r="CV6" s="161"/>
+      <c r="CW6" s="159"/>
+      <c r="CX6" s="160"/>
+      <c r="CY6" s="160"/>
+      <c r="CZ6" s="161"/>
+      <c r="DA6" s="159"/>
+      <c r="DB6" s="160"/>
+      <c r="DC6" s="160"/>
+      <c r="DD6" s="161"/>
+      <c r="DE6" s="159"/>
+      <c r="DF6" s="160"/>
+      <c r="DG6" s="160"/>
+      <c r="DH6" s="161"/>
+      <c r="DI6" s="159"/>
+      <c r="DJ6" s="160"/>
+      <c r="DK6" s="160"/>
+      <c r="DL6" s="161"/>
+      <c r="DM6" s="159"/>
+      <c r="DN6" s="160"/>
+      <c r="DO6" s="160"/>
+      <c r="DP6" s="161"/>
+      <c r="DQ6" s="159"/>
+      <c r="DR6" s="160"/>
+      <c r="DS6" s="160"/>
+      <c r="DT6" s="161"/>
+      <c r="DU6" s="159"/>
+      <c r="DV6" s="160"/>
+      <c r="DW6" s="160"/>
+      <c r="DX6" s="161"/>
+      <c r="DY6" s="159"/>
+      <c r="DZ6" s="160"/>
+      <c r="EA6" s="160"/>
+      <c r="EB6" s="161"/>
+      <c r="EC6" s="159"/>
+      <c r="ED6" s="160"/>
+      <c r="EE6" s="160"/>
+      <c r="EF6" s="161"/>
+      <c r="EG6" s="159"/>
+      <c r="EH6" s="160"/>
+      <c r="EI6" s="160"/>
+      <c r="EJ6" s="161"/>
+      <c r="EK6" s="159"/>
+      <c r="EL6" s="160"/>
+      <c r="EM6" s="160"/>
+      <c r="EN6" s="161"/>
+      <c r="EO6" s="159"/>
+      <c r="EP6" s="160"/>
+      <c r="EQ6" s="160"/>
+      <c r="ER6" s="161"/>
+      <c r="ES6" s="159"/>
+      <c r="ET6" s="160"/>
+      <c r="EU6" s="160"/>
+      <c r="EV6" s="161"/>
+      <c r="EW6" s="159"/>
+      <c r="EX6" s="160"/>
+      <c r="EY6" s="160"/>
+      <c r="EZ6" s="161"/>
+      <c r="FA6" s="159"/>
+      <c r="FB6" s="160"/>
+      <c r="FC6" s="160"/>
+      <c r="FD6" s="161"/>
+      <c r="FE6" s="159"/>
+      <c r="FF6" s="160"/>
+      <c r="FG6" s="160"/>
+      <c r="FH6" s="161"/>
+      <c r="FI6" s="159"/>
+      <c r="FJ6" s="160"/>
+      <c r="FK6" s="160"/>
+      <c r="FL6" s="161"/>
+      <c r="FM6" s="159"/>
+      <c r="FN6" s="160"/>
+      <c r="FO6" s="160"/>
+      <c r="FP6" s="161"/>
+      <c r="FQ6" s="159"/>
+      <c r="FR6" s="160"/>
+      <c r="FS6" s="160"/>
+      <c r="FT6" s="161"/>
+      <c r="FU6" s="159"/>
+      <c r="FV6" s="160"/>
+      <c r="FW6" s="160"/>
+      <c r="FX6" s="161"/>
+      <c r="FY6" s="159"/>
+      <c r="FZ6" s="160"/>
+      <c r="GA6" s="160"/>
+      <c r="GB6" s="161"/>
+      <c r="GC6" s="159"/>
+      <c r="GD6" s="160"/>
+      <c r="GE6" s="160"/>
+      <c r="GF6" s="161"/>
+      <c r="GG6" s="159"/>
+      <c r="GH6" s="160"/>
+      <c r="GI6" s="160"/>
+      <c r="GJ6" s="161"/>
+      <c r="GK6" s="159"/>
+      <c r="GL6" s="160"/>
+      <c r="GM6" s="160"/>
+      <c r="GN6" s="161"/>
+      <c r="GO6" s="159"/>
+      <c r="GP6" s="160"/>
+      <c r="GQ6" s="160"/>
+      <c r="GR6" s="161"/>
+      <c r="GS6" s="159"/>
+      <c r="GT6" s="160"/>
+      <c r="GU6" s="160"/>
+      <c r="GV6" s="161"/>
+      <c r="GW6" s="159"/>
+      <c r="GX6" s="160"/>
+      <c r="GY6" s="160"/>
+      <c r="GZ6" s="161"/>
+      <c r="HA6" s="159"/>
+      <c r="HB6" s="160"/>
+      <c r="HC6" s="160"/>
+      <c r="HD6" s="161"/>
+      <c r="HE6" s="159"/>
+      <c r="HF6" s="160"/>
+      <c r="HG6" s="160"/>
+      <c r="HH6" s="161"/>
+      <c r="HI6" s="159"/>
+      <c r="HJ6" s="160"/>
+      <c r="HK6" s="160"/>
+      <c r="HL6" s="161"/>
+      <c r="HM6" s="159"/>
+      <c r="HN6" s="160"/>
+      <c r="HO6" s="160"/>
+      <c r="HP6" s="161"/>
     </row>
     <row r="7" spans="1:224" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -4334,68 +4084,103 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:224" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="44"/>
-      <c r="F12" s="142" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="142" t="s">
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:224" ht="18" x14ac:dyDescent="0.25">
-      <c r="E13" s="53"/>
-      <c r="F13" s="142" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="142" t="s">
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="144"/>
-      <c r="L13" s="145"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="1:224" ht="18" x14ac:dyDescent="0.25">
-      <c r="E14" s="58"/>
-      <c r="F14" s="142" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
     </row>
     <row r="15" spans="1:224" ht="18" x14ac:dyDescent="0.25">
-      <c r="E15" s="54"/>
-      <c r="F15" s="142" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="GW6:GZ6"/>
-    <mergeCell ref="HA6:HD6"/>
-    <mergeCell ref="HE6:HH6"/>
-    <mergeCell ref="HI6:HL6"/>
-    <mergeCell ref="HM6:HP6"/>
+    <mergeCell ref="GK6:GN6"/>
+    <mergeCell ref="GO6:GR6"/>
+    <mergeCell ref="GS6:GV6"/>
+    <mergeCell ref="FQ6:FT6"/>
+    <mergeCell ref="FU6:FX6"/>
+    <mergeCell ref="FY6:GB6"/>
+    <mergeCell ref="GC6:GF6"/>
+    <mergeCell ref="GG6:GJ6"/>
+    <mergeCell ref="EW6:EZ6"/>
+    <mergeCell ref="FA6:FD6"/>
+    <mergeCell ref="FE6:FH6"/>
+    <mergeCell ref="FI6:FL6"/>
+    <mergeCell ref="EC6:EF6"/>
+    <mergeCell ref="EG6:EJ6"/>
+    <mergeCell ref="EK6:EN6"/>
+    <mergeCell ref="EO6:ER6"/>
+    <mergeCell ref="ES6:EV6"/>
+    <mergeCell ref="DI6:DL6"/>
+    <mergeCell ref="DM6:DP6"/>
+    <mergeCell ref="DQ6:DT6"/>
+    <mergeCell ref="DU6:DX6"/>
+    <mergeCell ref="DY6:EB6"/>
+    <mergeCell ref="CO6:CR6"/>
+    <mergeCell ref="CS6:CV6"/>
+    <mergeCell ref="CW6:CZ6"/>
+    <mergeCell ref="DA6:DD6"/>
+    <mergeCell ref="DE6:DH6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="BI6:BL6"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BU6:BX6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:L6"/>
     <mergeCell ref="FM6:FP6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4412,46 +4197,11 @@
     <mergeCell ref="CC6:CF6"/>
     <mergeCell ref="CG6:CJ6"/>
     <mergeCell ref="CK6:CN6"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="BI6:BL6"/>
-    <mergeCell ref="BM6:BP6"/>
-    <mergeCell ref="BQ6:BT6"/>
-    <mergeCell ref="BU6:BX6"/>
-    <mergeCell ref="CO6:CR6"/>
-    <mergeCell ref="CS6:CV6"/>
-    <mergeCell ref="CW6:CZ6"/>
-    <mergeCell ref="DA6:DD6"/>
-    <mergeCell ref="DE6:DH6"/>
-    <mergeCell ref="DI6:DL6"/>
-    <mergeCell ref="DM6:DP6"/>
-    <mergeCell ref="DQ6:DT6"/>
-    <mergeCell ref="DU6:DX6"/>
-    <mergeCell ref="DY6:EB6"/>
-    <mergeCell ref="EW6:EZ6"/>
-    <mergeCell ref="FA6:FD6"/>
-    <mergeCell ref="FE6:FH6"/>
-    <mergeCell ref="FI6:FL6"/>
-    <mergeCell ref="EC6:EF6"/>
-    <mergeCell ref="EG6:EJ6"/>
-    <mergeCell ref="EK6:EN6"/>
-    <mergeCell ref="EO6:ER6"/>
-    <mergeCell ref="ES6:EV6"/>
-    <mergeCell ref="GK6:GN6"/>
-    <mergeCell ref="GO6:GR6"/>
-    <mergeCell ref="GS6:GV6"/>
-    <mergeCell ref="FQ6:FT6"/>
-    <mergeCell ref="FU6:FX6"/>
-    <mergeCell ref="FY6:GB6"/>
-    <mergeCell ref="GC6:GF6"/>
-    <mergeCell ref="GG6:GJ6"/>
+    <mergeCell ref="GW6:GZ6"/>
+    <mergeCell ref="HA6:HD6"/>
+    <mergeCell ref="HE6:HH6"/>
+    <mergeCell ref="HI6:HL6"/>
+    <mergeCell ref="HM6:HP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4464,815 +4214,815 @@
   <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="57" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="57" customWidth="1"/>
-    <col min="4" max="35" width="5.42578125" style="10" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="12.42578125" style="18" customWidth="1"/>
-    <col min="38" max="256" width="9.140625" style="18"/>
-    <col min="257" max="257" width="5.140625" style="18" customWidth="1"/>
-    <col min="258" max="258" width="12.85546875" style="18" customWidth="1"/>
-    <col min="259" max="259" width="37.28515625" style="18" customWidth="1"/>
-    <col min="260" max="291" width="5.42578125" style="18" customWidth="1"/>
-    <col min="292" max="292" width="13.28515625" style="18" customWidth="1"/>
-    <col min="293" max="293" width="12.42578125" style="18" customWidth="1"/>
-    <col min="294" max="512" width="9.140625" style="18"/>
-    <col min="513" max="513" width="5.140625" style="18" customWidth="1"/>
-    <col min="514" max="514" width="12.85546875" style="18" customWidth="1"/>
-    <col min="515" max="515" width="37.28515625" style="18" customWidth="1"/>
-    <col min="516" max="547" width="5.42578125" style="18" customWidth="1"/>
-    <col min="548" max="548" width="13.28515625" style="18" customWidth="1"/>
-    <col min="549" max="549" width="12.42578125" style="18" customWidth="1"/>
-    <col min="550" max="768" width="9.140625" style="18"/>
-    <col min="769" max="769" width="5.140625" style="18" customWidth="1"/>
-    <col min="770" max="770" width="12.85546875" style="18" customWidth="1"/>
-    <col min="771" max="771" width="37.28515625" style="18" customWidth="1"/>
-    <col min="772" max="803" width="5.42578125" style="18" customWidth="1"/>
-    <col min="804" max="804" width="13.28515625" style="18" customWidth="1"/>
-    <col min="805" max="805" width="12.42578125" style="18" customWidth="1"/>
-    <col min="806" max="1024" width="9.140625" style="18"/>
-    <col min="1025" max="1025" width="5.140625" style="18" customWidth="1"/>
-    <col min="1026" max="1026" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1027" max="1027" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1028" max="1059" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1060" max="1060" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1061" max="1061" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1062" max="1280" width="9.140625" style="18"/>
-    <col min="1281" max="1281" width="5.140625" style="18" customWidth="1"/>
-    <col min="1282" max="1282" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1283" max="1283" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1284" max="1315" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1316" max="1316" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1317" max="1317" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1318" max="1536" width="9.140625" style="18"/>
-    <col min="1537" max="1537" width="5.140625" style="18" customWidth="1"/>
-    <col min="1538" max="1538" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1539" max="1539" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1540" max="1571" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1572" max="1572" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1573" max="1573" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1574" max="1792" width="9.140625" style="18"/>
-    <col min="1793" max="1793" width="5.140625" style="18" customWidth="1"/>
-    <col min="1794" max="1794" width="12.85546875" style="18" customWidth="1"/>
-    <col min="1795" max="1795" width="37.28515625" style="18" customWidth="1"/>
-    <col min="1796" max="1827" width="5.42578125" style="18" customWidth="1"/>
-    <col min="1828" max="1828" width="13.28515625" style="18" customWidth="1"/>
-    <col min="1829" max="1829" width="12.42578125" style="18" customWidth="1"/>
-    <col min="1830" max="2048" width="9.140625" style="18"/>
-    <col min="2049" max="2049" width="5.140625" style="18" customWidth="1"/>
-    <col min="2050" max="2050" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2051" max="2051" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2052" max="2083" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2084" max="2084" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2085" max="2085" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2086" max="2304" width="9.140625" style="18"/>
-    <col min="2305" max="2305" width="5.140625" style="18" customWidth="1"/>
-    <col min="2306" max="2306" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2307" max="2307" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2308" max="2339" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2340" max="2340" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2341" max="2341" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2342" max="2560" width="9.140625" style="18"/>
-    <col min="2561" max="2561" width="5.140625" style="18" customWidth="1"/>
-    <col min="2562" max="2562" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2563" max="2563" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2564" max="2595" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2596" max="2596" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2597" max="2597" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2598" max="2816" width="9.140625" style="18"/>
-    <col min="2817" max="2817" width="5.140625" style="18" customWidth="1"/>
-    <col min="2818" max="2818" width="12.85546875" style="18" customWidth="1"/>
-    <col min="2819" max="2819" width="37.28515625" style="18" customWidth="1"/>
-    <col min="2820" max="2851" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2852" max="2852" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2853" max="2853" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2854" max="3072" width="9.140625" style="18"/>
-    <col min="3073" max="3073" width="5.140625" style="18" customWidth="1"/>
-    <col min="3074" max="3074" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3075" max="3075" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3076" max="3107" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3108" max="3108" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3109" max="3109" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3110" max="3328" width="9.140625" style="18"/>
-    <col min="3329" max="3329" width="5.140625" style="18" customWidth="1"/>
-    <col min="3330" max="3330" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3331" max="3331" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3332" max="3363" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3364" max="3364" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3365" max="3365" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3366" max="3584" width="9.140625" style="18"/>
-    <col min="3585" max="3585" width="5.140625" style="18" customWidth="1"/>
-    <col min="3586" max="3586" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3587" max="3587" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3588" max="3619" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3620" max="3620" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3621" max="3621" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3622" max="3840" width="9.140625" style="18"/>
-    <col min="3841" max="3841" width="5.140625" style="18" customWidth="1"/>
-    <col min="3842" max="3842" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3843" max="3843" width="37.28515625" style="18" customWidth="1"/>
-    <col min="3844" max="3875" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3876" max="3876" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3877" max="3877" width="12.42578125" style="18" customWidth="1"/>
-    <col min="3878" max="4096" width="9.140625" style="18"/>
-    <col min="4097" max="4097" width="5.140625" style="18" customWidth="1"/>
-    <col min="4098" max="4098" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4099" max="4099" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4100" max="4131" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4132" max="4132" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4133" max="4133" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4134" max="4352" width="9.140625" style="18"/>
-    <col min="4353" max="4353" width="5.140625" style="18" customWidth="1"/>
-    <col min="4354" max="4354" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4355" max="4355" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4356" max="4387" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4388" max="4388" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4389" max="4389" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4390" max="4608" width="9.140625" style="18"/>
-    <col min="4609" max="4609" width="5.140625" style="18" customWidth="1"/>
-    <col min="4610" max="4610" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4611" max="4611" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4612" max="4643" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4644" max="4644" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4645" max="4645" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4646" max="4864" width="9.140625" style="18"/>
-    <col min="4865" max="4865" width="5.140625" style="18" customWidth="1"/>
-    <col min="4866" max="4866" width="12.85546875" style="18" customWidth="1"/>
-    <col min="4867" max="4867" width="37.28515625" style="18" customWidth="1"/>
-    <col min="4868" max="4899" width="5.42578125" style="18" customWidth="1"/>
-    <col min="4900" max="4900" width="13.28515625" style="18" customWidth="1"/>
-    <col min="4901" max="4901" width="12.42578125" style="18" customWidth="1"/>
-    <col min="4902" max="5120" width="9.140625" style="18"/>
-    <col min="5121" max="5121" width="5.140625" style="18" customWidth="1"/>
-    <col min="5122" max="5122" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5123" max="5123" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5124" max="5155" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5156" max="5156" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5157" max="5157" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5158" max="5376" width="9.140625" style="18"/>
-    <col min="5377" max="5377" width="5.140625" style="18" customWidth="1"/>
-    <col min="5378" max="5378" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5379" max="5379" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5380" max="5411" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5412" max="5412" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5413" max="5413" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5414" max="5632" width="9.140625" style="18"/>
-    <col min="5633" max="5633" width="5.140625" style="18" customWidth="1"/>
-    <col min="5634" max="5634" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5635" max="5635" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5636" max="5667" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5668" max="5668" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5669" max="5669" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5670" max="5888" width="9.140625" style="18"/>
-    <col min="5889" max="5889" width="5.140625" style="18" customWidth="1"/>
-    <col min="5890" max="5890" width="12.85546875" style="18" customWidth="1"/>
-    <col min="5891" max="5891" width="37.28515625" style="18" customWidth="1"/>
-    <col min="5892" max="5923" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5924" max="5924" width="13.28515625" style="18" customWidth="1"/>
-    <col min="5925" max="5925" width="12.42578125" style="18" customWidth="1"/>
-    <col min="5926" max="6144" width="9.140625" style="18"/>
-    <col min="6145" max="6145" width="5.140625" style="18" customWidth="1"/>
-    <col min="6146" max="6146" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6147" max="6147" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6148" max="6179" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6180" max="6180" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6181" max="6181" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6182" max="6400" width="9.140625" style="18"/>
-    <col min="6401" max="6401" width="5.140625" style="18" customWidth="1"/>
-    <col min="6402" max="6402" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6403" max="6403" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6404" max="6435" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6436" max="6436" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6437" max="6437" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6438" max="6656" width="9.140625" style="18"/>
-    <col min="6657" max="6657" width="5.140625" style="18" customWidth="1"/>
-    <col min="6658" max="6658" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6659" max="6659" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6660" max="6691" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6692" max="6692" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6693" max="6693" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6694" max="6912" width="9.140625" style="18"/>
-    <col min="6913" max="6913" width="5.140625" style="18" customWidth="1"/>
-    <col min="6914" max="6914" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6915" max="6915" width="37.28515625" style="18" customWidth="1"/>
-    <col min="6916" max="6947" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6948" max="6948" width="13.28515625" style="18" customWidth="1"/>
-    <col min="6949" max="6949" width="12.42578125" style="18" customWidth="1"/>
-    <col min="6950" max="7168" width="9.140625" style="18"/>
-    <col min="7169" max="7169" width="5.140625" style="18" customWidth="1"/>
-    <col min="7170" max="7170" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7171" max="7171" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7172" max="7203" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7204" max="7204" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7205" max="7205" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7206" max="7424" width="9.140625" style="18"/>
-    <col min="7425" max="7425" width="5.140625" style="18" customWidth="1"/>
-    <col min="7426" max="7426" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7427" max="7427" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7428" max="7459" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7460" max="7460" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7461" max="7461" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7462" max="7680" width="9.140625" style="18"/>
-    <col min="7681" max="7681" width="5.140625" style="18" customWidth="1"/>
-    <col min="7682" max="7682" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7683" max="7683" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7684" max="7715" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7716" max="7716" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7717" max="7717" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7718" max="7936" width="9.140625" style="18"/>
-    <col min="7937" max="7937" width="5.140625" style="18" customWidth="1"/>
-    <col min="7938" max="7938" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7939" max="7939" width="37.28515625" style="18" customWidth="1"/>
-    <col min="7940" max="7971" width="5.42578125" style="18" customWidth="1"/>
-    <col min="7972" max="7972" width="13.28515625" style="18" customWidth="1"/>
-    <col min="7973" max="7973" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7974" max="8192" width="9.140625" style="18"/>
-    <col min="8193" max="8193" width="5.140625" style="18" customWidth="1"/>
-    <col min="8194" max="8194" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8195" max="8195" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8196" max="8227" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8228" max="8228" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8229" max="8229" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8230" max="8448" width="9.140625" style="18"/>
-    <col min="8449" max="8449" width="5.140625" style="18" customWidth="1"/>
-    <col min="8450" max="8450" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8451" max="8451" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8452" max="8483" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8484" max="8484" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8485" max="8485" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8486" max="8704" width="9.140625" style="18"/>
-    <col min="8705" max="8705" width="5.140625" style="18" customWidth="1"/>
-    <col min="8706" max="8706" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8707" max="8707" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8708" max="8739" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8740" max="8740" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8741" max="8741" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8742" max="8960" width="9.140625" style="18"/>
-    <col min="8961" max="8961" width="5.140625" style="18" customWidth="1"/>
-    <col min="8962" max="8962" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8963" max="8963" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8964" max="8995" width="5.42578125" style="18" customWidth="1"/>
-    <col min="8996" max="8996" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8997" max="8997" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8998" max="9216" width="9.140625" style="18"/>
-    <col min="9217" max="9217" width="5.140625" style="18" customWidth="1"/>
-    <col min="9218" max="9218" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9219" max="9219" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9220" max="9251" width="5.42578125" style="18" customWidth="1"/>
-    <col min="9252" max="9252" width="13.28515625" style="18" customWidth="1"/>
-    <col min="9253" max="9253" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9254" max="9472" width="9.140625" style="18"/>
-    <col min="9473" max="9473" width="5.140625" style="18" customWidth="1"/>
-    <col min="9474" max="9474" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9475" max="9475" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9476" max="9507" width="5.42578125" style="18" customWidth="1"/>
-    <col min="9508" max="9508" width="13.28515625" style="18" customWidth="1"/>
-    <col min="9509" max="9509" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9510" max="9728" width="9.140625" style="18"/>
-    <col min="9729" max="9729" width="5.140625" style="18" customWidth="1"/>
-    <col min="9730" max="9730" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9731" max="9731" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9732" max="9763" width="5.42578125" style="18" customWidth="1"/>
-    <col min="9764" max="9764" width="13.28515625" style="18" customWidth="1"/>
-    <col min="9765" max="9765" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9766" max="9984" width="9.140625" style="18"/>
-    <col min="9985" max="9985" width="5.140625" style="18" customWidth="1"/>
-    <col min="9986" max="9986" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9987" max="9987" width="37.28515625" style="18" customWidth="1"/>
-    <col min="9988" max="10019" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10020" max="10020" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10021" max="10021" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10022" max="10240" width="9.140625" style="18"/>
-    <col min="10241" max="10241" width="5.140625" style="18" customWidth="1"/>
-    <col min="10242" max="10242" width="12.85546875" style="18" customWidth="1"/>
-    <col min="10243" max="10243" width="37.28515625" style="18" customWidth="1"/>
-    <col min="10244" max="10275" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10276" max="10276" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10277" max="10277" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10278" max="10496" width="9.140625" style="18"/>
-    <col min="10497" max="10497" width="5.140625" style="18" customWidth="1"/>
-    <col min="10498" max="10498" width="12.85546875" style="18" customWidth="1"/>
-    <col min="10499" max="10499" width="37.28515625" style="18" customWidth="1"/>
-    <col min="10500" max="10531" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10532" max="10532" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10533" max="10533" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10534" max="10752" width="9.140625" style="18"/>
-    <col min="10753" max="10753" width="5.140625" style="18" customWidth="1"/>
-    <col min="10754" max="10754" width="12.85546875" style="18" customWidth="1"/>
-    <col min="10755" max="10755" width="37.28515625" style="18" customWidth="1"/>
-    <col min="10756" max="10787" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10788" max="10788" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10789" max="10789" width="12.42578125" style="18" customWidth="1"/>
-    <col min="10790" max="11008" width="9.140625" style="18"/>
-    <col min="11009" max="11009" width="5.140625" style="18" customWidth="1"/>
-    <col min="11010" max="11010" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11011" max="11011" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11012" max="11043" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11044" max="11044" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11045" max="11045" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11046" max="11264" width="9.140625" style="18"/>
-    <col min="11265" max="11265" width="5.140625" style="18" customWidth="1"/>
-    <col min="11266" max="11266" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11267" max="11267" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11268" max="11299" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11300" max="11300" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11301" max="11301" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11302" max="11520" width="9.140625" style="18"/>
-    <col min="11521" max="11521" width="5.140625" style="18" customWidth="1"/>
-    <col min="11522" max="11522" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11523" max="11523" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11524" max="11555" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11556" max="11556" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11557" max="11557" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11558" max="11776" width="9.140625" style="18"/>
-    <col min="11777" max="11777" width="5.140625" style="18" customWidth="1"/>
-    <col min="11778" max="11778" width="12.85546875" style="18" customWidth="1"/>
-    <col min="11779" max="11779" width="37.28515625" style="18" customWidth="1"/>
-    <col min="11780" max="11811" width="5.42578125" style="18" customWidth="1"/>
-    <col min="11812" max="11812" width="13.28515625" style="18" customWidth="1"/>
-    <col min="11813" max="11813" width="12.42578125" style="18" customWidth="1"/>
-    <col min="11814" max="12032" width="9.140625" style="18"/>
-    <col min="12033" max="12033" width="5.140625" style="18" customWidth="1"/>
-    <col min="12034" max="12034" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12035" max="12035" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12036" max="12067" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12068" max="12068" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12069" max="12069" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12070" max="12288" width="9.140625" style="18"/>
-    <col min="12289" max="12289" width="5.140625" style="18" customWidth="1"/>
-    <col min="12290" max="12290" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12291" max="12291" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12292" max="12323" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12324" max="12324" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12325" max="12325" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12326" max="12544" width="9.140625" style="18"/>
-    <col min="12545" max="12545" width="5.140625" style="18" customWidth="1"/>
-    <col min="12546" max="12546" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12547" max="12547" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12548" max="12579" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12580" max="12580" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12581" max="12581" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12582" max="12800" width="9.140625" style="18"/>
-    <col min="12801" max="12801" width="5.140625" style="18" customWidth="1"/>
-    <col min="12802" max="12802" width="12.85546875" style="18" customWidth="1"/>
-    <col min="12803" max="12803" width="37.28515625" style="18" customWidth="1"/>
-    <col min="12804" max="12835" width="5.42578125" style="18" customWidth="1"/>
-    <col min="12836" max="12836" width="13.28515625" style="18" customWidth="1"/>
-    <col min="12837" max="12837" width="12.42578125" style="18" customWidth="1"/>
-    <col min="12838" max="13056" width="9.140625" style="18"/>
-    <col min="13057" max="13057" width="5.140625" style="18" customWidth="1"/>
-    <col min="13058" max="13058" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13059" max="13059" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13060" max="13091" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13092" max="13092" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13093" max="13093" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13094" max="13312" width="9.140625" style="18"/>
-    <col min="13313" max="13313" width="5.140625" style="18" customWidth="1"/>
-    <col min="13314" max="13314" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13315" max="13315" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13316" max="13347" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13348" max="13348" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13349" max="13349" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13350" max="13568" width="9.140625" style="18"/>
-    <col min="13569" max="13569" width="5.140625" style="18" customWidth="1"/>
-    <col min="13570" max="13570" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13571" max="13571" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13572" max="13603" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13604" max="13604" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13605" max="13605" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13606" max="13824" width="9.140625" style="18"/>
-    <col min="13825" max="13825" width="5.140625" style="18" customWidth="1"/>
-    <col min="13826" max="13826" width="12.85546875" style="18" customWidth="1"/>
-    <col min="13827" max="13827" width="37.28515625" style="18" customWidth="1"/>
-    <col min="13828" max="13859" width="5.42578125" style="18" customWidth="1"/>
-    <col min="13860" max="13860" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13861" max="13861" width="12.42578125" style="18" customWidth="1"/>
-    <col min="13862" max="14080" width="9.140625" style="18"/>
-    <col min="14081" max="14081" width="5.140625" style="18" customWidth="1"/>
-    <col min="14082" max="14082" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14083" max="14083" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14084" max="14115" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14116" max="14116" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14117" max="14117" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14118" max="14336" width="9.140625" style="18"/>
-    <col min="14337" max="14337" width="5.140625" style="18" customWidth="1"/>
-    <col min="14338" max="14338" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14339" max="14339" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14340" max="14371" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14372" max="14372" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14373" max="14373" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14374" max="14592" width="9.140625" style="18"/>
-    <col min="14593" max="14593" width="5.140625" style="18" customWidth="1"/>
-    <col min="14594" max="14594" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14595" max="14595" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14596" max="14627" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14628" max="14628" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14629" max="14629" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14630" max="14848" width="9.140625" style="18"/>
-    <col min="14849" max="14849" width="5.140625" style="18" customWidth="1"/>
-    <col min="14850" max="14850" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14851" max="14851" width="37.28515625" style="18" customWidth="1"/>
-    <col min="14852" max="14883" width="5.42578125" style="18" customWidth="1"/>
-    <col min="14884" max="14884" width="13.28515625" style="18" customWidth="1"/>
-    <col min="14885" max="14885" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14886" max="15104" width="9.140625" style="18"/>
-    <col min="15105" max="15105" width="5.140625" style="18" customWidth="1"/>
-    <col min="15106" max="15106" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15107" max="15107" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15108" max="15139" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15140" max="15140" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15141" max="15141" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15142" max="15360" width="9.140625" style="18"/>
-    <col min="15361" max="15361" width="5.140625" style="18" customWidth="1"/>
-    <col min="15362" max="15362" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15363" max="15363" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15364" max="15395" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15396" max="15396" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15397" max="15397" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15398" max="15616" width="9.140625" style="18"/>
-    <col min="15617" max="15617" width="5.140625" style="18" customWidth="1"/>
-    <col min="15618" max="15618" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15619" max="15619" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15620" max="15651" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15652" max="15652" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15653" max="15653" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15654" max="15872" width="9.140625" style="18"/>
-    <col min="15873" max="15873" width="5.140625" style="18" customWidth="1"/>
-    <col min="15874" max="15874" width="12.85546875" style="18" customWidth="1"/>
-    <col min="15875" max="15875" width="37.28515625" style="18" customWidth="1"/>
-    <col min="15876" max="15907" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15908" max="15908" width="13.28515625" style="18" customWidth="1"/>
-    <col min="15909" max="15909" width="12.42578125" style="18" customWidth="1"/>
-    <col min="15910" max="16128" width="9.140625" style="18"/>
-    <col min="16129" max="16129" width="5.140625" style="18" customWidth="1"/>
-    <col min="16130" max="16130" width="12.85546875" style="18" customWidth="1"/>
-    <col min="16131" max="16131" width="37.28515625" style="18" customWidth="1"/>
-    <col min="16132" max="16163" width="5.42578125" style="18" customWidth="1"/>
-    <col min="16164" max="16164" width="13.28515625" style="18" customWidth="1"/>
-    <col min="16165" max="16165" width="12.42578125" style="18" customWidth="1"/>
-    <col min="16166" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="5.140625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="55" customWidth="1"/>
+    <col min="4" max="35" width="5.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" style="17" customWidth="1"/>
+    <col min="38" max="256" width="9.140625" style="17"/>
+    <col min="257" max="257" width="5.140625" style="17" customWidth="1"/>
+    <col min="258" max="258" width="12.85546875" style="17" customWidth="1"/>
+    <col min="259" max="259" width="37.28515625" style="17" customWidth="1"/>
+    <col min="260" max="291" width="5.42578125" style="17" customWidth="1"/>
+    <col min="292" max="292" width="13.28515625" style="17" customWidth="1"/>
+    <col min="293" max="293" width="12.42578125" style="17" customWidth="1"/>
+    <col min="294" max="512" width="9.140625" style="17"/>
+    <col min="513" max="513" width="5.140625" style="17" customWidth="1"/>
+    <col min="514" max="514" width="12.85546875" style="17" customWidth="1"/>
+    <col min="515" max="515" width="37.28515625" style="17" customWidth="1"/>
+    <col min="516" max="547" width="5.42578125" style="17" customWidth="1"/>
+    <col min="548" max="548" width="13.28515625" style="17" customWidth="1"/>
+    <col min="549" max="549" width="12.42578125" style="17" customWidth="1"/>
+    <col min="550" max="768" width="9.140625" style="17"/>
+    <col min="769" max="769" width="5.140625" style="17" customWidth="1"/>
+    <col min="770" max="770" width="12.85546875" style="17" customWidth="1"/>
+    <col min="771" max="771" width="37.28515625" style="17" customWidth="1"/>
+    <col min="772" max="803" width="5.42578125" style="17" customWidth="1"/>
+    <col min="804" max="804" width="13.28515625" style="17" customWidth="1"/>
+    <col min="805" max="805" width="12.42578125" style="17" customWidth="1"/>
+    <col min="806" max="1024" width="9.140625" style="17"/>
+    <col min="1025" max="1025" width="5.140625" style="17" customWidth="1"/>
+    <col min="1026" max="1026" width="12.85546875" style="17" customWidth="1"/>
+    <col min="1027" max="1027" width="37.28515625" style="17" customWidth="1"/>
+    <col min="1028" max="1059" width="5.42578125" style="17" customWidth="1"/>
+    <col min="1060" max="1060" width="13.28515625" style="17" customWidth="1"/>
+    <col min="1061" max="1061" width="12.42578125" style="17" customWidth="1"/>
+    <col min="1062" max="1280" width="9.140625" style="17"/>
+    <col min="1281" max="1281" width="5.140625" style="17" customWidth="1"/>
+    <col min="1282" max="1282" width="12.85546875" style="17" customWidth="1"/>
+    <col min="1283" max="1283" width="37.28515625" style="17" customWidth="1"/>
+    <col min="1284" max="1315" width="5.42578125" style="17" customWidth="1"/>
+    <col min="1316" max="1316" width="13.28515625" style="17" customWidth="1"/>
+    <col min="1317" max="1317" width="12.42578125" style="17" customWidth="1"/>
+    <col min="1318" max="1536" width="9.140625" style="17"/>
+    <col min="1537" max="1537" width="5.140625" style="17" customWidth="1"/>
+    <col min="1538" max="1538" width="12.85546875" style="17" customWidth="1"/>
+    <col min="1539" max="1539" width="37.28515625" style="17" customWidth="1"/>
+    <col min="1540" max="1571" width="5.42578125" style="17" customWidth="1"/>
+    <col min="1572" max="1572" width="13.28515625" style="17" customWidth="1"/>
+    <col min="1573" max="1573" width="12.42578125" style="17" customWidth="1"/>
+    <col min="1574" max="1792" width="9.140625" style="17"/>
+    <col min="1793" max="1793" width="5.140625" style="17" customWidth="1"/>
+    <col min="1794" max="1794" width="12.85546875" style="17" customWidth="1"/>
+    <col min="1795" max="1795" width="37.28515625" style="17" customWidth="1"/>
+    <col min="1796" max="1827" width="5.42578125" style="17" customWidth="1"/>
+    <col min="1828" max="1828" width="13.28515625" style="17" customWidth="1"/>
+    <col min="1829" max="1829" width="12.42578125" style="17" customWidth="1"/>
+    <col min="1830" max="2048" width="9.140625" style="17"/>
+    <col min="2049" max="2049" width="5.140625" style="17" customWidth="1"/>
+    <col min="2050" max="2050" width="12.85546875" style="17" customWidth="1"/>
+    <col min="2051" max="2051" width="37.28515625" style="17" customWidth="1"/>
+    <col min="2052" max="2083" width="5.42578125" style="17" customWidth="1"/>
+    <col min="2084" max="2084" width="13.28515625" style="17" customWidth="1"/>
+    <col min="2085" max="2085" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2086" max="2304" width="9.140625" style="17"/>
+    <col min="2305" max="2305" width="5.140625" style="17" customWidth="1"/>
+    <col min="2306" max="2306" width="12.85546875" style="17" customWidth="1"/>
+    <col min="2307" max="2307" width="37.28515625" style="17" customWidth="1"/>
+    <col min="2308" max="2339" width="5.42578125" style="17" customWidth="1"/>
+    <col min="2340" max="2340" width="13.28515625" style="17" customWidth="1"/>
+    <col min="2341" max="2341" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2342" max="2560" width="9.140625" style="17"/>
+    <col min="2561" max="2561" width="5.140625" style="17" customWidth="1"/>
+    <col min="2562" max="2562" width="12.85546875" style="17" customWidth="1"/>
+    <col min="2563" max="2563" width="37.28515625" style="17" customWidth="1"/>
+    <col min="2564" max="2595" width="5.42578125" style="17" customWidth="1"/>
+    <col min="2596" max="2596" width="13.28515625" style="17" customWidth="1"/>
+    <col min="2597" max="2597" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2598" max="2816" width="9.140625" style="17"/>
+    <col min="2817" max="2817" width="5.140625" style="17" customWidth="1"/>
+    <col min="2818" max="2818" width="12.85546875" style="17" customWidth="1"/>
+    <col min="2819" max="2819" width="37.28515625" style="17" customWidth="1"/>
+    <col min="2820" max="2851" width="5.42578125" style="17" customWidth="1"/>
+    <col min="2852" max="2852" width="13.28515625" style="17" customWidth="1"/>
+    <col min="2853" max="2853" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2854" max="3072" width="9.140625" style="17"/>
+    <col min="3073" max="3073" width="5.140625" style="17" customWidth="1"/>
+    <col min="3074" max="3074" width="12.85546875" style="17" customWidth="1"/>
+    <col min="3075" max="3075" width="37.28515625" style="17" customWidth="1"/>
+    <col min="3076" max="3107" width="5.42578125" style="17" customWidth="1"/>
+    <col min="3108" max="3108" width="13.28515625" style="17" customWidth="1"/>
+    <col min="3109" max="3109" width="12.42578125" style="17" customWidth="1"/>
+    <col min="3110" max="3328" width="9.140625" style="17"/>
+    <col min="3329" max="3329" width="5.140625" style="17" customWidth="1"/>
+    <col min="3330" max="3330" width="12.85546875" style="17" customWidth="1"/>
+    <col min="3331" max="3331" width="37.28515625" style="17" customWidth="1"/>
+    <col min="3332" max="3363" width="5.42578125" style="17" customWidth="1"/>
+    <col min="3364" max="3364" width="13.28515625" style="17" customWidth="1"/>
+    <col min="3365" max="3365" width="12.42578125" style="17" customWidth="1"/>
+    <col min="3366" max="3584" width="9.140625" style="17"/>
+    <col min="3585" max="3585" width="5.140625" style="17" customWidth="1"/>
+    <col min="3586" max="3586" width="12.85546875" style="17" customWidth="1"/>
+    <col min="3587" max="3587" width="37.28515625" style="17" customWidth="1"/>
+    <col min="3588" max="3619" width="5.42578125" style="17" customWidth="1"/>
+    <col min="3620" max="3620" width="13.28515625" style="17" customWidth="1"/>
+    <col min="3621" max="3621" width="12.42578125" style="17" customWidth="1"/>
+    <col min="3622" max="3840" width="9.140625" style="17"/>
+    <col min="3841" max="3841" width="5.140625" style="17" customWidth="1"/>
+    <col min="3842" max="3842" width="12.85546875" style="17" customWidth="1"/>
+    <col min="3843" max="3843" width="37.28515625" style="17" customWidth="1"/>
+    <col min="3844" max="3875" width="5.42578125" style="17" customWidth="1"/>
+    <col min="3876" max="3876" width="13.28515625" style="17" customWidth="1"/>
+    <col min="3877" max="3877" width="12.42578125" style="17" customWidth="1"/>
+    <col min="3878" max="4096" width="9.140625" style="17"/>
+    <col min="4097" max="4097" width="5.140625" style="17" customWidth="1"/>
+    <col min="4098" max="4098" width="12.85546875" style="17" customWidth="1"/>
+    <col min="4099" max="4099" width="37.28515625" style="17" customWidth="1"/>
+    <col min="4100" max="4131" width="5.42578125" style="17" customWidth="1"/>
+    <col min="4132" max="4132" width="13.28515625" style="17" customWidth="1"/>
+    <col min="4133" max="4133" width="12.42578125" style="17" customWidth="1"/>
+    <col min="4134" max="4352" width="9.140625" style="17"/>
+    <col min="4353" max="4353" width="5.140625" style="17" customWidth="1"/>
+    <col min="4354" max="4354" width="12.85546875" style="17" customWidth="1"/>
+    <col min="4355" max="4355" width="37.28515625" style="17" customWidth="1"/>
+    <col min="4356" max="4387" width="5.42578125" style="17" customWidth="1"/>
+    <col min="4388" max="4388" width="13.28515625" style="17" customWidth="1"/>
+    <col min="4389" max="4389" width="12.42578125" style="17" customWidth="1"/>
+    <col min="4390" max="4608" width="9.140625" style="17"/>
+    <col min="4609" max="4609" width="5.140625" style="17" customWidth="1"/>
+    <col min="4610" max="4610" width="12.85546875" style="17" customWidth="1"/>
+    <col min="4611" max="4611" width="37.28515625" style="17" customWidth="1"/>
+    <col min="4612" max="4643" width="5.42578125" style="17" customWidth="1"/>
+    <col min="4644" max="4644" width="13.28515625" style="17" customWidth="1"/>
+    <col min="4645" max="4645" width="12.42578125" style="17" customWidth="1"/>
+    <col min="4646" max="4864" width="9.140625" style="17"/>
+    <col min="4865" max="4865" width="5.140625" style="17" customWidth="1"/>
+    <col min="4866" max="4866" width="12.85546875" style="17" customWidth="1"/>
+    <col min="4867" max="4867" width="37.28515625" style="17" customWidth="1"/>
+    <col min="4868" max="4899" width="5.42578125" style="17" customWidth="1"/>
+    <col min="4900" max="4900" width="13.28515625" style="17" customWidth="1"/>
+    <col min="4901" max="4901" width="12.42578125" style="17" customWidth="1"/>
+    <col min="4902" max="5120" width="9.140625" style="17"/>
+    <col min="5121" max="5121" width="5.140625" style="17" customWidth="1"/>
+    <col min="5122" max="5122" width="12.85546875" style="17" customWidth="1"/>
+    <col min="5123" max="5123" width="37.28515625" style="17" customWidth="1"/>
+    <col min="5124" max="5155" width="5.42578125" style="17" customWidth="1"/>
+    <col min="5156" max="5156" width="13.28515625" style="17" customWidth="1"/>
+    <col min="5157" max="5157" width="12.42578125" style="17" customWidth="1"/>
+    <col min="5158" max="5376" width="9.140625" style="17"/>
+    <col min="5377" max="5377" width="5.140625" style="17" customWidth="1"/>
+    <col min="5378" max="5378" width="12.85546875" style="17" customWidth="1"/>
+    <col min="5379" max="5379" width="37.28515625" style="17" customWidth="1"/>
+    <col min="5380" max="5411" width="5.42578125" style="17" customWidth="1"/>
+    <col min="5412" max="5412" width="13.28515625" style="17" customWidth="1"/>
+    <col min="5413" max="5413" width="12.42578125" style="17" customWidth="1"/>
+    <col min="5414" max="5632" width="9.140625" style="17"/>
+    <col min="5633" max="5633" width="5.140625" style="17" customWidth="1"/>
+    <col min="5634" max="5634" width="12.85546875" style="17" customWidth="1"/>
+    <col min="5635" max="5635" width="37.28515625" style="17" customWidth="1"/>
+    <col min="5636" max="5667" width="5.42578125" style="17" customWidth="1"/>
+    <col min="5668" max="5668" width="13.28515625" style="17" customWidth="1"/>
+    <col min="5669" max="5669" width="12.42578125" style="17" customWidth="1"/>
+    <col min="5670" max="5888" width="9.140625" style="17"/>
+    <col min="5889" max="5889" width="5.140625" style="17" customWidth="1"/>
+    <col min="5890" max="5890" width="12.85546875" style="17" customWidth="1"/>
+    <col min="5891" max="5891" width="37.28515625" style="17" customWidth="1"/>
+    <col min="5892" max="5923" width="5.42578125" style="17" customWidth="1"/>
+    <col min="5924" max="5924" width="13.28515625" style="17" customWidth="1"/>
+    <col min="5925" max="5925" width="12.42578125" style="17" customWidth="1"/>
+    <col min="5926" max="6144" width="9.140625" style="17"/>
+    <col min="6145" max="6145" width="5.140625" style="17" customWidth="1"/>
+    <col min="6146" max="6146" width="12.85546875" style="17" customWidth="1"/>
+    <col min="6147" max="6147" width="37.28515625" style="17" customWidth="1"/>
+    <col min="6148" max="6179" width="5.42578125" style="17" customWidth="1"/>
+    <col min="6180" max="6180" width="13.28515625" style="17" customWidth="1"/>
+    <col min="6181" max="6181" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6182" max="6400" width="9.140625" style="17"/>
+    <col min="6401" max="6401" width="5.140625" style="17" customWidth="1"/>
+    <col min="6402" max="6402" width="12.85546875" style="17" customWidth="1"/>
+    <col min="6403" max="6403" width="37.28515625" style="17" customWidth="1"/>
+    <col min="6404" max="6435" width="5.42578125" style="17" customWidth="1"/>
+    <col min="6436" max="6436" width="13.28515625" style="17" customWidth="1"/>
+    <col min="6437" max="6437" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6438" max="6656" width="9.140625" style="17"/>
+    <col min="6657" max="6657" width="5.140625" style="17" customWidth="1"/>
+    <col min="6658" max="6658" width="12.85546875" style="17" customWidth="1"/>
+    <col min="6659" max="6659" width="37.28515625" style="17" customWidth="1"/>
+    <col min="6660" max="6691" width="5.42578125" style="17" customWidth="1"/>
+    <col min="6692" max="6692" width="13.28515625" style="17" customWidth="1"/>
+    <col min="6693" max="6693" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6694" max="6912" width="9.140625" style="17"/>
+    <col min="6913" max="6913" width="5.140625" style="17" customWidth="1"/>
+    <col min="6914" max="6914" width="12.85546875" style="17" customWidth="1"/>
+    <col min="6915" max="6915" width="37.28515625" style="17" customWidth="1"/>
+    <col min="6916" max="6947" width="5.42578125" style="17" customWidth="1"/>
+    <col min="6948" max="6948" width="13.28515625" style="17" customWidth="1"/>
+    <col min="6949" max="6949" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6950" max="7168" width="9.140625" style="17"/>
+    <col min="7169" max="7169" width="5.140625" style="17" customWidth="1"/>
+    <col min="7170" max="7170" width="12.85546875" style="17" customWidth="1"/>
+    <col min="7171" max="7171" width="37.28515625" style="17" customWidth="1"/>
+    <col min="7172" max="7203" width="5.42578125" style="17" customWidth="1"/>
+    <col min="7204" max="7204" width="13.28515625" style="17" customWidth="1"/>
+    <col min="7205" max="7205" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7206" max="7424" width="9.140625" style="17"/>
+    <col min="7425" max="7425" width="5.140625" style="17" customWidth="1"/>
+    <col min="7426" max="7426" width="12.85546875" style="17" customWidth="1"/>
+    <col min="7427" max="7427" width="37.28515625" style="17" customWidth="1"/>
+    <col min="7428" max="7459" width="5.42578125" style="17" customWidth="1"/>
+    <col min="7460" max="7460" width="13.28515625" style="17" customWidth="1"/>
+    <col min="7461" max="7461" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7462" max="7680" width="9.140625" style="17"/>
+    <col min="7681" max="7681" width="5.140625" style="17" customWidth="1"/>
+    <col min="7682" max="7682" width="12.85546875" style="17" customWidth="1"/>
+    <col min="7683" max="7683" width="37.28515625" style="17" customWidth="1"/>
+    <col min="7684" max="7715" width="5.42578125" style="17" customWidth="1"/>
+    <col min="7716" max="7716" width="13.28515625" style="17" customWidth="1"/>
+    <col min="7717" max="7717" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7718" max="7936" width="9.140625" style="17"/>
+    <col min="7937" max="7937" width="5.140625" style="17" customWidth="1"/>
+    <col min="7938" max="7938" width="12.85546875" style="17" customWidth="1"/>
+    <col min="7939" max="7939" width="37.28515625" style="17" customWidth="1"/>
+    <col min="7940" max="7971" width="5.42578125" style="17" customWidth="1"/>
+    <col min="7972" max="7972" width="13.28515625" style="17" customWidth="1"/>
+    <col min="7973" max="7973" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7974" max="8192" width="9.140625" style="17"/>
+    <col min="8193" max="8193" width="5.140625" style="17" customWidth="1"/>
+    <col min="8194" max="8194" width="12.85546875" style="17" customWidth="1"/>
+    <col min="8195" max="8195" width="37.28515625" style="17" customWidth="1"/>
+    <col min="8196" max="8227" width="5.42578125" style="17" customWidth="1"/>
+    <col min="8228" max="8228" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8229" max="8229" width="12.42578125" style="17" customWidth="1"/>
+    <col min="8230" max="8448" width="9.140625" style="17"/>
+    <col min="8449" max="8449" width="5.140625" style="17" customWidth="1"/>
+    <col min="8450" max="8450" width="12.85546875" style="17" customWidth="1"/>
+    <col min="8451" max="8451" width="37.28515625" style="17" customWidth="1"/>
+    <col min="8452" max="8483" width="5.42578125" style="17" customWidth="1"/>
+    <col min="8484" max="8484" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8485" max="8485" width="12.42578125" style="17" customWidth="1"/>
+    <col min="8486" max="8704" width="9.140625" style="17"/>
+    <col min="8705" max="8705" width="5.140625" style="17" customWidth="1"/>
+    <col min="8706" max="8706" width="12.85546875" style="17" customWidth="1"/>
+    <col min="8707" max="8707" width="37.28515625" style="17" customWidth="1"/>
+    <col min="8708" max="8739" width="5.42578125" style="17" customWidth="1"/>
+    <col min="8740" max="8740" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8741" max="8741" width="12.42578125" style="17" customWidth="1"/>
+    <col min="8742" max="8960" width="9.140625" style="17"/>
+    <col min="8961" max="8961" width="5.140625" style="17" customWidth="1"/>
+    <col min="8962" max="8962" width="12.85546875" style="17" customWidth="1"/>
+    <col min="8963" max="8963" width="37.28515625" style="17" customWidth="1"/>
+    <col min="8964" max="8995" width="5.42578125" style="17" customWidth="1"/>
+    <col min="8996" max="8996" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8997" max="8997" width="12.42578125" style="17" customWidth="1"/>
+    <col min="8998" max="9216" width="9.140625" style="17"/>
+    <col min="9217" max="9217" width="5.140625" style="17" customWidth="1"/>
+    <col min="9218" max="9218" width="12.85546875" style="17" customWidth="1"/>
+    <col min="9219" max="9219" width="37.28515625" style="17" customWidth="1"/>
+    <col min="9220" max="9251" width="5.42578125" style="17" customWidth="1"/>
+    <col min="9252" max="9252" width="13.28515625" style="17" customWidth="1"/>
+    <col min="9253" max="9253" width="12.42578125" style="17" customWidth="1"/>
+    <col min="9254" max="9472" width="9.140625" style="17"/>
+    <col min="9473" max="9473" width="5.140625" style="17" customWidth="1"/>
+    <col min="9474" max="9474" width="12.85546875" style="17" customWidth="1"/>
+    <col min="9475" max="9475" width="37.28515625" style="17" customWidth="1"/>
+    <col min="9476" max="9507" width="5.42578125" style="17" customWidth="1"/>
+    <col min="9508" max="9508" width="13.28515625" style="17" customWidth="1"/>
+    <col min="9509" max="9509" width="12.42578125" style="17" customWidth="1"/>
+    <col min="9510" max="9728" width="9.140625" style="17"/>
+    <col min="9729" max="9729" width="5.140625" style="17" customWidth="1"/>
+    <col min="9730" max="9730" width="12.85546875" style="17" customWidth="1"/>
+    <col min="9731" max="9731" width="37.28515625" style="17" customWidth="1"/>
+    <col min="9732" max="9763" width="5.42578125" style="17" customWidth="1"/>
+    <col min="9764" max="9764" width="13.28515625" style="17" customWidth="1"/>
+    <col min="9765" max="9765" width="12.42578125" style="17" customWidth="1"/>
+    <col min="9766" max="9984" width="9.140625" style="17"/>
+    <col min="9985" max="9985" width="5.140625" style="17" customWidth="1"/>
+    <col min="9986" max="9986" width="12.85546875" style="17" customWidth="1"/>
+    <col min="9987" max="9987" width="37.28515625" style="17" customWidth="1"/>
+    <col min="9988" max="10019" width="5.42578125" style="17" customWidth="1"/>
+    <col min="10020" max="10020" width="13.28515625" style="17" customWidth="1"/>
+    <col min="10021" max="10021" width="12.42578125" style="17" customWidth="1"/>
+    <col min="10022" max="10240" width="9.140625" style="17"/>
+    <col min="10241" max="10241" width="5.140625" style="17" customWidth="1"/>
+    <col min="10242" max="10242" width="12.85546875" style="17" customWidth="1"/>
+    <col min="10243" max="10243" width="37.28515625" style="17" customWidth="1"/>
+    <col min="10244" max="10275" width="5.42578125" style="17" customWidth="1"/>
+    <col min="10276" max="10276" width="13.28515625" style="17" customWidth="1"/>
+    <col min="10277" max="10277" width="12.42578125" style="17" customWidth="1"/>
+    <col min="10278" max="10496" width="9.140625" style="17"/>
+    <col min="10497" max="10497" width="5.140625" style="17" customWidth="1"/>
+    <col min="10498" max="10498" width="12.85546875" style="17" customWidth="1"/>
+    <col min="10499" max="10499" width="37.28515625" style="17" customWidth="1"/>
+    <col min="10500" max="10531" width="5.42578125" style="17" customWidth="1"/>
+    <col min="10532" max="10532" width="13.28515625" style="17" customWidth="1"/>
+    <col min="10533" max="10533" width="12.42578125" style="17" customWidth="1"/>
+    <col min="10534" max="10752" width="9.140625" style="17"/>
+    <col min="10753" max="10753" width="5.140625" style="17" customWidth="1"/>
+    <col min="10754" max="10754" width="12.85546875" style="17" customWidth="1"/>
+    <col min="10755" max="10755" width="37.28515625" style="17" customWidth="1"/>
+    <col min="10756" max="10787" width="5.42578125" style="17" customWidth="1"/>
+    <col min="10788" max="10788" width="13.28515625" style="17" customWidth="1"/>
+    <col min="10789" max="10789" width="12.42578125" style="17" customWidth="1"/>
+    <col min="10790" max="11008" width="9.140625" style="17"/>
+    <col min="11009" max="11009" width="5.140625" style="17" customWidth="1"/>
+    <col min="11010" max="11010" width="12.85546875" style="17" customWidth="1"/>
+    <col min="11011" max="11011" width="37.28515625" style="17" customWidth="1"/>
+    <col min="11012" max="11043" width="5.42578125" style="17" customWidth="1"/>
+    <col min="11044" max="11044" width="13.28515625" style="17" customWidth="1"/>
+    <col min="11045" max="11045" width="12.42578125" style="17" customWidth="1"/>
+    <col min="11046" max="11264" width="9.140625" style="17"/>
+    <col min="11265" max="11265" width="5.140625" style="17" customWidth="1"/>
+    <col min="11266" max="11266" width="12.85546875" style="17" customWidth="1"/>
+    <col min="11267" max="11267" width="37.28515625" style="17" customWidth="1"/>
+    <col min="11268" max="11299" width="5.42578125" style="17" customWidth="1"/>
+    <col min="11300" max="11300" width="13.28515625" style="17" customWidth="1"/>
+    <col min="11301" max="11301" width="12.42578125" style="17" customWidth="1"/>
+    <col min="11302" max="11520" width="9.140625" style="17"/>
+    <col min="11521" max="11521" width="5.140625" style="17" customWidth="1"/>
+    <col min="11522" max="11522" width="12.85546875" style="17" customWidth="1"/>
+    <col min="11523" max="11523" width="37.28515625" style="17" customWidth="1"/>
+    <col min="11524" max="11555" width="5.42578125" style="17" customWidth="1"/>
+    <col min="11556" max="11556" width="13.28515625" style="17" customWidth="1"/>
+    <col min="11557" max="11557" width="12.42578125" style="17" customWidth="1"/>
+    <col min="11558" max="11776" width="9.140625" style="17"/>
+    <col min="11777" max="11777" width="5.140625" style="17" customWidth="1"/>
+    <col min="11778" max="11778" width="12.85546875" style="17" customWidth="1"/>
+    <col min="11779" max="11779" width="37.28515625" style="17" customWidth="1"/>
+    <col min="11780" max="11811" width="5.42578125" style="17" customWidth="1"/>
+    <col min="11812" max="11812" width="13.28515625" style="17" customWidth="1"/>
+    <col min="11813" max="11813" width="12.42578125" style="17" customWidth="1"/>
+    <col min="11814" max="12032" width="9.140625" style="17"/>
+    <col min="12033" max="12033" width="5.140625" style="17" customWidth="1"/>
+    <col min="12034" max="12034" width="12.85546875" style="17" customWidth="1"/>
+    <col min="12035" max="12035" width="37.28515625" style="17" customWidth="1"/>
+    <col min="12036" max="12067" width="5.42578125" style="17" customWidth="1"/>
+    <col min="12068" max="12068" width="13.28515625" style="17" customWidth="1"/>
+    <col min="12069" max="12069" width="12.42578125" style="17" customWidth="1"/>
+    <col min="12070" max="12288" width="9.140625" style="17"/>
+    <col min="12289" max="12289" width="5.140625" style="17" customWidth="1"/>
+    <col min="12290" max="12290" width="12.85546875" style="17" customWidth="1"/>
+    <col min="12291" max="12291" width="37.28515625" style="17" customWidth="1"/>
+    <col min="12292" max="12323" width="5.42578125" style="17" customWidth="1"/>
+    <col min="12324" max="12324" width="13.28515625" style="17" customWidth="1"/>
+    <col min="12325" max="12325" width="12.42578125" style="17" customWidth="1"/>
+    <col min="12326" max="12544" width="9.140625" style="17"/>
+    <col min="12545" max="12545" width="5.140625" style="17" customWidth="1"/>
+    <col min="12546" max="12546" width="12.85546875" style="17" customWidth="1"/>
+    <col min="12547" max="12547" width="37.28515625" style="17" customWidth="1"/>
+    <col min="12548" max="12579" width="5.42578125" style="17" customWidth="1"/>
+    <col min="12580" max="12580" width="13.28515625" style="17" customWidth="1"/>
+    <col min="12581" max="12581" width="12.42578125" style="17" customWidth="1"/>
+    <col min="12582" max="12800" width="9.140625" style="17"/>
+    <col min="12801" max="12801" width="5.140625" style="17" customWidth="1"/>
+    <col min="12802" max="12802" width="12.85546875" style="17" customWidth="1"/>
+    <col min="12803" max="12803" width="37.28515625" style="17" customWidth="1"/>
+    <col min="12804" max="12835" width="5.42578125" style="17" customWidth="1"/>
+    <col min="12836" max="12836" width="13.28515625" style="17" customWidth="1"/>
+    <col min="12837" max="12837" width="12.42578125" style="17" customWidth="1"/>
+    <col min="12838" max="13056" width="9.140625" style="17"/>
+    <col min="13057" max="13057" width="5.140625" style="17" customWidth="1"/>
+    <col min="13058" max="13058" width="12.85546875" style="17" customWidth="1"/>
+    <col min="13059" max="13059" width="37.28515625" style="17" customWidth="1"/>
+    <col min="13060" max="13091" width="5.42578125" style="17" customWidth="1"/>
+    <col min="13092" max="13092" width="13.28515625" style="17" customWidth="1"/>
+    <col min="13093" max="13093" width="12.42578125" style="17" customWidth="1"/>
+    <col min="13094" max="13312" width="9.140625" style="17"/>
+    <col min="13313" max="13313" width="5.140625" style="17" customWidth="1"/>
+    <col min="13314" max="13314" width="12.85546875" style="17" customWidth="1"/>
+    <col min="13315" max="13315" width="37.28515625" style="17" customWidth="1"/>
+    <col min="13316" max="13347" width="5.42578125" style="17" customWidth="1"/>
+    <col min="13348" max="13348" width="13.28515625" style="17" customWidth="1"/>
+    <col min="13349" max="13349" width="12.42578125" style="17" customWidth="1"/>
+    <col min="13350" max="13568" width="9.140625" style="17"/>
+    <col min="13569" max="13569" width="5.140625" style="17" customWidth="1"/>
+    <col min="13570" max="13570" width="12.85546875" style="17" customWidth="1"/>
+    <col min="13571" max="13571" width="37.28515625" style="17" customWidth="1"/>
+    <col min="13572" max="13603" width="5.42578125" style="17" customWidth="1"/>
+    <col min="13604" max="13604" width="13.28515625" style="17" customWidth="1"/>
+    <col min="13605" max="13605" width="12.42578125" style="17" customWidth="1"/>
+    <col min="13606" max="13824" width="9.140625" style="17"/>
+    <col min="13825" max="13825" width="5.140625" style="17" customWidth="1"/>
+    <col min="13826" max="13826" width="12.85546875" style="17" customWidth="1"/>
+    <col min="13827" max="13827" width="37.28515625" style="17" customWidth="1"/>
+    <col min="13828" max="13859" width="5.42578125" style="17" customWidth="1"/>
+    <col min="13860" max="13860" width="13.28515625" style="17" customWidth="1"/>
+    <col min="13861" max="13861" width="12.42578125" style="17" customWidth="1"/>
+    <col min="13862" max="14080" width="9.140625" style="17"/>
+    <col min="14081" max="14081" width="5.140625" style="17" customWidth="1"/>
+    <col min="14082" max="14082" width="12.85546875" style="17" customWidth="1"/>
+    <col min="14083" max="14083" width="37.28515625" style="17" customWidth="1"/>
+    <col min="14084" max="14115" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14116" max="14116" width="13.28515625" style="17" customWidth="1"/>
+    <col min="14117" max="14117" width="12.42578125" style="17" customWidth="1"/>
+    <col min="14118" max="14336" width="9.140625" style="17"/>
+    <col min="14337" max="14337" width="5.140625" style="17" customWidth="1"/>
+    <col min="14338" max="14338" width="12.85546875" style="17" customWidth="1"/>
+    <col min="14339" max="14339" width="37.28515625" style="17" customWidth="1"/>
+    <col min="14340" max="14371" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14372" max="14372" width="13.28515625" style="17" customWidth="1"/>
+    <col min="14373" max="14373" width="12.42578125" style="17" customWidth="1"/>
+    <col min="14374" max="14592" width="9.140625" style="17"/>
+    <col min="14593" max="14593" width="5.140625" style="17" customWidth="1"/>
+    <col min="14594" max="14594" width="12.85546875" style="17" customWidth="1"/>
+    <col min="14595" max="14595" width="37.28515625" style="17" customWidth="1"/>
+    <col min="14596" max="14627" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14628" max="14628" width="13.28515625" style="17" customWidth="1"/>
+    <col min="14629" max="14629" width="12.42578125" style="17" customWidth="1"/>
+    <col min="14630" max="14848" width="9.140625" style="17"/>
+    <col min="14849" max="14849" width="5.140625" style="17" customWidth="1"/>
+    <col min="14850" max="14850" width="12.85546875" style="17" customWidth="1"/>
+    <col min="14851" max="14851" width="37.28515625" style="17" customWidth="1"/>
+    <col min="14852" max="14883" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14884" max="14884" width="13.28515625" style="17" customWidth="1"/>
+    <col min="14885" max="14885" width="12.42578125" style="17" customWidth="1"/>
+    <col min="14886" max="15104" width="9.140625" style="17"/>
+    <col min="15105" max="15105" width="5.140625" style="17" customWidth="1"/>
+    <col min="15106" max="15106" width="12.85546875" style="17" customWidth="1"/>
+    <col min="15107" max="15107" width="37.28515625" style="17" customWidth="1"/>
+    <col min="15108" max="15139" width="5.42578125" style="17" customWidth="1"/>
+    <col min="15140" max="15140" width="13.28515625" style="17" customWidth="1"/>
+    <col min="15141" max="15141" width="12.42578125" style="17" customWidth="1"/>
+    <col min="15142" max="15360" width="9.140625" style="17"/>
+    <col min="15361" max="15361" width="5.140625" style="17" customWidth="1"/>
+    <col min="15362" max="15362" width="12.85546875" style="17" customWidth="1"/>
+    <col min="15363" max="15363" width="37.28515625" style="17" customWidth="1"/>
+    <col min="15364" max="15395" width="5.42578125" style="17" customWidth="1"/>
+    <col min="15396" max="15396" width="13.28515625" style="17" customWidth="1"/>
+    <col min="15397" max="15397" width="12.42578125" style="17" customWidth="1"/>
+    <col min="15398" max="15616" width="9.140625" style="17"/>
+    <col min="15617" max="15617" width="5.140625" style="17" customWidth="1"/>
+    <col min="15618" max="15618" width="12.85546875" style="17" customWidth="1"/>
+    <col min="15619" max="15619" width="37.28515625" style="17" customWidth="1"/>
+    <col min="15620" max="15651" width="5.42578125" style="17" customWidth="1"/>
+    <col min="15652" max="15652" width="13.28515625" style="17" customWidth="1"/>
+    <col min="15653" max="15653" width="12.42578125" style="17" customWidth="1"/>
+    <col min="15654" max="15872" width="9.140625" style="17"/>
+    <col min="15873" max="15873" width="5.140625" style="17" customWidth="1"/>
+    <col min="15874" max="15874" width="12.85546875" style="17" customWidth="1"/>
+    <col min="15875" max="15875" width="37.28515625" style="17" customWidth="1"/>
+    <col min="15876" max="15907" width="5.42578125" style="17" customWidth="1"/>
+    <col min="15908" max="15908" width="13.28515625" style="17" customWidth="1"/>
+    <col min="15909" max="15909" width="12.42578125" style="17" customWidth="1"/>
+    <col min="15910" max="16128" width="9.140625" style="17"/>
+    <col min="16129" max="16129" width="5.140625" style="17" customWidth="1"/>
+    <col min="16130" max="16130" width="12.85546875" style="17" customWidth="1"/>
+    <col min="16131" max="16131" width="37.28515625" style="17" customWidth="1"/>
+    <col min="16132" max="16163" width="5.42578125" style="17" customWidth="1"/>
+    <col min="16164" max="16164" width="13.28515625" style="17" customWidth="1"/>
+    <col min="16165" max="16165" width="12.42578125" style="17" customWidth="1"/>
+    <col min="16166" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="16"/>
     </row>
     <row r="2" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
     </row>
     <row r="3" spans="1:37" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="27" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="62"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="60"/>
     </row>
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="62"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="60"/>
     </row>
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="62"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="60"/>
     </row>
     <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="40"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="39"/>
     </row>
     <row r="8" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="142" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="142" t="s">
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="48" t="s">
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AJ8" s="49">
+      <c r="AJ8" s="179">
         <f>SUM(AJ5:AJ7)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="50"/>
+      <c r="AK8" s="48"/>
     </row>
     <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="142" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="142" t="s">
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54"/>
     </row>
     <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="142" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
     </row>
     <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="54"/>
-      <c r="E11" s="142" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="131"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
     </row>
     <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5321,174 +5071,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E531E95-4C09-46AA-9AEA-D2D9D8161396}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="63" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="63" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="178" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="175"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="175"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="176" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="177"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5497,6 +5162,7 @@
     <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5505,12 +5171,12 @@
   <dimension ref="A2:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="151" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
@@ -5519,322 +5185,312 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="153"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="153"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="76" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="191"/>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
-      <c r="AD4" s="191"/>
-      <c r="AE4" s="191"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
     </row>
     <row r="6" spans="1:40" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="154"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="154"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="136"/>
+      <c r="AH6" s="136"/>
+      <c r="AI6" s="136"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="147"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="80"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="133"/>
+      <c r="AL7" s="134"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="70"/>
     </row>
     <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="F12" s="44"/>
-      <c r="G12" s="142" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="142" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="131"/>
     </row>
     <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="F13" s="53"/>
-      <c r="G13" s="142" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="142" t="s">
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="131"/>
     </row>
     <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="F14" s="58"/>
-      <c r="G14" s="142" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="F15" s="54"/>
-      <c r="G15" s="142" t="s">
+      <c r="F15" s="52"/>
+      <c r="G15" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="2">
